--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447270A0-60BA-4A01-8FF2-F2E05029B05F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E898C45-90D0-45F9-894D-0921FE3C32BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InApkStringTable" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$279</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="644">
   <si>
     <t>확인</t>
   </si>
@@ -2747,6 +2747,24 @@
   </si>
   <si>
     <t>eng|String</t>
+  </si>
+  <si>
+    <t>GameUI_Pause</t>
+  </si>
+  <si>
+    <t>일시정지</t>
+  </si>
+  <si>
+    <t>GameUI_GameSetting</t>
+  </si>
+  <si>
+    <t>게임설정</t>
+  </si>
+  <si>
+    <t>GameUI_EmptyLevelPack</t>
+  </si>
+  <si>
+    <t>획득한 전투팩이 없습니다</t>
   </si>
 </sst>
 </file>
@@ -3150,7 +3168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3162,8 +3180,8 @@
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="97.25" customWidth="1"/>
+    <col min="2" max="2" width="7.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="97.25" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="78.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3202,7 +3220,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">COUNTIF(A:A,A3)</f>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3217,7 +3235,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -3232,7 +3250,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -3247,7 +3265,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3277,7 +3295,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3292,7 +3310,7 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3307,7 +3325,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -3322,7 +3340,7 @@
         <v>422</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3337,7 +3355,7 @@
         <v>423</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3352,7 +3370,7 @@
         <v>424</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3367,7 +3385,7 @@
         <v>425</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3382,7 +3400,7 @@
         <v>426</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3397,7 +3415,7 @@
         <v>427</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3412,7 +3430,7 @@
         <v>428</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3427,7 +3445,7 @@
         <v>429</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3442,7 +3460,7 @@
         <v>430</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3457,7 +3475,7 @@
         <v>431</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3472,7 +3490,7 @@
         <v>432</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -3487,7 +3505,7 @@
         <v>433</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -3502,7 +3520,7 @@
         <v>434</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -3517,7 +3535,7 @@
         <v>435</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -3532,7 +3550,7 @@
         <v>436</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -3547,7 +3565,7 @@
         <v>437</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -3562,7 +3580,7 @@
         <v>438</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -3577,7 +3595,7 @@
         <v>439</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -3592,7 +3610,7 @@
         <v>440</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -3607,7 +3625,7 @@
         <v>441</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -3622,7 +3640,7 @@
         <v>442</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -3637,7 +3655,7 @@
         <v>443</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -3652,7 +3670,7 @@
         <v>444</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -3667,7 +3685,7 @@
         <v>445</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -3682,7 +3700,7 @@
         <v>446</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -3697,7 +3715,7 @@
         <v>447</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -3712,7 +3730,7 @@
         <v>448</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -3727,7 +3745,7 @@
         <v>449</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -3742,7 +3760,7 @@
         <v>450</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -3757,7 +3775,7 @@
         <v>451</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -3772,7 +3790,7 @@
         <v>361</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3787,7 +3805,7 @@
         <v>362</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3802,7 +3820,7 @@
         <v>363</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3817,7 +3835,7 @@
         <v>364</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -3832,7 +3850,7 @@
         <v>504</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3847,7 +3865,7 @@
         <v>505</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3862,7 +3880,7 @@
         <v>506</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3877,7 +3895,7 @@
         <v>507</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3892,7 +3910,7 @@
         <v>508</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3907,7 +3925,7 @@
         <v>509</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3922,7 +3940,7 @@
         <v>510</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3937,7 +3955,7 @@
         <v>511</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -3952,7 +3970,7 @@
         <v>117</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3967,7 +3985,7 @@
         <v>625</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -3982,7 +4000,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -3997,7 +4015,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4012,7 +4030,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4027,7 +4045,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4042,7 +4060,7 @@
         <v>30</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -4057,7 +4075,7 @@
         <v>306</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4072,7 +4090,7 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -4084,580 +4102,580 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>638</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B62:B65" si="0">COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" t="s">
-        <v>41</v>
+        <v>639</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" ref="D62:D64" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <v>In progress of translating…(62)</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>352</v>
+        <v>640</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>354</v>
-      </c>
-      <c r="D63" t="s">
-        <v>356</v>
+        <v>641</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(63)</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>642</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>355</v>
-      </c>
-      <c r="D64" t="s">
-        <v>357</v>
+        <v>643</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(64)</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A66)</f>
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>354</v>
+      </c>
+      <c r="D66" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="1">COUNTIF(A:A,A67)</f>
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D68" si="2">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(67)</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A67)</f>
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>355</v>
+      </c>
+      <c r="D67" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>621</v>
+        <v>29</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="2"/>
-        <v>In progress of translating…(68)</v>
+        <f>COUNTIF(A:A,A68)</f>
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D69" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>421</v>
+        <v>351</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" ref="D70:D71" si="2">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <v>In progress of translating…(70)</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>494</v>
+        <v>621</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D71" t="s">
-        <v>496</v>
+        <v>620</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="2"/>
+        <v>In progress of translating…(71)</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>492</v>
+        <v>358</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>493</v>
+        <v>359</v>
       </c>
       <c r="D72" t="s">
-        <v>499</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>497</v>
+        <v>421</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
+      </c>
+      <c r="D74" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>584</v>
+        <v>493</v>
+      </c>
+      <c r="D75" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>589</v>
+        <v>497</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>498</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" t="s">
-        <v>71</v>
+        <f>COUNTIF(A:A,A77)</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>501</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>75</v>
-      </c>
-      <c r="D78" t="s">
-        <v>76</v>
+        <f>COUNTIF(A:A,A78)</f>
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>589</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C79" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" t="s">
-        <v>72</v>
+        <f>COUNTIF(A:A,A79)</f>
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D82" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="D83" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D85" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>593</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>595</v>
-      </c>
-      <c r="D86" t="str">
-        <f t="shared" ref="D86" si="3">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(86)</v>
+        <v>79</v>
+      </c>
+      <c r="D86" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>302</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="D87" t="s">
-        <v>594</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>623</v>
+        <v>81</v>
       </c>
       <c r="D88" t="s">
-        <v>622</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>630</v>
+        <v>593</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" ref="D89:D92" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D89" si="3">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(89)</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>631</v>
+        <v>302</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>629</v>
-      </c>
-      <c r="D90" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(90)</v>
+        <v>303</v>
+      </c>
+      <c r="D90" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>632</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>626</v>
-      </c>
-      <c r="D91" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(91)</v>
+        <v>623</v>
+      </c>
+      <c r="D91" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D92:D95" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(92)</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>631</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D93" t="s">
-        <v>93</v>
+        <f>COUNTIF(A:A,A93)</f>
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>629</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="4"/>
+        <v>In progress of translating…(93)</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>632</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
-      </c>
-      <c r="D94" t="s">
-        <v>94</v>
+        <v>626</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="4"/>
+        <v>In progress of translating…(94)</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>633</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>136</v>
+        <f>COUNTIF(A:A,A95)</f>
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>627</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" ref="D95:D169" si="5">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(95)</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A96)</f>
         <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D96" t="str">
-        <f t="shared" si="5"/>
-        <v>In progress of translating…(96)</v>
+        <v>134</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A97)</f>
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" si="5"/>
-        <v>In progress of translating…(97)</v>
+        <v>135</v>
+      </c>
+      <c r="D97" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D98:D172" si="5">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(98)</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="5"/>
@@ -4666,14 +4684,14 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="5"/>
@@ -4682,14 +4700,14 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="5"/>
@@ -4698,14 +4716,14 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="5"/>
@@ -4714,14 +4732,14 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="5"/>
@@ -4730,14 +4748,14 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="5"/>
@@ -4746,14 +4764,14 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A105)</f>
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="5"/>
@@ -4762,14 +4780,14 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>160</v>
+        <f>COUNTIF(A:A,A106)</f>
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>141</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="5"/>
@@ -4778,14 +4796,14 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="5"/>
@@ -4794,14 +4812,14 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="5"/>
@@ -4810,14 +4828,14 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="5"/>
@@ -4826,14 +4844,14 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="5"/>
@@ -4842,14 +4860,14 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="5"/>
@@ -4858,14 +4876,14 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="5"/>
@@ -4874,14 +4892,14 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="5"/>
@@ -4890,14 +4908,14 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="5"/>
@@ -4906,14 +4924,14 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="5"/>
@@ -4922,14 +4940,14 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B116">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A116)</f>
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="5"/>
@@ -4938,14 +4956,14 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="5"/>
@@ -4954,14 +4972,14 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="5"/>
@@ -4970,46 +4988,46 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>267</v>
+        <v>163</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(119)</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c r="B120">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(120)</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="B121">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="5"/>
@@ -5018,62 +5036,62 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B122">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(122)</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="B123">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(123)</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="B124">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(124)</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B125">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="5"/>
@@ -5082,14 +5100,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B126">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="5"/>
@@ -5098,14 +5116,14 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B127">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="5"/>
@@ -5114,46 +5132,46 @@
     </row>
     <row r="128" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B128">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(128)</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B129">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B130">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>297</v>
+        <v>175</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="5"/>
@@ -5162,62 +5180,62 @@
     </row>
     <row r="131" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="6">COUNTIF(A:A,A131)</f>
+        <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(131)</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B132">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B133">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B134">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="5"/>
@@ -5226,14 +5244,14 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B135">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="5"/>
@@ -5242,30 +5260,30 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B136">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(136)</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B137">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="5"/>
@@ -5274,14 +5292,14 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>304</v>
+        <v>184</v>
       </c>
       <c r="B138">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="5"/>
@@ -5290,30 +5308,30 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B139">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="5"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B140">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>188</v>
+        <v>247</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="5"/>
@@ -5322,14 +5340,14 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="B141">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="5"/>
@@ -5338,14 +5356,14 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B142">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="5"/>
@@ -5354,14 +5372,14 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B143">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="5"/>
@@ -5370,14 +5388,14 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="B144">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C144" t="s">
-        <v>272</v>
+        <f>COUNTIF(A:A,A144)</f>
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="5"/>
@@ -5386,14 +5404,14 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="B145">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C145" t="s">
-        <v>273</v>
+        <f>COUNTIF(A:A,A145)</f>
+        <v>1</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="5"/>
@@ -5402,14 +5420,14 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="B146">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>274</v>
+        <f>COUNTIF(A:A,A146)</f>
+        <v>1</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="5"/>
@@ -5418,14 +5436,14 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B147">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
       <c r="C147" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="5"/>
@@ -5434,14 +5452,14 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B148">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="5"/>
@@ -5450,14 +5468,14 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B149">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="5"/>
@@ -5466,14 +5484,14 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B150">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="5"/>
@@ -5482,14 +5500,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B151">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A151)</f>
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="5"/>
@@ -5498,14 +5516,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B152">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A152)</f>
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="5"/>
@@ -5514,14 +5532,14 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B153">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A153)</f>
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="5"/>
@@ -5530,14 +5548,14 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B154">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A154)</f>
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="5"/>
@@ -5546,14 +5564,14 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B155">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A155)</f>
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="5"/>
@@ -5562,14 +5580,14 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B156">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A156)</f>
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="5"/>
@@ -5578,14 +5596,14 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B157">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="5"/>
@@ -5594,14 +5612,14 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="B158">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="5"/>
@@ -5610,14 +5628,14 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B159">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="5"/>
@@ -5626,14 +5644,14 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="B160">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="5"/>
@@ -5642,14 +5660,14 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B161">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="5"/>
@@ -5658,14 +5676,14 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B162">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="5"/>
@@ -5674,14 +5692,14 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B163">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="5"/>
@@ -5690,14 +5708,14 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B164">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="5"/>
@@ -5706,14 +5724,14 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B165">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="5"/>
@@ -5722,14 +5740,14 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B166">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="5"/>
@@ -5738,14 +5756,14 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B167">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="5"/>
@@ -5754,14 +5772,14 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B168">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="5"/>
@@ -5770,14 +5788,14 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>207</v>
+        <v>114</v>
       </c>
       <c r="B169">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="5"/>
@@ -5786,1706 +5804,1754 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>209</v>
+        <v>115</v>
       </c>
       <c r="B170">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" ref="D170:D276" si="7">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>245</v>
+        <v>116</v>
       </c>
       <c r="B171">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B172">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>290</v>
+        <v>208</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B173">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D173:D279" si="6">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(173)</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B174">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(174)</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B175">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(175)</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B176">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(176)</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B177">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>218</v>
+        <v>292</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(177)</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B178">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>220</v>
+        <v>295</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(178)</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B179">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(179)</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B180">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B181">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A181)</f>
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>299</v>
+        <v>220</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B182">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A182)</f>
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B183">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A183)</f>
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B184">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B185">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B186">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B187">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B188">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>301</v>
+        <v>230</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="B189">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>293</v>
+        <v>232</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="B190">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B191">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="B192">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>237</v>
+        <v>293</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B193">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B194">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>379</v>
+        <v>236</v>
       </c>
       <c r="B195">
-        <f t="shared" ref="B195:B258" si="8">COUNTIF(A:A,A195)</f>
+        <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>400</v>
+        <v>237</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>380</v>
+        <v>238</v>
       </c>
       <c r="B196">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>401</v>
+        <v>294</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>381</v>
+        <v>239</v>
       </c>
       <c r="B197">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>402</v>
+        <v>240</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B198">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A198)</f>
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B199">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A199)</f>
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B200">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A200)</f>
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B201">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A201)</f>
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B202">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A202)</f>
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B203">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A203)</f>
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B204">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A204)</f>
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B205">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A205)</f>
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B206">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A206)</f>
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B207">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A207)</f>
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B208">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B209">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B210">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B211">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B212">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B213">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B214">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B215">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>544</v>
+        <v>397</v>
       </c>
       <c r="B216">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>552</v>
+        <v>418</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>545</v>
+        <v>398</v>
       </c>
       <c r="B217">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>553</v>
+        <v>419</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>546</v>
+        <v>399</v>
       </c>
       <c r="B218">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>554</v>
+        <v>420</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B219">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B220">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B221">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B222">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B223">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>309</v>
+        <v>549</v>
       </c>
       <c r="B224">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(224)</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="B225">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>330</v>
+        <v>558</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(225)</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>311</v>
+        <v>551</v>
       </c>
       <c r="B226">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>331</v>
+        <v>559</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(226)</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B227">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>332</v>
+        <v>592</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(227)</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B228">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(228)</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B229">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(229)</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B230">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>582</v>
+        <v>332</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(230)</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B231">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(231)</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B232">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(232)</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B233">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>337</v>
+        <v>582</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(233)</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B234">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(234)</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B235">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(235)</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B236">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(236)</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B237">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(237)</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B238">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(238)</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B239">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(239)</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B240">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(240)</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B241">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(241)</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B242">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(242)</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B243">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(243)</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B244">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>567</v>
+        <v>345</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(244)</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>560</v>
+        <v>327</v>
       </c>
       <c r="B245">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>568</v>
+        <v>346</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(245)</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>561</v>
+        <v>328</v>
       </c>
       <c r="B246">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>569</v>
+        <v>347</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(246)</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>562</v>
+        <v>329</v>
       </c>
       <c r="B247">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(247)</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B248">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(248)</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B249">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A249)</f>
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(249)</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B250">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(250)</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B251">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(251)</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B252">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(252)</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="B253">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A253)</f>
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>523</v>
-      </c>
-      <c r="D253" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+      <c r="D253" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(253)</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="B254">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>525</v>
+        <f>COUNTIF(A:A,A254)</f>
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>574</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(254)</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
+        <v>580</v>
+      </c>
+      <c r="B255">
+        <f>COUNTIF(A:A,A255)</f>
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>581</v>
+      </c>
+      <c r="D255" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(255)</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>530</v>
+      </c>
+      <c r="B256">
+        <f>COUNTIF(A:A,A256)</f>
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>523</v>
+      </c>
+      <c r="D256" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>531</v>
+      </c>
+      <c r="B257">
+        <f>COUNTIF(A:A,A257)</f>
+        <v>1</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D257" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(257)</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
         <v>532</v>
       </c>
-      <c r="B255">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="C255" t="s">
+      <c r="B258">
+        <f>COUNTIF(A:A,A258)</f>
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
         <v>526</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D258" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row r="259" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
         <v>533</v>
       </c>
-      <c r="B256">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="C256" s="1" t="s">
+      <c r="B259">
+        <f>COUNTIF(A:A,A259)</f>
+        <v>1</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D256" t="str">
-        <f t="shared" si="7"/>
-        <v>In progress of translating…(256)</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+      <c r="D259" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(259)</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
         <v>534</v>
       </c>
-      <c r="B257">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="B260">
+        <f>COUNTIF(A:A,A260)</f>
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
         <v>528</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D260" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    <row r="261" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
         <v>535</v>
       </c>
-      <c r="B258">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="C258" s="1" t="s">
+      <c r="B261">
+        <f>COUNTIF(A:A,A261)</f>
+        <v>1</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D258" t="str">
-        <f t="shared" si="7"/>
-        <v>In progress of translating…(258)</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>536</v>
-      </c>
-      <c r="B259">
-        <f t="shared" ref="B259:B276" si="9">COUNTIF(A:A,A259)</f>
-        <v>1</v>
-      </c>
-      <c r="C259" t="s">
-        <v>529</v>
-      </c>
-      <c r="D259" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>537</v>
-      </c>
-      <c r="B260">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D260" t="str">
-        <f t="shared" si="7"/>
-        <v>In progress of translating…(260)</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>604</v>
-      </c>
-      <c r="B261">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D261" t="s">
-        <v>610</v>
+      <c r="D261" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(261)</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>605</v>
+        <v>536</v>
       </c>
       <c r="B262">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>608</v>
+        <f>COUNTIF(A:A,A262)</f>
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>529</v>
       </c>
       <c r="D262" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>596</v>
+        <v>537</v>
       </c>
       <c r="B263">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="C263" t="s">
-        <v>598</v>
-      </c>
-      <c r="D263" t="s">
-        <v>612</v>
+        <f>COUNTIF(A:A,A263)</f>
+        <v>1</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(263)</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B264">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A264)</f>
         <v>1</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D264" t="str">
-        <f t="shared" si="7"/>
-        <v>In progress of translating…(264)</v>
+        <v>607</v>
+      </c>
+      <c r="D264" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B265">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A265)</f>
         <v>1</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D265" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="B266">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D266" t="str">
-        <f t="shared" si="7"/>
-        <v>In progress of translating…(266)</v>
+        <f>COUNTIF(A:A,A266)</f>
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>598</v>
+      </c>
+      <c r="D266" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B267">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A267)</f>
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(267)</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B268">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="C268" t="s">
-        <v>600</v>
-      </c>
-      <c r="D268" t="str">
-        <f t="shared" si="7"/>
-        <v>In progress of translating…(268)</v>
+        <f>COUNTIF(A:A,A268)</f>
+        <v>1</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D268" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="B269">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A269)</f>
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(269)</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B270">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A270)</f>
         <v>1</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D270" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(270)</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>374</v>
+        <v>602</v>
       </c>
       <c r="B271">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(271)</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>375</v>
+        <v>603</v>
       </c>
       <c r="B272">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="C272" t="s">
-        <v>539</v>
+        <f>COUNTIF(A:A,A272)</f>
+        <v>1</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="D272" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(272)</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>373</v>
+        <v>616</v>
       </c>
       <c r="B273">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="C273" t="s">
-        <v>540</v>
+        <f>COUNTIF(A:A,A273)</f>
+        <v>1</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(273)</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B274">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D274" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(274)</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B275">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(275)</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
+        <v>373</v>
+      </c>
+      <c r="B276">
+        <f>COUNTIF(A:A,A276)</f>
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>540</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(276)</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>377</v>
+      </c>
+      <c r="B277">
+        <f>COUNTIF(A:A,A277)</f>
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>541</v>
+      </c>
+      <c r="D277" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(277)</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>378</v>
+      </c>
+      <c r="B278">
+        <f>COUNTIF(A:A,A278)</f>
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>543</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(278)</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>376</v>
       </c>
-      <c r="B276">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="C276" t="s">
+      <c r="B279">
+        <f>COUNTIF(A:A,A279)</f>
+        <v>1</v>
+      </c>
+      <c r="C279" t="s">
         <v>542</v>
       </c>
-      <c r="D276" t="str">
-        <f t="shared" si="7"/>
-        <v>In progress of translating…(276)</v>
+      <c r="D279" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(279)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E898C45-90D0-45F9-894D-0921FE3C32BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9576D-73F8-4A7F-9970-74FD2C2E7A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$279</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$283</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="652">
   <si>
     <t>확인</t>
   </si>
@@ -2765,6 +2765,38 @@
   </si>
   <si>
     <t>획득한 전투팩이 없습니다</t>
+  </si>
+  <si>
+    <t>GameUI_SoundFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_Music</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_UltimateWithDoubleTap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_FixUltimateIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뮤직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 중 더블탭으로 궁극기 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극기 아이콘 위치 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3168,7 +3200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D279"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -4105,14 +4137,14 @@
         <v>638</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:B65" si="0">COUNTIF(A:A,A62)</f>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>639</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" ref="D62:D64" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D62:D68" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(62)</v>
       </c>
     </row>
@@ -4121,14 +4153,14 @@
         <v>640</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
         <v>641</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(63)</v>
       </c>
     </row>
@@ -4137,3421 +4169,3485 @@
         <v>642</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>643</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(64)</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>644</v>
       </c>
       <c r="B65">
+        <f>COUNTIF(A:A,A65)</f>
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>648</v>
+      </c>
+      <c r="D65" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" t="s">
-        <v>41</v>
+        <v>In progress of translating…(65)</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>645</v>
       </c>
       <c r="B66">
         <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
-      </c>
-      <c r="D66" t="s">
-        <v>356</v>
+        <v>649</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>In progress of translating…(66)</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>353</v>
+        <v>646</v>
       </c>
       <c r="B67">
         <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>355</v>
-      </c>
-      <c r="D67" t="s">
-        <v>357</v>
+        <v>650</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="0"/>
+        <v>In progress of translating…(67)</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>647</v>
       </c>
       <c r="B68">
         <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" t="s">
-        <v>28</v>
+        <v>651</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="0"/>
+        <v>In progress of translating…(68)</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>348</v>
+        <v>39</v>
       </c>
       <c r="B69">
         <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B70">
         <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" ref="D70:D71" si="2">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(70)</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>354</v>
+      </c>
+      <c r="D70" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>621</v>
+        <v>353</v>
       </c>
       <c r="B71">
         <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="2"/>
-        <v>In progress of translating…(71)</v>
+      <c r="C71" t="s">
+        <v>355</v>
+      </c>
+      <c r="D71" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>358</v>
+        <v>29</v>
       </c>
       <c r="B72">
         <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>359</v>
+      <c r="C72" t="s">
+        <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>360</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="B73">
         <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>591</v>
+        <v>349</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>494</v>
+        <v>351</v>
       </c>
       <c r="B74">
         <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D74" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" ref="D74:D75" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <v>In progress of translating…(74)</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>492</v>
+        <v>621</v>
       </c>
       <c r="B75">
         <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D75" t="s">
-        <v>499</v>
+        <v>620</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(75)</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>497</v>
+        <v>358</v>
       </c>
       <c r="B76">
         <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>590</v>
+        <v>359</v>
+      </c>
+      <c r="D76" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>498</v>
+        <v>421</v>
       </c>
       <c r="B77">
         <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>500</v>
+        <v>591</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B78">
         <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>584</v>
+        <v>495</v>
+      </c>
+      <c r="D78" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>589</v>
+        <v>492</v>
       </c>
       <c r="B79">
         <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>588</v>
+        <v>493</v>
+      </c>
+      <c r="D79" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>497</v>
       </c>
       <c r="B80">
         <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
-      <c r="C80" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" t="s">
-        <v>71</v>
+      <c r="C80" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>498</v>
       </c>
       <c r="B81">
         <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
-      <c r="C81" t="s">
-        <v>75</v>
-      </c>
-      <c r="D81" t="s">
-        <v>76</v>
+      <c r="C81" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>501</v>
       </c>
       <c r="B82">
         <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
-      <c r="C82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" t="s">
-        <v>72</v>
+      <c r="C82" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>589</v>
       </c>
       <c r="B83">
         <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
-      <c r="C83" t="s">
-        <v>120</v>
-      </c>
-      <c r="D83" t="s">
-        <v>121</v>
+      <c r="C83" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B84">
         <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B85">
         <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D85" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B86">
         <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D86" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B87">
         <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D87" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B88">
         <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>593</v>
+        <v>88</v>
       </c>
       <c r="B89">
         <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>595</v>
-      </c>
-      <c r="D89" t="str">
-        <f t="shared" ref="D89" si="3">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(89)</v>
+        <v>78</v>
+      </c>
+      <c r="D89" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>302</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="D90" t="s">
-        <v>594</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>623</v>
+        <v>80</v>
       </c>
       <c r="D91" t="s">
-        <v>622</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>630</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>628</v>
-      </c>
-      <c r="D92" t="str">
-        <f t="shared" ref="D92:D95" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(92)</v>
+        <v>81</v>
+      </c>
+      <c r="D92" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="B93">
         <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D93" si="2">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(93)</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>632</v>
+        <v>302</v>
       </c>
       <c r="B94">
         <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>626</v>
-      </c>
-      <c r="D94" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(94)</v>
+        <v>303</v>
+      </c>
+      <c r="D94" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>633</v>
+        <v>92</v>
       </c>
       <c r="B95">
         <f>COUNTIF(A:A,A95)</f>
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>627</v>
-      </c>
-      <c r="D95" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(95)</v>
+        <v>623</v>
+      </c>
+      <c r="D95" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>630</v>
       </c>
       <c r="B96">
         <f>COUNTIF(A:A,A96)</f>
         <v>1</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D96" t="s">
-        <v>93</v>
+      <c r="C96" t="s">
+        <v>628</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" ref="D96:D99" si="3">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <v>In progress of translating…(96)</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>631</v>
       </c>
       <c r="B97">
         <f>COUNTIF(A:A,A97)</f>
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>135</v>
-      </c>
-      <c r="D97" t="s">
-        <v>94</v>
+        <v>629</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="3"/>
+        <v>In progress of translating…(97)</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>632</v>
       </c>
       <c r="B98">
         <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>136</v>
+      <c r="C98" t="s">
+        <v>626</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ref="D98:D172" si="5">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="3"/>
         <v>In progress of translating…(98)</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>633</v>
       </c>
       <c r="B99">
         <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>139</v>
+      <c r="C99" t="s">
+        <v>627</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>In progress of translating…(99)</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
-      <c r="C100" t="s">
-        <v>137</v>
-      </c>
-      <c r="D100" t="str">
-        <f t="shared" si="5"/>
-        <v>In progress of translating…(100)</v>
+      <c r="C100" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D100" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D101" t="str">
-        <f t="shared" si="5"/>
-        <v>In progress of translating…(101)</v>
+      <c r="C101" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D102:D176" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(102)</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
-      <c r="C103" t="s">
-        <v>251</v>
+      <c r="C103" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(103)</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>252</v>
+      <c r="C104" t="s">
+        <v>137</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(104)</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <f>COUNTIF(A:A,A105)</f>
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(105)</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
-      <c r="C106" t="s">
-        <v>141</v>
+      <c r="C106" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(106)</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>142</v>
+      <c r="C107" t="s">
+        <v>251</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(107)</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(108)</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(109)</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>258</v>
+      <c r="C110" t="s">
+        <v>141</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(110)</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>259</v>
+        <v>142</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(111)</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="B112">
         <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(112)</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="B113">
         <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(113)</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B114">
         <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(114)</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B115">
         <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(115)</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B116">
         <f>COUNTIF(A:A,A116)</f>
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>161</v>
+        <v>260</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(116)</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B117">
         <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(117)</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B118">
         <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(118)</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B119">
         <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(119)</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B120">
         <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(120)</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="B121">
         <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(121)</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="B122">
         <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>267</v>
+        <v>162</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(122)</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="B123">
         <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>268</v>
+        <v>163</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(123)</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="B124">
         <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(124)</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B125">
         <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(125)</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B126">
         <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(126)</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="B127">
         <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(127)</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="B128">
         <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(128)</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B129">
         <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B130">
         <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(130)</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B131">
         <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(131)</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B132">
         <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B133">
         <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B134">
         <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(134)</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B135">
         <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(135)</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B136">
         <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(136)</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B137">
         <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>183</v>
+        <v>297</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(137)</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B138">
         <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B139">
         <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B140">
         <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(140)</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="B141">
         <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B142">
         <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B143">
         <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B144">
         <f>COUNTIF(A:A,A144)</f>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(144)</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="B145">
         <f>COUNTIF(A:A,A145)</f>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B146">
         <f>COUNTIF(A:A,A146)</f>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="B147">
         <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
-      <c r="C147" t="s">
-        <v>272</v>
+      <c r="C147" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="B148">
         <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
-      <c r="C148" t="s">
-        <v>273</v>
+      <c r="C148" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="B149">
         <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
-      <c r="C149" t="s">
-        <v>274</v>
+      <c r="C149" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="B150">
         <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
-      <c r="C150" t="s">
-        <v>275</v>
+      <c r="C150" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(150)</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B151">
         <f>COUNTIF(A:A,A151)</f>
         <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(151)</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B152">
         <f>COUNTIF(A:A,A152)</f>
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(152)</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B153">
         <f>COUNTIF(A:A,A153)</f>
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(153)</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B154">
         <f>COUNTIF(A:A,A154)</f>
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B155">
         <f>COUNTIF(A:A,A155)</f>
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(155)</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B156">
         <f>COUNTIF(A:A,A156)</f>
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(156)</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B157">
         <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(157)</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B158">
         <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(158)</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B159">
         <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(159)</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B160">
         <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(160)</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="B161">
         <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="B162">
         <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(162)</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="B163">
         <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(163)</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="B164">
         <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(164)</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B165">
         <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(165)</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B166">
         <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(166)</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B167">
         <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(167)</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B168">
         <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(168)</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B169">
         <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(169)</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B170">
         <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B171">
         <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="B172">
         <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="B173">
         <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" ref="D173:D279" si="6">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(173)</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>245</v>
+        <v>115</v>
       </c>
       <c r="B174">
         <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(174)</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="B175">
         <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(175)</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B176">
         <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>291</v>
+        <v>208</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(176)</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B177">
         <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D177:D283" si="5">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(177)</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="B178">
         <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(178)</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="B179">
         <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(179)</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B180">
         <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B181">
         <f>COUNTIF(A:A,A181)</f>
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B182">
         <f>COUNTIF(A:A,A182)</f>
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B183">
         <f>COUNTIF(A:A,A183)</f>
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B184">
         <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>299</v>
+        <v>218</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B185">
         <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B186">
         <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B187">
         <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>288</v>
+        <v>224</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B188">
         <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B189">
         <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B190">
         <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B191">
         <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="B192">
         <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B193">
         <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B194">
         <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B195">
         <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="B196">
         <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B197">
         <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>379</v>
+        <v>234</v>
       </c>
       <c r="B198">
         <f>COUNTIF(A:A,A198)</f>
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>400</v>
+        <v>235</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>380</v>
+        <v>236</v>
       </c>
       <c r="B199">
         <f>COUNTIF(A:A,A199)</f>
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>401</v>
+        <v>237</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>381</v>
+        <v>238</v>
       </c>
       <c r="B200">
         <f>COUNTIF(A:A,A200)</f>
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>382</v>
+        <v>239</v>
       </c>
       <c r="B201">
         <f>COUNTIF(A:A,A201)</f>
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>403</v>
+        <v>240</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B202">
         <f>COUNTIF(A:A,A202)</f>
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B203">
         <f>COUNTIF(A:A,A203)</f>
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B204">
         <f>COUNTIF(A:A,A204)</f>
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B205">
         <f>COUNTIF(A:A,A205)</f>
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B206">
         <f>COUNTIF(A:A,A206)</f>
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B207">
         <f>COUNTIF(A:A,A207)</f>
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B208">
         <f>COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B209">
         <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B210">
         <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B211">
         <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B212">
         <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B213">
         <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B214">
         <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B215">
         <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B216">
         <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B217">
         <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B218">
         <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>544</v>
+        <v>396</v>
       </c>
       <c r="B219">
         <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>552</v>
+        <v>417</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>545</v>
+        <v>397</v>
       </c>
       <c r="B220">
         <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>553</v>
+        <v>418</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>546</v>
+        <v>398</v>
       </c>
       <c r="B221">
         <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>554</v>
+        <v>419</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>547</v>
+        <v>399</v>
       </c>
       <c r="B222">
         <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>555</v>
+        <v>420</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B223">
         <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B224">
         <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(224)</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B225">
         <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(225)</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B226">
         <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(226)</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>309</v>
+        <v>548</v>
       </c>
       <c r="B227">
         <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>592</v>
+        <v>556</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(227)</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>310</v>
+        <v>549</v>
       </c>
       <c r="B228">
         <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>330</v>
+        <v>557</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(228)</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>311</v>
+        <v>550</v>
       </c>
       <c r="B229">
         <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>331</v>
+        <v>558</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(229)</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>312</v>
+        <v>551</v>
       </c>
       <c r="B230">
         <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>332</v>
+        <v>559</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(230)</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B231">
         <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>333</v>
+        <v>592</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(231)</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B232">
         <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(232)</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B233">
         <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>582</v>
+        <v>331</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(233)</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B234">
         <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(234)</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B235">
         <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(235)</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B236">
         <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(236)</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B237">
         <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>338</v>
+        <v>582</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(237)</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B238">
         <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(238)</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B239">
         <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(239)</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B240">
         <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(240)</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B241">
         <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(241)</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B242">
         <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(242)</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B243">
         <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(243)</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B244">
         <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(244)</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B245">
         <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(245)</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B246">
         <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(246)</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B247">
         <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>567</v>
+        <v>344</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(247)</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>560</v>
+        <v>326</v>
       </c>
       <c r="B248">
         <f>COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>568</v>
+        <v>345</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(248)</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>561</v>
+        <v>327</v>
       </c>
       <c r="B249">
         <f>COUNTIF(A:A,A249)</f>
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>569</v>
+        <v>346</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(249)</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>562</v>
+        <v>328</v>
       </c>
       <c r="B250">
         <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>570</v>
+        <v>347</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(250)</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>563</v>
+        <v>329</v>
       </c>
       <c r="B251">
         <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(251)</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B252">
         <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(252)</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B253">
         <f>COUNTIF(A:A,A253)</f>
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(253)</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B254">
         <f>COUNTIF(A:A,A254)</f>
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(254)</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B255">
         <f>COUNTIF(A:A,A255)</f>
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(255)</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="B256">
         <f>COUNTIF(A:A,A256)</f>
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>523</v>
-      </c>
-      <c r="D256" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="D256" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress of translating…(256)</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="B257">
         <f>COUNTIF(A:A,A257)</f>
         <v>1</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>525</v>
+      <c r="C257" t="s">
+        <v>573</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(257)</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="B258">
         <f>COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>526</v>
-      </c>
-      <c r="D258" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+      <c r="D258" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress of translating…(258)</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="B259">
         <f>COUNTIF(A:A,A259)</f>
         <v>1</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>527</v>
+      <c r="C259" t="s">
+        <v>581</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(259)</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B260">
         <f>COUNTIF(A:A,A260)</f>
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D260" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B261">
         <f>COUNTIF(A:A,A261)</f>
         <v>1</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>578</v>
+        <v>525</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(261)</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B262">
         <f>COUNTIF(A:A,A262)</f>
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D262" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B263">
         <f>COUNTIF(A:A,A263)</f>
         <v>1</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>579</v>
+        <v>527</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(263)</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>604</v>
+        <v>534</v>
       </c>
       <c r="B264">
         <f>COUNTIF(A:A,A264)</f>
         <v>1</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>607</v>
+      <c r="C264" t="s">
+        <v>528</v>
       </c>
       <c r="D264" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>605</v>
+        <v>535</v>
       </c>
       <c r="B265">
         <f>COUNTIF(A:A,A265)</f>
         <v>1</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="D265" t="s">
-        <v>611</v>
+        <v>578</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress of translating…(265)</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
       <c r="B266">
         <f>COUNTIF(A:A,A266)</f>
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>598</v>
+        <v>529</v>
       </c>
       <c r="D266" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="B267">
         <f>COUNTIF(A:A,A267)</f>
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(267)</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B268">
         <f>COUNTIF(A:A,A268)</f>
         <v>1</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D268" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B269">
         <f>COUNTIF(A:A,A269)</f>
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D269" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(269)</v>
+        <v>608</v>
+      </c>
+      <c r="D269" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="B270">
         <f>COUNTIF(A:A,A270)</f>
         <v>1</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D270" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(270)</v>
+      <c r="C270" t="s">
+        <v>598</v>
+      </c>
+      <c r="D270" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B271">
         <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
-      <c r="C271" t="s">
-        <v>600</v>
+      <c r="C271" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(271)</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B272">
         <f>COUNTIF(A:A,A272)</f>
         <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D272" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(272)</v>
+        <v>609</v>
+      </c>
+      <c r="D272" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B273">
         <f>COUNTIF(A:A,A273)</f>
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(273)</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>374</v>
+        <v>615</v>
       </c>
       <c r="B274">
         <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
-      <c r="C274" t="s">
-        <v>538</v>
+      <c r="C274" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="D274" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(274)</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>375</v>
+        <v>602</v>
       </c>
       <c r="B275">
         <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(275)</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>373</v>
+        <v>603</v>
       </c>
       <c r="B276">
         <f>COUNTIF(A:A,A276)</f>
         <v>1</v>
       </c>
-      <c r="C276" t="s">
-        <v>540</v>
+      <c r="C276" s="1" t="s">
+        <v>601</v>
       </c>
       <c r="D276" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(276)</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>377</v>
+        <v>616</v>
       </c>
       <c r="B277">
         <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
-      <c r="C277" t="s">
-        <v>541</v>
+      <c r="C277" s="1" t="s">
+        <v>619</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(277)</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B278">
         <f>COUNTIF(A:A,A278)</f>
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D278" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(278)</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B279">
         <f>COUNTIF(A:A,A279)</f>
         <v>1</v>
       </c>
       <c r="C279" t="s">
+        <v>539</v>
+      </c>
+      <c r="D279" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress of translating…(279)</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>373</v>
+      </c>
+      <c r="B280">
+        <f>COUNTIF(A:A,A280)</f>
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
+        <v>540</v>
+      </c>
+      <c r="D280" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress of translating…(280)</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>377</v>
+      </c>
+      <c r="B281">
+        <f>COUNTIF(A:A,A281)</f>
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>541</v>
+      </c>
+      <c r="D281" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress of translating…(281)</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>378</v>
+      </c>
+      <c r="B282">
+        <f>COUNTIF(A:A,A282)</f>
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>543</v>
+      </c>
+      <c r="D282" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress of translating…(282)</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>376</v>
+      </c>
+      <c r="B283">
+        <f>COUNTIF(A:A,A283)</f>
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
         <v>542</v>
       </c>
-      <c r="D279" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(279)</v>
+      <c r="D283" t="str">
+        <f t="shared" si="5"/>
+        <v>In progress of translating…(283)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D9576D-73F8-4A7F-9970-74FD2C2E7A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC61DEE-04CB-4FC6-8970-A9E7C409E134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2787,15 +2787,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뮤직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 중 더블탭으로 궁극기 사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>궁극기 아이콘 위치 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3237,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="B2:B65" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -3252,7 +3252,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3267,7 +3267,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -3282,7 +3282,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -3297,7 +3297,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3312,7 +3312,7 @@
         <v>635</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3327,7 +3327,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3342,7 +3342,7 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3357,7 +3357,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -3372,7 +3372,7 @@
         <v>422</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3387,7 +3387,7 @@
         <v>423</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3402,7 +3402,7 @@
         <v>424</v>
       </c>
       <c r="B13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3417,7 +3417,7 @@
         <v>425</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3432,7 +3432,7 @@
         <v>426</v>
       </c>
       <c r="B15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3447,7 +3447,7 @@
         <v>427</v>
       </c>
       <c r="B16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3462,7 +3462,7 @@
         <v>428</v>
       </c>
       <c r="B17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3477,7 +3477,7 @@
         <v>429</v>
       </c>
       <c r="B18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3492,7 +3492,7 @@
         <v>430</v>
       </c>
       <c r="B19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3507,7 +3507,7 @@
         <v>431</v>
       </c>
       <c r="B20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3522,7 +3522,7 @@
         <v>432</v>
       </c>
       <c r="B21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -3537,7 +3537,7 @@
         <v>433</v>
       </c>
       <c r="B22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -3552,7 +3552,7 @@
         <v>434</v>
       </c>
       <c r="B23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -3567,7 +3567,7 @@
         <v>435</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -3582,7 +3582,7 @@
         <v>436</v>
       </c>
       <c r="B25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -3597,7 +3597,7 @@
         <v>437</v>
       </c>
       <c r="B26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -3612,7 +3612,7 @@
         <v>438</v>
       </c>
       <c r="B27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -3627,7 +3627,7 @@
         <v>439</v>
       </c>
       <c r="B28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -3642,7 +3642,7 @@
         <v>440</v>
       </c>
       <c r="B29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -3657,7 +3657,7 @@
         <v>441</v>
       </c>
       <c r="B30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -3672,7 +3672,7 @@
         <v>442</v>
       </c>
       <c r="B31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -3687,7 +3687,7 @@
         <v>443</v>
       </c>
       <c r="B32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -3702,7 +3702,7 @@
         <v>444</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -3717,7 +3717,7 @@
         <v>445</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -3732,7 +3732,7 @@
         <v>446</v>
       </c>
       <c r="B35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -3747,7 +3747,7 @@
         <v>447</v>
       </c>
       <c r="B36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -3762,7 +3762,7 @@
         <v>448</v>
       </c>
       <c r="B37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -3777,7 +3777,7 @@
         <v>449</v>
       </c>
       <c r="B38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -3792,7 +3792,7 @@
         <v>450</v>
       </c>
       <c r="B39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -3807,7 +3807,7 @@
         <v>451</v>
       </c>
       <c r="B40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -3822,7 +3822,7 @@
         <v>361</v>
       </c>
       <c r="B41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3837,7 +3837,7 @@
         <v>362</v>
       </c>
       <c r="B42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3852,7 +3852,7 @@
         <v>363</v>
       </c>
       <c r="B43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3867,7 +3867,7 @@
         <v>364</v>
       </c>
       <c r="B44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -3882,7 +3882,7 @@
         <v>504</v>
       </c>
       <c r="B45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3897,7 +3897,7 @@
         <v>505</v>
       </c>
       <c r="B46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3912,7 +3912,7 @@
         <v>506</v>
       </c>
       <c r="B47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -3927,7 +3927,7 @@
         <v>507</v>
       </c>
       <c r="B48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3942,7 +3942,7 @@
         <v>508</v>
       </c>
       <c r="B49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3957,7 +3957,7 @@
         <v>509</v>
       </c>
       <c r="B50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -3972,7 +3972,7 @@
         <v>510</v>
       </c>
       <c r="B51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3987,7 +3987,7 @@
         <v>511</v>
       </c>
       <c r="B52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4002,7 +4002,7 @@
         <v>117</v>
       </c>
       <c r="B53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4017,7 +4017,7 @@
         <v>625</v>
       </c>
       <c r="B54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4032,7 +4032,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4047,7 +4047,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4062,7 +4062,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4077,7 +4077,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4092,7 +4092,7 @@
         <v>30</v>
       </c>
       <c r="B59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -4107,7 +4107,7 @@
         <v>306</v>
       </c>
       <c r="B60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4122,7 +4122,7 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -4137,14 +4137,14 @@
         <v>638</v>
       </c>
       <c r="B62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>639</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" ref="D62:D68" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D62:D68" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(62)</v>
       </c>
     </row>
@@ -4153,14 +4153,14 @@
         <v>640</v>
       </c>
       <c r="B63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C63" t="s">
         <v>641</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(63)</v>
       </c>
     </row>
@@ -4169,14 +4169,14 @@
         <v>642</v>
       </c>
       <c r="B64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>643</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(64)</v>
       </c>
     </row>
@@ -4185,14 +4185,14 @@
         <v>644</v>
       </c>
       <c r="B65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C65" t="s">
         <v>648</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(65)</v>
       </c>
     </row>
@@ -4201,14 +4201,14 @@
         <v>645</v>
       </c>
       <c r="B66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="B66:B129" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(66)</v>
       </c>
     </row>
@@ -4217,14 +4217,14 @@
         <v>646</v>
       </c>
       <c r="B67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(67)</v>
       </c>
     </row>
@@ -4233,14 +4233,14 @@
         <v>647</v>
       </c>
       <c r="B68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(68)</v>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
         <v>39</v>
       </c>
       <c r="B69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C69" t="s">
@@ -4264,7 +4264,7 @@
         <v>352</v>
       </c>
       <c r="B70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C70" t="s">
@@ -4279,7 +4279,7 @@
         <v>353</v>
       </c>
       <c r="B71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C71" t="s">
@@ -4294,7 +4294,7 @@
         <v>29</v>
       </c>
       <c r="B72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C72" t="s">
@@ -4309,7 +4309,7 @@
         <v>348</v>
       </c>
       <c r="B73">
-        <f>COUNTIF(A:A,A73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4324,14 +4324,14 @@
         <v>351</v>
       </c>
       <c r="B74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>585</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" ref="D74:D75" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D74:D75" si="3">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(74)</v>
       </c>
     </row>
@@ -4340,14 +4340,14 @@
         <v>621</v>
       </c>
       <c r="B75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>620</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>In progress of translating…(75)</v>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
         <v>358</v>
       </c>
       <c r="B76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -4371,7 +4371,7 @@
         <v>421</v>
       </c>
       <c r="B77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -4386,7 +4386,7 @@
         <v>494</v>
       </c>
       <c r="B78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -4401,7 +4401,7 @@
         <v>492</v>
       </c>
       <c r="B79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -4416,7 +4416,7 @@
         <v>497</v>
       </c>
       <c r="B80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -4431,7 +4431,7 @@
         <v>498</v>
       </c>
       <c r="B81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -4446,7 +4446,7 @@
         <v>501</v>
       </c>
       <c r="B82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4461,7 +4461,7 @@
         <v>589</v>
       </c>
       <c r="B83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -4476,7 +4476,7 @@
         <v>73</v>
       </c>
       <c r="B84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C84" t="s">
@@ -4491,7 +4491,7 @@
         <v>74</v>
       </c>
       <c r="B85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C85" t="s">
@@ -4506,7 +4506,7 @@
         <v>68</v>
       </c>
       <c r="B86">
-        <f>COUNTIF(A:A,A86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C86" t="s">
@@ -4521,7 +4521,7 @@
         <v>119</v>
       </c>
       <c r="B87">
-        <f>COUNTIF(A:A,A87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C87" t="s">
@@ -4536,7 +4536,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <f>COUNTIF(A:A,A88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C88" t="s">
@@ -4551,7 +4551,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <f>COUNTIF(A:A,A89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C89" t="s">
@@ -4566,7 +4566,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <f>COUNTIF(A:A,A90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C90" t="s">
@@ -4581,7 +4581,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <f>COUNTIF(A:A,A91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C91" t="s">
@@ -4596,7 +4596,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <f>COUNTIF(A:A,A92)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C92" t="s">
@@ -4611,14 +4611,14 @@
         <v>593</v>
       </c>
       <c r="B93">
-        <f>COUNTIF(A:A,A93)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C93" t="s">
         <v>595</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" ref="D93" si="2">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D93" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(93)</v>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
         <v>302</v>
       </c>
       <c r="B94">
-        <f>COUNTIF(A:A,A94)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C94" t="s">
@@ -4642,7 +4642,7 @@
         <v>92</v>
       </c>
       <c r="B95">
-        <f>COUNTIF(A:A,A95)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C95" t="s">
@@ -4657,14 +4657,14 @@
         <v>630</v>
       </c>
       <c r="B96">
-        <f>COUNTIF(A:A,A96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C96" t="s">
         <v>628</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" ref="D96:D99" si="3">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D96:D99" si="5">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(96)</v>
       </c>
     </row>
@@ -4673,14 +4673,14 @@
         <v>631</v>
       </c>
       <c r="B97">
-        <f>COUNTIF(A:A,A97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>629</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(97)</v>
       </c>
     </row>
@@ -4689,14 +4689,14 @@
         <v>632</v>
       </c>
       <c r="B98">
-        <f>COUNTIF(A:A,A98)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C98" t="s">
         <v>626</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(98)</v>
       </c>
     </row>
@@ -4705,14 +4705,14 @@
         <v>633</v>
       </c>
       <c r="B99">
-        <f>COUNTIF(A:A,A99)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C99" t="s">
         <v>627</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>In progress of translating…(99)</v>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
         <v>122</v>
       </c>
       <c r="B100">
-        <f>COUNTIF(A:A,A100)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -4736,7 +4736,7 @@
         <v>123</v>
       </c>
       <c r="B101">
-        <f>COUNTIF(A:A,A101)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C101" t="s">
@@ -4751,14 +4751,14 @@
         <v>124</v>
       </c>
       <c r="B102">
-        <f>COUNTIF(A:A,A102)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" ref="D102:D176" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D102:D176" si="6">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(102)</v>
       </c>
     </row>
@@ -4767,14 +4767,14 @@
         <v>125</v>
       </c>
       <c r="B103">
-        <f>COUNTIF(A:A,A103)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(103)</v>
       </c>
     </row>
@@ -4783,14 +4783,14 @@
         <v>126</v>
       </c>
       <c r="B104">
-        <f>COUNTIF(A:A,A104)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C104" t="s">
         <v>137</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(104)</v>
       </c>
     </row>
@@ -4799,14 +4799,14 @@
         <v>127</v>
       </c>
       <c r="B105">
-        <f>COUNTIF(A:A,A105)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(105)</v>
       </c>
     </row>
@@ -4815,14 +4815,14 @@
         <v>128</v>
       </c>
       <c r="B106">
-        <f>COUNTIF(A:A,A106)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(106)</v>
       </c>
     </row>
@@ -4831,14 +4831,14 @@
         <v>129</v>
       </c>
       <c r="B107">
-        <f>COUNTIF(A:A,A107)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C107" t="s">
         <v>251</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(107)</v>
       </c>
     </row>
@@ -4847,14 +4847,14 @@
         <v>130</v>
       </c>
       <c r="B108">
-        <f>COUNTIF(A:A,A108)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(108)</v>
       </c>
     </row>
@@ -4863,14 +4863,14 @@
         <v>131</v>
       </c>
       <c r="B109">
-        <f>COUNTIF(A:A,A109)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(109)</v>
       </c>
     </row>
@@ -4879,14 +4879,14 @@
         <v>132</v>
       </c>
       <c r="B110">
-        <f>COUNTIF(A:A,A110)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C110" t="s">
         <v>141</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(110)</v>
       </c>
     </row>
@@ -4895,14 +4895,14 @@
         <v>133</v>
       </c>
       <c r="B111">
-        <f>COUNTIF(A:A,A111)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>142</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(111)</v>
       </c>
     </row>
@@ -4911,14 +4911,14 @@
         <v>155</v>
       </c>
       <c r="B112">
-        <f>COUNTIF(A:A,A112)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(112)</v>
       </c>
     </row>
@@ -4927,14 +4927,14 @@
         <v>156</v>
       </c>
       <c r="B113">
-        <f>COUNTIF(A:A,A113)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(113)</v>
       </c>
     </row>
@@ -4943,14 +4943,14 @@
         <v>95</v>
       </c>
       <c r="B114">
-        <f>COUNTIF(A:A,A114)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(114)</v>
       </c>
     </row>
@@ -4959,14 +4959,14 @@
         <v>96</v>
       </c>
       <c r="B115">
-        <f>COUNTIF(A:A,A115)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(115)</v>
       </c>
     </row>
@@ -4975,14 +4975,14 @@
         <v>97</v>
       </c>
       <c r="B116">
-        <f>COUNTIF(A:A,A116)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(116)</v>
       </c>
     </row>
@@ -4991,14 +4991,14 @@
         <v>98</v>
       </c>
       <c r="B117">
-        <f>COUNTIF(A:A,A117)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(117)</v>
       </c>
     </row>
@@ -5007,14 +5007,14 @@
         <v>99</v>
       </c>
       <c r="B118">
-        <f>COUNTIF(A:A,A118)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(118)</v>
       </c>
     </row>
@@ -5023,14 +5023,14 @@
         <v>100</v>
       </c>
       <c r="B119">
-        <f>COUNTIF(A:A,A119)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(119)</v>
       </c>
     </row>
@@ -5039,14 +5039,14 @@
         <v>101</v>
       </c>
       <c r="B120">
-        <f>COUNTIF(A:A,A120)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(120)</v>
       </c>
     </row>
@@ -5055,14 +5055,14 @@
         <v>102</v>
       </c>
       <c r="B121">
-        <f>COUNTIF(A:A,A121)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(121)</v>
       </c>
     </row>
@@ -5071,14 +5071,14 @@
         <v>103</v>
       </c>
       <c r="B122">
-        <f>COUNTIF(A:A,A122)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(122)</v>
       </c>
     </row>
@@ -5087,14 +5087,14 @@
         <v>104</v>
       </c>
       <c r="B123">
-        <f>COUNTIF(A:A,A123)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>163</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(123)</v>
       </c>
     </row>
@@ -5103,14 +5103,14 @@
         <v>105</v>
       </c>
       <c r="B124">
-        <f>COUNTIF(A:A,A124)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(124)</v>
       </c>
     </row>
@@ -5119,14 +5119,14 @@
         <v>165</v>
       </c>
       <c r="B125">
-        <f>COUNTIF(A:A,A125)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(125)</v>
       </c>
     </row>
@@ -5135,14 +5135,14 @@
         <v>166</v>
       </c>
       <c r="B126">
-        <f>COUNTIF(A:A,A126)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(126)</v>
       </c>
     </row>
@@ -5151,14 +5151,14 @@
         <v>243</v>
       </c>
       <c r="B127">
-        <f>COUNTIF(A:A,A127)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(127)</v>
       </c>
     </row>
@@ -5167,14 +5167,14 @@
         <v>244</v>
       </c>
       <c r="B128">
-        <f>COUNTIF(A:A,A128)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(128)</v>
       </c>
     </row>
@@ -5183,14 +5183,14 @@
         <v>168</v>
       </c>
       <c r="B129">
-        <f>COUNTIF(A:A,A129)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
@@ -5199,14 +5199,14 @@
         <v>169</v>
       </c>
       <c r="B130">
-        <f>COUNTIF(A:A,A130)</f>
+        <f t="shared" ref="B130:B193" si="7">COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(130)</v>
       </c>
     </row>
@@ -5215,14 +5215,14 @@
         <v>170</v>
       </c>
       <c r="B131">
-        <f>COUNTIF(A:A,A131)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(131)</v>
       </c>
     </row>
@@ -5231,14 +5231,14 @@
         <v>171</v>
       </c>
       <c r="B132">
-        <f>COUNTIF(A:A,A132)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>270</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
@@ -5247,14 +5247,14 @@
         <v>172</v>
       </c>
       <c r="B133">
-        <f>COUNTIF(A:A,A133)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
@@ -5263,14 +5263,14 @@
         <v>174</v>
       </c>
       <c r="B134">
-        <f>COUNTIF(A:A,A134)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(134)</v>
       </c>
     </row>
@@ -5279,14 +5279,14 @@
         <v>176</v>
       </c>
       <c r="B135">
-        <f>COUNTIF(A:A,A135)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(135)</v>
       </c>
     </row>
@@ -5295,14 +5295,14 @@
         <v>177</v>
       </c>
       <c r="B136">
-        <f>COUNTIF(A:A,A136)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>249</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(136)</v>
       </c>
     </row>
@@ -5311,14 +5311,14 @@
         <v>178</v>
       </c>
       <c r="B137">
-        <f>COUNTIF(A:A,A137)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>297</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(137)</v>
       </c>
     </row>
@@ -5327,14 +5327,14 @@
         <v>179</v>
       </c>
       <c r="B138">
-        <f>COUNTIF(A:A,A138)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>298</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
@@ -5343,14 +5343,14 @@
         <v>180</v>
       </c>
       <c r="B139">
-        <f>COUNTIF(A:A,A139)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>256</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
@@ -5359,14 +5359,14 @@
         <v>181</v>
       </c>
       <c r="B140">
-        <f>COUNTIF(A:A,A140)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(140)</v>
       </c>
     </row>
@@ -5375,14 +5375,14 @@
         <v>182</v>
       </c>
       <c r="B141">
-        <f>COUNTIF(A:A,A141)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
@@ -5391,14 +5391,14 @@
         <v>184</v>
       </c>
       <c r="B142">
-        <f>COUNTIF(A:A,A142)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
@@ -5407,14 +5407,14 @@
         <v>167</v>
       </c>
       <c r="B143">
-        <f>COUNTIF(A:A,A143)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
@@ -5423,14 +5423,14 @@
         <v>186</v>
       </c>
       <c r="B144">
-        <f>COUNTIF(A:A,A144)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(144)</v>
       </c>
     </row>
@@ -5439,14 +5439,14 @@
         <v>304</v>
       </c>
       <c r="B145">
-        <f>COUNTIF(A:A,A145)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>196</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
@@ -5455,14 +5455,14 @@
         <v>194</v>
       </c>
       <c r="B146">
-        <f>COUNTIF(A:A,A146)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>195</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
@@ -5471,14 +5471,14 @@
         <v>187</v>
       </c>
       <c r="B147">
-        <f>COUNTIF(A:A,A147)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
@@ -5487,14 +5487,14 @@
         <v>189</v>
       </c>
       <c r="B148">
-        <f>COUNTIF(A:A,A148)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
@@ -5503,14 +5503,14 @@
         <v>191</v>
       </c>
       <c r="B149">
-        <f>COUNTIF(A:A,A149)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>271</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
@@ -5519,14 +5519,14 @@
         <v>192</v>
       </c>
       <c r="B150">
-        <f>COUNTIF(A:A,A150)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(150)</v>
       </c>
     </row>
@@ -5535,14 +5535,14 @@
         <v>143</v>
       </c>
       <c r="B151">
-        <f>COUNTIF(A:A,A151)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C151" t="s">
         <v>272</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(151)</v>
       </c>
     </row>
@@ -5551,14 +5551,14 @@
         <v>144</v>
       </c>
       <c r="B152">
-        <f>COUNTIF(A:A,A152)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C152" t="s">
         <v>273</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(152)</v>
       </c>
     </row>
@@ -5567,14 +5567,14 @@
         <v>145</v>
       </c>
       <c r="B153">
-        <f>COUNTIF(A:A,A153)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C153" t="s">
         <v>274</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(153)</v>
       </c>
     </row>
@@ -5583,14 +5583,14 @@
         <v>146</v>
       </c>
       <c r="B154">
-        <f>COUNTIF(A:A,A154)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C154" t="s">
         <v>275</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
@@ -5599,14 +5599,14 @@
         <v>147</v>
       </c>
       <c r="B155">
-        <f>COUNTIF(A:A,A155)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C155" t="s">
         <v>276</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(155)</v>
       </c>
     </row>
@@ -5615,14 +5615,14 @@
         <v>148</v>
       </c>
       <c r="B156">
-        <f>COUNTIF(A:A,A156)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C156" t="s">
         <v>277</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(156)</v>
       </c>
     </row>
@@ -5631,14 +5631,14 @@
         <v>149</v>
       </c>
       <c r="B157">
-        <f>COUNTIF(A:A,A157)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C157" t="s">
         <v>278</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(157)</v>
       </c>
     </row>
@@ -5647,14 +5647,14 @@
         <v>150</v>
       </c>
       <c r="B158">
-        <f>COUNTIF(A:A,A158)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C158" t="s">
         <v>279</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(158)</v>
       </c>
     </row>
@@ -5663,14 +5663,14 @@
         <v>151</v>
       </c>
       <c r="B159">
-        <f>COUNTIF(A:A,A159)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C159" t="s">
         <v>280</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(159)</v>
       </c>
     </row>
@@ -5679,14 +5679,14 @@
         <v>152</v>
       </c>
       <c r="B160">
-        <f>COUNTIF(A:A,A160)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C160" t="s">
         <v>281</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(160)</v>
       </c>
     </row>
@@ -5695,14 +5695,14 @@
         <v>153</v>
       </c>
       <c r="B161">
-        <f>COUNTIF(A:A,A161)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C161" t="s">
         <v>282</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
@@ -5711,14 +5711,14 @@
         <v>154</v>
       </c>
       <c r="B162">
-        <f>COUNTIF(A:A,A162)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C162" t="s">
         <v>283</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(162)</v>
       </c>
     </row>
@@ -5727,14 +5727,14 @@
         <v>157</v>
       </c>
       <c r="B163">
-        <f>COUNTIF(A:A,A163)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C163" t="s">
         <v>284</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(163)</v>
       </c>
     </row>
@@ -5743,14 +5743,14 @@
         <v>158</v>
       </c>
       <c r="B164">
-        <f>COUNTIF(A:A,A164)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C164" t="s">
         <v>285</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(164)</v>
       </c>
     </row>
@@ -5759,14 +5759,14 @@
         <v>106</v>
       </c>
       <c r="B165">
-        <f>COUNTIF(A:A,A165)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C165" t="s">
         <v>197</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(165)</v>
       </c>
     </row>
@@ -5775,14 +5775,14 @@
         <v>107</v>
       </c>
       <c r="B166">
-        <f>COUNTIF(A:A,A166)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>198</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(166)</v>
       </c>
     </row>
@@ -5791,14 +5791,14 @@
         <v>108</v>
       </c>
       <c r="B167">
-        <f>COUNTIF(A:A,A167)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C167" t="s">
         <v>286</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(167)</v>
       </c>
     </row>
@@ -5807,14 +5807,14 @@
         <v>109</v>
       </c>
       <c r="B168">
-        <f>COUNTIF(A:A,A168)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C168" t="s">
         <v>199</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(168)</v>
       </c>
     </row>
@@ -5823,14 +5823,14 @@
         <v>110</v>
       </c>
       <c r="B169">
-        <f>COUNTIF(A:A,A169)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C169" t="s">
         <v>200</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(169)</v>
       </c>
     </row>
@@ -5839,14 +5839,14 @@
         <v>111</v>
       </c>
       <c r="B170">
-        <f>COUNTIF(A:A,A170)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C170" t="s">
         <v>201</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
@@ -5855,14 +5855,14 @@
         <v>112</v>
       </c>
       <c r="B171">
-        <f>COUNTIF(A:A,A171)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C171" t="s">
         <v>202</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
@@ -5871,14 +5871,14 @@
         <v>113</v>
       </c>
       <c r="B172">
-        <f>COUNTIF(A:A,A172)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>203</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
@@ -5887,14 +5887,14 @@
         <v>114</v>
       </c>
       <c r="B173">
-        <f>COUNTIF(A:A,A173)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C173" t="s">
         <v>204</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(173)</v>
       </c>
     </row>
@@ -5903,14 +5903,14 @@
         <v>115</v>
       </c>
       <c r="B174">
-        <f>COUNTIF(A:A,A174)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C174" t="s">
         <v>205</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(174)</v>
       </c>
     </row>
@@ -5919,14 +5919,14 @@
         <v>116</v>
       </c>
       <c r="B175">
-        <f>COUNTIF(A:A,A175)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C175" t="s">
         <v>206</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(175)</v>
       </c>
     </row>
@@ -5935,14 +5935,14 @@
         <v>207</v>
       </c>
       <c r="B176">
-        <f>COUNTIF(A:A,A176)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C176" t="s">
         <v>208</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(176)</v>
       </c>
     </row>
@@ -5951,14 +5951,14 @@
         <v>209</v>
       </c>
       <c r="B177">
-        <f>COUNTIF(A:A,A177)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C177" t="s">
         <v>210</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" ref="D177:D283" si="5">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D177:D283" si="8">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(177)</v>
       </c>
     </row>
@@ -5967,14 +5967,14 @@
         <v>245</v>
       </c>
       <c r="B178">
-        <f>COUNTIF(A:A,A178)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C178" t="s">
         <v>289</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(178)</v>
       </c>
     </row>
@@ -5983,14 +5983,14 @@
         <v>246</v>
       </c>
       <c r="B179">
-        <f>COUNTIF(A:A,A179)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C179" t="s">
         <v>290</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(179)</v>
       </c>
     </row>
@@ -5999,14 +5999,14 @@
         <v>213</v>
       </c>
       <c r="B180">
-        <f>COUNTIF(A:A,A180)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C180" t="s">
         <v>291</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
@@ -6015,14 +6015,14 @@
         <v>214</v>
       </c>
       <c r="B181">
-        <f>COUNTIF(A:A,A181)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C181" t="s">
         <v>292</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
@@ -6031,14 +6031,14 @@
         <v>215</v>
       </c>
       <c r="B182">
-        <f>COUNTIF(A:A,A182)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C182" t="s">
         <v>295</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
@@ -6047,14 +6047,14 @@
         <v>216</v>
       </c>
       <c r="B183">
-        <f>COUNTIF(A:A,A183)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C183" t="s">
         <v>296</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
@@ -6063,14 +6063,14 @@
         <v>217</v>
       </c>
       <c r="B184">
-        <f>COUNTIF(A:A,A184)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C184" t="s">
         <v>218</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
@@ -6079,14 +6079,14 @@
         <v>219</v>
       </c>
       <c r="B185">
-        <f>COUNTIF(A:A,A185)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C185" t="s">
         <v>220</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
@@ -6095,14 +6095,14 @@
         <v>221</v>
       </c>
       <c r="B186">
-        <f>COUNTIF(A:A,A186)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C186" t="s">
         <v>222</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
@@ -6111,14 +6111,14 @@
         <v>223</v>
       </c>
       <c r="B187">
-        <f>COUNTIF(A:A,A187)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C187" t="s">
         <v>224</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
@@ -6127,14 +6127,14 @@
         <v>225</v>
       </c>
       <c r="B188">
-        <f>COUNTIF(A:A,A188)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C188" t="s">
         <v>299</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
@@ -6143,14 +6143,14 @@
         <v>226</v>
       </c>
       <c r="B189">
-        <f>COUNTIF(A:A,A189)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C189" t="s">
         <v>300</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
@@ -6159,14 +6159,14 @@
         <v>227</v>
       </c>
       <c r="B190">
-        <f>COUNTIF(A:A,A190)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C190" t="s">
         <v>287</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
@@ -6175,14 +6175,14 @@
         <v>228</v>
       </c>
       <c r="B191">
-        <f>COUNTIF(A:A,A191)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C191" t="s">
         <v>288</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
@@ -6191,14 +6191,14 @@
         <v>229</v>
       </c>
       <c r="B192">
-        <f>COUNTIF(A:A,A192)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C192" t="s">
         <v>230</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
@@ -6207,14 +6207,14 @@
         <v>231</v>
       </c>
       <c r="B193">
-        <f>COUNTIF(A:A,A193)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C193" t="s">
         <v>232</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
@@ -6223,14 +6223,14 @@
         <v>211</v>
       </c>
       <c r="B194">
-        <f>COUNTIF(A:A,A194)</f>
+        <f t="shared" ref="B194:B257" si="9">COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
         <v>212</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
@@ -6239,14 +6239,14 @@
         <v>233</v>
       </c>
       <c r="B195">
-        <f>COUNTIF(A:A,A195)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C195" t="s">
         <v>301</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
@@ -6255,14 +6255,14 @@
         <v>305</v>
       </c>
       <c r="B196">
-        <f>COUNTIF(A:A,A196)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C196" t="s">
         <v>293</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
@@ -6271,14 +6271,14 @@
         <v>241</v>
       </c>
       <c r="B197">
-        <f>COUNTIF(A:A,A197)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C197" t="s">
         <v>242</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
@@ -6287,14 +6287,14 @@
         <v>234</v>
       </c>
       <c r="B198">
-        <f>COUNTIF(A:A,A198)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C198" t="s">
         <v>235</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
@@ -6303,14 +6303,14 @@
         <v>236</v>
       </c>
       <c r="B199">
-        <f>COUNTIF(A:A,A199)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C199" t="s">
         <v>237</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
@@ -6319,14 +6319,14 @@
         <v>238</v>
       </c>
       <c r="B200">
-        <f>COUNTIF(A:A,A200)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C200" t="s">
         <v>294</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
@@ -6335,14 +6335,14 @@
         <v>239</v>
       </c>
       <c r="B201">
-        <f>COUNTIF(A:A,A201)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C201" t="s">
         <v>240</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
@@ -6351,14 +6351,14 @@
         <v>379</v>
       </c>
       <c r="B202">
-        <f>COUNTIF(A:A,A202)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C202" t="s">
         <v>400</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
@@ -6367,14 +6367,14 @@
         <v>380</v>
       </c>
       <c r="B203">
-        <f>COUNTIF(A:A,A203)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C203" t="s">
         <v>401</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
@@ -6383,14 +6383,14 @@
         <v>381</v>
       </c>
       <c r="B204">
-        <f>COUNTIF(A:A,A204)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C204" t="s">
         <v>402</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
@@ -6399,14 +6399,14 @@
         <v>382</v>
       </c>
       <c r="B205">
-        <f>COUNTIF(A:A,A205)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C205" t="s">
         <v>403</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
@@ -6415,14 +6415,14 @@
         <v>383</v>
       </c>
       <c r="B206">
-        <f>COUNTIF(A:A,A206)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C206" t="s">
         <v>404</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
@@ -6431,14 +6431,14 @@
         <v>384</v>
       </c>
       <c r="B207">
-        <f>COUNTIF(A:A,A207)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C207" t="s">
         <v>405</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
@@ -6447,14 +6447,14 @@
         <v>385</v>
       </c>
       <c r="B208">
-        <f>COUNTIF(A:A,A208)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C208" t="s">
         <v>406</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
@@ -6463,14 +6463,14 @@
         <v>386</v>
       </c>
       <c r="B209">
-        <f>COUNTIF(A:A,A209)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C209" t="s">
         <v>407</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
@@ -6479,14 +6479,14 @@
         <v>387</v>
       </c>
       <c r="B210">
-        <f>COUNTIF(A:A,A210)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C210" t="s">
         <v>408</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
@@ -6495,14 +6495,14 @@
         <v>388</v>
       </c>
       <c r="B211">
-        <f>COUNTIF(A:A,A211)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C211" t="s">
         <v>409</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
@@ -6511,14 +6511,14 @@
         <v>389</v>
       </c>
       <c r="B212">
-        <f>COUNTIF(A:A,A212)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C212" t="s">
         <v>410</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
@@ -6527,14 +6527,14 @@
         <v>390</v>
       </c>
       <c r="B213">
-        <f>COUNTIF(A:A,A213)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C213" t="s">
         <v>411</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
@@ -6543,14 +6543,14 @@
         <v>391</v>
       </c>
       <c r="B214">
-        <f>COUNTIF(A:A,A214)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C214" t="s">
         <v>412</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
@@ -6559,14 +6559,14 @@
         <v>392</v>
       </c>
       <c r="B215">
-        <f>COUNTIF(A:A,A215)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C215" t="s">
         <v>413</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
@@ -6575,14 +6575,14 @@
         <v>393</v>
       </c>
       <c r="B216">
-        <f>COUNTIF(A:A,A216)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C216" t="s">
         <v>414</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
@@ -6591,14 +6591,14 @@
         <v>394</v>
       </c>
       <c r="B217">
-        <f>COUNTIF(A:A,A217)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>415</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
@@ -6607,14 +6607,14 @@
         <v>395</v>
       </c>
       <c r="B218">
-        <f>COUNTIF(A:A,A218)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C218" t="s">
         <v>416</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
@@ -6623,14 +6623,14 @@
         <v>396</v>
       </c>
       <c r="B219">
-        <f>COUNTIF(A:A,A219)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C219" t="s">
         <v>417</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
@@ -6639,14 +6639,14 @@
         <v>397</v>
       </c>
       <c r="B220">
-        <f>COUNTIF(A:A,A220)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C220" t="s">
         <v>418</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
@@ -6655,14 +6655,14 @@
         <v>398</v>
       </c>
       <c r="B221">
-        <f>COUNTIF(A:A,A221)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>419</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
@@ -6671,14 +6671,14 @@
         <v>399</v>
       </c>
       <c r="B222">
-        <f>COUNTIF(A:A,A222)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C222" t="s">
         <v>420</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
@@ -6687,14 +6687,14 @@
         <v>544</v>
       </c>
       <c r="B223">
-        <f>COUNTIF(A:A,A223)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C223" t="s">
         <v>552</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
@@ -6703,14 +6703,14 @@
         <v>545</v>
       </c>
       <c r="B224">
-        <f>COUNTIF(A:A,A224)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C224" t="s">
         <v>553</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(224)</v>
       </c>
     </row>
@@ -6719,14 +6719,14 @@
         <v>546</v>
       </c>
       <c r="B225">
-        <f>COUNTIF(A:A,A225)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C225" t="s">
         <v>554</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(225)</v>
       </c>
     </row>
@@ -6735,14 +6735,14 @@
         <v>547</v>
       </c>
       <c r="B226">
-        <f>COUNTIF(A:A,A226)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C226" t="s">
         <v>555</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(226)</v>
       </c>
     </row>
@@ -6751,14 +6751,14 @@
         <v>548</v>
       </c>
       <c r="B227">
-        <f>COUNTIF(A:A,A227)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C227" t="s">
         <v>556</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(227)</v>
       </c>
     </row>
@@ -6767,14 +6767,14 @@
         <v>549</v>
       </c>
       <c r="B228">
-        <f>COUNTIF(A:A,A228)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C228" t="s">
         <v>557</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(228)</v>
       </c>
     </row>
@@ -6783,14 +6783,14 @@
         <v>550</v>
       </c>
       <c r="B229">
-        <f>COUNTIF(A:A,A229)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C229" t="s">
         <v>558</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(229)</v>
       </c>
     </row>
@@ -6799,14 +6799,14 @@
         <v>551</v>
       </c>
       <c r="B230">
-        <f>COUNTIF(A:A,A230)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C230" t="s">
         <v>559</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(230)</v>
       </c>
     </row>
@@ -6815,14 +6815,14 @@
         <v>309</v>
       </c>
       <c r="B231">
-        <f>COUNTIF(A:A,A231)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C231" t="s">
         <v>592</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(231)</v>
       </c>
     </row>
@@ -6831,14 +6831,14 @@
         <v>310</v>
       </c>
       <c r="B232">
-        <f>COUNTIF(A:A,A232)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C232" t="s">
         <v>330</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(232)</v>
       </c>
     </row>
@@ -6847,14 +6847,14 @@
         <v>311</v>
       </c>
       <c r="B233">
-        <f>COUNTIF(A:A,A233)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C233" t="s">
         <v>331</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(233)</v>
       </c>
     </row>
@@ -6863,14 +6863,14 @@
         <v>312</v>
       </c>
       <c r="B234">
-        <f>COUNTIF(A:A,A234)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C234" t="s">
         <v>332</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(234)</v>
       </c>
     </row>
@@ -6879,14 +6879,14 @@
         <v>313</v>
       </c>
       <c r="B235">
-        <f>COUNTIF(A:A,A235)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C235" t="s">
         <v>333</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(235)</v>
       </c>
     </row>
@@ -6895,14 +6895,14 @@
         <v>314</v>
       </c>
       <c r="B236">
-        <f>COUNTIF(A:A,A236)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C236" t="s">
         <v>334</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(236)</v>
       </c>
     </row>
@@ -6911,14 +6911,14 @@
         <v>315</v>
       </c>
       <c r="B237">
-        <f>COUNTIF(A:A,A237)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C237" t="s">
         <v>582</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(237)</v>
       </c>
     </row>
@@ -6927,14 +6927,14 @@
         <v>316</v>
       </c>
       <c r="B238">
-        <f>COUNTIF(A:A,A238)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C238" t="s">
         <v>335</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(238)</v>
       </c>
     </row>
@@ -6943,14 +6943,14 @@
         <v>317</v>
       </c>
       <c r="B239">
-        <f>COUNTIF(A:A,A239)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C239" t="s">
         <v>336</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(239)</v>
       </c>
     </row>
@@ -6959,14 +6959,14 @@
         <v>318</v>
       </c>
       <c r="B240">
-        <f>COUNTIF(A:A,A240)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C240" t="s">
         <v>337</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(240)</v>
       </c>
     </row>
@@ -6975,14 +6975,14 @@
         <v>319</v>
       </c>
       <c r="B241">
-        <f>COUNTIF(A:A,A241)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C241" t="s">
         <v>338</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(241)</v>
       </c>
     </row>
@@ -6991,14 +6991,14 @@
         <v>320</v>
       </c>
       <c r="B242">
-        <f>COUNTIF(A:A,A242)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C242" t="s">
         <v>339</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(242)</v>
       </c>
     </row>
@@ -7007,14 +7007,14 @@
         <v>321</v>
       </c>
       <c r="B243">
-        <f>COUNTIF(A:A,A243)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C243" t="s">
         <v>340</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(243)</v>
       </c>
     </row>
@@ -7023,14 +7023,14 @@
         <v>322</v>
       </c>
       <c r="B244">
-        <f>COUNTIF(A:A,A244)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C244" t="s">
         <v>341</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(244)</v>
       </c>
     </row>
@@ -7039,14 +7039,14 @@
         <v>323</v>
       </c>
       <c r="B245">
-        <f>COUNTIF(A:A,A245)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C245" t="s">
         <v>342</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(245)</v>
       </c>
     </row>
@@ -7055,14 +7055,14 @@
         <v>324</v>
       </c>
       <c r="B246">
-        <f>COUNTIF(A:A,A246)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C246" t="s">
         <v>343</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(246)</v>
       </c>
     </row>
@@ -7071,14 +7071,14 @@
         <v>325</v>
       </c>
       <c r="B247">
-        <f>COUNTIF(A:A,A247)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C247" t="s">
         <v>344</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(247)</v>
       </c>
     </row>
@@ -7087,14 +7087,14 @@
         <v>326</v>
       </c>
       <c r="B248">
-        <f>COUNTIF(A:A,A248)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C248" t="s">
         <v>345</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(248)</v>
       </c>
     </row>
@@ -7103,14 +7103,14 @@
         <v>327</v>
       </c>
       <c r="B249">
-        <f>COUNTIF(A:A,A249)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C249" t="s">
         <v>346</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(249)</v>
       </c>
     </row>
@@ -7119,14 +7119,14 @@
         <v>328</v>
       </c>
       <c r="B250">
-        <f>COUNTIF(A:A,A250)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C250" t="s">
         <v>347</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(250)</v>
       </c>
     </row>
@@ -7135,14 +7135,14 @@
         <v>329</v>
       </c>
       <c r="B251">
-        <f>COUNTIF(A:A,A251)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C251" t="s">
         <v>567</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(251)</v>
       </c>
     </row>
@@ -7151,14 +7151,14 @@
         <v>560</v>
       </c>
       <c r="B252">
-        <f>COUNTIF(A:A,A252)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C252" t="s">
         <v>568</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(252)</v>
       </c>
     </row>
@@ -7167,14 +7167,14 @@
         <v>561</v>
       </c>
       <c r="B253">
-        <f>COUNTIF(A:A,A253)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C253" t="s">
         <v>569</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(253)</v>
       </c>
     </row>
@@ -7183,14 +7183,14 @@
         <v>562</v>
       </c>
       <c r="B254">
-        <f>COUNTIF(A:A,A254)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C254" t="s">
         <v>570</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(254)</v>
       </c>
     </row>
@@ -7199,14 +7199,14 @@
         <v>563</v>
       </c>
       <c r="B255">
-        <f>COUNTIF(A:A,A255)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C255" t="s">
         <v>571</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(255)</v>
       </c>
     </row>
@@ -7215,14 +7215,14 @@
         <v>564</v>
       </c>
       <c r="B256">
-        <f>COUNTIF(A:A,A256)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C256" t="s">
         <v>572</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(256)</v>
       </c>
     </row>
@@ -7231,14 +7231,14 @@
         <v>565</v>
       </c>
       <c r="B257">
-        <f>COUNTIF(A:A,A257)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C257" t="s">
         <v>573</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(257)</v>
       </c>
     </row>
@@ -7247,14 +7247,14 @@
         <v>566</v>
       </c>
       <c r="B258">
-        <f>COUNTIF(A:A,A258)</f>
+        <f t="shared" ref="B258:B321" si="10">COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
         <v>574</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(258)</v>
       </c>
     </row>
@@ -7263,14 +7263,14 @@
         <v>580</v>
       </c>
       <c r="B259">
-        <f>COUNTIF(A:A,A259)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C259" t="s">
         <v>581</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(259)</v>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
         <v>530</v>
       </c>
       <c r="B260">
-        <f>COUNTIF(A:A,A260)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C260" t="s">
@@ -7294,14 +7294,14 @@
         <v>531</v>
       </c>
       <c r="B261">
-        <f>COUNTIF(A:A,A261)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>525</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(261)</v>
       </c>
     </row>
@@ -7310,7 +7310,7 @@
         <v>532</v>
       </c>
       <c r="B262">
-        <f>COUNTIF(A:A,A262)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C262" t="s">
@@ -7325,14 +7325,14 @@
         <v>533</v>
       </c>
       <c r="B263">
-        <f>COUNTIF(A:A,A263)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>527</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(263)</v>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
         <v>534</v>
       </c>
       <c r="B264">
-        <f>COUNTIF(A:A,A264)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C264" t="s">
@@ -7356,14 +7356,14 @@
         <v>535</v>
       </c>
       <c r="B265">
-        <f>COUNTIF(A:A,A265)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>578</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(265)</v>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
         <v>536</v>
       </c>
       <c r="B266">
-        <f>COUNTIF(A:A,A266)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C266" t="s">
@@ -7387,14 +7387,14 @@
         <v>537</v>
       </c>
       <c r="B267">
-        <f>COUNTIF(A:A,A267)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>579</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(267)</v>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
         <v>604</v>
       </c>
       <c r="B268">
-        <f>COUNTIF(A:A,A268)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -7418,7 +7418,7 @@
         <v>605</v>
       </c>
       <c r="B269">
-        <f>COUNTIF(A:A,A269)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -7433,7 +7433,7 @@
         <v>596</v>
       </c>
       <c r="B270">
-        <f>COUNTIF(A:A,A270)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C270" t="s">
@@ -7448,14 +7448,14 @@
         <v>597</v>
       </c>
       <c r="B271">
-        <f>COUNTIF(A:A,A271)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>599</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(271)</v>
       </c>
     </row>
@@ -7464,7 +7464,7 @@
         <v>606</v>
       </c>
       <c r="B272">
-        <f>COUNTIF(A:A,A272)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -7479,14 +7479,14 @@
         <v>614</v>
       </c>
       <c r="B273">
-        <f>COUNTIF(A:A,A273)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>617</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(273)</v>
       </c>
     </row>
@@ -7495,14 +7495,14 @@
         <v>615</v>
       </c>
       <c r="B274">
-        <f>COUNTIF(A:A,A274)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>618</v>
       </c>
       <c r="D274" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(274)</v>
       </c>
     </row>
@@ -7511,14 +7511,14 @@
         <v>602</v>
       </c>
       <c r="B275">
-        <f>COUNTIF(A:A,A275)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C275" t="s">
         <v>600</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(275)</v>
       </c>
     </row>
@@ -7527,14 +7527,14 @@
         <v>603</v>
       </c>
       <c r="B276">
-        <f>COUNTIF(A:A,A276)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>601</v>
       </c>
       <c r="D276" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(276)</v>
       </c>
     </row>
@@ -7543,14 +7543,14 @@
         <v>616</v>
       </c>
       <c r="B277">
-        <f>COUNTIF(A:A,A277)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>619</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(277)</v>
       </c>
     </row>
@@ -7559,14 +7559,14 @@
         <v>374</v>
       </c>
       <c r="B278">
-        <f>COUNTIF(A:A,A278)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C278" t="s">
         <v>538</v>
       </c>
       <c r="D278" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(278)</v>
       </c>
     </row>
@@ -7575,14 +7575,14 @@
         <v>375</v>
       </c>
       <c r="B279">
-        <f>COUNTIF(A:A,A279)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C279" t="s">
         <v>539</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(279)</v>
       </c>
     </row>
@@ -7591,14 +7591,14 @@
         <v>373</v>
       </c>
       <c r="B280">
-        <f>COUNTIF(A:A,A280)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C280" t="s">
         <v>540</v>
       </c>
       <c r="D280" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(280)</v>
       </c>
     </row>
@@ -7607,14 +7607,14 @@
         <v>377</v>
       </c>
       <c r="B281">
-        <f>COUNTIF(A:A,A281)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C281" t="s">
         <v>541</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(281)</v>
       </c>
     </row>
@@ -7623,14 +7623,14 @@
         <v>378</v>
       </c>
       <c r="B282">
-        <f>COUNTIF(A:A,A282)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C282" t="s">
         <v>543</v>
       </c>
       <c r="D282" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(282)</v>
       </c>
     </row>
@@ -7639,14 +7639,14 @@
         <v>376</v>
       </c>
       <c r="B283">
-        <f>COUNTIF(A:A,A283)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C283" t="s">
         <v>542</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>In progress of translating…(283)</v>
       </c>
     </row>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC61DEE-04CB-4FC6-8970-A9E7C409E134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD422C-83EC-43AE-B5ED-89FA128106C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$289</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="686">
   <si>
     <t>확인</t>
   </si>
@@ -901,12 +901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Low Attack Boost</t>
-  </si>
-  <si>
-    <t>Medium Attack Boost</t>
-  </si>
-  <si>
     <t>LevelPackUIName_ExtraGold</t>
   </si>
   <si>
@@ -1788,10 +1782,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Change Chracter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GameUI_Magic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2796,6 +2786,156 @@
   </si>
   <si>
     <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_Language_Kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_Language_Eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty Battle Pack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound FX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Ultimate Skill with doulbe-tap during battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed Ulitimate Skill position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not enough Power Level
+Change the player?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There is a more suitable recommended chracter
+Change the player?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get close to be blessed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle Pack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;No Hit&lt;/color&gt; Battle Pack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss Clear Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;No Hit&lt;/color&gt; Clear Reward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;Better&lt;/color&gt; Attack Boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;Best&lt;/color&gt; Attack Boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Speed Boost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3200,7 +3340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3219,17 +3359,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C1" t="str">
         <f t="array" ref="C1">IF(SUM(IF(B:B&gt;=2,1,0))&gt;1,"중복아이디있음","kor|String")</f>
         <v>kor|String</v>
       </c>
       <c r="D1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3237,7 +3377,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -3252,7 +3392,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3267,7 +3407,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -3282,7 +3422,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -3297,7 +3437,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3309,10 +3449,10 @@
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3327,7 +3467,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3342,7 +3482,7 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3357,7 +3497,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -3369,662 +3509,662 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D14" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D15" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D16" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D17" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D18" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D19" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D23" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D24" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D26" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D27" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D28" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D29" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D30" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D31" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D32" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D33" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D34" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D35" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D36" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D37" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D38" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D39" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D40" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -4032,7 +4172,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4047,7 +4187,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4062,7 +4202,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4077,7 +4217,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4092,7 +4232,7 @@
         <v>30</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -4104,17 +4244,17 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60">
+        <f>COUNTIF(A:A,A60)</f>
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D60" t="s">
         <v>306</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D60" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4122,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -4134,338 +4274,329 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>639</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" ref="D62:D68" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(62)</v>
+        <v>636</v>
+      </c>
+      <c r="D62" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>641</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(63)</v>
+        <v>638</v>
+      </c>
+      <c r="D63" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>643</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(64)</v>
+        <v>640</v>
+      </c>
+      <c r="D64" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>648</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(65)</v>
+        <v>645</v>
+      </c>
+      <c r="D65" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B129" si="2">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>651</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(66)</v>
+        <v>648</v>
+      </c>
+      <c r="D66" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>643</v>
+      </c>
+      <c r="B67">
+        <f>COUNTIF(A:A,A67)</f>
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
         <v>646</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>649</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(67)</v>
+      <c r="D67" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>644</v>
+      </c>
+      <c r="B68">
+        <f>COUNTIF(A:A,A68)</f>
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
         <v>647</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
-        <v>650</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(68)</v>
+      <c r="D68" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>653</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>654</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>668</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>352</v>
+        <v>649</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>354</v>
+        <v>650</v>
       </c>
       <c r="D70" t="s">
-        <v>356</v>
+        <v>669</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>353</v>
+        <v>651</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>355</v>
+        <v>652</v>
       </c>
       <c r="D71" t="s">
-        <v>357</v>
+        <v>670</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>655</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>656</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>671</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>348</v>
+        <v>657</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A73)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>658</v>
+      </c>
+      <c r="D73" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>351</v>
+        <v>659</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D74" t="str">
-        <f t="shared" ref="D74:D75" si="3">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(74)</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A74)</f>
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>660</v>
+      </c>
+      <c r="D74" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>621</v>
+        <v>39</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D75" t="str">
-        <f t="shared" si="3"/>
-        <v>In progress of translating…(75)</v>
+        <f>COUNTIF(A:A,A75)</f>
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>359</v>
+        <f>COUNTIF(A:A,A76)</f>
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>352</v>
       </c>
       <c r="D76" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>421</v>
+        <v>351</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>591</v>
+        <f>COUNTIF(A:A,A77)</f>
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>353</v>
+      </c>
+      <c r="D77" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>494</v>
+        <v>29</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>495</v>
+        <f>COUNTIF(A:A,A78)</f>
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>496</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>492</v>
+        <v>346</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D79" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>497</v>
+        <v>349</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>498</v>
+        <v>618</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>500</v>
+        <v>675</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>501</v>
+        <v>356</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>584</v>
+        <v>357</v>
+      </c>
+      <c r="D82" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>589</v>
+        <v>418</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>588</v>
@@ -4473,3037 +4604,3027 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>491</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C84" t="s">
-        <v>69</v>
+        <f>COUNTIF(A:A,A84)</f>
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="D84" t="s">
-        <v>71</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>489</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>75</v>
+        <f>COUNTIF(A:A,A85)</f>
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="D85" t="s">
-        <v>76</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>494</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" t="s">
-        <v>72</v>
+        <f>COUNTIF(A:A,A86)</f>
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>495</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" t="s">
-        <v>121</v>
+        <f>COUNTIF(A:A,A87)</f>
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>498</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C88" t="s">
-        <v>77</v>
-      </c>
-      <c r="D88" t="s">
-        <v>82</v>
+        <f>COUNTIF(A:A,A88)</f>
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>586</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C89" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" t="s">
-        <v>83</v>
+        <f>COUNTIF(A:A,A89)</f>
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D92" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>593</v>
+        <v>117</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>595</v>
-      </c>
-      <c r="D93" t="str">
-        <f t="shared" ref="D93" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(93)</v>
+        <v>118</v>
+      </c>
+      <c r="D93" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
-        <v>594</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A95)</f>
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>623</v>
+        <v>78</v>
       </c>
       <c r="D95" t="s">
-        <v>622</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>630</v>
+        <v>89</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A96)</f>
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>628</v>
-      </c>
-      <c r="D96" t="str">
-        <f t="shared" ref="D96:D99" si="5">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(96)</v>
+        <v>79</v>
+      </c>
+      <c r="D96" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>631</v>
+        <v>90</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A97)</f>
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>629</v>
-      </c>
-      <c r="D97" t="str">
-        <f t="shared" si="5"/>
-        <v>In progress of translating…(97)</v>
+        <v>80</v>
+      </c>
+      <c r="D97" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>632</v>
+        <v>91</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>626</v>
-      </c>
-      <c r="D98" t="str">
-        <f t="shared" si="5"/>
-        <v>In progress of translating…(98)</v>
+        <v>81</v>
+      </c>
+      <c r="D98" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>633</v>
+        <v>590</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>627</v>
-      </c>
-      <c r="D99" t="str">
-        <f t="shared" si="5"/>
-        <v>In progress of translating…(99)</v>
+        <v>592</v>
+      </c>
+      <c r="D99" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>134</v>
+        <f>COUNTIF(A:A,A100)</f>
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>301</v>
       </c>
       <c r="D100" t="s">
-        <v>93</v>
+        <v>591</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="B101">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>620</v>
       </c>
       <c r="D101" t="s">
-        <v>94</v>
+        <v>619</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>627</v>
       </c>
       <c r="B102">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D102" t="str">
-        <f t="shared" ref="D102:D176" si="6">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(102)</v>
+        <f>COUNTIF(A:A,A102)</f>
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>625</v>
+      </c>
+      <c r="D102" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>628</v>
       </c>
       <c r="B103">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D103" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(103)</v>
+        <f>COUNTIF(A:A,A103)</f>
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>626</v>
+      </c>
+      <c r="D103" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>629</v>
       </c>
       <c r="B104">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
-      </c>
-      <c r="D104" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(104)</v>
+        <v>623</v>
+      </c>
+      <c r="D104" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>630</v>
       </c>
       <c r="B105">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D105" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(105)</v>
+        <f>COUNTIF(A:A,A105)</f>
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>624</v>
+      </c>
+      <c r="D105" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B106">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D106" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(106)</v>
+        <v>132</v>
+      </c>
+      <c r="D106" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B107">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>251</v>
-      </c>
-      <c r="D107" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(107)</v>
+        <v>133</v>
+      </c>
+      <c r="D107" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B108">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D108" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(108)</v>
+        <v>134</v>
+      </c>
+      <c r="D108" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B109">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D109" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(109)</v>
+        <v>137</v>
+      </c>
+      <c r="D109" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B110">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D108:D182" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(110)</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B111">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(111)</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B112">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(112)</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B113">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>160</v>
+        <f>COUNTIF(A:A,A113)</f>
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>249</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(113)</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="B114">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(114)</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="B115">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>259</v>
+        <v>138</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(115)</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B116">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>260</v>
+        <f>COUNTIF(A:A,A116)</f>
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>139</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(116)</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="B117">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>262</v>
+        <v>140</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(117)</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="B118">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(118)</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="B119">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(119)</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B120">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>161</v>
+        <v>256</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(120)</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B121">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(121)</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B122">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(122)</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B123">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(123)</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B124">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(124)</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="B125">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(125)</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="B126">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(126)</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="B127">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(127)</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="B128">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>269</v>
+        <v>160</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(128)</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="B129">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="B130">
-        <f t="shared" ref="B130:B193" si="7">COUNTIF(A:A,A130)</f>
+        <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(130)</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B131">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(131)</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B132">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="B133">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="B134">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(134)</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B135">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(135)</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B136">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(136)</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B137">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(137)</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B138">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B139">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B140">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(140)</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B141">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B142">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B143">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B144">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A144)</f>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(144)</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="B145">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A145)</f>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B146">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A146)</f>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B147">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B148">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B149">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B150">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(150)</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>143</v>
+        <v>302</v>
       </c>
       <c r="B151">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C151" t="s">
-        <v>272</v>
+        <f>COUNTIF(A:A,A151)</f>
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(151)</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B152">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C152" t="s">
-        <v>273</v>
+        <f>COUNTIF(A:A,A152)</f>
+        <v>1</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(152)</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="B153">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C153" t="s">
-        <v>274</v>
+        <f>COUNTIF(A:A,A153)</f>
+        <v>1</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(153)</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="B154">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C154" t="s">
-        <v>275</v>
+        <f>COUNTIF(A:A,A154)</f>
+        <v>1</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="B155">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C155" t="s">
-        <v>276</v>
+        <f>COUNTIF(A:A,A155)</f>
+        <v>1</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(155)</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="B156">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C156" t="s">
-        <v>277</v>
+        <f>COUNTIF(A:A,A156)</f>
+        <v>1</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(156)</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B157">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(157)</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B158">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(158)</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B159">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(159)</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B160">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(160)</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B161">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B162">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(162)</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B163">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(163)</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B164">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(164)</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B165">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(165)</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B166">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(166)</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="B167">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(167)</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="B168">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>199</v>
+        <v>281</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(168)</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="B169">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(169)</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="B170">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B171">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B172">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B173">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(173)</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B174">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(174)</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B175">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(175)</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>207</v>
+        <v>109</v>
       </c>
       <c r="B176">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(176)</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="B177">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" ref="D177:D283" si="8">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(177)</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="B178">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(178)</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="B179">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(179)</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="B180">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="B181">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A181)</f>
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B182">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A182)</f>
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B183">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A183)</f>
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D183:D289" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="B184">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="B185">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B186">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B187">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B188">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B189">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B190">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>287</v>
+        <v>216</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B191">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B192">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B193">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B194">
-        <f t="shared" ref="B194:B257" si="9">COUNTIF(A:A,A194)</f>
+        <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B195">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>305</v>
+        <v>225</v>
       </c>
       <c r="B196">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B197">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B198">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A198)</f>
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B199">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A199)</f>
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B200">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A200)</f>
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B201">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A201)</f>
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>379</v>
+        <v>303</v>
       </c>
       <c r="B202">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A202)</f>
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>400</v>
+        <v>291</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>380</v>
+        <v>239</v>
       </c>
       <c r="B203">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A203)</f>
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>401</v>
+        <v>240</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>381</v>
+        <v>232</v>
       </c>
       <c r="B204">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A204)</f>
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>402</v>
+        <v>233</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>382</v>
+        <v>234</v>
       </c>
       <c r="B205">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A205)</f>
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>403</v>
+        <v>235</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>383</v>
+        <v>236</v>
       </c>
       <c r="B206">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A206)</f>
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>384</v>
+        <v>237</v>
       </c>
       <c r="B207">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A207)</f>
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>405</v>
+        <v>238</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B208">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B209">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B210">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B211">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B212">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B213">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B214">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B215">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B216">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B217">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B218">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B219">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B220">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B221">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B222">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>544</v>
+        <v>391</v>
       </c>
       <c r="B223">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>552</v>
+        <v>412</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>545</v>
+        <v>392</v>
       </c>
       <c r="B224">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>553</v>
+        <v>413</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(224)</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>546</v>
+        <v>393</v>
       </c>
       <c r="B225">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>554</v>
+        <v>414</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(225)</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>547</v>
+        <v>394</v>
       </c>
       <c r="B226">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>555</v>
+        <v>415</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(226)</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>548</v>
+        <v>395</v>
       </c>
       <c r="B227">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>556</v>
+        <v>416</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(227)</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>549</v>
+        <v>396</v>
       </c>
       <c r="B228">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>557</v>
+        <v>417</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(228)</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B229">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(229)</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B230">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(230)</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>309</v>
+        <v>543</v>
       </c>
       <c r="B231">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>592</v>
+        <v>551</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(231)</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>310</v>
+        <v>544</v>
       </c>
       <c r="B232">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>330</v>
+        <v>552</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(232)</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>311</v>
+        <v>545</v>
       </c>
       <c r="B233">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>331</v>
+        <v>553</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(233)</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>312</v>
+        <v>546</v>
       </c>
       <c r="B234">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>332</v>
+        <v>554</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(234)</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>313</v>
+        <v>547</v>
       </c>
       <c r="B235">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>333</v>
+        <v>555</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(235)</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>314</v>
+        <v>548</v>
       </c>
       <c r="B236">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>334</v>
+        <v>556</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(236)</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B237">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(237)</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B238">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(238)</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B239">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(239)</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B240">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(240)</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B241">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(241)</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B242">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(242)</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B243">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>340</v>
+        <v>579</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(243)</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B244">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(244)</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B245">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(245)</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B246">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(246)</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B247">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(247)</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B248">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(248)</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B249">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A249)</f>
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(249)</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B250">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(250)</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B251">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>567</v>
+        <v>340</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(251)</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>560</v>
+        <v>322</v>
       </c>
       <c r="B252">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>568</v>
+        <v>341</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(252)</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>561</v>
+        <v>323</v>
       </c>
       <c r="B253">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A253)</f>
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>569</v>
+        <v>342</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(253)</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>562</v>
+        <v>324</v>
       </c>
       <c r="B254">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A254)</f>
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>570</v>
+        <v>343</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(254)</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>563</v>
+        <v>325</v>
       </c>
       <c r="B255">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A255)</f>
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>571</v>
+        <v>344</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(255)</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>564</v>
+        <v>326</v>
       </c>
       <c r="B256">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A256)</f>
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>572</v>
+        <v>345</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(256)</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>565</v>
+        <v>327</v>
       </c>
       <c r="B257">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A257)</f>
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(257)</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B321" si="10">COUNTIF(A:A,A258)</f>
+        <f>COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(258)</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="B259">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A259)</f>
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(259)</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="B260">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A260)</f>
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>523</v>
-      </c>
-      <c r="D260" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+      <c r="D260" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(260)</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="B261">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>525</v>
+        <f>COUNTIF(A:A,A261)</f>
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>568</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(261)</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="B262">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A262)</f>
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>526</v>
-      </c>
-      <c r="D262" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="D262" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(262)</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="B263">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>527</v>
+        <f>COUNTIF(A:A,A263)</f>
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>570</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(263)</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="B264">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A264)</f>
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>528</v>
-      </c>
-      <c r="D264" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(264)</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="B265">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C265" s="1" t="s">
+        <f>COUNTIF(A:A,A265)</f>
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
         <v>578</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(265)</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B266">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A266)</f>
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D266" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B267">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A267)</f>
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(267)</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>604</v>
+        <v>529</v>
       </c>
       <c r="B268">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>607</v>
+        <f>COUNTIF(A:A,A268)</f>
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>523</v>
       </c>
       <c r="D268" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>605</v>
+        <v>530</v>
       </c>
       <c r="B269">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A269)</f>
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="D269" t="s">
-        <v>611</v>
+        <v>524</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(269)</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>596</v>
+        <v>531</v>
       </c>
       <c r="B270">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A270)</f>
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>598</v>
+        <v>525</v>
       </c>
       <c r="D270" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>597</v>
+        <v>532</v>
       </c>
       <c r="B271">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(271)</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>606</v>
+        <v>533</v>
       </c>
       <c r="B272">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>609</v>
+        <f>COUNTIF(A:A,A272)</f>
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
+        <v>526</v>
       </c>
       <c r="D272" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>614</v>
+        <v>534</v>
       </c>
       <c r="B273">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A273)</f>
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>617</v>
+        <v>576</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(273)</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B274">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D274" t="str">
-        <f t="shared" si="8"/>
-        <v>In progress of translating…(274)</v>
+        <v>604</v>
+      </c>
+      <c r="D274" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -7511,143 +7632,236 @@
         <v>602</v>
       </c>
       <c r="B275">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C275" t="s">
-        <v>600</v>
-      </c>
-      <c r="D275" t="str">
-        <f t="shared" si="8"/>
-        <v>In progress of translating…(275)</v>
+        <f>COUNTIF(A:A,A275)</f>
+        <v>1</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D275" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B276">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D276" t="str">
-        <f t="shared" si="8"/>
-        <v>In progress of translating…(276)</v>
+        <f>COUNTIF(A:A,A276)</f>
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>595</v>
+      </c>
+      <c r="D276" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="B277">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(277)</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>374</v>
+        <v>603</v>
       </c>
       <c r="B278">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C278" t="s">
-        <v>538</v>
-      </c>
-      <c r="D278" t="str">
-        <f t="shared" si="8"/>
-        <v>In progress of translating…(278)</v>
+        <f>COUNTIF(A:A,A278)</f>
+        <v>1</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D278" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="B279">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C279" t="s">
-        <v>539</v>
+        <f>COUNTIF(A:A,A279)</f>
+        <v>1</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(279)</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>373</v>
+        <v>612</v>
       </c>
       <c r="B280">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C280" t="s">
-        <v>540</v>
+        <f>COUNTIF(A:A,A280)</f>
+        <v>1</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>615</v>
       </c>
       <c r="D280" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(280)</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>377</v>
+        <v>599</v>
       </c>
       <c r="B281">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>541</v>
+        <v>597</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(281)</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>378</v>
+        <v>600</v>
       </c>
       <c r="B282">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C282" t="s">
-        <v>543</v>
+        <f>COUNTIF(A:A,A282)</f>
+        <v>1</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>598</v>
       </c>
       <c r="D282" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(282)</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>376</v>
+        <v>613</v>
       </c>
       <c r="B283">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C283" t="s">
-        <v>542</v>
+        <f>COUNTIF(A:A,A283)</f>
+        <v>1</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(283)</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>371</v>
+      </c>
+      <c r="B284">
+        <f>COUNTIF(A:A,A284)</f>
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>535</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(284)</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>372</v>
+      </c>
+      <c r="B285">
+        <f>COUNTIF(A:A,A285)</f>
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
+        <v>536</v>
+      </c>
+      <c r="D285" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(285)</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>370</v>
+      </c>
+      <c r="B286">
+        <f>COUNTIF(A:A,A286)</f>
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>537</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(286)</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>374</v>
+      </c>
+      <c r="B287">
+        <f>COUNTIF(A:A,A287)</f>
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>538</v>
+      </c>
+      <c r="D287" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(287)</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>375</v>
+      </c>
+      <c r="B288">
+        <f>COUNTIF(A:A,A288)</f>
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>540</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(288)</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>373</v>
+      </c>
+      <c r="B289">
+        <f>COUNTIF(A:A,A289)</f>
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>539</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(289)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD422C-83EC-43AE-B5ED-89FA128106C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AA96A9-6813-44FB-B011-83CD8262CACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2821,15 +2821,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GameUI_Language_Kor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>한국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameUI_Language_Eng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2936,6 +2928,14 @@
   </si>
   <si>
     <t>Attack Speed Boost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_Language_KOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_Language_ENG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3377,7 +3377,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="B2:B65" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -3392,7 +3392,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3407,7 +3407,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -3422,7 +3422,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -3437,7 +3437,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3452,7 +3452,7 @@
         <v>632</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3467,7 +3467,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3482,7 +3482,7 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3497,7 +3497,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -3512,7 +3512,7 @@
         <v>419</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3527,7 +3527,7 @@
         <v>420</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3542,7 +3542,7 @@
         <v>421</v>
       </c>
       <c r="B13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3557,7 +3557,7 @@
         <v>422</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3572,7 +3572,7 @@
         <v>423</v>
       </c>
       <c r="B15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3587,7 +3587,7 @@
         <v>424</v>
       </c>
       <c r="B16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3602,7 +3602,7 @@
         <v>425</v>
       </c>
       <c r="B17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3617,7 +3617,7 @@
         <v>426</v>
       </c>
       <c r="B18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3632,7 +3632,7 @@
         <v>427</v>
       </c>
       <c r="B19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3647,7 +3647,7 @@
         <v>428</v>
       </c>
       <c r="B20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3662,7 +3662,7 @@
         <v>429</v>
       </c>
       <c r="B21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -3677,7 +3677,7 @@
         <v>430</v>
       </c>
       <c r="B22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -3692,7 +3692,7 @@
         <v>431</v>
       </c>
       <c r="B23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -3707,7 +3707,7 @@
         <v>432</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -3722,7 +3722,7 @@
         <v>433</v>
       </c>
       <c r="B25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -3737,7 +3737,7 @@
         <v>434</v>
       </c>
       <c r="B26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -3752,7 +3752,7 @@
         <v>435</v>
       </c>
       <c r="B27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -3767,7 +3767,7 @@
         <v>436</v>
       </c>
       <c r="B28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -3782,7 +3782,7 @@
         <v>437</v>
       </c>
       <c r="B29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -3797,7 +3797,7 @@
         <v>438</v>
       </c>
       <c r="B30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -3812,7 +3812,7 @@
         <v>439</v>
       </c>
       <c r="B31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -3827,7 +3827,7 @@
         <v>440</v>
       </c>
       <c r="B32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -3842,7 +3842,7 @@
         <v>441</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -3857,7 +3857,7 @@
         <v>442</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -3872,7 +3872,7 @@
         <v>443</v>
       </c>
       <c r="B35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -3887,7 +3887,7 @@
         <v>444</v>
       </c>
       <c r="B36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -3902,7 +3902,7 @@
         <v>445</v>
       </c>
       <c r="B37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -3917,7 +3917,7 @@
         <v>446</v>
       </c>
       <c r="B38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -3932,7 +3932,7 @@
         <v>447</v>
       </c>
       <c r="B39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -3947,7 +3947,7 @@
         <v>448</v>
       </c>
       <c r="B40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -3962,7 +3962,7 @@
         <v>358</v>
       </c>
       <c r="B41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3977,7 +3977,7 @@
         <v>359</v>
       </c>
       <c r="B42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3992,7 +3992,7 @@
         <v>360</v>
       </c>
       <c r="B43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4007,7 +4007,7 @@
         <v>361</v>
       </c>
       <c r="B44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4022,7 +4022,7 @@
         <v>501</v>
       </c>
       <c r="B45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4037,7 +4037,7 @@
         <v>502</v>
       </c>
       <c r="B46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4052,7 +4052,7 @@
         <v>503</v>
       </c>
       <c r="B47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4067,7 +4067,7 @@
         <v>504</v>
       </c>
       <c r="B48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4082,7 +4082,7 @@
         <v>505</v>
       </c>
       <c r="B49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4097,7 +4097,7 @@
         <v>506</v>
       </c>
       <c r="B50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4112,7 +4112,7 @@
         <v>507</v>
       </c>
       <c r="B51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4127,7 +4127,7 @@
         <v>508</v>
       </c>
       <c r="B52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4142,7 +4142,7 @@
         <v>115</v>
       </c>
       <c r="B53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4157,7 +4157,7 @@
         <v>622</v>
       </c>
       <c r="B54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4172,7 +4172,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4187,7 +4187,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4202,7 +4202,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4217,7 +4217,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4232,7 +4232,7 @@
         <v>30</v>
       </c>
       <c r="B59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -4247,7 +4247,7 @@
         <v>304</v>
       </c>
       <c r="B60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4262,7 +4262,7 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -4277,14 +4277,14 @@
         <v>635</v>
       </c>
       <c r="B62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>636</v>
       </c>
       <c r="D62" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4292,14 +4292,14 @@
         <v>637</v>
       </c>
       <c r="B63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C63" t="s">
         <v>638</v>
       </c>
       <c r="D63" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -4307,14 +4307,14 @@
         <v>639</v>
       </c>
       <c r="B64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>640</v>
       </c>
       <c r="D64" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -4322,14 +4322,14 @@
         <v>641</v>
       </c>
       <c r="B65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C65" t="s">
         <v>645</v>
       </c>
       <c r="D65" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -4337,14 +4337,14 @@
         <v>642</v>
       </c>
       <c r="B66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="B66:B129" si="1">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
         <v>648</v>
       </c>
       <c r="D66" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -4352,14 +4352,14 @@
         <v>643</v>
       </c>
       <c r="B67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C67" t="s">
         <v>646</v>
       </c>
       <c r="D67" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -4367,14 +4367,14 @@
         <v>644</v>
       </c>
       <c r="B68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C68" t="s">
         <v>647</v>
       </c>
       <c r="D68" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -4382,14 +4382,14 @@
         <v>653</v>
       </c>
       <c r="B69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C69" t="s">
         <v>654</v>
       </c>
       <c r="D69" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -4397,14 +4397,14 @@
         <v>649</v>
       </c>
       <c r="B70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C70" t="s">
         <v>650</v>
       </c>
       <c r="D70" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -4412,14 +4412,14 @@
         <v>651</v>
       </c>
       <c r="B71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C71" t="s">
         <v>652</v>
       </c>
       <c r="D71" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -4427,44 +4427,44 @@
         <v>655</v>
       </c>
       <c r="B72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C72" t="s">
         <v>656</v>
       </c>
       <c r="D72" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>684</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
         <v>657</v>
       </c>
-      <c r="B73">
-        <f>COUNTIF(A:A,A73)</f>
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>658</v>
-      </c>
       <c r="D73" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="B74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D74" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -4472,7 +4472,7 @@
         <v>39</v>
       </c>
       <c r="B75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C75" t="s">
@@ -4487,7 +4487,7 @@
         <v>350</v>
       </c>
       <c r="B76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C76" t="s">
@@ -4502,7 +4502,7 @@
         <v>351</v>
       </c>
       <c r="B77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C77" t="s">
@@ -4517,7 +4517,7 @@
         <v>29</v>
       </c>
       <c r="B78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C78" t="s">
@@ -4532,7 +4532,7 @@
         <v>346</v>
       </c>
       <c r="B79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -4547,14 +4547,14 @@
         <v>349</v>
       </c>
       <c r="B80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>582</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -4562,14 +4562,14 @@
         <v>618</v>
       </c>
       <c r="B81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>617</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -4577,14 +4577,14 @@
         <v>356</v>
       </c>
       <c r="B82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>357</v>
       </c>
       <c r="D82" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -4592,7 +4592,7 @@
         <v>418</v>
       </c>
       <c r="B83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -4607,7 +4607,7 @@
         <v>491</v>
       </c>
       <c r="B84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -4622,7 +4622,7 @@
         <v>489</v>
       </c>
       <c r="B85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -4637,7 +4637,7 @@
         <v>494</v>
       </c>
       <c r="B86">
-        <f>COUNTIF(A:A,A86)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -4652,7 +4652,7 @@
         <v>495</v>
       </c>
       <c r="B87">
-        <f>COUNTIF(A:A,A87)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -4667,7 +4667,7 @@
         <v>498</v>
       </c>
       <c r="B88">
-        <f>COUNTIF(A:A,A88)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -4682,7 +4682,7 @@
         <v>586</v>
       </c>
       <c r="B89">
-        <f>COUNTIF(A:A,A89)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -4697,7 +4697,7 @@
         <v>73</v>
       </c>
       <c r="B90">
-        <f>COUNTIF(A:A,A90)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C90" t="s">
@@ -4712,7 +4712,7 @@
         <v>74</v>
       </c>
       <c r="B91">
-        <f>COUNTIF(A:A,A91)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C91" t="s">
@@ -4727,7 +4727,7 @@
         <v>68</v>
       </c>
       <c r="B92">
-        <f>COUNTIF(A:A,A92)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C92" t="s">
@@ -4742,7 +4742,7 @@
         <v>117</v>
       </c>
       <c r="B93">
-        <f>COUNTIF(A:A,A93)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C93" t="s">
@@ -4757,7 +4757,7 @@
         <v>87</v>
       </c>
       <c r="B94">
-        <f>COUNTIF(A:A,A94)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C94" t="s">
@@ -4772,7 +4772,7 @@
         <v>88</v>
       </c>
       <c r="B95">
-        <f>COUNTIF(A:A,A95)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C95" t="s">
@@ -4787,7 +4787,7 @@
         <v>89</v>
       </c>
       <c r="B96">
-        <f>COUNTIF(A:A,A96)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C96" t="s">
@@ -4802,7 +4802,7 @@
         <v>90</v>
       </c>
       <c r="B97">
-        <f>COUNTIF(A:A,A97)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C97" t="s">
@@ -4817,7 +4817,7 @@
         <v>91</v>
       </c>
       <c r="B98">
-        <f>COUNTIF(A:A,A98)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C98" t="s">
@@ -4832,14 +4832,14 @@
         <v>590</v>
       </c>
       <c r="B99">
-        <f>COUNTIF(A:A,A99)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C99" t="s">
         <v>592</v>
       </c>
       <c r="D99" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4847,7 +4847,7 @@
         <v>300</v>
       </c>
       <c r="B100">
-        <f>COUNTIF(A:A,A100)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C100" t="s">
@@ -4862,7 +4862,7 @@
         <v>92</v>
       </c>
       <c r="B101">
-        <f>COUNTIF(A:A,A101)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C101" t="s">
@@ -4877,14 +4877,14 @@
         <v>627</v>
       </c>
       <c r="B102">
-        <f>COUNTIF(A:A,A102)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C102" t="s">
         <v>625</v>
       </c>
       <c r="D102" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4892,14 +4892,14 @@
         <v>628</v>
       </c>
       <c r="B103">
-        <f>COUNTIF(A:A,A103)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C103" t="s">
         <v>626</v>
       </c>
       <c r="D103" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4907,14 +4907,14 @@
         <v>629</v>
       </c>
       <c r="B104">
-        <f>COUNTIF(A:A,A104)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C104" t="s">
         <v>623</v>
       </c>
       <c r="D104" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4922,14 +4922,14 @@
         <v>630</v>
       </c>
       <c r="B105">
-        <f>COUNTIF(A:A,A105)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C105" t="s">
         <v>624</v>
       </c>
       <c r="D105" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4937,14 +4937,14 @@
         <v>120</v>
       </c>
       <c r="B106">
-        <f>COUNTIF(A:A,A106)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D106" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -4952,14 +4952,14 @@
         <v>121</v>
       </c>
       <c r="B107">
-        <f>COUNTIF(A:A,A107)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C107" t="s">
         <v>133</v>
       </c>
       <c r="D107" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -4967,14 +4967,14 @@
         <v>122</v>
       </c>
       <c r="B108">
-        <f>COUNTIF(A:A,A108)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D108" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -4982,14 +4982,14 @@
         <v>123</v>
       </c>
       <c r="B109">
-        <f>COUNTIF(A:A,A109)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>137</v>
       </c>
       <c r="D109" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -4997,14 +4997,14 @@
         <v>124</v>
       </c>
       <c r="B110">
-        <f>COUNTIF(A:A,A110)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C110" t="s">
         <v>135</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" ref="D108:D182" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D110:D182" si="2">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(110)</v>
       </c>
     </row>
@@ -5013,14 +5013,14 @@
         <v>125</v>
       </c>
       <c r="B111">
-        <f>COUNTIF(A:A,A111)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(111)</v>
       </c>
     </row>
@@ -5029,14 +5029,14 @@
         <v>126</v>
       </c>
       <c r="B112">
-        <f>COUNTIF(A:A,A112)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(112)</v>
       </c>
     </row>
@@ -5045,14 +5045,14 @@
         <v>127</v>
       </c>
       <c r="B113">
-        <f>COUNTIF(A:A,A113)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C113" t="s">
         <v>249</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(113)</v>
       </c>
     </row>
@@ -5061,14 +5061,14 @@
         <v>128</v>
       </c>
       <c r="B114">
-        <f>COUNTIF(A:A,A114)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(114)</v>
       </c>
     </row>
@@ -5077,14 +5077,14 @@
         <v>129</v>
       </c>
       <c r="B115">
-        <f>COUNTIF(A:A,A115)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(115)</v>
       </c>
     </row>
@@ -5093,14 +5093,14 @@
         <v>130</v>
       </c>
       <c r="B116">
-        <f>COUNTIF(A:A,A116)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C116" t="s">
         <v>139</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(116)</v>
       </c>
     </row>
@@ -5109,14 +5109,14 @@
         <v>131</v>
       </c>
       <c r="B117">
-        <f>COUNTIF(A:A,A117)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(117)</v>
       </c>
     </row>
@@ -5125,14 +5125,14 @@
         <v>153</v>
       </c>
       <c r="B118">
-        <f>COUNTIF(A:A,A118)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(118)</v>
       </c>
     </row>
@@ -5141,14 +5141,14 @@
         <v>154</v>
       </c>
       <c r="B119">
-        <f>COUNTIF(A:A,A119)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(119)</v>
       </c>
     </row>
@@ -5157,14 +5157,14 @@
         <v>93</v>
       </c>
       <c r="B120">
-        <f>COUNTIF(A:A,A120)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>256</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(120)</v>
       </c>
     </row>
@@ -5173,14 +5173,14 @@
         <v>94</v>
       </c>
       <c r="B121">
-        <f>COUNTIF(A:A,A121)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(121)</v>
       </c>
     </row>
@@ -5189,14 +5189,14 @@
         <v>95</v>
       </c>
       <c r="B122">
-        <f>COUNTIF(A:A,A122)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(122)</v>
       </c>
     </row>
@@ -5205,14 +5205,14 @@
         <v>96</v>
       </c>
       <c r="B123">
-        <f>COUNTIF(A:A,A123)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(123)</v>
       </c>
     </row>
@@ -5221,14 +5221,14 @@
         <v>97</v>
       </c>
       <c r="B124">
-        <f>COUNTIF(A:A,A124)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(124)</v>
       </c>
     </row>
@@ -5237,14 +5237,14 @@
         <v>98</v>
       </c>
       <c r="B125">
-        <f>COUNTIF(A:A,A125)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(125)</v>
       </c>
     </row>
@@ -5253,14 +5253,14 @@
         <v>99</v>
       </c>
       <c r="B126">
-        <f>COUNTIF(A:A,A126)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(126)</v>
       </c>
     </row>
@@ -5269,14 +5269,14 @@
         <v>100</v>
       </c>
       <c r="B127">
-        <f>COUNTIF(A:A,A127)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(127)</v>
       </c>
     </row>
@@ -5285,14 +5285,14 @@
         <v>101</v>
       </c>
       <c r="B128">
-        <f>COUNTIF(A:A,A128)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(128)</v>
       </c>
     </row>
@@ -5301,14 +5301,14 @@
         <v>102</v>
       </c>
       <c r="B129">
-        <f>COUNTIF(A:A,A129)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
@@ -5317,14 +5317,14 @@
         <v>103</v>
       </c>
       <c r="B130">
-        <f>COUNTIF(A:A,A130)</f>
+        <f t="shared" ref="B130:B193" si="3">COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(130)</v>
       </c>
     </row>
@@ -5333,14 +5333,14 @@
         <v>163</v>
       </c>
       <c r="B131">
-        <f>COUNTIF(A:A,A131)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(131)</v>
       </c>
     </row>
@@ -5349,14 +5349,14 @@
         <v>164</v>
       </c>
       <c r="B132">
-        <f>COUNTIF(A:A,A132)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
@@ -5365,14 +5365,14 @@
         <v>241</v>
       </c>
       <c r="B133">
-        <f>COUNTIF(A:A,A133)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
@@ -5381,14 +5381,14 @@
         <v>242</v>
       </c>
       <c r="B134">
-        <f>COUNTIF(A:A,A134)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(134)</v>
       </c>
     </row>
@@ -5397,14 +5397,14 @@
         <v>166</v>
       </c>
       <c r="B135">
-        <f>COUNTIF(A:A,A135)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(135)</v>
       </c>
     </row>
@@ -5413,14 +5413,14 @@
         <v>167</v>
       </c>
       <c r="B136">
-        <f>COUNTIF(A:A,A136)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(136)</v>
       </c>
     </row>
@@ -5429,14 +5429,14 @@
         <v>168</v>
       </c>
       <c r="B137">
-        <f>COUNTIF(A:A,A137)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(137)</v>
       </c>
     </row>
@@ -5445,14 +5445,14 @@
         <v>169</v>
       </c>
       <c r="B138">
-        <f>COUNTIF(A:A,A138)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
@@ -5461,14 +5461,14 @@
         <v>170</v>
       </c>
       <c r="B139">
-        <f>COUNTIF(A:A,A139)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
@@ -5477,14 +5477,14 @@
         <v>172</v>
       </c>
       <c r="B140">
-        <f>COUNTIF(A:A,A140)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(140)</v>
       </c>
     </row>
@@ -5493,14 +5493,14 @@
         <v>174</v>
       </c>
       <c r="B141">
-        <f>COUNTIF(A:A,A141)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
@@ -5509,14 +5509,14 @@
         <v>175</v>
       </c>
       <c r="B142">
-        <f>COUNTIF(A:A,A142)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
@@ -5525,14 +5525,14 @@
         <v>176</v>
       </c>
       <c r="B143">
-        <f>COUNTIF(A:A,A143)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
@@ -5541,14 +5541,14 @@
         <v>177</v>
       </c>
       <c r="B144">
-        <f>COUNTIF(A:A,A144)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>296</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(144)</v>
       </c>
     </row>
@@ -5557,14 +5557,14 @@
         <v>178</v>
       </c>
       <c r="B145">
-        <f>COUNTIF(A:A,A145)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
@@ -5573,14 +5573,14 @@
         <v>179</v>
       </c>
       <c r="B146">
-        <f>COUNTIF(A:A,A146)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
@@ -5589,14 +5589,14 @@
         <v>180</v>
       </c>
       <c r="B147">
-        <f>COUNTIF(A:A,A147)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
@@ -5605,14 +5605,14 @@
         <v>182</v>
       </c>
       <c r="B148">
-        <f>COUNTIF(A:A,A148)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
@@ -5621,14 +5621,14 @@
         <v>165</v>
       </c>
       <c r="B149">
-        <f>COUNTIF(A:A,A149)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
@@ -5637,14 +5637,14 @@
         <v>184</v>
       </c>
       <c r="B150">
-        <f>COUNTIF(A:A,A150)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(150)</v>
       </c>
     </row>
@@ -5653,14 +5653,14 @@
         <v>302</v>
       </c>
       <c r="B151">
-        <f>COUNTIF(A:A,A151)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(151)</v>
       </c>
     </row>
@@ -5669,14 +5669,14 @@
         <v>192</v>
       </c>
       <c r="B152">
-        <f>COUNTIF(A:A,A152)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(152)</v>
       </c>
     </row>
@@ -5685,14 +5685,14 @@
         <v>185</v>
       </c>
       <c r="B153">
-        <f>COUNTIF(A:A,A153)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(153)</v>
       </c>
     </row>
@@ -5701,14 +5701,14 @@
         <v>187</v>
       </c>
       <c r="B154">
-        <f>COUNTIF(A:A,A154)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
@@ -5717,14 +5717,14 @@
         <v>189</v>
       </c>
       <c r="B155">
-        <f>COUNTIF(A:A,A155)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(155)</v>
       </c>
     </row>
@@ -5733,14 +5733,14 @@
         <v>190</v>
       </c>
       <c r="B156">
-        <f>COUNTIF(A:A,A156)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(156)</v>
       </c>
     </row>
@@ -5749,14 +5749,14 @@
         <v>141</v>
       </c>
       <c r="B157">
-        <f>COUNTIF(A:A,A157)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C157" t="s">
         <v>270</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(157)</v>
       </c>
     </row>
@@ -5765,14 +5765,14 @@
         <v>142</v>
       </c>
       <c r="B158">
-        <f>COUNTIF(A:A,A158)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C158" t="s">
         <v>271</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(158)</v>
       </c>
     </row>
@@ -5781,14 +5781,14 @@
         <v>143</v>
       </c>
       <c r="B159">
-        <f>COUNTIF(A:A,A159)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C159" t="s">
         <v>272</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(159)</v>
       </c>
     </row>
@@ -5797,14 +5797,14 @@
         <v>144</v>
       </c>
       <c r="B160">
-        <f>COUNTIF(A:A,A160)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C160" t="s">
         <v>273</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(160)</v>
       </c>
     </row>
@@ -5813,14 +5813,14 @@
         <v>145</v>
       </c>
       <c r="B161">
-        <f>COUNTIF(A:A,A161)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C161" t="s">
         <v>274</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
@@ -5829,14 +5829,14 @@
         <v>146</v>
       </c>
       <c r="B162">
-        <f>COUNTIF(A:A,A162)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C162" t="s">
         <v>275</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(162)</v>
       </c>
     </row>
@@ -5845,14 +5845,14 @@
         <v>147</v>
       </c>
       <c r="B163">
-        <f>COUNTIF(A:A,A163)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C163" t="s">
         <v>276</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(163)</v>
       </c>
     </row>
@@ -5861,14 +5861,14 @@
         <v>148</v>
       </c>
       <c r="B164">
-        <f>COUNTIF(A:A,A164)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C164" t="s">
         <v>277</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(164)</v>
       </c>
     </row>
@@ -5877,14 +5877,14 @@
         <v>149</v>
       </c>
       <c r="B165">
-        <f>COUNTIF(A:A,A165)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C165" t="s">
         <v>278</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(165)</v>
       </c>
     </row>
@@ -5893,14 +5893,14 @@
         <v>150</v>
       </c>
       <c r="B166">
-        <f>COUNTIF(A:A,A166)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>279</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(166)</v>
       </c>
     </row>
@@ -5909,14 +5909,14 @@
         <v>151</v>
       </c>
       <c r="B167">
-        <f>COUNTIF(A:A,A167)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C167" t="s">
         <v>280</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(167)</v>
       </c>
     </row>
@@ -5925,14 +5925,14 @@
         <v>152</v>
       </c>
       <c r="B168">
-        <f>COUNTIF(A:A,A168)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C168" t="s">
         <v>281</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(168)</v>
       </c>
     </row>
@@ -5941,14 +5941,14 @@
         <v>155</v>
       </c>
       <c r="B169">
-        <f>COUNTIF(A:A,A169)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C169" t="s">
         <v>282</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(169)</v>
       </c>
     </row>
@@ -5957,14 +5957,14 @@
         <v>156</v>
       </c>
       <c r="B170">
-        <f>COUNTIF(A:A,A170)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C170" t="s">
         <v>283</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
@@ -5973,14 +5973,14 @@
         <v>104</v>
       </c>
       <c r="B171">
-        <f>COUNTIF(A:A,A171)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C171" t="s">
         <v>195</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
@@ -5989,14 +5989,14 @@
         <v>105</v>
       </c>
       <c r="B172">
-        <f>COUNTIF(A:A,A172)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>196</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
@@ -6005,14 +6005,14 @@
         <v>106</v>
       </c>
       <c r="B173">
-        <f>COUNTIF(A:A,A173)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C173" t="s">
         <v>284</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(173)</v>
       </c>
     </row>
@@ -6021,14 +6021,14 @@
         <v>107</v>
       </c>
       <c r="B174">
-        <f>COUNTIF(A:A,A174)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C174" t="s">
         <v>197</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(174)</v>
       </c>
     </row>
@@ -6037,14 +6037,14 @@
         <v>108</v>
       </c>
       <c r="B175">
-        <f>COUNTIF(A:A,A175)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C175" t="s">
         <v>198</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(175)</v>
       </c>
     </row>
@@ -6053,14 +6053,14 @@
         <v>109</v>
       </c>
       <c r="B176">
-        <f>COUNTIF(A:A,A176)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C176" t="s">
         <v>199</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(176)</v>
       </c>
     </row>
@@ -6069,14 +6069,14 @@
         <v>110</v>
       </c>
       <c r="B177">
-        <f>COUNTIF(A:A,A177)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C177" t="s">
         <v>200</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(177)</v>
       </c>
     </row>
@@ -6085,14 +6085,14 @@
         <v>111</v>
       </c>
       <c r="B178">
-        <f>COUNTIF(A:A,A178)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C178" t="s">
         <v>201</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(178)</v>
       </c>
     </row>
@@ -6101,14 +6101,14 @@
         <v>112</v>
       </c>
       <c r="B179">
-        <f>COUNTIF(A:A,A179)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C179" t="s">
         <v>202</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(179)</v>
       </c>
     </row>
@@ -6117,14 +6117,14 @@
         <v>113</v>
       </c>
       <c r="B180">
-        <f>COUNTIF(A:A,A180)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C180" t="s">
         <v>203</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
@@ -6133,14 +6133,14 @@
         <v>114</v>
       </c>
       <c r="B181">
-        <f>COUNTIF(A:A,A181)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C181" t="s">
         <v>204</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
@@ -6149,14 +6149,14 @@
         <v>205</v>
       </c>
       <c r="B182">
-        <f>COUNTIF(A:A,A182)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C182" t="s">
         <v>206</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
@@ -6165,14 +6165,14 @@
         <v>207</v>
       </c>
       <c r="B183">
-        <f>COUNTIF(A:A,A183)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C183" t="s">
         <v>208</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D289" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D183:D289" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
@@ -6181,14 +6181,14 @@
         <v>243</v>
       </c>
       <c r="B184">
-        <f>COUNTIF(A:A,A184)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C184" t="s">
         <v>287</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
@@ -6197,14 +6197,14 @@
         <v>244</v>
       </c>
       <c r="B185">
-        <f>COUNTIF(A:A,A185)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C185" t="s">
         <v>288</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
@@ -6213,14 +6213,14 @@
         <v>211</v>
       </c>
       <c r="B186">
-        <f>COUNTIF(A:A,A186)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C186" t="s">
         <v>289</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
@@ -6229,14 +6229,14 @@
         <v>212</v>
       </c>
       <c r="B187">
-        <f>COUNTIF(A:A,A187)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C187" t="s">
         <v>290</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
@@ -6245,14 +6245,14 @@
         <v>213</v>
       </c>
       <c r="B188">
-        <f>COUNTIF(A:A,A188)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C188" t="s">
         <v>293</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
@@ -6261,14 +6261,14 @@
         <v>214</v>
       </c>
       <c r="B189">
-        <f>COUNTIF(A:A,A189)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C189" t="s">
         <v>294</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
@@ -6277,14 +6277,14 @@
         <v>215</v>
       </c>
       <c r="B190">
-        <f>COUNTIF(A:A,A190)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C190" t="s">
         <v>216</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
@@ -6293,14 +6293,14 @@
         <v>217</v>
       </c>
       <c r="B191">
-        <f>COUNTIF(A:A,A191)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C191" t="s">
         <v>218</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
@@ -6309,14 +6309,14 @@
         <v>219</v>
       </c>
       <c r="B192">
-        <f>COUNTIF(A:A,A192)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C192" t="s">
         <v>220</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
@@ -6325,14 +6325,14 @@
         <v>221</v>
       </c>
       <c r="B193">
-        <f>COUNTIF(A:A,A193)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C193" t="s">
         <v>222</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
@@ -6341,14 +6341,14 @@
         <v>223</v>
       </c>
       <c r="B194">
-        <f>COUNTIF(A:A,A194)</f>
+        <f t="shared" ref="B194:B257" si="5">COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
         <v>297</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
@@ -6357,14 +6357,14 @@
         <v>224</v>
       </c>
       <c r="B195">
-        <f>COUNTIF(A:A,A195)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C195" t="s">
         <v>298</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
@@ -6373,14 +6373,14 @@
         <v>225</v>
       </c>
       <c r="B196">
-        <f>COUNTIF(A:A,A196)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C196" t="s">
         <v>285</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
@@ -6389,14 +6389,14 @@
         <v>226</v>
       </c>
       <c r="B197">
-        <f>COUNTIF(A:A,A197)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C197" t="s">
         <v>286</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
@@ -6405,14 +6405,14 @@
         <v>227</v>
       </c>
       <c r="B198">
-        <f>COUNTIF(A:A,A198)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C198" t="s">
         <v>228</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
@@ -6421,14 +6421,14 @@
         <v>229</v>
       </c>
       <c r="B199">
-        <f>COUNTIF(A:A,A199)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C199" t="s">
         <v>230</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
@@ -6437,14 +6437,14 @@
         <v>209</v>
       </c>
       <c r="B200">
-        <f>COUNTIF(A:A,A200)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C200" t="s">
         <v>210</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
@@ -6453,14 +6453,14 @@
         <v>231</v>
       </c>
       <c r="B201">
-        <f>COUNTIF(A:A,A201)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C201" t="s">
         <v>299</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
@@ -6469,14 +6469,14 @@
         <v>303</v>
       </c>
       <c r="B202">
-        <f>COUNTIF(A:A,A202)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C202" t="s">
         <v>291</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
@@ -6485,14 +6485,14 @@
         <v>239</v>
       </c>
       <c r="B203">
-        <f>COUNTIF(A:A,A203)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C203" t="s">
         <v>240</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
@@ -6501,14 +6501,14 @@
         <v>232</v>
       </c>
       <c r="B204">
-        <f>COUNTIF(A:A,A204)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
@@ -6517,14 +6517,14 @@
         <v>234</v>
       </c>
       <c r="B205">
-        <f>COUNTIF(A:A,A205)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C205" t="s">
         <v>235</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
@@ -6533,14 +6533,14 @@
         <v>236</v>
       </c>
       <c r="B206">
-        <f>COUNTIF(A:A,A206)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C206" t="s">
         <v>292</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
@@ -6549,14 +6549,14 @@
         <v>237</v>
       </c>
       <c r="B207">
-        <f>COUNTIF(A:A,A207)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C207" t="s">
         <v>238</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
@@ -6565,14 +6565,14 @@
         <v>376</v>
       </c>
       <c r="B208">
-        <f>COUNTIF(A:A,A208)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C208" t="s">
         <v>397</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
@@ -6581,14 +6581,14 @@
         <v>377</v>
       </c>
       <c r="B209">
-        <f>COUNTIF(A:A,A209)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C209" t="s">
         <v>398</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
@@ -6597,14 +6597,14 @@
         <v>378</v>
       </c>
       <c r="B210">
-        <f>COUNTIF(A:A,A210)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C210" t="s">
         <v>399</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
@@ -6613,14 +6613,14 @@
         <v>379</v>
       </c>
       <c r="B211">
-        <f>COUNTIF(A:A,A211)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C211" t="s">
         <v>400</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
@@ -6629,14 +6629,14 @@
         <v>380</v>
       </c>
       <c r="B212">
-        <f>COUNTIF(A:A,A212)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C212" t="s">
         <v>401</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
@@ -6645,14 +6645,14 @@
         <v>381</v>
       </c>
       <c r="B213">
-        <f>COUNTIF(A:A,A213)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C213" t="s">
         <v>402</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
@@ -6661,14 +6661,14 @@
         <v>382</v>
       </c>
       <c r="B214">
-        <f>COUNTIF(A:A,A214)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C214" t="s">
         <v>403</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
@@ -6677,14 +6677,14 @@
         <v>383</v>
       </c>
       <c r="B215">
-        <f>COUNTIF(A:A,A215)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C215" t="s">
         <v>404</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
@@ -6693,14 +6693,14 @@
         <v>384</v>
       </c>
       <c r="B216">
-        <f>COUNTIF(A:A,A216)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C216" t="s">
         <v>405</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
@@ -6709,14 +6709,14 @@
         <v>385</v>
       </c>
       <c r="B217">
-        <f>COUNTIF(A:A,A217)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>406</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
@@ -6725,14 +6725,14 @@
         <v>386</v>
       </c>
       <c r="B218">
-        <f>COUNTIF(A:A,A218)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C218" t="s">
         <v>407</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
@@ -6741,14 +6741,14 @@
         <v>387</v>
       </c>
       <c r="B219">
-        <f>COUNTIF(A:A,A219)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C219" t="s">
         <v>408</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
@@ -6757,14 +6757,14 @@
         <v>388</v>
       </c>
       <c r="B220">
-        <f>COUNTIF(A:A,A220)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C220" t="s">
         <v>409</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
@@ -6773,14 +6773,14 @@
         <v>389</v>
       </c>
       <c r="B221">
-        <f>COUNTIF(A:A,A221)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>410</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
@@ -6789,14 +6789,14 @@
         <v>390</v>
       </c>
       <c r="B222">
-        <f>COUNTIF(A:A,A222)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C222" t="s">
         <v>411</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
@@ -6805,14 +6805,14 @@
         <v>391</v>
       </c>
       <c r="B223">
-        <f>COUNTIF(A:A,A223)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C223" t="s">
         <v>412</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
@@ -6821,14 +6821,14 @@
         <v>392</v>
       </c>
       <c r="B224">
-        <f>COUNTIF(A:A,A224)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C224" t="s">
         <v>413</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(224)</v>
       </c>
     </row>
@@ -6837,14 +6837,14 @@
         <v>393</v>
       </c>
       <c r="B225">
-        <f>COUNTIF(A:A,A225)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C225" t="s">
         <v>414</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(225)</v>
       </c>
     </row>
@@ -6853,14 +6853,14 @@
         <v>394</v>
       </c>
       <c r="B226">
-        <f>COUNTIF(A:A,A226)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C226" t="s">
         <v>415</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(226)</v>
       </c>
     </row>
@@ -6869,14 +6869,14 @@
         <v>395</v>
       </c>
       <c r="B227">
-        <f>COUNTIF(A:A,A227)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C227" t="s">
         <v>416</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(227)</v>
       </c>
     </row>
@@ -6885,14 +6885,14 @@
         <v>396</v>
       </c>
       <c r="B228">
-        <f>COUNTIF(A:A,A228)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C228" t="s">
         <v>417</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(228)</v>
       </c>
     </row>
@@ -6901,14 +6901,14 @@
         <v>541</v>
       </c>
       <c r="B229">
-        <f>COUNTIF(A:A,A229)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C229" t="s">
         <v>549</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(229)</v>
       </c>
     </row>
@@ -6917,14 +6917,14 @@
         <v>542</v>
       </c>
       <c r="B230">
-        <f>COUNTIF(A:A,A230)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C230" t="s">
         <v>550</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(230)</v>
       </c>
     </row>
@@ -6933,14 +6933,14 @@
         <v>543</v>
       </c>
       <c r="B231">
-        <f>COUNTIF(A:A,A231)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C231" t="s">
         <v>551</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(231)</v>
       </c>
     </row>
@@ -6949,14 +6949,14 @@
         <v>544</v>
       </c>
       <c r="B232">
-        <f>COUNTIF(A:A,A232)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C232" t="s">
         <v>552</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(232)</v>
       </c>
     </row>
@@ -6965,14 +6965,14 @@
         <v>545</v>
       </c>
       <c r="B233">
-        <f>COUNTIF(A:A,A233)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C233" t="s">
         <v>553</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(233)</v>
       </c>
     </row>
@@ -6981,14 +6981,14 @@
         <v>546</v>
       </c>
       <c r="B234">
-        <f>COUNTIF(A:A,A234)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C234" t="s">
         <v>554</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(234)</v>
       </c>
     </row>
@@ -6997,14 +6997,14 @@
         <v>547</v>
       </c>
       <c r="B235">
-        <f>COUNTIF(A:A,A235)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C235" t="s">
         <v>555</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(235)</v>
       </c>
     </row>
@@ -7013,14 +7013,14 @@
         <v>548</v>
       </c>
       <c r="B236">
-        <f>COUNTIF(A:A,A236)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C236" t="s">
         <v>556</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(236)</v>
       </c>
     </row>
@@ -7029,14 +7029,14 @@
         <v>307</v>
       </c>
       <c r="B237">
-        <f>COUNTIF(A:A,A237)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C237" t="s">
         <v>589</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(237)</v>
       </c>
     </row>
@@ -7045,14 +7045,14 @@
         <v>308</v>
       </c>
       <c r="B238">
-        <f>COUNTIF(A:A,A238)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C238" t="s">
         <v>328</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(238)</v>
       </c>
     </row>
@@ -7061,14 +7061,14 @@
         <v>309</v>
       </c>
       <c r="B239">
-        <f>COUNTIF(A:A,A239)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C239" t="s">
         <v>329</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(239)</v>
       </c>
     </row>
@@ -7077,14 +7077,14 @@
         <v>310</v>
       </c>
       <c r="B240">
-        <f>COUNTIF(A:A,A240)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C240" t="s">
         <v>330</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(240)</v>
       </c>
     </row>
@@ -7093,14 +7093,14 @@
         <v>311</v>
       </c>
       <c r="B241">
-        <f>COUNTIF(A:A,A241)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C241" t="s">
         <v>331</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(241)</v>
       </c>
     </row>
@@ -7109,14 +7109,14 @@
         <v>312</v>
       </c>
       <c r="B242">
-        <f>COUNTIF(A:A,A242)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C242" t="s">
         <v>332</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(242)</v>
       </c>
     </row>
@@ -7125,14 +7125,14 @@
         <v>313</v>
       </c>
       <c r="B243">
-        <f>COUNTIF(A:A,A243)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C243" t="s">
         <v>579</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(243)</v>
       </c>
     </row>
@@ -7141,14 +7141,14 @@
         <v>314</v>
       </c>
       <c r="B244">
-        <f>COUNTIF(A:A,A244)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C244" t="s">
         <v>333</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(244)</v>
       </c>
     </row>
@@ -7157,14 +7157,14 @@
         <v>315</v>
       </c>
       <c r="B245">
-        <f>COUNTIF(A:A,A245)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C245" t="s">
         <v>334</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(245)</v>
       </c>
     </row>
@@ -7173,14 +7173,14 @@
         <v>316</v>
       </c>
       <c r="B246">
-        <f>COUNTIF(A:A,A246)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C246" t="s">
         <v>335</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(246)</v>
       </c>
     </row>
@@ -7189,14 +7189,14 @@
         <v>317</v>
       </c>
       <c r="B247">
-        <f>COUNTIF(A:A,A247)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C247" t="s">
         <v>336</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(247)</v>
       </c>
     </row>
@@ -7205,14 +7205,14 @@
         <v>318</v>
       </c>
       <c r="B248">
-        <f>COUNTIF(A:A,A248)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C248" t="s">
         <v>337</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(248)</v>
       </c>
     </row>
@@ -7221,14 +7221,14 @@
         <v>319</v>
       </c>
       <c r="B249">
-        <f>COUNTIF(A:A,A249)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C249" t="s">
         <v>338</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(249)</v>
       </c>
     </row>
@@ -7237,14 +7237,14 @@
         <v>320</v>
       </c>
       <c r="B250">
-        <f>COUNTIF(A:A,A250)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C250" t="s">
         <v>339</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(250)</v>
       </c>
     </row>
@@ -7253,14 +7253,14 @@
         <v>321</v>
       </c>
       <c r="B251">
-        <f>COUNTIF(A:A,A251)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C251" t="s">
         <v>340</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(251)</v>
       </c>
     </row>
@@ -7269,14 +7269,14 @@
         <v>322</v>
       </c>
       <c r="B252">
-        <f>COUNTIF(A:A,A252)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C252" t="s">
         <v>341</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(252)</v>
       </c>
     </row>
@@ -7285,14 +7285,14 @@
         <v>323</v>
       </c>
       <c r="B253">
-        <f>COUNTIF(A:A,A253)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C253" t="s">
         <v>342</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(253)</v>
       </c>
     </row>
@@ -7301,14 +7301,14 @@
         <v>324</v>
       </c>
       <c r="B254">
-        <f>COUNTIF(A:A,A254)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C254" t="s">
         <v>343</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(254)</v>
       </c>
     </row>
@@ -7317,14 +7317,14 @@
         <v>325</v>
       </c>
       <c r="B255">
-        <f>COUNTIF(A:A,A255)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C255" t="s">
         <v>344</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(255)</v>
       </c>
     </row>
@@ -7333,14 +7333,14 @@
         <v>326</v>
       </c>
       <c r="B256">
-        <f>COUNTIF(A:A,A256)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C256" t="s">
         <v>345</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(256)</v>
       </c>
     </row>
@@ -7349,14 +7349,14 @@
         <v>327</v>
       </c>
       <c r="B257">
-        <f>COUNTIF(A:A,A257)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C257" t="s">
         <v>564</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(257)</v>
       </c>
     </row>
@@ -7365,14 +7365,14 @@
         <v>557</v>
       </c>
       <c r="B258">
-        <f>COUNTIF(A:A,A258)</f>
+        <f t="shared" ref="B258:B321" si="6">COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
         <v>565</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(258)</v>
       </c>
     </row>
@@ -7381,14 +7381,14 @@
         <v>558</v>
       </c>
       <c r="B259">
-        <f>COUNTIF(A:A,A259)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C259" t="s">
         <v>566</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(259)</v>
       </c>
     </row>
@@ -7397,14 +7397,14 @@
         <v>559</v>
       </c>
       <c r="B260">
-        <f>COUNTIF(A:A,A260)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C260" t="s">
         <v>567</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(260)</v>
       </c>
     </row>
@@ -7413,14 +7413,14 @@
         <v>560</v>
       </c>
       <c r="B261">
-        <f>COUNTIF(A:A,A261)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>568</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(261)</v>
       </c>
     </row>
@@ -7429,14 +7429,14 @@
         <v>561</v>
       </c>
       <c r="B262">
-        <f>COUNTIF(A:A,A262)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C262" t="s">
         <v>569</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(262)</v>
       </c>
     </row>
@@ -7445,14 +7445,14 @@
         <v>562</v>
       </c>
       <c r="B263">
-        <f>COUNTIF(A:A,A263)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C263" t="s">
         <v>570</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(263)</v>
       </c>
     </row>
@@ -7461,14 +7461,14 @@
         <v>563</v>
       </c>
       <c r="B264">
-        <f>COUNTIF(A:A,A264)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C264" t="s">
         <v>571</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(264)</v>
       </c>
     </row>
@@ -7477,14 +7477,14 @@
         <v>577</v>
       </c>
       <c r="B265">
-        <f>COUNTIF(A:A,A265)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C265" t="s">
         <v>578</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(265)</v>
       </c>
     </row>
@@ -7493,7 +7493,7 @@
         <v>527</v>
       </c>
       <c r="B266">
-        <f>COUNTIF(A:A,A266)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C266" t="s">
@@ -7508,14 +7508,14 @@
         <v>528</v>
       </c>
       <c r="B267">
-        <f>COUNTIF(A:A,A267)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>522</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(267)</v>
       </c>
     </row>
@@ -7524,7 +7524,7 @@
         <v>529</v>
       </c>
       <c r="B268">
-        <f>COUNTIF(A:A,A268)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C268" t="s">
@@ -7539,14 +7539,14 @@
         <v>530</v>
       </c>
       <c r="B269">
-        <f>COUNTIF(A:A,A269)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>524</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(269)</v>
       </c>
     </row>
@@ -7555,7 +7555,7 @@
         <v>531</v>
       </c>
       <c r="B270">
-        <f>COUNTIF(A:A,A270)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C270" t="s">
@@ -7570,14 +7570,14 @@
         <v>532</v>
       </c>
       <c r="B271">
-        <f>COUNTIF(A:A,A271)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>575</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(271)</v>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
         <v>533</v>
       </c>
       <c r="B272">
-        <f>COUNTIF(A:A,A272)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C272" t="s">
@@ -7601,14 +7601,14 @@
         <v>534</v>
       </c>
       <c r="B273">
-        <f>COUNTIF(A:A,A273)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>576</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(273)</v>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
         <v>601</v>
       </c>
       <c r="B274">
-        <f>COUNTIF(A:A,A274)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -7632,7 +7632,7 @@
         <v>602</v>
       </c>
       <c r="B275">
-        <f>COUNTIF(A:A,A275)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -7647,7 +7647,7 @@
         <v>593</v>
       </c>
       <c r="B276">
-        <f>COUNTIF(A:A,A276)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C276" t="s">
@@ -7662,14 +7662,14 @@
         <v>594</v>
       </c>
       <c r="B277">
-        <f>COUNTIF(A:A,A277)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>596</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(277)</v>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
         <v>603</v>
       </c>
       <c r="B278">
-        <f>COUNTIF(A:A,A278)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -7693,14 +7693,14 @@
         <v>611</v>
       </c>
       <c r="B279">
-        <f>COUNTIF(A:A,A279)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>614</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(279)</v>
       </c>
     </row>
@@ -7709,14 +7709,14 @@
         <v>612</v>
       </c>
       <c r="B280">
-        <f>COUNTIF(A:A,A280)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>615</v>
       </c>
       <c r="D280" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(280)</v>
       </c>
     </row>
@@ -7725,14 +7725,14 @@
         <v>599</v>
       </c>
       <c r="B281">
-        <f>COUNTIF(A:A,A281)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C281" t="s">
         <v>597</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(281)</v>
       </c>
     </row>
@@ -7741,14 +7741,14 @@
         <v>600</v>
       </c>
       <c r="B282">
-        <f>COUNTIF(A:A,A282)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>598</v>
       </c>
       <c r="D282" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(282)</v>
       </c>
     </row>
@@ -7757,14 +7757,14 @@
         <v>613</v>
       </c>
       <c r="B283">
-        <f>COUNTIF(A:A,A283)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>616</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(283)</v>
       </c>
     </row>
@@ -7773,14 +7773,14 @@
         <v>371</v>
       </c>
       <c r="B284">
-        <f>COUNTIF(A:A,A284)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C284" t="s">
         <v>535</v>
       </c>
       <c r="D284" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(284)</v>
       </c>
     </row>
@@ -7789,14 +7789,14 @@
         <v>372</v>
       </c>
       <c r="B285">
-        <f>COUNTIF(A:A,A285)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C285" t="s">
         <v>536</v>
       </c>
       <c r="D285" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(285)</v>
       </c>
     </row>
@@ -7805,14 +7805,14 @@
         <v>370</v>
       </c>
       <c r="B286">
-        <f>COUNTIF(A:A,A286)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C286" t="s">
         <v>537</v>
       </c>
       <c r="D286" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(286)</v>
       </c>
     </row>
@@ -7821,14 +7821,14 @@
         <v>374</v>
       </c>
       <c r="B287">
-        <f>COUNTIF(A:A,A287)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C287" t="s">
         <v>538</v>
       </c>
       <c r="D287" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(287)</v>
       </c>
     </row>
@@ -7837,14 +7837,14 @@
         <v>375</v>
       </c>
       <c r="B288">
-        <f>COUNTIF(A:A,A288)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C288" t="s">
         <v>540</v>
       </c>
       <c r="D288" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(288)</v>
       </c>
     </row>
@@ -7853,14 +7853,14 @@
         <v>373</v>
       </c>
       <c r="B289">
-        <f>COUNTIF(A:A,A289)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C289" t="s">
         <v>539</v>
       </c>
       <c r="D289" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(289)</v>
       </c>
     </row>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AA96A9-6813-44FB-B011-83CD8262CACC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B041BE1-6B5F-41D9-8DF2-6057A094CF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$286</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="677">
   <si>
     <t>확인</t>
   </si>
@@ -2739,12 +2739,6 @@
     <t>eng|String</t>
   </si>
   <si>
-    <t>GameUI_Pause</t>
-  </si>
-  <si>
-    <t>일시정지</t>
-  </si>
-  <si>
     <t>GameUI_GameSetting</t>
   </si>
   <si>
@@ -2789,30 +2783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GameUI_Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameUI_System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameUI_Setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GameUI_Language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2829,10 +2799,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Game Setting</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2846,26 +2812,6 @@
   </si>
   <si>
     <t>BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use Ultimate Skill with doulbe-tap during battle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fixed Ulitimate Skill position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2936,6 +2882,26 @@
   </si>
   <si>
     <t>GameUI_Language_ENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_SystemSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fixed Ultimate Skill position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Ultimate Skill with double-tap during battle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3340,7 +3306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3377,7 +3343,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -3392,7 +3358,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3407,7 +3373,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -3422,7 +3388,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -3437,7 +3403,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3452,7 +3418,7 @@
         <v>632</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3467,7 +3433,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3482,7 +3448,7 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3497,7 +3463,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -3512,7 +3478,7 @@
         <v>419</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3527,7 +3493,7 @@
         <v>420</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3542,7 +3508,7 @@
         <v>421</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3557,7 +3523,7 @@
         <v>422</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3572,7 +3538,7 @@
         <v>423</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3587,7 +3553,7 @@
         <v>424</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3602,7 +3568,7 @@
         <v>425</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3617,7 +3583,7 @@
         <v>426</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3632,7 +3598,7 @@
         <v>427</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3647,7 +3613,7 @@
         <v>428</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3662,7 +3628,7 @@
         <v>429</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -3677,7 +3643,7 @@
         <v>430</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -3692,7 +3658,7 @@
         <v>431</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -3707,7 +3673,7 @@
         <v>432</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -3722,7 +3688,7 @@
         <v>433</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -3737,7 +3703,7 @@
         <v>434</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -3752,7 +3718,7 @@
         <v>435</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -3767,7 +3733,7 @@
         <v>436</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -3782,7 +3748,7 @@
         <v>437</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -3797,7 +3763,7 @@
         <v>438</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -3812,7 +3778,7 @@
         <v>439</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -3827,7 +3793,7 @@
         <v>440</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -3842,7 +3808,7 @@
         <v>441</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -3857,7 +3823,7 @@
         <v>442</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -3872,7 +3838,7 @@
         <v>443</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -3887,7 +3853,7 @@
         <v>444</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -3902,7 +3868,7 @@
         <v>445</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -3917,7 +3883,7 @@
         <v>446</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -3932,7 +3898,7 @@
         <v>447</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -3947,7 +3913,7 @@
         <v>448</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -3962,7 +3928,7 @@
         <v>358</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -3977,7 +3943,7 @@
         <v>359</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3992,7 +3958,7 @@
         <v>360</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4007,7 +3973,7 @@
         <v>361</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4022,7 +3988,7 @@
         <v>501</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4037,7 +4003,7 @@
         <v>502</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4052,7 +4018,7 @@
         <v>503</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4067,7 +4033,7 @@
         <v>504</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4082,7 +4048,7 @@
         <v>505</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4097,7 +4063,7 @@
         <v>506</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4112,7 +4078,7 @@
         <v>507</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4127,7 +4093,7 @@
         <v>508</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4142,7 +4108,7 @@
         <v>115</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4157,7 +4123,7 @@
         <v>622</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4172,7 +4138,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4187,7 +4153,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4202,7 +4168,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4217,7 +4183,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4232,7 +4198,7 @@
         <v>30</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -4247,7 +4213,7 @@
         <v>304</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4262,7 +4228,7 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -4277,14 +4243,14 @@
         <v>635</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
         <v>636</v>
       </c>
       <c r="D62" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -4292,14 +4258,14 @@
         <v>637</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
         <v>638</v>
       </c>
       <c r="D63" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -4307,3561 +4273,3516 @@
         <v>639</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="D64" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D65" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B129" si="1">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D66" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B67">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D67" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
       <c r="B68">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
       <c r="D68" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D69" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>670</v>
+      </c>
+      <c r="B70">
+        <f>COUNTIF(A:A,A70)</f>
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
         <v>649</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>650</v>
-      </c>
       <c r="D70" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D71" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>655</v>
+        <v>39</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>656</v>
+        <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>669</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>684</v>
+        <v>350</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>657</v>
+        <v>352</v>
       </c>
       <c r="D73" t="s">
-        <v>670</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>685</v>
+        <v>351</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>658</v>
+        <v>353</v>
       </c>
       <c r="D74" t="s">
-        <v>671</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B75">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B76">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C76" t="s">
-        <v>352</v>
-      </c>
-      <c r="D76" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A76)</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B77">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>353</v>
-      </c>
-      <c r="D77" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A77)</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>618</v>
       </c>
       <c r="B78">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" t="s">
-        <v>28</v>
+        <f>COUNTIF(A:A,A78)</f>
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B79">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+      <c r="D79" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="B80">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>618</v>
+        <v>491</v>
       </c>
       <c r="B81">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>673</v>
+        <v>492</v>
+      </c>
+      <c r="D81" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>356</v>
+        <v>489</v>
       </c>
       <c r="B82">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>357</v>
+        <v>490</v>
       </c>
       <c r="D82" t="s">
-        <v>674</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>418</v>
+        <v>494</v>
       </c>
       <c r="B83">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B84">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D84" t="s">
-        <v>493</v>
+        <v>583</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B85">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D85" t="s">
-        <v>496</v>
+        <v>580</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>494</v>
+        <v>586</v>
       </c>
       <c r="B86">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>495</v>
+        <v>73</v>
       </c>
       <c r="B87">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>497</v>
+        <f>COUNTIF(A:A,A87)</f>
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>69</v>
+      </c>
+      <c r="D87" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>498</v>
+        <v>74</v>
       </c>
       <c r="B88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>581</v>
+        <f>COUNTIF(A:A,A88)</f>
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>75</v>
+      </c>
+      <c r="D88" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>586</v>
+        <v>68</v>
       </c>
       <c r="B89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>585</v>
+        <f>COUNTIF(A:A,A89)</f>
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B90">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="D90" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B91">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B92">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D92" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="B93">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D93" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B94">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D94" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B95">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A95)</f>
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D95" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>590</v>
       </c>
       <c r="B96">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A96)</f>
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>592</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>661</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="B97">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A97)</f>
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="D97" t="s">
-        <v>85</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B98">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>81</v>
+        <v>620</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>619</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="B99">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
       <c r="D99" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>628</v>
       </c>
       <c r="B100">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>626</v>
       </c>
       <c r="D100" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>629</v>
       </c>
       <c r="B101">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D101" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B102">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D102" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>628</v>
+        <v>120</v>
       </c>
       <c r="B103">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C103" t="s">
-        <v>626</v>
+        <f>COUNTIF(A:A,A103)</f>
+        <v>1</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="D103" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>629</v>
+        <v>121</v>
       </c>
       <c r="B104">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>623</v>
+        <v>133</v>
       </c>
       <c r="D104" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>630</v>
+        <v>122</v>
       </c>
       <c r="B105">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C105" t="s">
-        <v>624</v>
+        <f>COUNTIF(A:A,A105)</f>
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D105" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B106">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D106" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B107">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
-      </c>
-      <c r="D107" t="s">
-        <v>681</v>
+        <v>135</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" ref="D107:D179" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <v>In progress of translating…(107)</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B108">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D108" t="s">
-        <v>682</v>
+        <v>136</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="0"/>
+        <v>In progress of translating…(108)</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B109">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D109" t="s">
-        <v>683</v>
+        <v>248</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="0"/>
+        <v>In progress of translating…(109)</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B110">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" ref="D110:D182" si="2">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(110)</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B111">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(111)</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B112">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(112)</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B113">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(113)</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B114">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(114)</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B115">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(115)</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B116">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C116" t="s">
-        <v>139</v>
+        <f>COUNTIF(A:A,A116)</f>
+        <v>1</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(116)</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B117">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(117)</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B118">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(118)</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="B119">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(119)</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B120">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(120)</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B121">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(121)</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B122">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(122)</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B123">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(123)</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B124">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(124)</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B125">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(125)</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B126">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(126)</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B127">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(127)</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="B128">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(128)</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="B129">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="B130">
-        <f t="shared" ref="B130:B193" si="3">COUNTIF(A:A,A130)</f>
+        <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(130)</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="B131">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(131)</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B132">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="B133">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="B134">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(134)</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B135">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(135)</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B136">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(136)</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B137">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(137)</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B138">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B139">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B140">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>173</v>
+        <v>295</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(140)</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B141">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B142">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B143">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B144">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A144)</f>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(144)</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B145">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A145)</f>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B146">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A146)</f>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B147">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="B148">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="B149">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B150">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(150)</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="B151">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A151)</f>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(151)</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B152">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A152)</f>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(152)</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B153">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A153)</f>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(153)</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B154">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>188</v>
+        <f>COUNTIF(A:A,A154)</f>
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>270</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B155">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>269</v>
+        <f>COUNTIF(A:A,A155)</f>
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>271</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(155)</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="B156">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>191</v>
+        <f>COUNTIF(A:A,A156)</f>
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>272</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(156)</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B157">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(157)</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B158">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(158)</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B159">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(159)</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B160">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(160)</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B161">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B162">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(162)</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B163">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(163)</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B164">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(164)</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B165">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(165)</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B166">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(166)</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B167">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(167)</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B168">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(168)</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B169">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(169)</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="B170">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B171">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B172">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B173">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(173)</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B174">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(174)</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B175">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(175)</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B176">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(176)</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B177">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(177)</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B178">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(178)</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="B179">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(179)</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>113</v>
+        <v>207</v>
       </c>
       <c r="B180">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D180:D286" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>114</v>
+        <v>243</v>
       </c>
       <c r="B181">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A181)</f>
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="B182">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A182)</f>
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B183">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A183)</f>
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>208</v>
+        <v>289</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D289" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="B184">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="B185">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B186">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B187">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B188">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B189">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B190">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B191">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>218</v>
+        <v>297</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B192">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B193">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>222</v>
+        <v>285</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B194">
-        <f t="shared" ref="B194:B257" si="5">COUNTIF(A:A,A194)</f>
+        <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B195">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B196">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B197">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B198">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A198)</f>
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>229</v>
+        <v>303</v>
       </c>
       <c r="B199">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A199)</f>
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>230</v>
+        <v>291</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="B200">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A200)</f>
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B201">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A201)</f>
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
       <c r="B202">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A202)</f>
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B203">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A203)</f>
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B204">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A204)</f>
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>234</v>
+        <v>376</v>
       </c>
       <c r="B205">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A205)</f>
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>235</v>
+        <v>397</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="B206">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A206)</f>
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>292</v>
+        <v>398</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>237</v>
+        <v>378</v>
       </c>
       <c r="B207">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A207)</f>
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>238</v>
+        <v>399</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B208">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B209">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B210">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B211">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B212">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B213">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B214">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B215">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B216">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B217">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B218">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B219">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B220">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B221">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B222">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B223">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B224">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(224)</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B225">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(225)</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>394</v>
+        <v>541</v>
       </c>
       <c r="B226">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>415</v>
+        <v>549</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(226)</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>395</v>
+        <v>542</v>
       </c>
       <c r="B227">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>416</v>
+        <v>550</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(227)</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>396</v>
+        <v>543</v>
       </c>
       <c r="B228">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>417</v>
+        <v>551</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(228)</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B229">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(229)</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B230">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(230)</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B231">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(231)</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B232">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(232)</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B233">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(233)</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>546</v>
+        <v>307</v>
       </c>
       <c r="B234">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(234)</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>547</v>
+        <v>308</v>
       </c>
       <c r="B235">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>555</v>
+        <v>328</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(235)</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>548</v>
+        <v>309</v>
       </c>
       <c r="B236">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>556</v>
+        <v>329</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(236)</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B237">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>589</v>
+        <v>330</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(237)</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B238">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(238)</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B239">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(239)</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B240">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>330</v>
+        <v>579</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(240)</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B241">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(241)</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B242">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(242)</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B243">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>579</v>
+        <v>335</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(243)</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B244">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(244)</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B245">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(245)</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B246">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(246)</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B247">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(247)</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B248">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(248)</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B249">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A249)</f>
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(249)</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B250">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(250)</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B251">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(251)</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B252">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(252)</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B253">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A253)</f>
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(253)</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B254">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A254)</f>
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>343</v>
+        <v>564</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(254)</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>325</v>
+        <v>557</v>
       </c>
       <c r="B255">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A255)</f>
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>344</v>
+        <v>565</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(255)</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>326</v>
+        <v>558</v>
       </c>
       <c r="B256">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A256)</f>
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>345</v>
+        <v>566</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(256)</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>327</v>
+        <v>559</v>
       </c>
       <c r="B257">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A257)</f>
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(257)</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B258">
-        <f t="shared" ref="B258:B321" si="6">COUNTIF(A:A,A258)</f>
+        <f>COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(258)</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B259">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A259)</f>
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(259)</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B260">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A260)</f>
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(260)</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B261">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A261)</f>
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(261)</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="B262">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A262)</f>
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(262)</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>562</v>
+        <v>527</v>
       </c>
       <c r="B263">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A263)</f>
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>570</v>
-      </c>
-      <c r="D263" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(263)</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+      <c r="D263" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="B264">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C264" t="s">
-        <v>571</v>
+        <f>COUNTIF(A:A,A264)</f>
+        <v>1</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(264)</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>577</v>
+        <v>529</v>
       </c>
       <c r="B265">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A265)</f>
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>578</v>
-      </c>
-      <c r="D265" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(265)</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="D265" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B266">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C266" t="s">
-        <v>520</v>
-      </c>
-      <c r="D266" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A266)</f>
+        <v>1</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(266)</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B267">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D267" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(267)</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A267)</f>
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>525</v>
+      </c>
+      <c r="D267" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B268">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C268" t="s">
-        <v>523</v>
-      </c>
-      <c r="D268" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A268)</f>
+        <v>1</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(268)</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B269">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D269" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(269)</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A269)</f>
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
+        <v>526</v>
+      </c>
+      <c r="D269" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B270">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C270" t="s">
-        <v>525</v>
-      </c>
-      <c r="D270" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <f>COUNTIF(A:A,A270)</f>
+        <v>1</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(270)</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="B271">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D271" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(271)</v>
+        <v>604</v>
+      </c>
+      <c r="D271" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="B272">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C272" t="s">
-        <v>526</v>
+        <f>COUNTIF(A:A,A272)</f>
+        <v>1</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="D272" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="B273">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D273" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(273)</v>
+        <f>COUNTIF(A:A,A273)</f>
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>595</v>
+      </c>
+      <c r="D273" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B274">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D274" t="s">
-        <v>607</v>
+        <v>596</v>
+      </c>
+      <c r="D274" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(274)</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B275">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D275" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="B276">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C276" t="s">
-        <v>595</v>
-      </c>
-      <c r="D276" t="s">
-        <v>609</v>
+        <f>COUNTIF(A:A,A276)</f>
+        <v>1</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(276)</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
       <c r="B277">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(277)</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B278">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D278" t="s">
-        <v>610</v>
+        <f>COUNTIF(A:A,A278)</f>
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>597</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(278)</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B279">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A279)</f>
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(279)</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B280">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A280)</f>
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D280" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(280)</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>599</v>
+        <v>371</v>
       </c>
       <c r="B281">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>597</v>
+        <v>535</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(281)</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>600</v>
+        <v>372</v>
       </c>
       <c r="B282">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>598</v>
+        <f>COUNTIF(A:A,A282)</f>
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>536</v>
       </c>
       <c r="D282" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(282)</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>613</v>
+        <v>370</v>
       </c>
       <c r="B283">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>616</v>
+        <f>COUNTIF(A:A,A283)</f>
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
+        <v>537</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(283)</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B284">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A284)</f>
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D284" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(284)</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B285">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D285" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(285)</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B286">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D286" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(286)</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>374</v>
-      </c>
-      <c r="B287">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C287" t="s">
-        <v>538</v>
-      </c>
-      <c r="D287" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(287)</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>375</v>
-      </c>
-      <c r="B288">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C288" t="s">
-        <v>540</v>
-      </c>
-      <c r="D288" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(288)</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>373</v>
-      </c>
-      <c r="B289">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C289" t="s">
-        <v>539</v>
-      </c>
-      <c r="D289" t="str">
-        <f t="shared" si="4"/>
-        <v>In progress of translating…(289)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B041BE1-6B5F-41D9-8DF2-6057A094CF80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36082614-F819-4D4F-9631-68BE1C747C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InApkStringTable" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$286</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$289</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="686">
   <si>
     <t>확인</t>
   </si>
@@ -1594,10 +1594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>힘의 원천으로부터 생명의 빛이 흘러나옵니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelPackUIName_MineOnMove</t>
   </si>
   <si>
@@ -2209,10 +2205,6 @@
   </si>
   <si>
     <t>GameUI_SuggestedPowerLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>권장 파워레벨 {0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2528,14 +2520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이미 전투에 참가했던 캐릭터는 HP/SP가 회복되지 않습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characters already in combat will not recover HP/SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 캐릭터의 파워레벨이 부족합니다
 캐릭터를 변경하시겠습니까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2573,10 +2557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The light of life flows from the power source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>가까이 다가가 힘의 원천으로부터 축복을 받으세요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2841,10 +2821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Get close to be blessed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Battle Pack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2902,6 +2878,66 @@
   </si>
   <si>
     <t>Use Ultimate Skill with double-tap during battle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권장 파워레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_NumberRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}~{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}-{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 전투에 참가했던 캐릭터는 회복되지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characters already in combat will not recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘의 원천으로부터 눈부신 빛이 흘러나옵니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get close to be blessed from Power Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bright light flows from Power Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_ChangeLanguageDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어를 변경하시겠습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you change the language?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3306,7 +3342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3325,17 +3361,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C1" t="str">
         <f t="array" ref="C1">IF(SUM(IF(B:B&gt;=2,1,0))&gt;1,"중복아이디있음","kor|String")</f>
         <v>kor|String</v>
       </c>
       <c r="D1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3415,7 +3451,7 @@
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B7">
         <f>COUNTIF(A:A,A7)</f>
@@ -3475,632 +3511,632 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B11">
         <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B12">
         <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B13">
         <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B14">
         <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B15">
         <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B16">
         <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B17">
         <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B18">
         <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B19">
         <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B20">
         <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B21">
         <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B22">
         <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B23">
         <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B24">
         <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B25">
         <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D25" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B26">
         <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B27">
         <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B28">
         <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B29">
         <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B30">
         <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B31">
         <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B32">
         <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B33">
         <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B34">
         <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B35">
         <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B36">
         <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B37">
         <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B38">
         <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B39">
         <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B40">
         <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B41">
         <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B42">
         <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B43">
         <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B44">
         <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B45">
         <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B46">
         <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B47">
         <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B48">
         <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B49">
         <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B50">
         <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B51">
         <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B52">
         <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -4120,17 +4156,17 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B54">
         <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -4210,17 +4246,17 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B60">
         <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D60" t="s">
         <v>305</v>
-      </c>
-      <c r="D60" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4240,753 +4276,746 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B62">
         <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D62" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B63">
         <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D63" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B64">
         <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D64" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B65">
         <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D65" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B66">
         <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D66" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B67">
         <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D67" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B68">
         <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D68" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B69">
         <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D69" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B70">
         <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D70" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B71">
         <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D71" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>680</v>
       </c>
       <c r="B72">
         <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>681</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>682</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>350</v>
-      </c>
-      <c r="B73">
-        <f>COUNTIF(A:A,A73)</f>
-        <v>1</v>
+        <v>683</v>
       </c>
       <c r="C73" t="s">
-        <v>352</v>
+        <v>684</v>
       </c>
       <c r="D73" t="s">
-        <v>354</v>
+        <v>685</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="B74">
         <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>355</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="B75">
         <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>351</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B76">
         <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>352</v>
+      </c>
+      <c r="D76" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="B77">
         <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>618</v>
+        <v>345</v>
       </c>
       <c r="B78">
         <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>617</v>
+        <v>346</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B79">
         <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D79" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>578</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>418</v>
+        <v>613</v>
       </c>
       <c r="B80">
         <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>491</v>
+        <v>355</v>
       </c>
       <c r="B81">
         <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>492</v>
+        <v>356</v>
       </c>
       <c r="D81" t="s">
-        <v>493</v>
+        <v>655</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="B82">
         <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D82" t="s">
-        <v>496</v>
+        <v>584</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B83">
         <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>587</v>
+        <v>490</v>
+      </c>
+      <c r="D83" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B84">
         <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>497</v>
+        <v>671</v>
+      </c>
+      <c r="D84" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>498</v>
+        <v>672</v>
       </c>
       <c r="B85">
         <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>581</v>
+        <v>673</v>
+      </c>
+      <c r="D85" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>586</v>
+        <v>492</v>
       </c>
       <c r="B86">
         <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>73</v>
+        <v>493</v>
       </c>
       <c r="B87">
         <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
-      <c r="C87" t="s">
-        <v>69</v>
-      </c>
-      <c r="D87" t="s">
-        <v>71</v>
+      <c r="C87" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>496</v>
       </c>
       <c r="B88">
         <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
-      <c r="C88" t="s">
-        <v>75</v>
-      </c>
-      <c r="D88" t="s">
-        <v>76</v>
+      <c r="C88" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>582</v>
       </c>
       <c r="B89">
         <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
-      <c r="C89" t="s">
-        <v>70</v>
-      </c>
-      <c r="D89" t="s">
-        <v>72</v>
+      <c r="C89" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="B90">
         <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B91">
         <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B92">
         <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D92" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B93">
         <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="D93" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B94">
         <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B95">
         <f>COUNTIF(A:A,A95)</f>
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D95" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>590</v>
+        <v>89</v>
       </c>
       <c r="B96">
         <f>COUNTIF(A:A,A96)</f>
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>592</v>
+        <v>79</v>
       </c>
       <c r="D96" t="s">
-        <v>661</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="B97">
         <f>COUNTIF(A:A,A97)</f>
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="D97" t="s">
-        <v>591</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98">
         <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>620</v>
+        <v>81</v>
       </c>
       <c r="D98" t="s">
-        <v>619</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>627</v>
+        <v>586</v>
       </c>
       <c r="B99">
         <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="D99" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>628</v>
+        <v>300</v>
       </c>
       <c r="B100">
         <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>626</v>
+        <v>677</v>
       </c>
       <c r="D100" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>629</v>
+        <v>92</v>
       </c>
       <c r="B101">
         <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D101" t="s">
-        <v>662</v>
+        <v>614</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B102">
         <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D102" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>623</v>
       </c>
       <c r="B103">
         <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>132</v>
+      <c r="C103" t="s">
+        <v>621</v>
       </c>
       <c r="D103" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>624</v>
       </c>
       <c r="B104">
         <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>133</v>
+        <v>618</v>
       </c>
       <c r="D104" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>625</v>
       </c>
       <c r="B105">
         <f>COUNTIF(A:A,A105)</f>
         <v>1</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>134</v>
+      <c r="C105" t="s">
+        <v>619</v>
       </c>
       <c r="D105" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B106">
         <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D106" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B107">
         <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
-      </c>
-      <c r="D107" t="str">
-        <f t="shared" ref="D107:D179" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(107)</v>
+        <v>133</v>
+      </c>
+      <c r="D107" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B108">
         <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D108" t="str">
-        <f t="shared" si="0"/>
-        <v>In progress of translating…(108)</v>
+        <v>134</v>
+      </c>
+      <c r="D108" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B109">
         <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D109" t="str">
-        <f t="shared" si="0"/>
-        <v>In progress of translating…(109)</v>
+        <v>137</v>
+      </c>
+      <c r="D109" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B110">
         <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D110:D182" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(110)</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B111">
         <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="0"/>
@@ -4995,14 +5024,14 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B112">
         <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="0"/>
@@ -5011,14 +5040,14 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B113">
         <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="0"/>
@@ -5027,14 +5056,14 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B114">
         <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="0"/>
@@ -5043,14 +5072,14 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B115">
         <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="0"/>
@@ -5059,14 +5088,14 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B116">
         <f>COUNTIF(A:A,A116)</f>
         <v>1</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>158</v>
+      <c r="C116" t="s">
+        <v>139</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="0"/>
@@ -5075,14 +5104,14 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="B117">
         <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>256</v>
+        <v>140</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="0"/>
@@ -5091,14 +5120,14 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="B118">
         <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>257</v>
+        <v>157</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="0"/>
@@ -5107,14 +5136,14 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="B119">
         <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="0"/>
@@ -5123,14 +5152,14 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B120">
         <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="0"/>
@@ -5139,14 +5168,14 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B121">
         <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="0"/>
@@ -5155,14 +5184,14 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B122">
         <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="0"/>
@@ -5171,14 +5200,14 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B123">
         <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="0"/>
@@ -5187,14 +5216,14 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B124">
         <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="0"/>
@@ -5203,14 +5232,14 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B125">
         <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>160</v>
+        <v>261</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="0"/>
@@ -5219,14 +5248,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B126">
         <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="0"/>
@@ -5235,14 +5264,14 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B127">
         <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="0"/>
@@ -5251,14 +5280,14 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="B128">
         <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="0"/>
@@ -5267,46 +5296,46 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="B129">
         <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>241</v>
+        <v>103</v>
       </c>
       <c r="B130">
         <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(130)</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="B131">
         <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="0"/>
@@ -5315,62 +5344,62 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B132">
         <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="B133">
         <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="B134">
         <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(134)</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B135">
         <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="0"/>
@@ -5379,14 +5408,14 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B136">
         <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="0"/>
@@ -5395,14 +5424,14 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B137">
         <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="0"/>
@@ -5411,46 +5440,46 @@
     </row>
     <row r="138" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B138">
         <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B139">
         <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B140">
         <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="0"/>
@@ -5459,62 +5488,62 @@
     </row>
     <row r="141" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B141">
         <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B142">
         <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B143">
         <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B144">
         <f>COUNTIF(A:A,A144)</f>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="0"/>
@@ -5523,14 +5552,14 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B145">
         <f>COUNTIF(A:A,A145)</f>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="0"/>
@@ -5539,30 +5568,30 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B146">
         <f>COUNTIF(A:A,A146)</f>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B147">
         <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="0"/>
@@ -5571,14 +5600,14 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
       <c r="B148">
         <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="0"/>
@@ -5587,30 +5616,30 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B149">
         <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B150">
         <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>186</v>
+        <v>245</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="0"/>
@@ -5619,14 +5648,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="B151">
         <f>COUNTIF(A:A,A151)</f>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="0"/>
@@ -5635,14 +5664,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B152">
         <f>COUNTIF(A:A,A152)</f>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="0"/>
@@ -5651,14 +5680,14 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B153">
         <f>COUNTIF(A:A,A153)</f>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="0"/>
@@ -5667,14 +5696,14 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="B154">
         <f>COUNTIF(A:A,A154)</f>
         <v>1</v>
       </c>
-      <c r="C154" t="s">
-        <v>270</v>
+      <c r="C154" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="0"/>
@@ -5683,14 +5712,14 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="B155">
         <f>COUNTIF(A:A,A155)</f>
         <v>1</v>
       </c>
-      <c r="C155" t="s">
-        <v>271</v>
+      <c r="C155" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="0"/>
@@ -5699,14 +5728,14 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="B156">
         <f>COUNTIF(A:A,A156)</f>
         <v>1</v>
       </c>
-      <c r="C156" t="s">
-        <v>272</v>
+      <c r="C156" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="0"/>
@@ -5715,14 +5744,14 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B157">
         <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="0"/>
@@ -5731,14 +5760,14 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B158">
         <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="0"/>
@@ -5747,14 +5776,14 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B159">
         <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="0"/>
@@ -5763,14 +5792,14 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B160">
         <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="0"/>
@@ -5779,14 +5808,14 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B161">
         <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
       <c r="C161" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="0"/>
@@ -5795,14 +5824,14 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B162">
         <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="0"/>
@@ -5811,14 +5840,14 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B163">
         <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="0"/>
@@ -5827,14 +5856,14 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B164">
         <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="0"/>
@@ -5843,14 +5872,14 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B165">
         <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="0"/>
@@ -5859,14 +5888,14 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B166">
         <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="0"/>
@@ -5875,14 +5904,14 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B167">
         <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="0"/>
@@ -5891,14 +5920,14 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="B168">
         <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="0"/>
@@ -5907,14 +5936,14 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B169">
         <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="0"/>
@@ -5923,14 +5952,14 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="B170">
         <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="0"/>
@@ -5939,14 +5968,14 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B171">
         <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="0"/>
@@ -5955,14 +5984,14 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B172">
         <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="0"/>
@@ -5971,14 +6000,14 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B173">
         <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="0"/>
@@ -5987,14 +6016,14 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B174">
         <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="0"/>
@@ -6003,14 +6032,14 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B175">
         <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="0"/>
@@ -6019,14 +6048,14 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B176">
         <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="0"/>
@@ -6035,14 +6064,14 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B177">
         <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="0"/>
@@ -6051,14 +6080,14 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B178">
         <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="0"/>
@@ -6067,14 +6096,14 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>112</v>
       </c>
       <c r="B179">
         <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="0"/>
@@ -6083,78 +6112,78 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
       <c r="B180">
         <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" ref="D180:D286" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="B181">
         <f>COUNTIF(A:A,A181)</f>
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B182">
         <f>COUNTIF(A:A,A182)</f>
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B183">
         <f>COUNTIF(A:A,A183)</f>
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>289</v>
+        <v>208</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D183:D289" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="B184">
         <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="1"/>
@@ -6163,14 +6192,14 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="B185">
         <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="1"/>
@@ -6179,14 +6208,14 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B186">
         <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="1"/>
@@ -6195,14 +6224,14 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B187">
         <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>216</v>
+        <v>290</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="1"/>
@@ -6211,14 +6240,14 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B188">
         <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>218</v>
+        <v>293</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="1"/>
@@ -6227,14 +6256,14 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B189">
         <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="1"/>
@@ -6243,14 +6272,14 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B190">
         <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="1"/>
@@ -6259,14 +6288,14 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B191">
         <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="1"/>
@@ -6275,14 +6304,14 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B192">
         <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="1"/>
@@ -6291,14 +6320,14 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B193">
         <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="1"/>
@@ -6307,14 +6336,14 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B194">
         <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="1"/>
@@ -6323,14 +6352,14 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B195">
         <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="1"/>
@@ -6339,14 +6368,14 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B196">
         <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="1"/>
@@ -6355,14 +6384,14 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B197">
         <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="1"/>
@@ -6371,14 +6400,14 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B198">
         <f>COUNTIF(A:A,A198)</f>
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="1"/>
@@ -6387,14 +6416,14 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="B199">
         <f>COUNTIF(A:A,A199)</f>
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="1"/>
@@ -6403,14 +6432,14 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="B200">
         <f>COUNTIF(A:A,A200)</f>
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="1"/>
@@ -6419,14 +6448,14 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B201">
         <f>COUNTIF(A:A,A201)</f>
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="1"/>
@@ -6435,14 +6464,14 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="B202">
         <f>COUNTIF(A:A,A202)</f>
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>235</v>
+        <v>291</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="1"/>
@@ -6451,14 +6480,14 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B203">
         <f>COUNTIF(A:A,A203)</f>
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="1"/>
@@ -6467,14 +6496,14 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B204">
         <f>COUNTIF(A:A,A204)</f>
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="1"/>
@@ -6483,14 +6512,14 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>376</v>
+        <v>234</v>
       </c>
       <c r="B205">
         <f>COUNTIF(A:A,A205)</f>
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>397</v>
+        <v>235</v>
       </c>
       <c r="D205" t="str">
         <f t="shared" si="1"/>
@@ -6499,14 +6528,14 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="B206">
         <f>COUNTIF(A:A,A206)</f>
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>398</v>
+        <v>292</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="1"/>
@@ -6515,14 +6544,14 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="B207">
         <f>COUNTIF(A:A,A207)</f>
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>399</v>
+        <v>238</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="1"/>
@@ -6531,14 +6560,14 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B208">
         <f>COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="1"/>
@@ -6547,14 +6576,14 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B209">
         <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="1"/>
@@ -6563,14 +6592,14 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B210">
         <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="1"/>
@@ -6579,14 +6608,14 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B211">
         <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="1"/>
@@ -6595,14 +6624,14 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B212">
         <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="1"/>
@@ -6611,14 +6640,14 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B213">
         <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="1"/>
@@ -6627,14 +6656,14 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B214">
         <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="1"/>
@@ -6643,14 +6672,14 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B215">
         <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="1"/>
@@ -6659,14 +6688,14 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B216">
         <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="1"/>
@@ -6675,14 +6704,14 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B217">
         <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="1"/>
@@ -6691,14 +6720,14 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B218">
         <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="1"/>
@@ -6707,14 +6736,14 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B219">
         <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="1"/>
@@ -6723,14 +6752,14 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B220">
         <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="1"/>
@@ -6739,14 +6768,14 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B221">
         <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="1"/>
@@ -6755,14 +6784,14 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B222">
         <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="1"/>
@@ -6771,14 +6800,14 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B223">
         <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="1"/>
@@ -6787,14 +6816,14 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B224">
         <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="1"/>
@@ -6803,14 +6832,14 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B225">
         <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="1"/>
@@ -6819,14 +6848,14 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>541</v>
+        <v>393</v>
       </c>
       <c r="B226">
         <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>549</v>
+        <v>414</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="1"/>
@@ -6835,14 +6864,14 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>542</v>
+        <v>394</v>
       </c>
       <c r="B227">
         <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>550</v>
+        <v>415</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="1"/>
@@ -6851,14 +6880,14 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>543</v>
+        <v>395</v>
       </c>
       <c r="B228">
         <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>551</v>
+        <v>416</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="1"/>
@@ -6867,14 +6896,14 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B229">
         <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="1"/>
@@ -6883,14 +6912,14 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B230">
         <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="1"/>
@@ -6899,14 +6928,14 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B231">
         <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="1"/>
@@ -6915,14 +6944,14 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B232">
         <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="1"/>
@@ -6931,14 +6960,14 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B233">
         <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="1"/>
@@ -6947,14 +6976,14 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>307</v>
+        <v>544</v>
       </c>
       <c r="B234">
         <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="1"/>
@@ -6963,14 +6992,14 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>308</v>
+        <v>545</v>
       </c>
       <c r="B235">
         <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>328</v>
+        <v>553</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="1"/>
@@ -6979,14 +7008,14 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>309</v>
+        <v>546</v>
       </c>
       <c r="B236">
         <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>329</v>
+        <v>554</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="1"/>
@@ -6995,14 +7024,14 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B237">
         <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>330</v>
+        <v>585</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="1"/>
@@ -7011,14 +7040,14 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B238">
         <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="1"/>
@@ -7027,14 +7056,14 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B239">
         <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="1"/>
@@ -7043,14 +7072,14 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B240">
         <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>579</v>
+        <v>329</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="1"/>
@@ -7059,14 +7088,14 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B241">
         <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="1"/>
@@ -7075,14 +7104,14 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B242">
         <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D242" t="str">
         <f t="shared" si="1"/>
@@ -7091,14 +7120,14 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B243">
         <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>335</v>
+        <v>577</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="1"/>
@@ -7107,14 +7136,14 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B244">
         <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D244" t="str">
         <f t="shared" si="1"/>
@@ -7123,14 +7152,14 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B245">
         <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="1"/>
@@ -7139,14 +7168,14 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B246">
         <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D246" t="str">
         <f t="shared" si="1"/>
@@ -7155,14 +7184,14 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B247">
         <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" si="1"/>
@@ -7171,14 +7200,14 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B248">
         <f>COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="1"/>
@@ -7187,14 +7216,14 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B249">
         <f>COUNTIF(A:A,A249)</f>
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="1"/>
@@ -7203,14 +7232,14 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B250">
         <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D250" t="str">
         <f t="shared" si="1"/>
@@ -7219,14 +7248,14 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B251">
         <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D251" t="str">
         <f t="shared" si="1"/>
@@ -7235,14 +7264,14 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B252">
         <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D252" t="str">
         <f t="shared" si="1"/>
@@ -7251,14 +7280,14 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B253">
         <f>COUNTIF(A:A,A253)</f>
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D253" t="str">
         <f t="shared" si="1"/>
@@ -7267,14 +7296,14 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B254">
         <f>COUNTIF(A:A,A254)</f>
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>564</v>
+        <v>342</v>
       </c>
       <c r="D254" t="str">
         <f t="shared" si="1"/>
@@ -7283,14 +7312,14 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>557</v>
+        <v>324</v>
       </c>
       <c r="B255">
         <f>COUNTIF(A:A,A255)</f>
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>565</v>
+        <v>343</v>
       </c>
       <c r="D255" t="str">
         <f t="shared" si="1"/>
@@ -7299,14 +7328,14 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>558</v>
+        <v>325</v>
       </c>
       <c r="B256">
         <f>COUNTIF(A:A,A256)</f>
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>566</v>
+        <v>344</v>
       </c>
       <c r="D256" t="str">
         <f t="shared" si="1"/>
@@ -7315,14 +7344,14 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>559</v>
+        <v>326</v>
       </c>
       <c r="B257">
         <f>COUNTIF(A:A,A257)</f>
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="1"/>
@@ -7331,14 +7360,14 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B258">
         <f>COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D258" t="str">
         <f t="shared" si="1"/>
@@ -7347,14 +7376,14 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B259">
         <f>COUNTIF(A:A,A259)</f>
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D259" t="str">
         <f t="shared" si="1"/>
@@ -7363,14 +7392,14 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B260">
         <f>COUNTIF(A:A,A260)</f>
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D260" t="str">
         <f t="shared" si="1"/>
@@ -7379,14 +7408,14 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B261">
         <f>COUNTIF(A:A,A261)</f>
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="1"/>
@@ -7395,14 +7424,14 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B262">
         <f>COUNTIF(A:A,A262)</f>
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="1"/>
@@ -7411,29 +7440,30 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="B263">
         <f>COUNTIF(A:A,A263)</f>
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>520</v>
-      </c>
-      <c r="D263" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(263)</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="B264">
         <f>COUNTIF(A:A,A264)</f>
         <v>1</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>522</v>
+      <c r="C264" t="s">
+        <v>569</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="1"/>
@@ -7442,199 +7472,199 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="B265">
         <f>COUNTIF(A:A,A265)</f>
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>523</v>
-      </c>
-      <c r="D265" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(265)</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B266">
         <f>COUNTIF(A:A,A266)</f>
         <v>1</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D266" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(266)</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C266" t="s">
+        <v>518</v>
+      </c>
+      <c r="D266" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B267">
         <f>COUNTIF(A:A,A267)</f>
         <v>1</v>
       </c>
-      <c r="C267" t="s">
-        <v>525</v>
-      </c>
-      <c r="D267" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C267" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D267" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(267)</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B268">
         <f>COUNTIF(A:A,A268)</f>
         <v>1</v>
       </c>
-      <c r="C268" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="D268" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(268)</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C268" t="s">
+        <v>521</v>
+      </c>
+      <c r="D268" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B269">
         <f>COUNTIF(A:A,A269)</f>
         <v>1</v>
       </c>
-      <c r="C269" t="s">
-        <v>526</v>
-      </c>
-      <c r="D269" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C269" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(269)</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B270">
         <f>COUNTIF(A:A,A270)</f>
         <v>1</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D270" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(270)</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
+        <v>523</v>
+      </c>
+      <c r="D270" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>601</v>
+        <v>530</v>
       </c>
       <c r="B271">
         <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D271" t="s">
-        <v>607</v>
+        <v>573</v>
+      </c>
+      <c r="D271" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(271)</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>602</v>
+        <v>531</v>
       </c>
       <c r="B272">
         <f>COUNTIF(A:A,A272)</f>
         <v>1</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>605</v>
+      <c r="C272" t="s">
+        <v>524</v>
       </c>
       <c r="D272" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="B273">
         <f>COUNTIF(A:A,A273)</f>
         <v>1</v>
       </c>
-      <c r="C273" t="s">
-        <v>595</v>
-      </c>
-      <c r="D273" t="s">
-        <v>609</v>
+      <c r="C273" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D273" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(273)</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B274">
         <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D274" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(274)</v>
+        <v>599</v>
+      </c>
+      <c r="D274" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B275">
         <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="D275" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="B276">
         <f>COUNTIF(A:A,A276)</f>
         <v>1</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D276" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(276)</v>
+      <c r="C276" t="s">
+        <v>590</v>
+      </c>
+      <c r="D276" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="B277">
         <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="D277" t="str">
         <f t="shared" si="1"/>
@@ -7643,30 +7673,29 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B278">
         <f>COUNTIF(A:A,A278)</f>
         <v>1</v>
       </c>
-      <c r="C278" t="s">
-        <v>597</v>
-      </c>
-      <c r="D278" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(278)</v>
+      <c r="C278" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D278" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B279">
         <f>COUNTIF(A:A,A279)</f>
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="1"/>
@@ -7675,14 +7704,14 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B280">
         <f>COUNTIF(A:A,A280)</f>
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D280" t="str">
         <f t="shared" si="1"/>
@@ -7691,14 +7720,14 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>371</v>
+        <v>594</v>
       </c>
       <c r="B281">
         <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="1"/>
@@ -7707,14 +7736,14 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>372</v>
+        <v>595</v>
       </c>
       <c r="B282">
         <f>COUNTIF(A:A,A282)</f>
         <v>1</v>
       </c>
-      <c r="C282" t="s">
-        <v>536</v>
+      <c r="C282" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="D282" t="str">
         <f t="shared" si="1"/>
@@ -7723,14 +7752,14 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>370</v>
+        <v>608</v>
       </c>
       <c r="B283">
         <f>COUNTIF(A:A,A283)</f>
         <v>1</v>
       </c>
-      <c r="C283" t="s">
-        <v>537</v>
+      <c r="C283" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="1"/>
@@ -7739,14 +7768,14 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B284">
         <f>COUNTIF(A:A,A284)</f>
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D284" t="str">
         <f t="shared" si="1"/>
@@ -7755,14 +7784,14 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B285">
         <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="1"/>
@@ -7771,18 +7800,66 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B286">
         <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D286" t="str">
         <f t="shared" si="1"/>
         <v>In progress of translating…(286)</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>373</v>
+      </c>
+      <c r="B287">
+        <f>COUNTIF(A:A,A287)</f>
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>536</v>
+      </c>
+      <c r="D287" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(287)</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>374</v>
+      </c>
+      <c r="B288">
+        <f>COUNTIF(A:A,A288)</f>
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>538</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(288)</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>372</v>
+      </c>
+      <c r="B289">
+        <f>COUNTIF(A:A,A289)</f>
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>537</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(289)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36082614-F819-4D4F-9631-68BE1C747C8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C99F4F-1A5C-4A04-BEF3-9B16E431EC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$289</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$291</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="691">
   <si>
     <t>확인</t>
   </si>
@@ -2938,6 +2938,25 @@
   </si>
   <si>
     <t>Would you change the language?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharName_JellyFishGirl</t>
+  </si>
+  <si>
+    <t>CharDesc_JellyFishGirl</t>
+  </si>
+  <si>
+    <t>젤리피쉬걸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젤리피쉬걸의 설명 우다다다
+곡사로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JellyFIshGirl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3342,7 +3361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -6170,7 +6189,7 @@
         <v>208</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D289" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D183:D291" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
@@ -7612,90 +7631,90 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
       <c r="B274">
         <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>599</v>
+      <c r="C274" t="s">
+        <v>688</v>
       </c>
       <c r="D274" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>597</v>
+        <v>687</v>
       </c>
       <c r="B275">
         <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D275" t="s">
-        <v>603</v>
+        <v>689</v>
+      </c>
+      <c r="D275" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(275)</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B276">
         <f>COUNTIF(A:A,A276)</f>
         <v>1</v>
       </c>
-      <c r="C276" t="s">
-        <v>590</v>
+      <c r="C276" s="1" t="s">
+        <v>599</v>
       </c>
       <c r="D276" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B277">
         <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D277" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(277)</v>
+        <v>600</v>
+      </c>
+      <c r="D277" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B278">
         <f>COUNTIF(A:A,A278)</f>
         <v>1</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>601</v>
+      <c r="C278" t="s">
+        <v>590</v>
       </c>
       <c r="D278" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="B279">
         <f>COUNTIF(A:A,A279)</f>
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="1"/>
@@ -7704,30 +7723,29 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B280">
         <f>COUNTIF(A:A,A280)</f>
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D280" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(280)</v>
+        <v>601</v>
+      </c>
+      <c r="D280" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B281">
         <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
-      <c r="C281" t="s">
-        <v>592</v>
+      <c r="C281" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="1"/>
@@ -7736,14 +7754,14 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="B282">
         <f>COUNTIF(A:A,A282)</f>
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="D282" t="str">
         <f t="shared" si="1"/>
@@ -7752,14 +7770,14 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B283">
         <f>COUNTIF(A:A,A283)</f>
         <v>1</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>611</v>
+      <c r="C283" t="s">
+        <v>592</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="1"/>
@@ -7768,14 +7786,14 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>370</v>
+        <v>595</v>
       </c>
       <c r="B284">
         <f>COUNTIF(A:A,A284)</f>
         <v>1</v>
       </c>
-      <c r="C284" t="s">
-        <v>533</v>
+      <c r="C284" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="D284" t="str">
         <f t="shared" si="1"/>
@@ -7784,14 +7802,14 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>371</v>
+        <v>608</v>
       </c>
       <c r="B285">
         <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
-      <c r="C285" t="s">
-        <v>534</v>
+      <c r="C285" s="1" t="s">
+        <v>611</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="1"/>
@@ -7800,14 +7818,14 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B286">
         <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D286" t="str">
         <f t="shared" si="1"/>
@@ -7816,14 +7834,14 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B287">
         <f>COUNTIF(A:A,A287)</f>
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" si="1"/>
@@ -7832,14 +7850,14 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B288">
         <f>COUNTIF(A:A,A288)</f>
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D288" t="str">
         <f t="shared" si="1"/>
@@ -7848,18 +7866,50 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B289">
         <f>COUNTIF(A:A,A289)</f>
         <v>1</v>
       </c>
       <c r="C289" t="s">
+        <v>536</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(289)</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>374</v>
+      </c>
+      <c r="B290">
+        <f>COUNTIF(A:A,A290)</f>
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>538</v>
+      </c>
+      <c r="D290" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(290)</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>372</v>
+      </c>
+      <c r="B291">
+        <f>COUNTIF(A:A,A291)</f>
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
         <v>537</v>
       </c>
-      <c r="D289" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(289)</v>
+      <c r="D291" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(291)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C99F4F-1A5C-4A04-BEF3-9B16E431EC3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D159EF-E44B-4A06-89C1-028D1B357D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$297</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="706">
   <si>
     <t>확인</t>
   </si>
@@ -2957,6 +2957,63 @@
   </si>
   <si>
     <t>JellyFIshGirl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharName_QueryChan</t>
+  </si>
+  <si>
+    <t>CharDesc_QueryChan</t>
+  </si>
+  <si>
+    <t>CharName_EarthMage</t>
+  </si>
+  <si>
+    <t>CharDesc_EarthMage</t>
+  </si>
+  <si>
+    <t>CharName_DynaMob</t>
+  </si>
+  <si>
+    <t>CharDesc_DynaMob</t>
+  </si>
+  <si>
+    <t>쿼리짱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어스메이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나몹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리짱의 설명 우다다다
+리코셰가 기본 장착 라이트닝 볼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어스메이지의 설명 우다다다
+적의 미스를 무마시키는 백발백중 캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나몹의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryChan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthMage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DynaMob</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3361,7 +3418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D291"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -6189,7 +6246,7 @@
         <v>208</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D291" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D183:D297" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
@@ -7662,59 +7719,44 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>596</v>
-      </c>
-      <c r="B276">
-        <f>COUNTIF(A:A,A276)</f>
-        <v>1</v>
+        <v>691</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>599</v>
+        <v>697</v>
       </c>
       <c r="D276" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>597</v>
-      </c>
-      <c r="B277">
-        <f>COUNTIF(A:A,A277)</f>
-        <v>1</v>
+        <v>692</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D277" t="s">
-        <v>603</v>
+        <v>700</v>
+      </c>
+      <c r="D277" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(277)</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>588</v>
-      </c>
-      <c r="B278">
-        <f>COUNTIF(A:A,A278)</f>
-        <v>1</v>
-      </c>
-      <c r="C278" t="s">
-        <v>590</v>
+        <v>693</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="D278" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>589</v>
-      </c>
-      <c r="B279">
-        <f>COUNTIF(A:A,A279)</f>
-        <v>1</v>
+        <v>694</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>591</v>
+        <v>701</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="1"/>
@@ -7723,29 +7765,21 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>598</v>
-      </c>
-      <c r="B280">
-        <f>COUNTIF(A:A,A280)</f>
-        <v>1</v>
+        <v>695</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>601</v>
+        <v>699</v>
       </c>
       <c r="D280" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>606</v>
-      </c>
-      <c r="B281">
-        <f>COUNTIF(A:A,A281)</f>
-        <v>1</v>
+        <v>696</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>609</v>
+        <v>702</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="1"/>
@@ -7754,62 +7788,59 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="B282">
         <f>COUNTIF(A:A,A282)</f>
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D282" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(282)</v>
+        <v>599</v>
+      </c>
+      <c r="D282" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B283">
         <f>COUNTIF(A:A,A283)</f>
         <v>1</v>
       </c>
-      <c r="C283" t="s">
-        <v>592</v>
-      </c>
-      <c r="D283" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(283)</v>
+      <c r="C283" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D283" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B284">
         <f>COUNTIF(A:A,A284)</f>
         <v>1</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D284" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(284)</v>
+      <c r="C284" t="s">
+        <v>590</v>
+      </c>
+      <c r="D284" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
       <c r="B285">
         <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="1"/>
@@ -7818,30 +7849,29 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>370</v>
+        <v>598</v>
       </c>
       <c r="B286">
         <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
-      <c r="C286" t="s">
-        <v>533</v>
-      </c>
-      <c r="D286" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(286)</v>
+      <c r="C286" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D286" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>371</v>
+        <v>606</v>
       </c>
       <c r="B287">
         <f>COUNTIF(A:A,A287)</f>
         <v>1</v>
       </c>
-      <c r="C287" t="s">
-        <v>534</v>
+      <c r="C287" s="1" t="s">
+        <v>609</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" si="1"/>
@@ -7850,14 +7880,14 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>369</v>
+        <v>607</v>
       </c>
       <c r="B288">
         <f>COUNTIF(A:A,A288)</f>
         <v>1</v>
       </c>
-      <c r="C288" t="s">
-        <v>535</v>
+      <c r="C288" s="1" t="s">
+        <v>610</v>
       </c>
       <c r="D288" t="str">
         <f t="shared" si="1"/>
@@ -7866,14 +7896,14 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>373</v>
+        <v>594</v>
       </c>
       <c r="B289">
         <f>COUNTIF(A:A,A289)</f>
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>536</v>
+        <v>592</v>
       </c>
       <c r="D289" t="str">
         <f t="shared" si="1"/>
@@ -7882,14 +7912,14 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>374</v>
+        <v>595</v>
       </c>
       <c r="B290">
         <f>COUNTIF(A:A,A290)</f>
         <v>1</v>
       </c>
-      <c r="C290" t="s">
-        <v>538</v>
+      <c r="C290" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="D290" t="str">
         <f t="shared" si="1"/>
@@ -7898,18 +7928,114 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>372</v>
+        <v>608</v>
       </c>
       <c r="B291">
         <f>COUNTIF(A:A,A291)</f>
         <v>1</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D291" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(291)</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>370</v>
+      </c>
+      <c r="B292">
+        <f>COUNTIF(A:A,A292)</f>
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
+        <v>533</v>
+      </c>
+      <c r="D292" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(292)</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>371</v>
+      </c>
+      <c r="B293">
+        <f>COUNTIF(A:A,A293)</f>
+        <v>1</v>
+      </c>
+      <c r="C293" t="s">
+        <v>534</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(293)</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>369</v>
+      </c>
+      <c r="B294">
+        <f>COUNTIF(A:A,A294)</f>
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
+        <v>535</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(294)</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>373</v>
+      </c>
+      <c r="B295">
+        <f>COUNTIF(A:A,A295)</f>
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>536</v>
+      </c>
+      <c r="D295" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(295)</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>374</v>
+      </c>
+      <c r="B296">
+        <f>COUNTIF(A:A,A296)</f>
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>538</v>
+      </c>
+      <c r="D296" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(296)</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>372</v>
+      </c>
+      <c r="B297">
+        <f>COUNTIF(A:A,A297)</f>
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
         <v>537</v>
       </c>
-      <c r="D291" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(291)</v>
+      <c r="D297" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(297)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D159EF-E44B-4A06-89C1-028D1B357D57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D78A5C-140C-4EB4-B8B4-73257200E0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$307</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="731">
   <si>
     <t>확인</t>
   </si>
@@ -2228,10 +2228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Recommended Power Level {0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Recommended</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2326,20 +2322,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
-강력한 단일 공격을 사용한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>킵시리즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>킵시리즈의 설명 우다다다
-간파울 아저씨한테 받은 총으로 광역 공격을 한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빅뱃서큐버스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2487,10 +2473,6 @@
   </si>
   <si>
     <t>KeepSeries</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BigBatSuccubus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3000,20 +2982,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다이나몹의 설명 우다다다
+    <t>QueryChan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthMage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DynaMob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharName_SciFiWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_SciFiWarrior</t>
+  </si>
+  <si>
+    <t>CharName_ChaosElemental</t>
+  </si>
+  <si>
+    <t>CharDesc_ChaosElemental</t>
+  </si>
+  <si>
+    <t>CharName_SuperHero</t>
+  </si>
+  <si>
+    <t>CharDesc_SuperHero</t>
+  </si>
+  <si>
+    <t>CharName_Meryl</t>
+  </si>
+  <si>
+    <t>CharDesc_Meryl</t>
+  </si>
+  <si>
+    <t>CharName_GreekWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_GreekWarrior</t>
+  </si>
+  <si>
+    <t>SF워리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF워리어의 설명 우다다다
 멀티타겟 프리셋으로 공격한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QueryChan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EarthMage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DynaMob</t>
+    <t>카오스엘리멘탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recommended Power Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카오스엘리멘탈의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법협회장과 함께 일하며 결류자가 세계 2차 멸망을 시도할 때 최전방에서 막으려 했으나 실패했다. 그 뒤 부서진 세상을 재건하며 흩어진 생존자들을 모아 살아남는데 애쓰고 있다.
+적을 꿰뚫어버리는 강력한 한 방의 마법을 구사하며 전용 전투팩으로 관통샷과 최상급 공격력을 가지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이돌을 꿈꾸던 소녀였는데 결류자가 세상을 멸망시키려 하면서 꿈이 사라져버렸다. 간파울 아저씨가 구조한 첫번째 생존자.
+간파울 아저씨가 구해온 플라즈마탄이 장착된 총을 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼히어로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼히어로의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메릴의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그릭워리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그릭워리어의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리 공장에서 33년 근무한 베테랑 공돌이 아저씨. 세상이 망하던 날 야근하고 있던 중 테슬라 코일을 즉석에서 만들어냈다. 공장 주변에 출몰한 몬스터 무리들을 돌파하여 이미 아내와 아이들이 있다던 대피소로 가지만 이미 사람들은 몬스터의 습격을 피해 다시 이주한 상황. 가족들을 찾는 여행은 계속 된다.
+테슬라 코일을 사용하여 근거리 내 모든 적을 공격할 수 있다. 전용 전투팩으로 상급 공격력을 가지고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Succubus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChaosElemental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuperHero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meryl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GreekWarrior</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3418,7 +3513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3437,17 +3532,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C1" t="str">
         <f t="array" ref="C1">IF(SUM(IF(B:B&gt;=2,1,0))&gt;1,"중복아이디있음","kor|String")</f>
         <v>kor|String</v>
       </c>
       <c r="D1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3527,7 +3622,7 @@
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B7">
         <f>COUNTIF(A:A,A7)</f>
@@ -4097,122 +4192,122 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B45">
         <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B46">
         <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B47">
         <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B48">
         <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B49">
         <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B50">
         <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B51">
         <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B52">
         <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -4232,17 +4327,17 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B54">
         <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -4352,178 +4447,178 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B62">
         <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D62" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B63">
         <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D63" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B64">
         <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D64" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B65">
         <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D65" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B66">
         <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D66" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B67">
         <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D67" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B68">
         <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D68" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B69">
         <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D69" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B70">
         <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D70" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B71">
         <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D71" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B72">
         <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D72" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C73" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D73" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -4610,25 +4705,25 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B80">
         <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -4643,7 +4738,7 @@
         <v>356</v>
       </c>
       <c r="D81" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -4655,10 +4750,10 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -4685,25 +4780,25 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D84" t="s">
-        <v>494</v>
+        <v>714</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B85">
         <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D85" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -4715,10 +4810,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -4730,40 +4825,40 @@
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B88">
         <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B89">
         <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -4903,17 +4998,17 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B99">
         <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D99" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4925,10 +5020,10 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D100" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4940,70 +5035,70 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D101" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B102">
         <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D102" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B103">
         <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D103" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B104">
         <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D104" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B105">
         <f>COUNTIF(A:A,A105)</f>
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D105" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -5018,7 +5113,7 @@
         <v>132</v>
       </c>
       <c r="D106" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -5033,7 +5128,7 @@
         <v>133</v>
       </c>
       <c r="D107" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -5048,7 +5143,7 @@
         <v>134</v>
       </c>
       <c r="D108" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -5063,7 +5158,7 @@
         <v>137</v>
       </c>
       <c r="D109" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -6246,7 +6341,7 @@
         <v>208</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D297" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D183:D307" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
@@ -6972,14 +7067,14 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B229">
         <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="1"/>
@@ -6988,14 +7083,14 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B230">
         <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="1"/>
@@ -7004,14 +7099,14 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B231">
         <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="1"/>
@@ -7020,14 +7115,14 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B232">
         <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="1"/>
@@ -7036,14 +7131,14 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B233">
         <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="1"/>
@@ -7052,14 +7147,14 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B234">
         <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="1"/>
@@ -7068,14 +7163,14 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B235">
         <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="1"/>
@@ -7084,14 +7179,14 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B236">
         <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="1"/>
@@ -7107,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="1"/>
@@ -7203,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="1"/>
@@ -7427,7 +7522,7 @@
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="1"/>
@@ -7436,14 +7531,14 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B258">
         <f>COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D258" t="str">
         <f t="shared" si="1"/>
@@ -7452,14 +7547,14 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B259">
         <f>COUNTIF(A:A,A259)</f>
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D259" t="str">
         <f t="shared" si="1"/>
@@ -7468,14 +7563,14 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B260">
         <f>COUNTIF(A:A,A260)</f>
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D260" t="str">
         <f t="shared" si="1"/>
@@ -7484,14 +7579,14 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B261">
         <f>COUNTIF(A:A,A261)</f>
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="1"/>
@@ -7500,14 +7595,14 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B262">
         <f>COUNTIF(A:A,A262)</f>
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="1"/>
@@ -7516,14 +7611,14 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B263">
         <f>COUNTIF(A:A,A263)</f>
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" si="1"/>
@@ -7532,14 +7627,14 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B264">
         <f>COUNTIF(A:A,A264)</f>
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="1"/>
@@ -7548,14 +7643,14 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B265">
         <f>COUNTIF(A:A,A265)</f>
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="1"/>
@@ -7564,29 +7659,29 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B266">
         <f>COUNTIF(A:A,A266)</f>
         <v>1</v>
       </c>
       <c r="C266" t="s">
+        <v>517</v>
+      </c>
+      <c r="D266" t="s">
         <v>518</v>
-      </c>
-      <c r="D266" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B267">
         <f>COUNTIF(A:A,A267)</f>
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>520</v>
+        <v>716</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="1"/>
@@ -7595,29 +7690,29 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B268">
         <f>COUNTIF(A:A,A268)</f>
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D268" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B269">
         <f>COUNTIF(A:A,A269)</f>
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>522</v>
+        <v>717</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="1"/>
@@ -7626,29 +7721,29 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B270">
         <f>COUNTIF(A:A,A270)</f>
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D270" t="s">
-        <v>571</v>
+        <v>725</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B271">
         <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D271" t="str">
         <f t="shared" si="1"/>
@@ -7657,29 +7752,29 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B272">
         <f>COUNTIF(A:A,A272)</f>
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D272" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B273">
         <f>COUNTIF(A:A,A273)</f>
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D273" t="str">
         <f t="shared" si="1"/>
@@ -7688,29 +7783,29 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B274">
         <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D274" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B275">
         <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D275" t="str">
         <f t="shared" si="1"/>
@@ -7719,21 +7814,29 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>691</v>
+        <v>687</v>
+      </c>
+      <c r="B276">
+        <f t="shared" ref="B276:B291" si="2">COUNTIF(A:A,A276)</f>
+        <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D276" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>692</v>
+        <v>688</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D277" t="str">
         <f t="shared" si="1"/>
@@ -7742,21 +7845,29 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>693</v>
+        <v>689</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D278" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>694</v>
+        <v>690</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="1"/>
@@ -7765,21 +7876,29 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
+        <v>691</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>699</v>
-      </c>
       <c r="D280" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>696</v>
+        <v>692</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="1"/>
@@ -7788,59 +7907,60 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>596</v>
+        <v>701</v>
       </c>
       <c r="B282">
-        <f>COUNTIF(A:A,A282)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>599</v>
+        <v>711</v>
       </c>
       <c r="D282" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>597</v>
+        <v>702</v>
       </c>
       <c r="B283">
-        <f>COUNTIF(A:A,A283)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="D283" t="s">
-        <v>603</v>
+        <v>712</v>
+      </c>
+      <c r="D283" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(283)</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>588</v>
+        <v>703</v>
       </c>
       <c r="B284">
-        <f>COUNTIF(A:A,A284)</f>
-        <v>1</v>
-      </c>
-      <c r="C284" t="s">
-        <v>590</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="D284" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>589</v>
+        <v>704</v>
       </c>
       <c r="B285">
-        <f>COUNTIF(A:A,A285)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>591</v>
+        <v>715</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="1"/>
@@ -7849,29 +7969,29 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>598</v>
+        <v>705</v>
       </c>
       <c r="B286">
-        <f>COUNTIF(A:A,A286)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>601</v>
+        <v>718</v>
       </c>
       <c r="D286" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>606</v>
+        <v>706</v>
       </c>
       <c r="B287">
-        <f>COUNTIF(A:A,A287)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>609</v>
+        <v>719</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" si="1"/>
@@ -7880,30 +8000,29 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>607</v>
+        <v>707</v>
       </c>
       <c r="B288">
-        <f>COUNTIF(A:A,A288)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D288" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(288)</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+      <c r="D288" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>594</v>
+        <v>708</v>
       </c>
       <c r="B289">
-        <f>COUNTIF(A:A,A289)</f>
-        <v>1</v>
-      </c>
-      <c r="C289" t="s">
-        <v>592</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>721</v>
       </c>
       <c r="D289" t="str">
         <f t="shared" si="1"/>
@@ -7912,30 +8031,29 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>595</v>
+        <v>709</v>
       </c>
       <c r="B290">
-        <f>COUNTIF(A:A,A290)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D290" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(290)</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+      <c r="D290" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>608</v>
+        <v>710</v>
       </c>
       <c r="B291">
-        <f>COUNTIF(A:A,A291)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>611</v>
+        <v>723</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="1"/>
@@ -7944,62 +8062,59 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>370</v>
+        <v>592</v>
       </c>
       <c r="B292">
         <f>COUNTIF(A:A,A292)</f>
         <v>1</v>
       </c>
-      <c r="C292" t="s">
-        <v>533</v>
-      </c>
-      <c r="D292" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(292)</v>
+      <c r="C292" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D292" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>371</v>
+        <v>593</v>
       </c>
       <c r="B293">
         <f>COUNTIF(A:A,A293)</f>
         <v>1</v>
       </c>
-      <c r="C293" t="s">
-        <v>534</v>
-      </c>
-      <c r="D293" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(293)</v>
+      <c r="C293" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D293" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>369</v>
+        <v>584</v>
       </c>
       <c r="B294">
         <f>COUNTIF(A:A,A294)</f>
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>535</v>
-      </c>
-      <c r="D294" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(294)</v>
+        <v>586</v>
+      </c>
+      <c r="D294" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>373</v>
+        <v>585</v>
       </c>
       <c r="B295">
         <f>COUNTIF(A:A,A295)</f>
         <v>1</v>
       </c>
-      <c r="C295" t="s">
-        <v>536</v>
+      <c r="C295" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="1"/>
@@ -8008,34 +8123,193 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>374</v>
+        <v>594</v>
       </c>
       <c r="B296">
         <f>COUNTIF(A:A,A296)</f>
         <v>1</v>
       </c>
-      <c r="C296" t="s">
-        <v>538</v>
-      </c>
-      <c r="D296" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(296)</v>
+      <c r="C296" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D296" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>372</v>
+        <v>602</v>
       </c>
       <c r="B297">
         <f>COUNTIF(A:A,A297)</f>
         <v>1</v>
       </c>
-      <c r="C297" t="s">
-        <v>537</v>
+      <c r="C297" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="D297" t="str">
         <f t="shared" si="1"/>
         <v>In progress of translating…(297)</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>603</v>
+      </c>
+      <c r="B298">
+        <f>COUNTIF(A:A,A298)</f>
+        <v>1</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D298" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(298)</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>590</v>
+      </c>
+      <c r="B299">
+        <f>COUNTIF(A:A,A299)</f>
+        <v>1</v>
+      </c>
+      <c r="C299" t="s">
+        <v>588</v>
+      </c>
+      <c r="D299" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(299)</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>591</v>
+      </c>
+      <c r="B300">
+        <f>COUNTIF(A:A,A300)</f>
+        <v>1</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D300" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(300)</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>604</v>
+      </c>
+      <c r="B301">
+        <f>COUNTIF(A:A,A301)</f>
+        <v>1</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D301" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(301)</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>370</v>
+      </c>
+      <c r="B302">
+        <f>COUNTIF(A:A,A302)</f>
+        <v>1</v>
+      </c>
+      <c r="C302" t="s">
+        <v>530</v>
+      </c>
+      <c r="D302" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(302)</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>371</v>
+      </c>
+      <c r="B303">
+        <f>COUNTIF(A:A,A303)</f>
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>531</v>
+      </c>
+      <c r="D303" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(303)</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>369</v>
+      </c>
+      <c r="B304">
+        <f>COUNTIF(A:A,A304)</f>
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>532</v>
+      </c>
+      <c r="D304" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(304)</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>373</v>
+      </c>
+      <c r="B305">
+        <f>COUNTIF(A:A,A305)</f>
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
+        <v>533</v>
+      </c>
+      <c r="D305" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(305)</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>374</v>
+      </c>
+      <c r="B306">
+        <f>COUNTIF(A:A,A306)</f>
+        <v>1</v>
+      </c>
+      <c r="C306" t="s">
+        <v>535</v>
+      </c>
+      <c r="D306" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(306)</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>372</v>
+      </c>
+      <c r="B307">
+        <f>COUNTIF(A:A,A307)</f>
+        <v>1</v>
+      </c>
+      <c r="C307" t="s">
+        <v>534</v>
+      </c>
+      <c r="D307" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(307)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D78A5C-140C-4EB4-B8B4-73257200E0B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F5814-548B-4C79-8456-E0289EF3921E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$307</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$313</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="746">
   <si>
     <t>확인</t>
   </si>
@@ -3109,6 +3109,69 @@
   </si>
   <si>
     <t>GreekWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharName_Akai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharDesc_Akai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharName_Yuka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharDesc_Yuka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharName_SteampunkRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharDesc_SteampunkRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아카이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아카이의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유카의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀펑크로봇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팀펑크로봇의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Akai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteampunkRobot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3513,7 +3576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D307"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -6341,7 +6404,7 @@
         <v>208</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D307" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D183:D313" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
@@ -7817,7 +7880,7 @@
         <v>687</v>
       </c>
       <c r="B276">
-        <f t="shared" ref="B276:B291" si="2">COUNTIF(A:A,A276)</f>
+        <f>COUNTIF(A:A,A276)</f>
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -7832,7 +7895,7 @@
         <v>688</v>
       </c>
       <c r="B277">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -7848,7 +7911,7 @@
         <v>689</v>
       </c>
       <c r="B278">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A278)</f>
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -7863,7 +7926,7 @@
         <v>690</v>
       </c>
       <c r="B279">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A279)</f>
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -7879,7 +7942,7 @@
         <v>691</v>
       </c>
       <c r="B280">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A280)</f>
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -7894,7 +7957,7 @@
         <v>692</v>
       </c>
       <c r="B281">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -7910,7 +7973,7 @@
         <v>701</v>
       </c>
       <c r="B282">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A282)</f>
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -7925,7 +7988,7 @@
         <v>702</v>
       </c>
       <c r="B283">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A283)</f>
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -7941,7 +8004,7 @@
         <v>703</v>
       </c>
       <c r="B284">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A284)</f>
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -7956,7 +8019,7 @@
         <v>704</v>
       </c>
       <c r="B285">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -7972,7 +8035,7 @@
         <v>705</v>
       </c>
       <c r="B286">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -7987,7 +8050,7 @@
         <v>706</v>
       </c>
       <c r="B287">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A287)</f>
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -8003,7 +8066,7 @@
         <v>707</v>
       </c>
       <c r="B288">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A288)</f>
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -8018,7 +8081,7 @@
         <v>708</v>
       </c>
       <c r="B289">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A289)</f>
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -8034,7 +8097,7 @@
         <v>709</v>
       </c>
       <c r="B290">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A290)</f>
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -8049,7 +8112,7 @@
         <v>710</v>
       </c>
       <c r="B291">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A291)</f>
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -8062,59 +8125,60 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>592</v>
+        <v>731</v>
       </c>
       <c r="B292">
-        <f>COUNTIF(A:A,A292)</f>
+        <f t="shared" ref="B292:B297" si="2">COUNTIF(A:A,A292)</f>
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>595</v>
+        <v>737</v>
       </c>
       <c r="D292" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>593</v>
+        <v>732</v>
       </c>
       <c r="B293">
-        <f>COUNTIF(A:A,A293)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D293" t="s">
-        <v>599</v>
+        <v>738</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(293)</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>584</v>
+        <v>733</v>
       </c>
       <c r="B294">
-        <f>COUNTIF(A:A,A294)</f>
-        <v>1</v>
-      </c>
-      <c r="C294" t="s">
-        <v>586</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>739</v>
       </c>
       <c r="D294" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>585</v>
+        <v>734</v>
       </c>
       <c r="B295">
-        <f>COUNTIF(A:A,A295)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>587</v>
+        <v>740</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="1"/>
@@ -8123,29 +8187,29 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>594</v>
+        <v>735</v>
       </c>
       <c r="B296">
-        <f>COUNTIF(A:A,A296)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>597</v>
+        <v>741</v>
       </c>
       <c r="D296" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>602</v>
+        <v>736</v>
       </c>
       <c r="B297">
-        <f>COUNTIF(A:A,A297)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>605</v>
+        <v>742</v>
       </c>
       <c r="D297" t="str">
         <f t="shared" si="1"/>
@@ -8154,62 +8218,59 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="B298">
         <f>COUNTIF(A:A,A298)</f>
         <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D298" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(298)</v>
+        <v>595</v>
+      </c>
+      <c r="D298" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B299">
         <f>COUNTIF(A:A,A299)</f>
         <v>1</v>
       </c>
-      <c r="C299" t="s">
-        <v>588</v>
-      </c>
-      <c r="D299" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(299)</v>
+      <c r="C299" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D299" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B300">
         <f>COUNTIF(A:A,A300)</f>
         <v>1</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D300" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(300)</v>
+      <c r="C300" t="s">
+        <v>586</v>
+      </c>
+      <c r="D300" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="B301">
         <f>COUNTIF(A:A,A301)</f>
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="D301" t="str">
         <f t="shared" si="1"/>
@@ -8218,30 +8279,29 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>370</v>
+        <v>594</v>
       </c>
       <c r="B302">
         <f>COUNTIF(A:A,A302)</f>
         <v>1</v>
       </c>
-      <c r="C302" t="s">
-        <v>530</v>
-      </c>
-      <c r="D302" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(302)</v>
+      <c r="C302" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D302" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>371</v>
+        <v>602</v>
       </c>
       <c r="B303">
         <f>COUNTIF(A:A,A303)</f>
         <v>1</v>
       </c>
-      <c r="C303" t="s">
-        <v>531</v>
+      <c r="C303" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="D303" t="str">
         <f t="shared" si="1"/>
@@ -8250,14 +8310,14 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>369</v>
+        <v>603</v>
       </c>
       <c r="B304">
         <f>COUNTIF(A:A,A304)</f>
         <v>1</v>
       </c>
-      <c r="C304" t="s">
-        <v>532</v>
+      <c r="C304" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D304" t="str">
         <f t="shared" si="1"/>
@@ -8266,14 +8326,14 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>373</v>
+        <v>590</v>
       </c>
       <c r="B305">
         <f>COUNTIF(A:A,A305)</f>
         <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="D305" t="str">
         <f t="shared" si="1"/>
@@ -8282,14 +8342,14 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>374</v>
+        <v>591</v>
       </c>
       <c r="B306">
         <f>COUNTIF(A:A,A306)</f>
         <v>1</v>
       </c>
-      <c r="C306" t="s">
-        <v>535</v>
+      <c r="C306" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="D306" t="str">
         <f t="shared" si="1"/>
@@ -8298,18 +8358,114 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>372</v>
+        <v>604</v>
       </c>
       <c r="B307">
         <f>COUNTIF(A:A,A307)</f>
         <v>1</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D307" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(307)</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>370</v>
+      </c>
+      <c r="B308">
+        <f>COUNTIF(A:A,A308)</f>
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
+        <v>530</v>
+      </c>
+      <c r="D308" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(308)</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>371</v>
+      </c>
+      <c r="B309">
+        <f>COUNTIF(A:A,A309)</f>
+        <v>1</v>
+      </c>
+      <c r="C309" t="s">
+        <v>531</v>
+      </c>
+      <c r="D309" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(309)</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>369</v>
+      </c>
+      <c r="B310">
+        <f>COUNTIF(A:A,A310)</f>
+        <v>1</v>
+      </c>
+      <c r="C310" t="s">
+        <v>532</v>
+      </c>
+      <c r="D310" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(310)</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>373</v>
+      </c>
+      <c r="B311">
+        <f>COUNTIF(A:A,A311)</f>
+        <v>1</v>
+      </c>
+      <c r="C311" t="s">
+        <v>533</v>
+      </c>
+      <c r="D311" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(311)</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>374</v>
+      </c>
+      <c r="B312">
+        <f>COUNTIF(A:A,A312)</f>
+        <v>1</v>
+      </c>
+      <c r="C312" t="s">
+        <v>535</v>
+      </c>
+      <c r="D312" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(312)</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>372</v>
+      </c>
+      <c r="B313">
+        <f>COUNTIF(A:A,A313)</f>
+        <v>1</v>
+      </c>
+      <c r="C313" t="s">
         <v>534</v>
       </c>
-      <c r="D307" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(307)</v>
+      <c r="D313" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(313)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382F5814-548B-4C79-8456-E0289EF3921E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D85991-92FD-4009-AF7C-B3CE0824B41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InApkStringTable" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$313</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$361</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="866">
   <si>
     <t>확인</t>
   </si>
@@ -3173,6 +3173,415 @@
   <si>
     <t>SteampunkRobot</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharName_Kachujin</t>
+  </si>
+  <si>
+    <t>CharDesc_Kachujin</t>
+  </si>
+  <si>
+    <t>CharDesc_Medea</t>
+  </si>
+  <si>
+    <t>CharDesc_Lola</t>
+  </si>
+  <si>
+    <t>CharDesc_RockElemental</t>
+  </si>
+  <si>
+    <t>CharDesc_Soldier</t>
+  </si>
+  <si>
+    <t>CharDesc_DualWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_BigBatAngel</t>
+  </si>
+  <si>
+    <t>CharDesc_GloryArmor</t>
+  </si>
+  <si>
+    <t>CharDesc_RpgKnight</t>
+  </si>
+  <si>
+    <t>CharDesc_DemonHuntress</t>
+  </si>
+  <si>
+    <t>CharDesc_LadyPirate</t>
+  </si>
+  <si>
+    <t>CharDesc_MobileFemale</t>
+  </si>
+  <si>
+    <t>CharDesc_CyborgCharacter</t>
+  </si>
+  <si>
+    <t>CharDesc_SandWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_BladeFanDancer</t>
+  </si>
+  <si>
+    <t>CharDesc_MobileLancer</t>
+  </si>
+  <si>
+    <t>CharDesc_Syria</t>
+  </si>
+  <si>
+    <t>CharDesc_RobotFive</t>
+  </si>
+  <si>
+    <t>CharDesc_Linhi</t>
+  </si>
+  <si>
+    <t>CharDesc_NecromancerFour</t>
+  </si>
+  <si>
+    <t>CharDesc_GirlWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_GirlArcher</t>
+  </si>
+  <si>
+    <t>CharDesc_EnergyShieldRobot</t>
+  </si>
+  <si>
+    <t>CharDesc_IceMagician</t>
+  </si>
+  <si>
+    <t>카츄진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카츄진의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디아</t>
+  </si>
+  <si>
+    <t>메디아의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>롤라</t>
+  </si>
+  <si>
+    <t>롤라의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>바위엘리멘탈</t>
+  </si>
+  <si>
+    <t>바위엘리멘탈의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>솔져</t>
+  </si>
+  <si>
+    <t>솔져의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>듀얼워리어</t>
+  </si>
+  <si>
+    <t>듀얼워리어의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>빅뱃앤젤</t>
+  </si>
+  <si>
+    <t>빅뱃앤젤의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>글로리아머</t>
+  </si>
+  <si>
+    <t>글로리아머의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>RPG나이트</t>
+  </si>
+  <si>
+    <t>RPG나이트의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>데몬헌트리스</t>
+  </si>
+  <si>
+    <t>데몬헌트리스의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>레이디해적</t>
+  </si>
+  <si>
+    <t>레이디해적의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>모바일피메일</t>
+  </si>
+  <si>
+    <t>모바일피메일의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>사이보그캐릭터</t>
+  </si>
+  <si>
+    <t>사이보그캐릭터의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>샌드워리어</t>
+  </si>
+  <si>
+    <t>샌드워리어의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>블레이드팬댄서</t>
+  </si>
+  <si>
+    <t>블레이드팬댄서의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>모바일랜서</t>
+  </si>
+  <si>
+    <t>모바일랜서의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>시리아</t>
+  </si>
+  <si>
+    <t>시리아의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>로봇파이브</t>
+  </si>
+  <si>
+    <t>로봇파이브의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>린하이</t>
+  </si>
+  <si>
+    <t>린하이의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>네크로맨서포</t>
+  </si>
+  <si>
+    <t>네크로맨서포의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>걸워리어</t>
+  </si>
+  <si>
+    <t>걸워리어의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>걸아처</t>
+  </si>
+  <si>
+    <t>걸아처의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>에너지실드로봇</t>
+  </si>
+  <si>
+    <t>에너지실드로봇의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>아이스매지션</t>
+  </si>
+  <si>
+    <t>아이스매지션의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+  </si>
+  <si>
+    <t>Kachujin</t>
+  </si>
+  <si>
+    <t>CharName_Medea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medea</t>
+  </si>
+  <si>
+    <t>CharName_Lola</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>CharName_RockElemental</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RockElemental</t>
+  </si>
+  <si>
+    <t>CharName_Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>CharName_DualWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DualWarrior</t>
+  </si>
+  <si>
+    <t>CharName_BigBatAngel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigBatAngel</t>
+  </si>
+  <si>
+    <t>CharName_GloryArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GloryArmor</t>
+  </si>
+  <si>
+    <t>CharName_RpgKnight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RpgKnight</t>
+  </si>
+  <si>
+    <t>CharName_DemonHuntress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemonHuntress</t>
+  </si>
+  <si>
+    <t>CharName_LadyPirate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LadyPirate</t>
+  </si>
+  <si>
+    <t>CharName_MobileFemale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileFemale</t>
+  </si>
+  <si>
+    <t>CharName_CyborgCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CyborgCharacter</t>
+  </si>
+  <si>
+    <t>CharName_SandWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SandWarrior</t>
+  </si>
+  <si>
+    <t>CharName_BladeFanDancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BladeFanDancer</t>
+  </si>
+  <si>
+    <t>CharName_MobileLancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobileLancer</t>
+  </si>
+  <si>
+    <t>CharName_Syria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>CharName_RobotFive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotFive</t>
+  </si>
+  <si>
+    <t>CharName_Linhi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linhi</t>
+  </si>
+  <si>
+    <t>CharName_NecromancerFour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NecromancerFour</t>
+  </si>
+  <si>
+    <t>CharName_GirlWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GirlWarrior</t>
+  </si>
+  <si>
+    <t>CharName_GirlArcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GirlArcher</t>
+  </si>
+  <si>
+    <t>CharName_EnergyShieldRobot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyShieldRobot</t>
+  </si>
+  <si>
+    <t>CharName_IceMagician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceMagician</t>
   </si>
 </sst>
 </file>
@@ -3576,7 +3985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D313"/>
+  <dimension ref="A1:D361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3613,7 +4022,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="B2:B33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -3628,7 +4037,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -3643,7 +4052,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -3658,7 +4067,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -3673,7 +4082,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3688,7 +4097,7 @@
         <v>623</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3703,7 +4112,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3718,7 +4127,7 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3733,7 +4142,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -3748,7 +4157,7 @@
         <v>418</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3763,7 +4172,7 @@
         <v>419</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3778,7 +4187,7 @@
         <v>420</v>
       </c>
       <c r="B13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3793,7 +4202,7 @@
         <v>421</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3808,7 +4217,7 @@
         <v>422</v>
       </c>
       <c r="B15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3823,7 +4232,7 @@
         <v>423</v>
       </c>
       <c r="B16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3838,7 +4247,7 @@
         <v>424</v>
       </c>
       <c r="B17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -3853,7 +4262,7 @@
         <v>425</v>
       </c>
       <c r="B18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3868,7 +4277,7 @@
         <v>426</v>
       </c>
       <c r="B19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3883,7 +4292,7 @@
         <v>427</v>
       </c>
       <c r="B20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3898,7 +4307,7 @@
         <v>428</v>
       </c>
       <c r="B21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -3913,7 +4322,7 @@
         <v>429</v>
       </c>
       <c r="B22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -3928,7 +4337,7 @@
         <v>430</v>
       </c>
       <c r="B23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -3943,7 +4352,7 @@
         <v>431</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -3958,7 +4367,7 @@
         <v>432</v>
       </c>
       <c r="B25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -3973,7 +4382,7 @@
         <v>433</v>
       </c>
       <c r="B26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -3988,7 +4397,7 @@
         <v>434</v>
       </c>
       <c r="B27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -4003,7 +4412,7 @@
         <v>435</v>
       </c>
       <c r="B28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -4018,7 +4427,7 @@
         <v>436</v>
       </c>
       <c r="B29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -4033,7 +4442,7 @@
         <v>437</v>
       </c>
       <c r="B30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -4048,7 +4457,7 @@
         <v>438</v>
       </c>
       <c r="B31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -4063,7 +4472,7 @@
         <v>439</v>
       </c>
       <c r="B32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -4078,7 +4487,7 @@
         <v>440</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -4093,7 +4502,7 @@
         <v>441</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="B34:B65" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -4108,7 +4517,7 @@
         <v>442</v>
       </c>
       <c r="B35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -4123,7 +4532,7 @@
         <v>443</v>
       </c>
       <c r="B36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -4138,7 +4547,7 @@
         <v>444</v>
       </c>
       <c r="B37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -4153,7 +4562,7 @@
         <v>445</v>
       </c>
       <c r="B38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -4168,7 +4577,7 @@
         <v>446</v>
       </c>
       <c r="B39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -4183,7 +4592,7 @@
         <v>447</v>
       </c>
       <c r="B40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -4198,7 +4607,7 @@
         <v>357</v>
       </c>
       <c r="B41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4213,7 +4622,7 @@
         <v>358</v>
       </c>
       <c r="B42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4228,7 +4637,7 @@
         <v>359</v>
       </c>
       <c r="B43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4243,7 +4652,7 @@
         <v>360</v>
       </c>
       <c r="B44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4258,7 +4667,7 @@
         <v>498</v>
       </c>
       <c r="B45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4273,7 +4682,7 @@
         <v>499</v>
       </c>
       <c r="B46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4288,7 +4697,7 @@
         <v>500</v>
       </c>
       <c r="B47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4303,7 +4712,7 @@
         <v>501</v>
       </c>
       <c r="B48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4318,7 +4727,7 @@
         <v>502</v>
       </c>
       <c r="B49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4333,7 +4742,7 @@
         <v>503</v>
       </c>
       <c r="B50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4348,7 +4757,7 @@
         <v>504</v>
       </c>
       <c r="B51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4363,7 +4772,7 @@
         <v>505</v>
       </c>
       <c r="B52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4378,7 +4787,7 @@
         <v>115</v>
       </c>
       <c r="B53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4393,7 +4802,7 @@
         <v>613</v>
       </c>
       <c r="B54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4408,7 +4817,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4423,7 +4832,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4438,7 +4847,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4453,7 +4862,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4468,7 +4877,7 @@
         <v>30</v>
       </c>
       <c r="B59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -4483,7 +4892,7 @@
         <v>303</v>
       </c>
       <c r="B60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4498,7 +4907,7 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -4513,7 +4922,7 @@
         <v>626</v>
       </c>
       <c r="B62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C62" t="s">
@@ -4528,7 +4937,7 @@
         <v>628</v>
       </c>
       <c r="B63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C63" t="s">
@@ -4543,7 +4952,7 @@
         <v>630</v>
       </c>
       <c r="B64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C64" t="s">
@@ -4558,7 +4967,7 @@
         <v>631</v>
       </c>
       <c r="B65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C65" t="s">
@@ -4573,7 +4982,7 @@
         <v>632</v>
       </c>
       <c r="B66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="B66:B97" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
@@ -4588,7 +4997,7 @@
         <v>633</v>
       </c>
       <c r="B67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C67" t="s">
@@ -4603,7 +5012,7 @@
         <v>662</v>
       </c>
       <c r="B68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C68" t="s">
@@ -4618,7 +5027,7 @@
         <v>638</v>
       </c>
       <c r="B69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C69" t="s">
@@ -4633,7 +5042,7 @@
         <v>660</v>
       </c>
       <c r="B70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C70" t="s">
@@ -4648,7 +5057,7 @@
         <v>661</v>
       </c>
       <c r="B71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C71" t="s">
@@ -4663,7 +5072,7 @@
         <v>676</v>
       </c>
       <c r="B72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C72" t="s">
@@ -4689,7 +5098,7 @@
         <v>39</v>
       </c>
       <c r="B74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" ref="B74:B137" si="3">COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="C74" t="s">
@@ -4704,7 +5113,7 @@
         <v>349</v>
       </c>
       <c r="B75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C75" t="s">
@@ -4719,7 +5128,7 @@
         <v>350</v>
       </c>
       <c r="B76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C76" t="s">
@@ -4734,7 +5143,7 @@
         <v>29</v>
       </c>
       <c r="B77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C77" t="s">
@@ -4749,7 +5158,7 @@
         <v>345</v>
       </c>
       <c r="B78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -4764,7 +5173,7 @@
         <v>348</v>
       </c>
       <c r="B79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -4779,7 +5188,7 @@
         <v>609</v>
       </c>
       <c r="B80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -4794,7 +5203,7 @@
         <v>355</v>
       </c>
       <c r="B81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -4809,7 +5218,7 @@
         <v>417</v>
       </c>
       <c r="B82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -4824,7 +5233,7 @@
         <v>489</v>
       </c>
       <c r="B83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -4839,7 +5248,7 @@
         <v>488</v>
       </c>
       <c r="B84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -4854,7 +5263,7 @@
         <v>668</v>
       </c>
       <c r="B85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -4869,7 +5278,7 @@
         <v>492</v>
       </c>
       <c r="B86">
-        <f>COUNTIF(A:A,A86)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -4884,7 +5293,7 @@
         <v>493</v>
       </c>
       <c r="B87">
-        <f>COUNTIF(A:A,A87)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -4899,7 +5308,7 @@
         <v>495</v>
       </c>
       <c r="B88">
-        <f>COUNTIF(A:A,A88)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -4914,7 +5323,7 @@
         <v>578</v>
       </c>
       <c r="B89">
-        <f>COUNTIF(A:A,A89)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -4929,7 +5338,7 @@
         <v>73</v>
       </c>
       <c r="B90">
-        <f>COUNTIF(A:A,A90)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C90" t="s">
@@ -4944,7 +5353,7 @@
         <v>74</v>
       </c>
       <c r="B91">
-        <f>COUNTIF(A:A,A91)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C91" t="s">
@@ -4959,7 +5368,7 @@
         <v>68</v>
       </c>
       <c r="B92">
-        <f>COUNTIF(A:A,A92)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C92" t="s">
@@ -4974,7 +5383,7 @@
         <v>117</v>
       </c>
       <c r="B93">
-        <f>COUNTIF(A:A,A93)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C93" t="s">
@@ -4989,7 +5398,7 @@
         <v>87</v>
       </c>
       <c r="B94">
-        <f>COUNTIF(A:A,A94)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C94" t="s">
@@ -5004,7 +5413,7 @@
         <v>88</v>
       </c>
       <c r="B95">
-        <f>COUNTIF(A:A,A95)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C95" t="s">
@@ -5019,7 +5428,7 @@
         <v>89</v>
       </c>
       <c r="B96">
-        <f>COUNTIF(A:A,A96)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C96" t="s">
@@ -5034,7 +5443,7 @@
         <v>90</v>
       </c>
       <c r="B97">
-        <f>COUNTIF(A:A,A97)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C97" t="s">
@@ -5049,7 +5458,7 @@
         <v>91</v>
       </c>
       <c r="B98">
-        <f>COUNTIF(A:A,A98)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C98" t="s">
@@ -5064,7 +5473,7 @@
         <v>582</v>
       </c>
       <c r="B99">
-        <f>COUNTIF(A:A,A99)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C99" t="s">
@@ -5079,7 +5488,7 @@
         <v>300</v>
       </c>
       <c r="B100">
-        <f>COUNTIF(A:A,A100)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C100" t="s">
@@ -5094,7 +5503,7 @@
         <v>92</v>
       </c>
       <c r="B101">
-        <f>COUNTIF(A:A,A101)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C101" t="s">
@@ -5109,7 +5518,7 @@
         <v>618</v>
       </c>
       <c r="B102">
-        <f>COUNTIF(A:A,A102)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C102" t="s">
@@ -5124,7 +5533,7 @@
         <v>619</v>
       </c>
       <c r="B103">
-        <f>COUNTIF(A:A,A103)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C103" t="s">
@@ -5139,7 +5548,7 @@
         <v>620</v>
       </c>
       <c r="B104">
-        <f>COUNTIF(A:A,A104)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C104" t="s">
@@ -5154,7 +5563,7 @@
         <v>621</v>
       </c>
       <c r="B105">
-        <f>COUNTIF(A:A,A105)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C105" t="s">
@@ -5169,7 +5578,7 @@
         <v>120</v>
       </c>
       <c r="B106">
-        <f>COUNTIF(A:A,A106)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -5184,7 +5593,7 @@
         <v>121</v>
       </c>
       <c r="B107">
-        <f>COUNTIF(A:A,A107)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C107" t="s">
@@ -5199,7 +5608,7 @@
         <v>122</v>
       </c>
       <c r="B108">
-        <f>COUNTIF(A:A,A108)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -5214,7 +5623,7 @@
         <v>123</v>
       </c>
       <c r="B109">
-        <f>COUNTIF(A:A,A109)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -5229,14 +5638,14 @@
         <v>124</v>
       </c>
       <c r="B110">
-        <f>COUNTIF(A:A,A110)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C110" t="s">
         <v>135</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" ref="D110:D182" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D110:D182" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(110)</v>
       </c>
     </row>
@@ -5245,14 +5654,14 @@
         <v>125</v>
       </c>
       <c r="B111">
-        <f>COUNTIF(A:A,A111)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(111)</v>
       </c>
     </row>
@@ -5261,14 +5670,14 @@
         <v>126</v>
       </c>
       <c r="B112">
-        <f>COUNTIF(A:A,A112)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(112)</v>
       </c>
     </row>
@@ -5277,14 +5686,14 @@
         <v>127</v>
       </c>
       <c r="B113">
-        <f>COUNTIF(A:A,A113)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C113" t="s">
         <v>249</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(113)</v>
       </c>
     </row>
@@ -5293,14 +5702,14 @@
         <v>128</v>
       </c>
       <c r="B114">
-        <f>COUNTIF(A:A,A114)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(114)</v>
       </c>
     </row>
@@ -5309,14 +5718,14 @@
         <v>129</v>
       </c>
       <c r="B115">
-        <f>COUNTIF(A:A,A115)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(115)</v>
       </c>
     </row>
@@ -5325,14 +5734,14 @@
         <v>130</v>
       </c>
       <c r="B116">
-        <f>COUNTIF(A:A,A116)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C116" t="s">
         <v>139</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(116)</v>
       </c>
     </row>
@@ -5341,14 +5750,14 @@
         <v>131</v>
       </c>
       <c r="B117">
-        <f>COUNTIF(A:A,A117)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(117)</v>
       </c>
     </row>
@@ -5357,14 +5766,14 @@
         <v>153</v>
       </c>
       <c r="B118">
-        <f>COUNTIF(A:A,A118)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(118)</v>
       </c>
     </row>
@@ -5373,14 +5782,14 @@
         <v>154</v>
       </c>
       <c r="B119">
-        <f>COUNTIF(A:A,A119)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(119)</v>
       </c>
     </row>
@@ -5389,14 +5798,14 @@
         <v>93</v>
       </c>
       <c r="B120">
-        <f>COUNTIF(A:A,A120)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>256</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(120)</v>
       </c>
     </row>
@@ -5405,14 +5814,14 @@
         <v>94</v>
       </c>
       <c r="B121">
-        <f>COUNTIF(A:A,A121)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(121)</v>
       </c>
     </row>
@@ -5421,14 +5830,14 @@
         <v>95</v>
       </c>
       <c r="B122">
-        <f>COUNTIF(A:A,A122)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(122)</v>
       </c>
     </row>
@@ -5437,14 +5846,14 @@
         <v>96</v>
       </c>
       <c r="B123">
-        <f>COUNTIF(A:A,A123)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(123)</v>
       </c>
     </row>
@@ -5453,14 +5862,14 @@
         <v>97</v>
       </c>
       <c r="B124">
-        <f>COUNTIF(A:A,A124)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(124)</v>
       </c>
     </row>
@@ -5469,14 +5878,14 @@
         <v>98</v>
       </c>
       <c r="B125">
-        <f>COUNTIF(A:A,A125)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(125)</v>
       </c>
     </row>
@@ -5485,14 +5894,14 @@
         <v>99</v>
       </c>
       <c r="B126">
-        <f>COUNTIF(A:A,A126)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(126)</v>
       </c>
     </row>
@@ -5501,14 +5910,14 @@
         <v>100</v>
       </c>
       <c r="B127">
-        <f>COUNTIF(A:A,A127)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(127)</v>
       </c>
     </row>
@@ -5517,14 +5926,14 @@
         <v>101</v>
       </c>
       <c r="B128">
-        <f>COUNTIF(A:A,A128)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(128)</v>
       </c>
     </row>
@@ -5533,14 +5942,14 @@
         <v>102</v>
       </c>
       <c r="B129">
-        <f>COUNTIF(A:A,A129)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
@@ -5549,14 +5958,14 @@
         <v>103</v>
       </c>
       <c r="B130">
-        <f>COUNTIF(A:A,A130)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(130)</v>
       </c>
     </row>
@@ -5565,14 +5974,14 @@
         <v>163</v>
       </c>
       <c r="B131">
-        <f>COUNTIF(A:A,A131)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(131)</v>
       </c>
     </row>
@@ -5581,14 +5990,14 @@
         <v>164</v>
       </c>
       <c r="B132">
-        <f>COUNTIF(A:A,A132)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
@@ -5597,14 +6006,14 @@
         <v>241</v>
       </c>
       <c r="B133">
-        <f>COUNTIF(A:A,A133)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
@@ -5613,14 +6022,14 @@
         <v>242</v>
       </c>
       <c r="B134">
-        <f>COUNTIF(A:A,A134)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(134)</v>
       </c>
     </row>
@@ -5629,14 +6038,14 @@
         <v>166</v>
       </c>
       <c r="B135">
-        <f>COUNTIF(A:A,A135)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(135)</v>
       </c>
     </row>
@@ -5645,14 +6054,14 @@
         <v>167</v>
       </c>
       <c r="B136">
-        <f>COUNTIF(A:A,A136)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(136)</v>
       </c>
     </row>
@@ -5661,14 +6070,14 @@
         <v>168</v>
       </c>
       <c r="B137">
-        <f>COUNTIF(A:A,A137)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(137)</v>
       </c>
     </row>
@@ -5677,14 +6086,14 @@
         <v>169</v>
       </c>
       <c r="B138">
-        <f>COUNTIF(A:A,A138)</f>
+        <f t="shared" ref="B138:B201" si="5">COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
@@ -5693,14 +6102,14 @@
         <v>170</v>
       </c>
       <c r="B139">
-        <f>COUNTIF(A:A,A139)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
@@ -5709,14 +6118,14 @@
         <v>172</v>
       </c>
       <c r="B140">
-        <f>COUNTIF(A:A,A140)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(140)</v>
       </c>
     </row>
@@ -5725,14 +6134,14 @@
         <v>174</v>
       </c>
       <c r="B141">
-        <f>COUNTIF(A:A,A141)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
@@ -5741,14 +6150,14 @@
         <v>175</v>
       </c>
       <c r="B142">
-        <f>COUNTIF(A:A,A142)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
@@ -5757,14 +6166,14 @@
         <v>176</v>
       </c>
       <c r="B143">
-        <f>COUNTIF(A:A,A143)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
@@ -5773,14 +6182,14 @@
         <v>177</v>
       </c>
       <c r="B144">
-        <f>COUNTIF(A:A,A144)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>296</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(144)</v>
       </c>
     </row>
@@ -5789,14 +6198,14 @@
         <v>178</v>
       </c>
       <c r="B145">
-        <f>COUNTIF(A:A,A145)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
@@ -5805,14 +6214,14 @@
         <v>179</v>
       </c>
       <c r="B146">
-        <f>COUNTIF(A:A,A146)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
@@ -5821,14 +6230,14 @@
         <v>180</v>
       </c>
       <c r="B147">
-        <f>COUNTIF(A:A,A147)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
@@ -5837,14 +6246,14 @@
         <v>182</v>
       </c>
       <c r="B148">
-        <f>COUNTIF(A:A,A148)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
@@ -5853,14 +6262,14 @@
         <v>165</v>
       </c>
       <c r="B149">
-        <f>COUNTIF(A:A,A149)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
@@ -5869,14 +6278,14 @@
         <v>184</v>
       </c>
       <c r="B150">
-        <f>COUNTIF(A:A,A150)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(150)</v>
       </c>
     </row>
@@ -5885,14 +6294,14 @@
         <v>301</v>
       </c>
       <c r="B151">
-        <f>COUNTIF(A:A,A151)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(151)</v>
       </c>
     </row>
@@ -5901,14 +6310,14 @@
         <v>192</v>
       </c>
       <c r="B152">
-        <f>COUNTIF(A:A,A152)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(152)</v>
       </c>
     </row>
@@ -5917,14 +6326,14 @@
         <v>185</v>
       </c>
       <c r="B153">
-        <f>COUNTIF(A:A,A153)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(153)</v>
       </c>
     </row>
@@ -5933,14 +6342,14 @@
         <v>187</v>
       </c>
       <c r="B154">
-        <f>COUNTIF(A:A,A154)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
@@ -5949,14 +6358,14 @@
         <v>189</v>
       </c>
       <c r="B155">
-        <f>COUNTIF(A:A,A155)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(155)</v>
       </c>
     </row>
@@ -5965,14 +6374,14 @@
         <v>190</v>
       </c>
       <c r="B156">
-        <f>COUNTIF(A:A,A156)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(156)</v>
       </c>
     </row>
@@ -5981,14 +6390,14 @@
         <v>141</v>
       </c>
       <c r="B157">
-        <f>COUNTIF(A:A,A157)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C157" t="s">
         <v>270</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(157)</v>
       </c>
     </row>
@@ -5997,14 +6406,14 @@
         <v>142</v>
       </c>
       <c r="B158">
-        <f>COUNTIF(A:A,A158)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C158" t="s">
         <v>271</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(158)</v>
       </c>
     </row>
@@ -6013,14 +6422,14 @@
         <v>143</v>
       </c>
       <c r="B159">
-        <f>COUNTIF(A:A,A159)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C159" t="s">
         <v>272</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(159)</v>
       </c>
     </row>
@@ -6029,14 +6438,14 @@
         <v>144</v>
       </c>
       <c r="B160">
-        <f>COUNTIF(A:A,A160)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C160" t="s">
         <v>273</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(160)</v>
       </c>
     </row>
@@ -6045,14 +6454,14 @@
         <v>145</v>
       </c>
       <c r="B161">
-        <f>COUNTIF(A:A,A161)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C161" t="s">
         <v>274</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
@@ -6061,14 +6470,14 @@
         <v>146</v>
       </c>
       <c r="B162">
-        <f>COUNTIF(A:A,A162)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C162" t="s">
         <v>275</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(162)</v>
       </c>
     </row>
@@ -6077,14 +6486,14 @@
         <v>147</v>
       </c>
       <c r="B163">
-        <f>COUNTIF(A:A,A163)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C163" t="s">
         <v>276</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(163)</v>
       </c>
     </row>
@@ -6093,14 +6502,14 @@
         <v>148</v>
       </c>
       <c r="B164">
-        <f>COUNTIF(A:A,A164)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C164" t="s">
         <v>277</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(164)</v>
       </c>
     </row>
@@ -6109,14 +6518,14 @@
         <v>149</v>
       </c>
       <c r="B165">
-        <f>COUNTIF(A:A,A165)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C165" t="s">
         <v>278</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(165)</v>
       </c>
     </row>
@@ -6125,14 +6534,14 @@
         <v>150</v>
       </c>
       <c r="B166">
-        <f>COUNTIF(A:A,A166)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>279</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(166)</v>
       </c>
     </row>
@@ -6141,14 +6550,14 @@
         <v>151</v>
       </c>
       <c r="B167">
-        <f>COUNTIF(A:A,A167)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C167" t="s">
         <v>280</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(167)</v>
       </c>
     </row>
@@ -6157,14 +6566,14 @@
         <v>152</v>
       </c>
       <c r="B168">
-        <f>COUNTIF(A:A,A168)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C168" t="s">
         <v>281</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(168)</v>
       </c>
     </row>
@@ -6173,14 +6582,14 @@
         <v>155</v>
       </c>
       <c r="B169">
-        <f>COUNTIF(A:A,A169)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C169" t="s">
         <v>282</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(169)</v>
       </c>
     </row>
@@ -6189,14 +6598,14 @@
         <v>156</v>
       </c>
       <c r="B170">
-        <f>COUNTIF(A:A,A170)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C170" t="s">
         <v>283</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
@@ -6205,14 +6614,14 @@
         <v>104</v>
       </c>
       <c r="B171">
-        <f>COUNTIF(A:A,A171)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C171" t="s">
         <v>195</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
@@ -6221,14 +6630,14 @@
         <v>105</v>
       </c>
       <c r="B172">
-        <f>COUNTIF(A:A,A172)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>196</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
@@ -6237,14 +6646,14 @@
         <v>106</v>
       </c>
       <c r="B173">
-        <f>COUNTIF(A:A,A173)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C173" t="s">
         <v>284</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(173)</v>
       </c>
     </row>
@@ -6253,14 +6662,14 @@
         <v>107</v>
       </c>
       <c r="B174">
-        <f>COUNTIF(A:A,A174)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C174" t="s">
         <v>197</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(174)</v>
       </c>
     </row>
@@ -6269,14 +6678,14 @@
         <v>108</v>
       </c>
       <c r="B175">
-        <f>COUNTIF(A:A,A175)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C175" t="s">
         <v>198</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(175)</v>
       </c>
     </row>
@@ -6285,14 +6694,14 @@
         <v>109</v>
       </c>
       <c r="B176">
-        <f>COUNTIF(A:A,A176)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C176" t="s">
         <v>199</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(176)</v>
       </c>
     </row>
@@ -6301,14 +6710,14 @@
         <v>110</v>
       </c>
       <c r="B177">
-        <f>COUNTIF(A:A,A177)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C177" t="s">
         <v>200</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(177)</v>
       </c>
     </row>
@@ -6317,14 +6726,14 @@
         <v>111</v>
       </c>
       <c r="B178">
-        <f>COUNTIF(A:A,A178)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C178" t="s">
         <v>201</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(178)</v>
       </c>
     </row>
@@ -6333,14 +6742,14 @@
         <v>112</v>
       </c>
       <c r="B179">
-        <f>COUNTIF(A:A,A179)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C179" t="s">
         <v>202</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(179)</v>
       </c>
     </row>
@@ -6349,14 +6758,14 @@
         <v>113</v>
       </c>
       <c r="B180">
-        <f>COUNTIF(A:A,A180)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C180" t="s">
         <v>203</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
@@ -6365,14 +6774,14 @@
         <v>114</v>
       </c>
       <c r="B181">
-        <f>COUNTIF(A:A,A181)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C181" t="s">
         <v>204</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
@@ -6381,14 +6790,14 @@
         <v>205</v>
       </c>
       <c r="B182">
-        <f>COUNTIF(A:A,A182)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C182" t="s">
         <v>206</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
@@ -6397,14 +6806,14 @@
         <v>207</v>
       </c>
       <c r="B183">
-        <f>COUNTIF(A:A,A183)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C183" t="s">
         <v>208</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D313" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D183:D361" si="6">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
@@ -6413,14 +6822,14 @@
         <v>243</v>
       </c>
       <c r="B184">
-        <f>COUNTIF(A:A,A184)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C184" t="s">
         <v>287</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
@@ -6429,14 +6838,14 @@
         <v>244</v>
       </c>
       <c r="B185">
-        <f>COUNTIF(A:A,A185)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C185" t="s">
         <v>288</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
@@ -6445,14 +6854,14 @@
         <v>211</v>
       </c>
       <c r="B186">
-        <f>COUNTIF(A:A,A186)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C186" t="s">
         <v>289</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
@@ -6461,14 +6870,14 @@
         <v>212</v>
       </c>
       <c r="B187">
-        <f>COUNTIF(A:A,A187)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C187" t="s">
         <v>290</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
@@ -6477,14 +6886,14 @@
         <v>213</v>
       </c>
       <c r="B188">
-        <f>COUNTIF(A:A,A188)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C188" t="s">
         <v>293</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
@@ -6493,14 +6902,14 @@
         <v>214</v>
       </c>
       <c r="B189">
-        <f>COUNTIF(A:A,A189)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C189" t="s">
         <v>294</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
@@ -6509,14 +6918,14 @@
         <v>215</v>
       </c>
       <c r="B190">
-        <f>COUNTIF(A:A,A190)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C190" t="s">
         <v>216</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
@@ -6525,14 +6934,14 @@
         <v>217</v>
       </c>
       <c r="B191">
-        <f>COUNTIF(A:A,A191)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C191" t="s">
         <v>218</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
@@ -6541,14 +6950,14 @@
         <v>219</v>
       </c>
       <c r="B192">
-        <f>COUNTIF(A:A,A192)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C192" t="s">
         <v>220</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
@@ -6557,14 +6966,14 @@
         <v>221</v>
       </c>
       <c r="B193">
-        <f>COUNTIF(A:A,A193)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C193" t="s">
         <v>222</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
@@ -6573,14 +6982,14 @@
         <v>223</v>
       </c>
       <c r="B194">
-        <f>COUNTIF(A:A,A194)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C194" t="s">
         <v>297</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
@@ -6589,14 +6998,14 @@
         <v>224</v>
       </c>
       <c r="B195">
-        <f>COUNTIF(A:A,A195)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C195" t="s">
         <v>298</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
@@ -6605,14 +7014,14 @@
         <v>225</v>
       </c>
       <c r="B196">
-        <f>COUNTIF(A:A,A196)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C196" t="s">
         <v>285</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
@@ -6621,14 +7030,14 @@
         <v>226</v>
       </c>
       <c r="B197">
-        <f>COUNTIF(A:A,A197)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C197" t="s">
         <v>286</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
@@ -6637,14 +7046,14 @@
         <v>227</v>
       </c>
       <c r="B198">
-        <f>COUNTIF(A:A,A198)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C198" t="s">
         <v>228</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
@@ -6653,14 +7062,14 @@
         <v>229</v>
       </c>
       <c r="B199">
-        <f>COUNTIF(A:A,A199)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C199" t="s">
         <v>230</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
@@ -6669,14 +7078,14 @@
         <v>209</v>
       </c>
       <c r="B200">
-        <f>COUNTIF(A:A,A200)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C200" t="s">
         <v>210</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
@@ -6685,14 +7094,14 @@
         <v>231</v>
       </c>
       <c r="B201">
-        <f>COUNTIF(A:A,A201)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C201" t="s">
         <v>299</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
@@ -6701,14 +7110,14 @@
         <v>302</v>
       </c>
       <c r="B202">
-        <f>COUNTIF(A:A,A202)</f>
+        <f t="shared" ref="B202:B265" si="7">COUNTIF(A:A,A202)</f>
         <v>1</v>
       </c>
       <c r="C202" t="s">
         <v>291</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
@@ -6717,14 +7126,14 @@
         <v>239</v>
       </c>
       <c r="B203">
-        <f>COUNTIF(A:A,A203)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C203" t="s">
         <v>240</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
@@ -6733,14 +7142,14 @@
         <v>232</v>
       </c>
       <c r="B204">
-        <f>COUNTIF(A:A,A204)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
@@ -6749,14 +7158,14 @@
         <v>234</v>
       </c>
       <c r="B205">
-        <f>COUNTIF(A:A,A205)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C205" t="s">
         <v>235</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
@@ -6765,14 +7174,14 @@
         <v>236</v>
       </c>
       <c r="B206">
-        <f>COUNTIF(A:A,A206)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C206" t="s">
         <v>292</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
@@ -6781,14 +7190,14 @@
         <v>237</v>
       </c>
       <c r="B207">
-        <f>COUNTIF(A:A,A207)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C207" t="s">
         <v>238</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
@@ -6797,14 +7206,14 @@
         <v>375</v>
       </c>
       <c r="B208">
-        <f>COUNTIF(A:A,A208)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C208" t="s">
         <v>396</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
@@ -6813,14 +7222,14 @@
         <v>376</v>
       </c>
       <c r="B209">
-        <f>COUNTIF(A:A,A209)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C209" t="s">
         <v>397</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
@@ -6829,14 +7238,14 @@
         <v>377</v>
       </c>
       <c r="B210">
-        <f>COUNTIF(A:A,A210)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C210" t="s">
         <v>398</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
@@ -6845,14 +7254,14 @@
         <v>378</v>
       </c>
       <c r="B211">
-        <f>COUNTIF(A:A,A211)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C211" t="s">
         <v>399</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
@@ -6861,14 +7270,14 @@
         <v>379</v>
       </c>
       <c r="B212">
-        <f>COUNTIF(A:A,A212)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C212" t="s">
         <v>400</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
@@ -6877,14 +7286,14 @@
         <v>380</v>
       </c>
       <c r="B213">
-        <f>COUNTIF(A:A,A213)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C213" t="s">
         <v>401</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
@@ -6893,14 +7302,14 @@
         <v>381</v>
       </c>
       <c r="B214">
-        <f>COUNTIF(A:A,A214)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C214" t="s">
         <v>402</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
@@ -6909,14 +7318,14 @@
         <v>382</v>
       </c>
       <c r="B215">
-        <f>COUNTIF(A:A,A215)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C215" t="s">
         <v>403</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
@@ -6925,14 +7334,14 @@
         <v>383</v>
       </c>
       <c r="B216">
-        <f>COUNTIF(A:A,A216)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C216" t="s">
         <v>404</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
@@ -6941,14 +7350,14 @@
         <v>384</v>
       </c>
       <c r="B217">
-        <f>COUNTIF(A:A,A217)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>405</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
@@ -6957,14 +7366,14 @@
         <v>385</v>
       </c>
       <c r="B218">
-        <f>COUNTIF(A:A,A218)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C218" t="s">
         <v>406</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
@@ -6973,14 +7382,14 @@
         <v>386</v>
       </c>
       <c r="B219">
-        <f>COUNTIF(A:A,A219)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C219" t="s">
         <v>407</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
@@ -6989,14 +7398,14 @@
         <v>387</v>
       </c>
       <c r="B220">
-        <f>COUNTIF(A:A,A220)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C220" t="s">
         <v>408</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
@@ -7005,14 +7414,14 @@
         <v>388</v>
       </c>
       <c r="B221">
-        <f>COUNTIF(A:A,A221)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>409</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
@@ -7021,14 +7430,14 @@
         <v>389</v>
       </c>
       <c r="B222">
-        <f>COUNTIF(A:A,A222)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C222" t="s">
         <v>410</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
@@ -7037,14 +7446,14 @@
         <v>390</v>
       </c>
       <c r="B223">
-        <f>COUNTIF(A:A,A223)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C223" t="s">
         <v>411</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
@@ -7053,14 +7462,14 @@
         <v>391</v>
       </c>
       <c r="B224">
-        <f>COUNTIF(A:A,A224)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C224" t="s">
         <v>412</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(224)</v>
       </c>
     </row>
@@ -7069,14 +7478,14 @@
         <v>392</v>
       </c>
       <c r="B225">
-        <f>COUNTIF(A:A,A225)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C225" t="s">
         <v>413</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(225)</v>
       </c>
     </row>
@@ -7085,14 +7494,14 @@
         <v>393</v>
       </c>
       <c r="B226">
-        <f>COUNTIF(A:A,A226)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C226" t="s">
         <v>414</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(226)</v>
       </c>
     </row>
@@ -7101,14 +7510,14 @@
         <v>394</v>
       </c>
       <c r="B227">
-        <f>COUNTIF(A:A,A227)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C227" t="s">
         <v>415</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(227)</v>
       </c>
     </row>
@@ -7117,14 +7526,14 @@
         <v>395</v>
       </c>
       <c r="B228">
-        <f>COUNTIF(A:A,A228)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C228" t="s">
         <v>416</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(228)</v>
       </c>
     </row>
@@ -7133,14 +7542,14 @@
         <v>536</v>
       </c>
       <c r="B229">
-        <f>COUNTIF(A:A,A229)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C229" t="s">
         <v>544</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(229)</v>
       </c>
     </row>
@@ -7149,14 +7558,14 @@
         <v>537</v>
       </c>
       <c r="B230">
-        <f>COUNTIF(A:A,A230)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C230" t="s">
         <v>545</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(230)</v>
       </c>
     </row>
@@ -7165,14 +7574,14 @@
         <v>538</v>
       </c>
       <c r="B231">
-        <f>COUNTIF(A:A,A231)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C231" t="s">
         <v>546</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(231)</v>
       </c>
     </row>
@@ -7181,14 +7590,14 @@
         <v>539</v>
       </c>
       <c r="B232">
-        <f>COUNTIF(A:A,A232)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C232" t="s">
         <v>547</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(232)</v>
       </c>
     </row>
@@ -7197,14 +7606,14 @@
         <v>540</v>
       </c>
       <c r="B233">
-        <f>COUNTIF(A:A,A233)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C233" t="s">
         <v>548</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(233)</v>
       </c>
     </row>
@@ -7213,14 +7622,14 @@
         <v>541</v>
       </c>
       <c r="B234">
-        <f>COUNTIF(A:A,A234)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C234" t="s">
         <v>549</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(234)</v>
       </c>
     </row>
@@ -7229,14 +7638,14 @@
         <v>542</v>
       </c>
       <c r="B235">
-        <f>COUNTIF(A:A,A235)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C235" t="s">
         <v>550</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(235)</v>
       </c>
     </row>
@@ -7245,14 +7654,14 @@
         <v>543</v>
       </c>
       <c r="B236">
-        <f>COUNTIF(A:A,A236)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C236" t="s">
         <v>551</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(236)</v>
       </c>
     </row>
@@ -7261,14 +7670,14 @@
         <v>306</v>
       </c>
       <c r="B237">
-        <f>COUNTIF(A:A,A237)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C237" t="s">
         <v>581</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(237)</v>
       </c>
     </row>
@@ -7277,14 +7686,14 @@
         <v>307</v>
       </c>
       <c r="B238">
-        <f>COUNTIF(A:A,A238)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C238" t="s">
         <v>327</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(238)</v>
       </c>
     </row>
@@ -7293,14 +7702,14 @@
         <v>308</v>
       </c>
       <c r="B239">
-        <f>COUNTIF(A:A,A239)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C239" t="s">
         <v>328</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(239)</v>
       </c>
     </row>
@@ -7309,14 +7718,14 @@
         <v>309</v>
       </c>
       <c r="B240">
-        <f>COUNTIF(A:A,A240)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C240" t="s">
         <v>329</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(240)</v>
       </c>
     </row>
@@ -7325,14 +7734,14 @@
         <v>310</v>
       </c>
       <c r="B241">
-        <f>COUNTIF(A:A,A241)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C241" t="s">
         <v>330</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(241)</v>
       </c>
     </row>
@@ -7341,14 +7750,14 @@
         <v>311</v>
       </c>
       <c r="B242">
-        <f>COUNTIF(A:A,A242)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C242" t="s">
         <v>331</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(242)</v>
       </c>
     </row>
@@ -7357,14 +7766,14 @@
         <v>312</v>
       </c>
       <c r="B243">
-        <f>COUNTIF(A:A,A243)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C243" t="s">
         <v>573</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(243)</v>
       </c>
     </row>
@@ -7373,14 +7782,14 @@
         <v>313</v>
       </c>
       <c r="B244">
-        <f>COUNTIF(A:A,A244)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C244" t="s">
         <v>332</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(244)</v>
       </c>
     </row>
@@ -7389,14 +7798,14 @@
         <v>314</v>
       </c>
       <c r="B245">
-        <f>COUNTIF(A:A,A245)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C245" t="s">
         <v>333</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(245)</v>
       </c>
     </row>
@@ -7405,14 +7814,14 @@
         <v>315</v>
       </c>
       <c r="B246">
-        <f>COUNTIF(A:A,A246)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C246" t="s">
         <v>334</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(246)</v>
       </c>
     </row>
@@ -7421,14 +7830,14 @@
         <v>316</v>
       </c>
       <c r="B247">
-        <f>COUNTIF(A:A,A247)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C247" t="s">
         <v>335</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(247)</v>
       </c>
     </row>
@@ -7437,14 +7846,14 @@
         <v>317</v>
       </c>
       <c r="B248">
-        <f>COUNTIF(A:A,A248)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C248" t="s">
         <v>336</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(248)</v>
       </c>
     </row>
@@ -7453,14 +7862,14 @@
         <v>318</v>
       </c>
       <c r="B249">
-        <f>COUNTIF(A:A,A249)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C249" t="s">
         <v>337</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(249)</v>
       </c>
     </row>
@@ -7469,14 +7878,14 @@
         <v>319</v>
       </c>
       <c r="B250">
-        <f>COUNTIF(A:A,A250)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C250" t="s">
         <v>338</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(250)</v>
       </c>
     </row>
@@ -7485,14 +7894,14 @@
         <v>320</v>
       </c>
       <c r="B251">
-        <f>COUNTIF(A:A,A251)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C251" t="s">
         <v>339</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(251)</v>
       </c>
     </row>
@@ -7501,14 +7910,14 @@
         <v>321</v>
       </c>
       <c r="B252">
-        <f>COUNTIF(A:A,A252)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C252" t="s">
         <v>340</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(252)</v>
       </c>
     </row>
@@ -7517,14 +7926,14 @@
         <v>322</v>
       </c>
       <c r="B253">
-        <f>COUNTIF(A:A,A253)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C253" t="s">
         <v>341</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(253)</v>
       </c>
     </row>
@@ -7533,14 +7942,14 @@
         <v>323</v>
       </c>
       <c r="B254">
-        <f>COUNTIF(A:A,A254)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C254" t="s">
         <v>342</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(254)</v>
       </c>
     </row>
@@ -7549,14 +7958,14 @@
         <v>324</v>
       </c>
       <c r="B255">
-        <f>COUNTIF(A:A,A255)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C255" t="s">
         <v>343</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(255)</v>
       </c>
     </row>
@@ -7565,14 +7974,14 @@
         <v>325</v>
       </c>
       <c r="B256">
-        <f>COUNTIF(A:A,A256)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C256" t="s">
         <v>344</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(256)</v>
       </c>
     </row>
@@ -7581,14 +7990,14 @@
         <v>326</v>
       </c>
       <c r="B257">
-        <f>COUNTIF(A:A,A257)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C257" t="s">
         <v>559</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(257)</v>
       </c>
     </row>
@@ -7597,14 +8006,14 @@
         <v>552</v>
       </c>
       <c r="B258">
-        <f>COUNTIF(A:A,A258)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C258" t="s">
         <v>560</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(258)</v>
       </c>
     </row>
@@ -7613,14 +8022,14 @@
         <v>553</v>
       </c>
       <c r="B259">
-        <f>COUNTIF(A:A,A259)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C259" t="s">
         <v>561</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(259)</v>
       </c>
     </row>
@@ -7629,14 +8038,14 @@
         <v>554</v>
       </c>
       <c r="B260">
-        <f>COUNTIF(A:A,A260)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C260" t="s">
         <v>562</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(260)</v>
       </c>
     </row>
@@ -7645,14 +8054,14 @@
         <v>555</v>
       </c>
       <c r="B261">
-        <f>COUNTIF(A:A,A261)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>563</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(261)</v>
       </c>
     </row>
@@ -7661,14 +8070,14 @@
         <v>556</v>
       </c>
       <c r="B262">
-        <f>COUNTIF(A:A,A262)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C262" t="s">
         <v>564</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(262)</v>
       </c>
     </row>
@@ -7677,14 +8086,14 @@
         <v>557</v>
       </c>
       <c r="B263">
-        <f>COUNTIF(A:A,A263)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C263" t="s">
         <v>565</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(263)</v>
       </c>
     </row>
@@ -7693,14 +8102,14 @@
         <v>558</v>
       </c>
       <c r="B264">
-        <f>COUNTIF(A:A,A264)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C264" t="s">
         <v>566</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(264)</v>
       </c>
     </row>
@@ -7709,14 +8118,14 @@
         <v>571</v>
       </c>
       <c r="B265">
-        <f>COUNTIF(A:A,A265)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C265" t="s">
         <v>572</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(265)</v>
       </c>
     </row>
@@ -7725,7 +8134,7 @@
         <v>522</v>
       </c>
       <c r="B266">
-        <f>COUNTIF(A:A,A266)</f>
+        <f t="shared" ref="B266:B329" si="8">COUNTIF(A:A,A266)</f>
         <v>1</v>
       </c>
       <c r="C266" t="s">
@@ -7740,14 +8149,14 @@
         <v>523</v>
       </c>
       <c r="B267">
-        <f>COUNTIF(A:A,A267)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>716</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(267)</v>
       </c>
     </row>
@@ -7756,7 +8165,7 @@
         <v>524</v>
       </c>
       <c r="B268">
-        <f>COUNTIF(A:A,A268)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C268" t="s">
@@ -7771,14 +8180,14 @@
         <v>525</v>
       </c>
       <c r="B269">
-        <f>COUNTIF(A:A,A269)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>717</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(269)</v>
       </c>
     </row>
@@ -7787,7 +8196,7 @@
         <v>526</v>
       </c>
       <c r="B270">
-        <f>COUNTIF(A:A,A270)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C270" t="s">
@@ -7802,14 +8211,14 @@
         <v>527</v>
       </c>
       <c r="B271">
-        <f>COUNTIF(A:A,A271)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>569</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(271)</v>
       </c>
     </row>
@@ -7818,7 +8227,7 @@
         <v>528</v>
       </c>
       <c r="B272">
-        <f>COUNTIF(A:A,A272)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C272" t="s">
@@ -7833,14 +8242,14 @@
         <v>529</v>
       </c>
       <c r="B273">
-        <f>COUNTIF(A:A,A273)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>570</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(273)</v>
       </c>
     </row>
@@ -7849,7 +8258,7 @@
         <v>682</v>
       </c>
       <c r="B274">
-        <f>COUNTIF(A:A,A274)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C274" t="s">
@@ -7864,14 +8273,14 @@
         <v>683</v>
       </c>
       <c r="B275">
-        <f>COUNTIF(A:A,A275)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>685</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(275)</v>
       </c>
     </row>
@@ -7880,7 +8289,7 @@
         <v>687</v>
       </c>
       <c r="B276">
-        <f>COUNTIF(A:A,A276)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -7895,14 +8304,14 @@
         <v>688</v>
       </c>
       <c r="B277">
-        <f>COUNTIF(A:A,A277)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>696</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(277)</v>
       </c>
     </row>
@@ -7911,7 +8320,7 @@
         <v>689</v>
       </c>
       <c r="B278">
-        <f>COUNTIF(A:A,A278)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -7926,14 +8335,14 @@
         <v>690</v>
       </c>
       <c r="B279">
-        <f>COUNTIF(A:A,A279)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>697</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(279)</v>
       </c>
     </row>
@@ -7942,7 +8351,7 @@
         <v>691</v>
       </c>
       <c r="B280">
-        <f>COUNTIF(A:A,A280)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -7957,14 +8366,14 @@
         <v>692</v>
       </c>
       <c r="B281">
-        <f>COUNTIF(A:A,A281)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>724</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(281)</v>
       </c>
     </row>
@@ -7973,7 +8382,7 @@
         <v>701</v>
       </c>
       <c r="B282">
-        <f>COUNTIF(A:A,A282)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -7988,14 +8397,14 @@
         <v>702</v>
       </c>
       <c r="B283">
-        <f>COUNTIF(A:A,A283)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>712</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(283)</v>
       </c>
     </row>
@@ -8004,7 +8413,7 @@
         <v>703</v>
       </c>
       <c r="B284">
-        <f>COUNTIF(A:A,A284)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -8019,14 +8428,14 @@
         <v>704</v>
       </c>
       <c r="B285">
-        <f>COUNTIF(A:A,A285)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>715</v>
       </c>
       <c r="D285" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(285)</v>
       </c>
     </row>
@@ -8035,7 +8444,7 @@
         <v>705</v>
       </c>
       <c r="B286">
-        <f>COUNTIF(A:A,A286)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -8050,14 +8459,14 @@
         <v>706</v>
       </c>
       <c r="B287">
-        <f>COUNTIF(A:A,A287)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>719</v>
       </c>
       <c r="D287" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(287)</v>
       </c>
     </row>
@@ -8066,7 +8475,7 @@
         <v>707</v>
       </c>
       <c r="B288">
-        <f>COUNTIF(A:A,A288)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -8081,14 +8490,14 @@
         <v>708</v>
       </c>
       <c r="B289">
-        <f>COUNTIF(A:A,A289)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>721</v>
       </c>
       <c r="D289" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(289)</v>
       </c>
     </row>
@@ -8097,7 +8506,7 @@
         <v>709</v>
       </c>
       <c r="B290">
-        <f>COUNTIF(A:A,A290)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -8112,14 +8521,14 @@
         <v>710</v>
       </c>
       <c r="B291">
-        <f>COUNTIF(A:A,A291)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>723</v>
       </c>
       <c r="D291" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(291)</v>
       </c>
     </row>
@@ -8128,7 +8537,7 @@
         <v>731</v>
       </c>
       <c r="B292">
-        <f t="shared" ref="B292:B297" si="2">COUNTIF(A:A,A292)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -8143,14 +8552,14 @@
         <v>732</v>
       </c>
       <c r="B293">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>738</v>
       </c>
       <c r="D293" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(293)</v>
       </c>
     </row>
@@ -8159,7 +8568,7 @@
         <v>733</v>
       </c>
       <c r="B294">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -8174,14 +8583,14 @@
         <v>734</v>
       </c>
       <c r="B295">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>740</v>
       </c>
       <c r="D295" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(295)</v>
       </c>
     </row>
@@ -8190,7 +8599,7 @@
         <v>735</v>
       </c>
       <c r="B296">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -8205,267 +8614,1011 @@
         <v>736</v>
       </c>
       <c r="B297">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>742</v>
       </c>
       <c r="D297" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(297)</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>592</v>
+        <v>746</v>
       </c>
       <c r="B298">
-        <f>COUNTIF(A:A,A298)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>595</v>
+        <v>771</v>
       </c>
       <c r="D298" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>593</v>
+        <v>747</v>
       </c>
       <c r="B299">
-        <f>COUNTIF(A:A,A299)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D299" t="s">
-        <v>599</v>
+        <v>772</v>
+      </c>
+      <c r="D299" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(299)</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>584</v>
+        <v>820</v>
       </c>
       <c r="B300">
-        <f>COUNTIF(A:A,A300)</f>
-        <v>1</v>
-      </c>
-      <c r="C300" t="s">
-        <v>586</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="D300" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>585</v>
+        <v>748</v>
       </c>
       <c r="B301">
-        <f>COUNTIF(A:A,A301)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>587</v>
+        <v>774</v>
       </c>
       <c r="D301" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(301)</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>594</v>
+        <v>822</v>
       </c>
       <c r="B302">
-        <f>COUNTIF(A:A,A302)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>597</v>
+        <v>775</v>
       </c>
       <c r="D302" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>602</v>
+        <v>749</v>
       </c>
       <c r="B303">
-        <f>COUNTIF(A:A,A303)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>605</v>
+        <v>776</v>
       </c>
       <c r="D303" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(303)</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>603</v>
+        <v>824</v>
       </c>
       <c r="B304">
-        <f>COUNTIF(A:A,A304)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D304" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(304)</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+      <c r="D304" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>590</v>
+        <v>750</v>
       </c>
       <c r="B305">
-        <f>COUNTIF(A:A,A305)</f>
-        <v>1</v>
-      </c>
-      <c r="C305" t="s">
-        <v>588</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>778</v>
       </c>
       <c r="D305" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(305)</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>591</v>
+        <v>826</v>
       </c>
       <c r="B306">
-        <f>COUNTIF(A:A,A306)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D306" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(306)</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+      <c r="D306" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>604</v>
+        <v>751</v>
       </c>
       <c r="B307">
-        <f>COUNTIF(A:A,A307)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>607</v>
+        <v>780</v>
       </c>
       <c r="D307" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(307)</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>370</v>
+        <v>828</v>
       </c>
       <c r="B308">
-        <f>COUNTIF(A:A,A308)</f>
-        <v>1</v>
-      </c>
-      <c r="C308" t="s">
-        <v>530</v>
-      </c>
-      <c r="D308" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(308)</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D308" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>371</v>
+        <v>752</v>
       </c>
       <c r="B309">
-        <f>COUNTIF(A:A,A309)</f>
-        <v>1</v>
-      </c>
-      <c r="C309" t="s">
-        <v>531</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>782</v>
       </c>
       <c r="D309" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(309)</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>369</v>
+        <v>830</v>
       </c>
       <c r="B310">
-        <f>COUNTIF(A:A,A310)</f>
-        <v>1</v>
-      </c>
-      <c r="C310" t="s">
-        <v>532</v>
-      </c>
-      <c r="D310" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(310)</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D310" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>373</v>
+        <v>753</v>
       </c>
       <c r="B311">
-        <f>COUNTIF(A:A,A311)</f>
-        <v>1</v>
-      </c>
-      <c r="C311" t="s">
-        <v>533</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>784</v>
       </c>
       <c r="D311" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>In progress of translating…(311)</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
+        <v>832</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D312" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>754</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D313" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(313)</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>834</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D314" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>755</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D315" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(315)</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>836</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D316" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>756</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D317" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(317)</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>838</v>
+      </c>
+      <c r="B318">
+        <f t="shared" ref="B318:B346" si="9">COUNTIF(A:A,A318)</f>
+        <v>1</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D318" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>757</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D319" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(319)</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>840</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D320" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>758</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D321" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(321)</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>842</v>
+      </c>
+      <c r="B322">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D322" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>759</v>
+      </c>
+      <c r="B323">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D323" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(323)</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>844</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D324" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>760</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D325" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(325)</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>846</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D326" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>761</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D327" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(327)</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>848</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D328" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>762</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D329" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(329)</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>850</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D330" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>763</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D331" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(331)</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>852</v>
+      </c>
+      <c r="B332">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D332" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>764</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D333" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(333)</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>854</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D334" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>765</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D335" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(335)</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>856</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D336" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>766</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D337" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(337)</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>858</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D338" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>767</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D339" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(339)</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>860</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D340" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>768</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D341" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(341)</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>862</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D342" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>769</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D343" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(343)</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>864</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D344" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>770</v>
+      </c>
+      <c r="B345">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D345" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(345)</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>592</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D346" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>593</v>
+      </c>
+      <c r="B347">
+        <f t="shared" ref="B347:B361" si="10">COUNTIF(A:A,A347)</f>
+        <v>1</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D347" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>584</v>
+      </c>
+      <c r="B348">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C348" t="s">
+        <v>586</v>
+      </c>
+      <c r="D348" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>585</v>
+      </c>
+      <c r="B349">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D349" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(349)</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>594</v>
+      </c>
+      <c r="B350">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D350" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>602</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D351" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(351)</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>603</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D352" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(352)</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>590</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C353" t="s">
+        <v>588</v>
+      </c>
+      <c r="D353" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(353)</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>591</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D354" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(354)</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>604</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D355" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(355)</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>370</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>530</v>
+      </c>
+      <c r="D356" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(356)</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>371</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C357" t="s">
+        <v>531</v>
+      </c>
+      <c r="D357" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(357)</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>369</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C358" t="s">
+        <v>532</v>
+      </c>
+      <c r="D358" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(358)</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>373</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C359" t="s">
+        <v>533</v>
+      </c>
+      <c r="D359" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(359)</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
         <v>374</v>
       </c>
-      <c r="B312">
-        <f>COUNTIF(A:A,A312)</f>
-        <v>1</v>
-      </c>
-      <c r="C312" t="s">
+      <c r="B360">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C360" t="s">
         <v>535</v>
       </c>
-      <c r="D312" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(312)</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+      <c r="D360" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(360)</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
         <v>372</v>
       </c>
-      <c r="B313">
-        <f>COUNTIF(A:A,A313)</f>
-        <v>1</v>
-      </c>
-      <c r="C313" t="s">
+      <c r="B361">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="C361" t="s">
         <v>534</v>
       </c>
-      <c r="D313" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(313)</v>
+      <c r="D361" t="str">
+        <f t="shared" si="6"/>
+        <v>In progress of translating…(361)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D85991-92FD-4009-AF7C-B3CE0824B41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309FF54-BE56-4F53-BA39-0D926219B810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InApkStringTable" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$361</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$363</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="871">
   <si>
     <t>확인</t>
   </si>
@@ -3582,6 +3582,25 @@
   </si>
   <si>
     <t>IceMagician</t>
+  </si>
+  <si>
+    <t>CharName_AngelicWarrior</t>
+  </si>
+  <si>
+    <t>CharDesc_AngelicWarrior</t>
+  </si>
+  <si>
+    <t>앤젤릭워리어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앤젤릭워리어의 설명 우다다다
+멀티타겟 프리셋으로 공격한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngelicWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3985,7 +4004,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D361"/>
+  <dimension ref="A1:D363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -4022,7 +4041,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -4037,7 +4056,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -4052,7 +4071,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -4067,7 +4086,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -4082,7 +4101,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4097,7 +4116,7 @@
         <v>623</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4112,7 +4131,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4127,7 +4146,7 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4142,7 +4161,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -4157,7 +4176,7 @@
         <v>418</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4172,7 +4191,7 @@
         <v>419</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4187,7 +4206,7 @@
         <v>420</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4202,7 +4221,7 @@
         <v>421</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4217,7 +4236,7 @@
         <v>422</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4232,7 +4251,7 @@
         <v>423</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4247,7 +4266,7 @@
         <v>424</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4262,7 +4281,7 @@
         <v>425</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4277,7 +4296,7 @@
         <v>426</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4292,7 +4311,7 @@
         <v>427</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4307,7 +4326,7 @@
         <v>428</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -4322,7 +4341,7 @@
         <v>429</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -4337,7 +4356,7 @@
         <v>430</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -4352,7 +4371,7 @@
         <v>431</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -4367,7 +4386,7 @@
         <v>432</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -4382,7 +4401,7 @@
         <v>433</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -4397,7 +4416,7 @@
         <v>434</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -4412,7 +4431,7 @@
         <v>435</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -4427,7 +4446,7 @@
         <v>436</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -4442,7 +4461,7 @@
         <v>437</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -4457,7 +4476,7 @@
         <v>438</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -4472,7 +4491,7 @@
         <v>439</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -4487,7 +4506,7 @@
         <v>440</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -4502,7 +4521,7 @@
         <v>441</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B65" si="1">COUNTIF(A:A,A34)</f>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -4517,7 +4536,7 @@
         <v>442</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -4532,7 +4551,7 @@
         <v>443</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -4547,7 +4566,7 @@
         <v>444</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -4562,7 +4581,7 @@
         <v>445</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -4577,7 +4596,7 @@
         <v>446</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -4592,7 +4611,7 @@
         <v>447</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -4607,7 +4626,7 @@
         <v>357</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4622,7 +4641,7 @@
         <v>358</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4637,7 +4656,7 @@
         <v>359</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4652,7 +4671,7 @@
         <v>360</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4667,7 +4686,7 @@
         <v>498</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4682,7 +4701,7 @@
         <v>499</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4697,7 +4716,7 @@
         <v>500</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4712,7 +4731,7 @@
         <v>501</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4727,7 +4746,7 @@
         <v>502</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4742,7 +4761,7 @@
         <v>503</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4757,7 +4776,7 @@
         <v>504</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4772,7 +4791,7 @@
         <v>505</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4787,7 +4806,7 @@
         <v>115</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4802,7 +4821,7 @@
         <v>613</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4817,7 +4836,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4832,7 +4851,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4847,7 +4866,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4862,7 +4881,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -4877,7 +4896,7 @@
         <v>30</v>
       </c>
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -4892,7 +4911,7 @@
         <v>303</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -4907,7 +4926,7 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -4922,7 +4941,7 @@
         <v>626</v>
       </c>
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
@@ -4937,7 +4956,7 @@
         <v>628</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
@@ -4952,7 +4971,7 @@
         <v>630</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
       <c r="C64" t="s">
@@ -4967,7 +4986,7 @@
         <v>631</v>
       </c>
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
@@ -4982,7 +5001,7 @@
         <v>632</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B97" si="2">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
@@ -4997,7 +5016,7 @@
         <v>633</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
       <c r="C67" t="s">
@@ -5012,7 +5031,7 @@
         <v>662</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
       <c r="C68" t="s">
@@ -5027,7 +5046,7 @@
         <v>638</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
@@ -5042,7 +5061,7 @@
         <v>660</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
       <c r="C70" t="s">
@@ -5057,7 +5076,7 @@
         <v>661</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
       <c r="C71" t="s">
@@ -5072,7 +5091,7 @@
         <v>676</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
       <c r="C72" t="s">
@@ -5098,7 +5117,7 @@
         <v>39</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:B137" si="3">COUNTIF(A:A,A74)</f>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="C74" t="s">
@@ -5113,7 +5132,7 @@
         <v>349</v>
       </c>
       <c r="B75">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
       <c r="C75" t="s">
@@ -5128,7 +5147,7 @@
         <v>350</v>
       </c>
       <c r="B76">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
       <c r="C76" t="s">
@@ -5143,7 +5162,7 @@
         <v>29</v>
       </c>
       <c r="B77">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
       <c r="C77" t="s">
@@ -5158,7 +5177,7 @@
         <v>345</v>
       </c>
       <c r="B78">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -5173,7 +5192,7 @@
         <v>348</v>
       </c>
       <c r="B79">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -5188,7 +5207,7 @@
         <v>609</v>
       </c>
       <c r="B80">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -5203,7 +5222,7 @@
         <v>355</v>
       </c>
       <c r="B81">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -5218,7 +5237,7 @@
         <v>417</v>
       </c>
       <c r="B82">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -5233,7 +5252,7 @@
         <v>489</v>
       </c>
       <c r="B83">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5248,7 +5267,7 @@
         <v>488</v>
       </c>
       <c r="B84">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5263,7 +5282,7 @@
         <v>668</v>
       </c>
       <c r="B85">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -5278,7 +5297,7 @@
         <v>492</v>
       </c>
       <c r="B86">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5293,7 +5312,7 @@
         <v>493</v>
       </c>
       <c r="B87">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5308,7 +5327,7 @@
         <v>495</v>
       </c>
       <c r="B88">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -5323,7 +5342,7 @@
         <v>578</v>
       </c>
       <c r="B89">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5338,7 +5357,7 @@
         <v>73</v>
       </c>
       <c r="B90">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
       <c r="C90" t="s">
@@ -5353,7 +5372,7 @@
         <v>74</v>
       </c>
       <c r="B91">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
       <c r="C91" t="s">
@@ -5368,7 +5387,7 @@
         <v>68</v>
       </c>
       <c r="B92">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
@@ -5383,7 +5402,7 @@
         <v>117</v>
       </c>
       <c r="B93">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
       <c r="C93" t="s">
@@ -5398,7 +5417,7 @@
         <v>87</v>
       </c>
       <c r="B94">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="C94" t="s">
@@ -5413,7 +5432,7 @@
         <v>88</v>
       </c>
       <c r="B95">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A95)</f>
         <v>1</v>
       </c>
       <c r="C95" t="s">
@@ -5428,7 +5447,7 @@
         <v>89</v>
       </c>
       <c r="B96">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A96)</f>
         <v>1</v>
       </c>
       <c r="C96" t="s">
@@ -5443,7 +5462,7 @@
         <v>90</v>
       </c>
       <c r="B97">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A97)</f>
         <v>1</v>
       </c>
       <c r="C97" t="s">
@@ -5458,7 +5477,7 @@
         <v>91</v>
       </c>
       <c r="B98">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="C98" t="s">
@@ -5473,7 +5492,7 @@
         <v>582</v>
       </c>
       <c r="B99">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="C99" t="s">
@@ -5488,7 +5507,7 @@
         <v>300</v>
       </c>
       <c r="B100">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
       <c r="C100" t="s">
@@ -5503,7 +5522,7 @@
         <v>92</v>
       </c>
       <c r="B101">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
       <c r="C101" t="s">
@@ -5518,7 +5537,7 @@
         <v>618</v>
       </c>
       <c r="B102">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="C102" t="s">
@@ -5533,7 +5552,7 @@
         <v>619</v>
       </c>
       <c r="B103">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
       <c r="C103" t="s">
@@ -5548,7 +5567,7 @@
         <v>620</v>
       </c>
       <c r="B104">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="C104" t="s">
@@ -5563,7 +5582,7 @@
         <v>621</v>
       </c>
       <c r="B105">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A105)</f>
         <v>1</v>
       </c>
       <c r="C105" t="s">
@@ -5578,7 +5597,7 @@
         <v>120</v>
       </c>
       <c r="B106">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -5593,7 +5612,7 @@
         <v>121</v>
       </c>
       <c r="B107">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
@@ -5608,7 +5627,7 @@
         <v>122</v>
       </c>
       <c r="B108">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -5623,7 +5642,7 @@
         <v>123</v>
       </c>
       <c r="B109">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -5638,14 +5657,14 @@
         <v>124</v>
       </c>
       <c r="B110">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="C110" t="s">
         <v>135</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" ref="D110:D182" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D110:D182" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(110)</v>
       </c>
     </row>
@@ -5654,14 +5673,14 @@
         <v>125</v>
       </c>
       <c r="B111">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(111)</v>
       </c>
     </row>
@@ -5670,14 +5689,14 @@
         <v>126</v>
       </c>
       <c r="B112">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(112)</v>
       </c>
     </row>
@@ -5686,14 +5705,14 @@
         <v>127</v>
       </c>
       <c r="B113">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
       <c r="C113" t="s">
         <v>249</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(113)</v>
       </c>
     </row>
@@ -5702,14 +5721,14 @@
         <v>128</v>
       </c>
       <c r="B114">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(114)</v>
       </c>
     </row>
@@ -5718,14 +5737,14 @@
         <v>129</v>
       </c>
       <c r="B115">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(115)</v>
       </c>
     </row>
@@ -5734,14 +5753,14 @@
         <v>130</v>
       </c>
       <c r="B116">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A116)</f>
         <v>1</v>
       </c>
       <c r="C116" t="s">
         <v>139</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(116)</v>
       </c>
     </row>
@@ -5750,14 +5769,14 @@
         <v>131</v>
       </c>
       <c r="B117">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(117)</v>
       </c>
     </row>
@@ -5766,14 +5785,14 @@
         <v>153</v>
       </c>
       <c r="B118">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(118)</v>
       </c>
     </row>
@@ -5782,14 +5801,14 @@
         <v>154</v>
       </c>
       <c r="B119">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(119)</v>
       </c>
     </row>
@@ -5798,14 +5817,14 @@
         <v>93</v>
       </c>
       <c r="B120">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>256</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(120)</v>
       </c>
     </row>
@@ -5814,14 +5833,14 @@
         <v>94</v>
       </c>
       <c r="B121">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(121)</v>
       </c>
     </row>
@@ -5830,14 +5849,14 @@
         <v>95</v>
       </c>
       <c r="B122">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(122)</v>
       </c>
     </row>
@@ -5846,14 +5865,14 @@
         <v>96</v>
       </c>
       <c r="B123">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(123)</v>
       </c>
     </row>
@@ -5862,14 +5881,14 @@
         <v>97</v>
       </c>
       <c r="B124">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>259</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(124)</v>
       </c>
     </row>
@@ -5878,14 +5897,14 @@
         <v>98</v>
       </c>
       <c r="B125">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>261</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(125)</v>
       </c>
     </row>
@@ -5894,14 +5913,14 @@
         <v>99</v>
       </c>
       <c r="B126">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(126)</v>
       </c>
     </row>
@@ -5910,14 +5929,14 @@
         <v>100</v>
       </c>
       <c r="B127">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>262</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(127)</v>
       </c>
     </row>
@@ -5926,14 +5945,14 @@
         <v>101</v>
       </c>
       <c r="B128">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(128)</v>
       </c>
     </row>
@@ -5942,14 +5961,14 @@
         <v>102</v>
       </c>
       <c r="B129">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>161</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
@@ -5958,14 +5977,14 @@
         <v>103</v>
       </c>
       <c r="B130">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(130)</v>
       </c>
     </row>
@@ -5974,14 +5993,14 @@
         <v>163</v>
       </c>
       <c r="B131">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>264</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(131)</v>
       </c>
     </row>
@@ -5990,14 +6009,14 @@
         <v>164</v>
       </c>
       <c r="B132">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>265</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
@@ -6006,14 +6025,14 @@
         <v>241</v>
       </c>
       <c r="B133">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>266</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
@@ -6022,14 +6041,14 @@
         <v>242</v>
       </c>
       <c r="B134">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>267</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(134)</v>
       </c>
     </row>
@@ -6038,14 +6057,14 @@
         <v>166</v>
       </c>
       <c r="B135">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(135)</v>
       </c>
     </row>
@@ -6054,14 +6073,14 @@
         <v>167</v>
       </c>
       <c r="B136">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(136)</v>
       </c>
     </row>
@@ -6070,14 +6089,14 @@
         <v>168</v>
       </c>
       <c r="B137">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(137)</v>
       </c>
     </row>
@@ -6086,14 +6105,14 @@
         <v>169</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138:B201" si="5">COUNTIF(A:A,A138)</f>
+        <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
@@ -6102,14 +6121,14 @@
         <v>170</v>
       </c>
       <c r="B139">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>171</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
@@ -6118,14 +6137,14 @@
         <v>172</v>
       </c>
       <c r="B140">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>173</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(140)</v>
       </c>
     </row>
@@ -6134,14 +6153,14 @@
         <v>174</v>
       </c>
       <c r="B141">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
@@ -6150,14 +6169,14 @@
         <v>175</v>
       </c>
       <c r="B142">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
@@ -6166,14 +6185,14 @@
         <v>176</v>
       </c>
       <c r="B143">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
@@ -6182,14 +6201,14 @@
         <v>177</v>
       </c>
       <c r="B144">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A144)</f>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>296</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(144)</v>
       </c>
     </row>
@@ -6198,14 +6217,14 @@
         <v>178</v>
       </c>
       <c r="B145">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A145)</f>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
@@ -6214,14 +6233,14 @@
         <v>179</v>
       </c>
       <c r="B146">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A146)</f>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
@@ -6230,14 +6249,14 @@
         <v>180</v>
       </c>
       <c r="B147">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
@@ -6246,14 +6265,14 @@
         <v>182</v>
       </c>
       <c r="B148">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>183</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
@@ -6262,14 +6281,14 @@
         <v>165</v>
       </c>
       <c r="B149">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>263</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
@@ -6278,14 +6297,14 @@
         <v>184</v>
       </c>
       <c r="B150">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(150)</v>
       </c>
     </row>
@@ -6294,14 +6313,14 @@
         <v>301</v>
       </c>
       <c r="B151">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A151)</f>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>194</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(151)</v>
       </c>
     </row>
@@ -6310,14 +6329,14 @@
         <v>192</v>
       </c>
       <c r="B152">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A152)</f>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>193</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(152)</v>
       </c>
     </row>
@@ -6326,14 +6345,14 @@
         <v>185</v>
       </c>
       <c r="B153">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A153)</f>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(153)</v>
       </c>
     </row>
@@ -6342,14 +6361,14 @@
         <v>187</v>
       </c>
       <c r="B154">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A154)</f>
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>188</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
@@ -6358,14 +6377,14 @@
         <v>189</v>
       </c>
       <c r="B155">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A155)</f>
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>269</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(155)</v>
       </c>
     </row>
@@ -6374,14 +6393,14 @@
         <v>190</v>
       </c>
       <c r="B156">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A156)</f>
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>191</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(156)</v>
       </c>
     </row>
@@ -6390,14 +6409,14 @@
         <v>141</v>
       </c>
       <c r="B157">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
       <c r="C157" t="s">
         <v>270</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(157)</v>
       </c>
     </row>
@@ -6406,14 +6425,14 @@
         <v>142</v>
       </c>
       <c r="B158">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
       <c r="C158" t="s">
         <v>271</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(158)</v>
       </c>
     </row>
@@ -6422,14 +6441,14 @@
         <v>143</v>
       </c>
       <c r="B159">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
       <c r="C159" t="s">
         <v>272</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(159)</v>
       </c>
     </row>
@@ -6438,14 +6457,14 @@
         <v>144</v>
       </c>
       <c r="B160">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
       <c r="C160" t="s">
         <v>273</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(160)</v>
       </c>
     </row>
@@ -6454,14 +6473,14 @@
         <v>145</v>
       </c>
       <c r="B161">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
       <c r="C161" t="s">
         <v>274</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
@@ -6470,14 +6489,14 @@
         <v>146</v>
       </c>
       <c r="B162">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" t="s">
         <v>275</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(162)</v>
       </c>
     </row>
@@ -6486,14 +6505,14 @@
         <v>147</v>
       </c>
       <c r="B163">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
       <c r="C163" t="s">
         <v>276</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(163)</v>
       </c>
     </row>
@@ -6502,14 +6521,14 @@
         <v>148</v>
       </c>
       <c r="B164">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
       <c r="C164" t="s">
         <v>277</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(164)</v>
       </c>
     </row>
@@ -6518,14 +6537,14 @@
         <v>149</v>
       </c>
       <c r="B165">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
       <c r="C165" t="s">
         <v>278</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(165)</v>
       </c>
     </row>
@@ -6534,14 +6553,14 @@
         <v>150</v>
       </c>
       <c r="B166">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
       <c r="C166" t="s">
         <v>279</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(166)</v>
       </c>
     </row>
@@ -6550,14 +6569,14 @@
         <v>151</v>
       </c>
       <c r="B167">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
       <c r="C167" t="s">
         <v>280</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(167)</v>
       </c>
     </row>
@@ -6566,14 +6585,14 @@
         <v>152</v>
       </c>
       <c r="B168">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
       <c r="C168" t="s">
         <v>281</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(168)</v>
       </c>
     </row>
@@ -6582,14 +6601,14 @@
         <v>155</v>
       </c>
       <c r="B169">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
       <c r="C169" t="s">
         <v>282</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(169)</v>
       </c>
     </row>
@@ -6598,14 +6617,14 @@
         <v>156</v>
       </c>
       <c r="B170">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
       <c r="C170" t="s">
         <v>283</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
@@ -6614,14 +6633,14 @@
         <v>104</v>
       </c>
       <c r="B171">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
       <c r="C171" t="s">
         <v>195</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
@@ -6630,14 +6649,14 @@
         <v>105</v>
       </c>
       <c r="B172">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>196</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
@@ -6646,14 +6665,14 @@
         <v>106</v>
       </c>
       <c r="B173">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
       <c r="C173" t="s">
         <v>284</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(173)</v>
       </c>
     </row>
@@ -6662,14 +6681,14 @@
         <v>107</v>
       </c>
       <c r="B174">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
       <c r="C174" t="s">
         <v>197</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(174)</v>
       </c>
     </row>
@@ -6678,14 +6697,14 @@
         <v>108</v>
       </c>
       <c r="B175">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
       <c r="C175" t="s">
         <v>198</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(175)</v>
       </c>
     </row>
@@ -6694,14 +6713,14 @@
         <v>109</v>
       </c>
       <c r="B176">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
       <c r="C176" t="s">
         <v>199</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(176)</v>
       </c>
     </row>
@@ -6710,14 +6729,14 @@
         <v>110</v>
       </c>
       <c r="B177">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
       <c r="C177" t="s">
         <v>200</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(177)</v>
       </c>
     </row>
@@ -6726,14 +6745,14 @@
         <v>111</v>
       </c>
       <c r="B178">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
       <c r="C178" t="s">
         <v>201</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(178)</v>
       </c>
     </row>
@@ -6742,14 +6761,14 @@
         <v>112</v>
       </c>
       <c r="B179">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
       <c r="C179" t="s">
         <v>202</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(179)</v>
       </c>
     </row>
@@ -6758,14 +6777,14 @@
         <v>113</v>
       </c>
       <c r="B180">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
       <c r="C180" t="s">
         <v>203</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
@@ -6774,14 +6793,14 @@
         <v>114</v>
       </c>
       <c r="B181">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A181)</f>
         <v>1</v>
       </c>
       <c r="C181" t="s">
         <v>204</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
@@ -6790,14 +6809,14 @@
         <v>205</v>
       </c>
       <c r="B182">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A182)</f>
         <v>1</v>
       </c>
       <c r="C182" t="s">
         <v>206</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
@@ -6806,14 +6825,14 @@
         <v>207</v>
       </c>
       <c r="B183">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A183)</f>
         <v>1</v>
       </c>
       <c r="C183" t="s">
         <v>208</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D361" si="6">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D183:D363" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
@@ -6822,14 +6841,14 @@
         <v>243</v>
       </c>
       <c r="B184">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
         <v>287</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
@@ -6838,14 +6857,14 @@
         <v>244</v>
       </c>
       <c r="B185">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
         <v>288</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
@@ -6854,14 +6873,14 @@
         <v>211</v>
       </c>
       <c r="B186">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
         <v>289</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
@@ -6870,14 +6889,14 @@
         <v>212</v>
       </c>
       <c r="B187">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
         <v>290</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
@@ -6886,14 +6905,14 @@
         <v>213</v>
       </c>
       <c r="B188">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
         <v>293</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
@@ -6902,14 +6921,14 @@
         <v>214</v>
       </c>
       <c r="B189">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
         <v>294</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
@@ -6918,14 +6937,14 @@
         <v>215</v>
       </c>
       <c r="B190">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
         <v>216</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
@@ -6934,14 +6953,14 @@
         <v>217</v>
       </c>
       <c r="B191">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
         <v>218</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
@@ -6950,14 +6969,14 @@
         <v>219</v>
       </c>
       <c r="B192">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
         <v>220</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
@@ -6966,14 +6985,14 @@
         <v>221</v>
       </c>
       <c r="B193">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
         <v>222</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
@@ -6982,14 +7001,14 @@
         <v>223</v>
       </c>
       <c r="B194">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
         <v>297</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
@@ -6998,14 +7017,14 @@
         <v>224</v>
       </c>
       <c r="B195">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
         <v>298</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
@@ -7014,14 +7033,14 @@
         <v>225</v>
       </c>
       <c r="B196">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
         <v>285</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
@@ -7030,14 +7049,14 @@
         <v>226</v>
       </c>
       <c r="B197">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
         <v>286</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
@@ -7046,14 +7065,14 @@
         <v>227</v>
       </c>
       <c r="B198">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A198)</f>
         <v>1</v>
       </c>
       <c r="C198" t="s">
         <v>228</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
@@ -7062,14 +7081,14 @@
         <v>229</v>
       </c>
       <c r="B199">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A199)</f>
         <v>1</v>
       </c>
       <c r="C199" t="s">
         <v>230</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
@@ -7078,14 +7097,14 @@
         <v>209</v>
       </c>
       <c r="B200">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A200)</f>
         <v>1</v>
       </c>
       <c r="C200" t="s">
         <v>210</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
@@ -7094,14 +7113,14 @@
         <v>231</v>
       </c>
       <c r="B201">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A201)</f>
         <v>1</v>
       </c>
       <c r="C201" t="s">
         <v>299</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
@@ -7110,14 +7129,14 @@
         <v>302</v>
       </c>
       <c r="B202">
-        <f t="shared" ref="B202:B265" si="7">COUNTIF(A:A,A202)</f>
+        <f>COUNTIF(A:A,A202)</f>
         <v>1</v>
       </c>
       <c r="C202" t="s">
         <v>291</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
@@ -7126,14 +7145,14 @@
         <v>239</v>
       </c>
       <c r="B203">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A203)</f>
         <v>1</v>
       </c>
       <c r="C203" t="s">
         <v>240</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
@@ -7142,14 +7161,14 @@
         <v>232</v>
       </c>
       <c r="B204">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A204)</f>
         <v>1</v>
       </c>
       <c r="C204" t="s">
         <v>233</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
@@ -7158,14 +7177,14 @@
         <v>234</v>
       </c>
       <c r="B205">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A205)</f>
         <v>1</v>
       </c>
       <c r="C205" t="s">
         <v>235</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
@@ -7174,14 +7193,14 @@
         <v>236</v>
       </c>
       <c r="B206">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A206)</f>
         <v>1</v>
       </c>
       <c r="C206" t="s">
         <v>292</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
@@ -7190,14 +7209,14 @@
         <v>237</v>
       </c>
       <c r="B207">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A207)</f>
         <v>1</v>
       </c>
       <c r="C207" t="s">
         <v>238</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
@@ -7206,14 +7225,14 @@
         <v>375</v>
       </c>
       <c r="B208">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
         <v>396</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
@@ -7222,14 +7241,14 @@
         <v>376</v>
       </c>
       <c r="B209">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
         <v>397</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
@@ -7238,14 +7257,14 @@
         <v>377</v>
       </c>
       <c r="B210">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
         <v>398</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
@@ -7254,14 +7273,14 @@
         <v>378</v>
       </c>
       <c r="B211">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
         <v>399</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
@@ -7270,14 +7289,14 @@
         <v>379</v>
       </c>
       <c r="B212">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
         <v>400</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
@@ -7286,14 +7305,14 @@
         <v>380</v>
       </c>
       <c r="B213">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
         <v>401</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
@@ -7302,14 +7321,14 @@
         <v>381</v>
       </c>
       <c r="B214">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
         <v>402</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
@@ -7318,14 +7337,14 @@
         <v>382</v>
       </c>
       <c r="B215">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
         <v>403</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
@@ -7334,14 +7353,14 @@
         <v>383</v>
       </c>
       <c r="B216">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
         <v>404</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
@@ -7350,14 +7369,14 @@
         <v>384</v>
       </c>
       <c r="B217">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>405</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
@@ -7366,14 +7385,14 @@
         <v>385</v>
       </c>
       <c r="B218">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
         <v>406</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
@@ -7382,14 +7401,14 @@
         <v>386</v>
       </c>
       <c r="B219">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
         <v>407</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
@@ -7398,14 +7417,14 @@
         <v>387</v>
       </c>
       <c r="B220">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
         <v>408</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
@@ -7414,14 +7433,14 @@
         <v>388</v>
       </c>
       <c r="B221">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>409</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
@@ -7430,14 +7449,14 @@
         <v>389</v>
       </c>
       <c r="B222">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
         <v>410</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
@@ -7446,14 +7465,14 @@
         <v>390</v>
       </c>
       <c r="B223">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
         <v>411</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
@@ -7462,14 +7481,14 @@
         <v>391</v>
       </c>
       <c r="B224">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
         <v>412</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(224)</v>
       </c>
     </row>
@@ -7478,14 +7497,14 @@
         <v>392</v>
       </c>
       <c r="B225">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
         <v>413</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(225)</v>
       </c>
     </row>
@@ -7494,14 +7513,14 @@
         <v>393</v>
       </c>
       <c r="B226">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
         <v>414</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(226)</v>
       </c>
     </row>
@@ -7510,14 +7529,14 @@
         <v>394</v>
       </c>
       <c r="B227">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
         <v>415</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(227)</v>
       </c>
     </row>
@@ -7526,14 +7545,14 @@
         <v>395</v>
       </c>
       <c r="B228">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
         <v>416</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(228)</v>
       </c>
     </row>
@@ -7542,14 +7561,14 @@
         <v>536</v>
       </c>
       <c r="B229">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
         <v>544</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(229)</v>
       </c>
     </row>
@@ -7558,14 +7577,14 @@
         <v>537</v>
       </c>
       <c r="B230">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
         <v>545</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(230)</v>
       </c>
     </row>
@@ -7574,14 +7593,14 @@
         <v>538</v>
       </c>
       <c r="B231">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
         <v>546</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(231)</v>
       </c>
     </row>
@@ -7590,14 +7609,14 @@
         <v>539</v>
       </c>
       <c r="B232">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
         <v>547</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(232)</v>
       </c>
     </row>
@@ -7606,14 +7625,14 @@
         <v>540</v>
       </c>
       <c r="B233">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
         <v>548</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(233)</v>
       </c>
     </row>
@@ -7622,14 +7641,14 @@
         <v>541</v>
       </c>
       <c r="B234">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
         <v>549</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(234)</v>
       </c>
     </row>
@@ -7638,14 +7657,14 @@
         <v>542</v>
       </c>
       <c r="B235">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
         <v>550</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(235)</v>
       </c>
     </row>
@@ -7654,14 +7673,14 @@
         <v>543</v>
       </c>
       <c r="B236">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
         <v>551</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(236)</v>
       </c>
     </row>
@@ -7670,14 +7689,14 @@
         <v>306</v>
       </c>
       <c r="B237">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
         <v>581</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(237)</v>
       </c>
     </row>
@@ -7686,14 +7705,14 @@
         <v>307</v>
       </c>
       <c r="B238">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
         <v>327</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(238)</v>
       </c>
     </row>
@@ -7702,14 +7721,14 @@
         <v>308</v>
       </c>
       <c r="B239">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
         <v>328</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(239)</v>
       </c>
     </row>
@@ -7718,14 +7737,14 @@
         <v>309</v>
       </c>
       <c r="B240">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
         <v>329</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(240)</v>
       </c>
     </row>
@@ -7734,14 +7753,14 @@
         <v>310</v>
       </c>
       <c r="B241">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
         <v>330</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(241)</v>
       </c>
     </row>
@@ -7750,14 +7769,14 @@
         <v>311</v>
       </c>
       <c r="B242">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
         <v>331</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(242)</v>
       </c>
     </row>
@@ -7766,14 +7785,14 @@
         <v>312</v>
       </c>
       <c r="B243">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
         <v>573</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(243)</v>
       </c>
     </row>
@@ -7782,14 +7801,14 @@
         <v>313</v>
       </c>
       <c r="B244">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
         <v>332</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(244)</v>
       </c>
     </row>
@@ -7798,14 +7817,14 @@
         <v>314</v>
       </c>
       <c r="B245">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
         <v>333</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(245)</v>
       </c>
     </row>
@@ -7814,14 +7833,14 @@
         <v>315</v>
       </c>
       <c r="B246">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
         <v>334</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(246)</v>
       </c>
     </row>
@@ -7830,14 +7849,14 @@
         <v>316</v>
       </c>
       <c r="B247">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
         <v>335</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(247)</v>
       </c>
     </row>
@@ -7846,14 +7865,14 @@
         <v>317</v>
       </c>
       <c r="B248">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
         <v>336</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(248)</v>
       </c>
     </row>
@@ -7862,14 +7881,14 @@
         <v>318</v>
       </c>
       <c r="B249">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A249)</f>
         <v>1</v>
       </c>
       <c r="C249" t="s">
         <v>337</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(249)</v>
       </c>
     </row>
@@ -7878,14 +7897,14 @@
         <v>319</v>
       </c>
       <c r="B250">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
         <v>338</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(250)</v>
       </c>
     </row>
@@ -7894,14 +7913,14 @@
         <v>320</v>
       </c>
       <c r="B251">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
         <v>339</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(251)</v>
       </c>
     </row>
@@ -7910,14 +7929,14 @@
         <v>321</v>
       </c>
       <c r="B252">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
         <v>340</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(252)</v>
       </c>
     </row>
@@ -7926,14 +7945,14 @@
         <v>322</v>
       </c>
       <c r="B253">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A253)</f>
         <v>1</v>
       </c>
       <c r="C253" t="s">
         <v>341</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(253)</v>
       </c>
     </row>
@@ -7942,14 +7961,14 @@
         <v>323</v>
       </c>
       <c r="B254">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A254)</f>
         <v>1</v>
       </c>
       <c r="C254" t="s">
         <v>342</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(254)</v>
       </c>
     </row>
@@ -7958,14 +7977,14 @@
         <v>324</v>
       </c>
       <c r="B255">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A255)</f>
         <v>1</v>
       </c>
       <c r="C255" t="s">
         <v>343</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(255)</v>
       </c>
     </row>
@@ -7974,14 +7993,14 @@
         <v>325</v>
       </c>
       <c r="B256">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A256)</f>
         <v>1</v>
       </c>
       <c r="C256" t="s">
         <v>344</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(256)</v>
       </c>
     </row>
@@ -7990,14 +8009,14 @@
         <v>326</v>
       </c>
       <c r="B257">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A257)</f>
         <v>1</v>
       </c>
       <c r="C257" t="s">
         <v>559</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(257)</v>
       </c>
     </row>
@@ -8006,14 +8025,14 @@
         <v>552</v>
       </c>
       <c r="B258">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
         <v>560</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(258)</v>
       </c>
     </row>
@@ -8022,14 +8041,14 @@
         <v>553</v>
       </c>
       <c r="B259">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A259)</f>
         <v>1</v>
       </c>
       <c r="C259" t="s">
         <v>561</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(259)</v>
       </c>
     </row>
@@ -8038,14 +8057,14 @@
         <v>554</v>
       </c>
       <c r="B260">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A260)</f>
         <v>1</v>
       </c>
       <c r="C260" t="s">
         <v>562</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(260)</v>
       </c>
     </row>
@@ -8054,14 +8073,14 @@
         <v>555</v>
       </c>
       <c r="B261">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A261)</f>
         <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>563</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(261)</v>
       </c>
     </row>
@@ -8070,14 +8089,14 @@
         <v>556</v>
       </c>
       <c r="B262">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A262)</f>
         <v>1</v>
       </c>
       <c r="C262" t="s">
         <v>564</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(262)</v>
       </c>
     </row>
@@ -8086,14 +8105,14 @@
         <v>557</v>
       </c>
       <c r="B263">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A263)</f>
         <v>1</v>
       </c>
       <c r="C263" t="s">
         <v>565</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(263)</v>
       </c>
     </row>
@@ -8102,14 +8121,14 @@
         <v>558</v>
       </c>
       <c r="B264">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A264)</f>
         <v>1</v>
       </c>
       <c r="C264" t="s">
         <v>566</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(264)</v>
       </c>
     </row>
@@ -8118,14 +8137,14 @@
         <v>571</v>
       </c>
       <c r="B265">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A265)</f>
         <v>1</v>
       </c>
       <c r="C265" t="s">
         <v>572</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(265)</v>
       </c>
     </row>
@@ -8134,7 +8153,7 @@
         <v>522</v>
       </c>
       <c r="B266">
-        <f t="shared" ref="B266:B329" si="8">COUNTIF(A:A,A266)</f>
+        <f>COUNTIF(A:A,A266)</f>
         <v>1</v>
       </c>
       <c r="C266" t="s">
@@ -8149,14 +8168,14 @@
         <v>523</v>
       </c>
       <c r="B267">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A267)</f>
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>716</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(267)</v>
       </c>
     </row>
@@ -8165,7 +8184,7 @@
         <v>524</v>
       </c>
       <c r="B268">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A268)</f>
         <v>1</v>
       </c>
       <c r="C268" t="s">
@@ -8180,14 +8199,14 @@
         <v>525</v>
       </c>
       <c r="B269">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A269)</f>
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>717</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(269)</v>
       </c>
     </row>
@@ -8196,7 +8215,7 @@
         <v>526</v>
       </c>
       <c r="B270">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A270)</f>
         <v>1</v>
       </c>
       <c r="C270" t="s">
@@ -8211,14 +8230,14 @@
         <v>527</v>
       </c>
       <c r="B271">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>569</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(271)</v>
       </c>
     </row>
@@ -8227,7 +8246,7 @@
         <v>528</v>
       </c>
       <c r="B272">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A272)</f>
         <v>1</v>
       </c>
       <c r="C272" t="s">
@@ -8242,14 +8261,14 @@
         <v>529</v>
       </c>
       <c r="B273">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A273)</f>
         <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>570</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(273)</v>
       </c>
     </row>
@@ -8258,7 +8277,7 @@
         <v>682</v>
       </c>
       <c r="B274">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
       <c r="C274" t="s">
@@ -8273,14 +8292,14 @@
         <v>683</v>
       </c>
       <c r="B275">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>685</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(275)</v>
       </c>
     </row>
@@ -8289,7 +8308,7 @@
         <v>687</v>
       </c>
       <c r="B276">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A276)</f>
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -8304,14 +8323,14 @@
         <v>688</v>
       </c>
       <c r="B277">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>696</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(277)</v>
       </c>
     </row>
@@ -8320,7 +8339,7 @@
         <v>689</v>
       </c>
       <c r="B278">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A278)</f>
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -8335,14 +8354,14 @@
         <v>690</v>
       </c>
       <c r="B279">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A279)</f>
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>697</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(279)</v>
       </c>
     </row>
@@ -8351,7 +8370,7 @@
         <v>691</v>
       </c>
       <c r="B280">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A280)</f>
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -8366,14 +8385,14 @@
         <v>692</v>
       </c>
       <c r="B281">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>724</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(281)</v>
       </c>
     </row>
@@ -8382,7 +8401,7 @@
         <v>701</v>
       </c>
       <c r="B282">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A282)</f>
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -8397,14 +8416,14 @@
         <v>702</v>
       </c>
       <c r="B283">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A283)</f>
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>712</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(283)</v>
       </c>
     </row>
@@ -8413,7 +8432,7 @@
         <v>703</v>
       </c>
       <c r="B284">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A284)</f>
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -8428,14 +8447,14 @@
         <v>704</v>
       </c>
       <c r="B285">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>715</v>
       </c>
       <c r="D285" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(285)</v>
       </c>
     </row>
@@ -8444,7 +8463,7 @@
         <v>705</v>
       </c>
       <c r="B286">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -8459,14 +8478,14 @@
         <v>706</v>
       </c>
       <c r="B287">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A287)</f>
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>719</v>
       </c>
       <c r="D287" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(287)</v>
       </c>
     </row>
@@ -8475,7 +8494,7 @@
         <v>707</v>
       </c>
       <c r="B288">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A288)</f>
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -8490,14 +8509,14 @@
         <v>708</v>
       </c>
       <c r="B289">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A289)</f>
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>721</v>
       </c>
       <c r="D289" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(289)</v>
       </c>
     </row>
@@ -8506,7 +8525,7 @@
         <v>709</v>
       </c>
       <c r="B290">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A290)</f>
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -8521,14 +8540,14 @@
         <v>710</v>
       </c>
       <c r="B291">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A291)</f>
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>723</v>
       </c>
       <c r="D291" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(291)</v>
       </c>
     </row>
@@ -8537,7 +8556,7 @@
         <v>731</v>
       </c>
       <c r="B292">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A292)</f>
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -8552,14 +8571,14 @@
         <v>732</v>
       </c>
       <c r="B293">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A293)</f>
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>738</v>
       </c>
       <c r="D293" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(293)</v>
       </c>
     </row>
@@ -8568,7 +8587,7 @@
         <v>733</v>
       </c>
       <c r="B294">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A294)</f>
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -8583,14 +8602,14 @@
         <v>734</v>
       </c>
       <c r="B295">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A295)</f>
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>740</v>
       </c>
       <c r="D295" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(295)</v>
       </c>
     </row>
@@ -8599,7 +8618,7 @@
         <v>735</v>
       </c>
       <c r="B296">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A296)</f>
         <v>1</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -8614,14 +8633,14 @@
         <v>736</v>
       </c>
       <c r="B297">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A297)</f>
         <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>742</v>
       </c>
       <c r="D297" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(297)</v>
       </c>
     </row>
@@ -8630,7 +8649,7 @@
         <v>746</v>
       </c>
       <c r="B298">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A298)</f>
         <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -8645,14 +8664,14 @@
         <v>747</v>
       </c>
       <c r="B299">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A299)</f>
         <v>1</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>772</v>
       </c>
       <c r="D299" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(299)</v>
       </c>
     </row>
@@ -8661,7 +8680,7 @@
         <v>820</v>
       </c>
       <c r="B300">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A300)</f>
         <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -8676,14 +8695,14 @@
         <v>748</v>
       </c>
       <c r="B301">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A301)</f>
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>774</v>
       </c>
       <c r="D301" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(301)</v>
       </c>
     </row>
@@ -8692,7 +8711,7 @@
         <v>822</v>
       </c>
       <c r="B302">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A302)</f>
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -8707,14 +8726,14 @@
         <v>749</v>
       </c>
       <c r="B303">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A303)</f>
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>776</v>
       </c>
       <c r="D303" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(303)</v>
       </c>
     </row>
@@ -8723,7 +8742,7 @@
         <v>824</v>
       </c>
       <c r="B304">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A304)</f>
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -8738,14 +8757,14 @@
         <v>750</v>
       </c>
       <c r="B305">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A305)</f>
         <v>1</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>778</v>
       </c>
       <c r="D305" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(305)</v>
       </c>
     </row>
@@ -8754,7 +8773,7 @@
         <v>826</v>
       </c>
       <c r="B306">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A306)</f>
         <v>1</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -8769,14 +8788,14 @@
         <v>751</v>
       </c>
       <c r="B307">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A307)</f>
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>780</v>
       </c>
       <c r="D307" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(307)</v>
       </c>
     </row>
@@ -8785,7 +8804,7 @@
         <v>828</v>
       </c>
       <c r="B308">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A308)</f>
         <v>1</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -8800,14 +8819,14 @@
         <v>752</v>
       </c>
       <c r="B309">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A309)</f>
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>782</v>
       </c>
       <c r="D309" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(309)</v>
       </c>
     </row>
@@ -8816,7 +8835,7 @@
         <v>830</v>
       </c>
       <c r="B310">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A310)</f>
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -8831,14 +8850,14 @@
         <v>753</v>
       </c>
       <c r="B311">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A311)</f>
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>784</v>
       </c>
       <c r="D311" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(311)</v>
       </c>
     </row>
@@ -8847,7 +8866,7 @@
         <v>832</v>
       </c>
       <c r="B312">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A312)</f>
         <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -8862,14 +8881,14 @@
         <v>754</v>
       </c>
       <c r="B313">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A313)</f>
         <v>1</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>786</v>
       </c>
       <c r="D313" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(313)</v>
       </c>
     </row>
@@ -8878,7 +8897,7 @@
         <v>834</v>
       </c>
       <c r="B314">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A314)</f>
         <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -8893,14 +8912,14 @@
         <v>755</v>
       </c>
       <c r="B315">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A315)</f>
         <v>1</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>788</v>
       </c>
       <c r="D315" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(315)</v>
       </c>
     </row>
@@ -8909,7 +8928,7 @@
         <v>836</v>
       </c>
       <c r="B316">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A316)</f>
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -8924,14 +8943,14 @@
         <v>756</v>
       </c>
       <c r="B317">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A317)</f>
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>790</v>
       </c>
       <c r="D317" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(317)</v>
       </c>
     </row>
@@ -8940,7 +8959,7 @@
         <v>838</v>
       </c>
       <c r="B318">
-        <f t="shared" ref="B318:B346" si="9">COUNTIF(A:A,A318)</f>
+        <f>COUNTIF(A:A,A318)</f>
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -8955,14 +8974,14 @@
         <v>757</v>
       </c>
       <c r="B319">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A319)</f>
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>792</v>
       </c>
       <c r="D319" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(319)</v>
       </c>
     </row>
@@ -8971,7 +8990,7 @@
         <v>840</v>
       </c>
       <c r="B320">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A320)</f>
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -8986,14 +9005,14 @@
         <v>758</v>
       </c>
       <c r="B321">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A321)</f>
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>794</v>
       </c>
       <c r="D321" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(321)</v>
       </c>
     </row>
@@ -9002,7 +9021,7 @@
         <v>842</v>
       </c>
       <c r="B322">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A322)</f>
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -9017,14 +9036,14 @@
         <v>759</v>
       </c>
       <c r="B323">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A323)</f>
         <v>1</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>796</v>
       </c>
       <c r="D323" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(323)</v>
       </c>
     </row>
@@ -9033,7 +9052,7 @@
         <v>844</v>
       </c>
       <c r="B324">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A324)</f>
         <v>1</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -9048,14 +9067,14 @@
         <v>760</v>
       </c>
       <c r="B325">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A325)</f>
         <v>1</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>798</v>
       </c>
       <c r="D325" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(325)</v>
       </c>
     </row>
@@ -9064,7 +9083,7 @@
         <v>846</v>
       </c>
       <c r="B326">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A326)</f>
         <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -9079,14 +9098,14 @@
         <v>761</v>
       </c>
       <c r="B327">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A327)</f>
         <v>1</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>800</v>
       </c>
       <c r="D327" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(327)</v>
       </c>
     </row>
@@ -9095,7 +9114,7 @@
         <v>848</v>
       </c>
       <c r="B328">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A328)</f>
         <v>1</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -9110,14 +9129,14 @@
         <v>762</v>
       </c>
       <c r="B329">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A329)</f>
         <v>1</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>802</v>
       </c>
       <c r="D329" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(329)</v>
       </c>
     </row>
@@ -9126,7 +9145,7 @@
         <v>850</v>
       </c>
       <c r="B330">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A330)</f>
         <v>1</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -9141,14 +9160,14 @@
         <v>763</v>
       </c>
       <c r="B331">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A331)</f>
         <v>1</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>804</v>
       </c>
       <c r="D331" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(331)</v>
       </c>
     </row>
@@ -9157,7 +9176,7 @@
         <v>852</v>
       </c>
       <c r="B332">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A332)</f>
         <v>1</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -9172,14 +9191,14 @@
         <v>764</v>
       </c>
       <c r="B333">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A333)</f>
         <v>1</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>806</v>
       </c>
       <c r="D333" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(333)</v>
       </c>
     </row>
@@ -9188,7 +9207,7 @@
         <v>854</v>
       </c>
       <c r="B334">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A334)</f>
         <v>1</v>
       </c>
       <c r="C334" s="1" t="s">
@@ -9203,14 +9222,14 @@
         <v>765</v>
       </c>
       <c r="B335">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A335)</f>
         <v>1</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>808</v>
       </c>
       <c r="D335" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(335)</v>
       </c>
     </row>
@@ -9219,7 +9238,7 @@
         <v>856</v>
       </c>
       <c r="B336">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A336)</f>
         <v>1</v>
       </c>
       <c r="C336" s="1" t="s">
@@ -9234,14 +9253,14 @@
         <v>766</v>
       </c>
       <c r="B337">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A337)</f>
         <v>1</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>810</v>
       </c>
       <c r="D337" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(337)</v>
       </c>
     </row>
@@ -9250,7 +9269,7 @@
         <v>858</v>
       </c>
       <c r="B338">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A338)</f>
         <v>1</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -9265,14 +9284,14 @@
         <v>767</v>
       </c>
       <c r="B339">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A339)</f>
         <v>1</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>812</v>
       </c>
       <c r="D339" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(339)</v>
       </c>
     </row>
@@ -9281,7 +9300,7 @@
         <v>860</v>
       </c>
       <c r="B340">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A340)</f>
         <v>1</v>
       </c>
       <c r="C340" s="1" t="s">
@@ -9296,14 +9315,14 @@
         <v>768</v>
       </c>
       <c r="B341">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A341)</f>
         <v>1</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>814</v>
       </c>
       <c r="D341" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(341)</v>
       </c>
     </row>
@@ -9312,7 +9331,7 @@
         <v>862</v>
       </c>
       <c r="B342">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A342)</f>
         <v>1</v>
       </c>
       <c r="C342" s="1" t="s">
@@ -9327,14 +9346,14 @@
         <v>769</v>
       </c>
       <c r="B343">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A343)</f>
         <v>1</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>816</v>
       </c>
       <c r="D343" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(343)</v>
       </c>
     </row>
@@ -9343,7 +9362,7 @@
         <v>864</v>
       </c>
       <c r="B344">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A344)</f>
         <v>1</v>
       </c>
       <c r="C344" s="1" t="s">
@@ -9358,267 +9377,298 @@
         <v>770</v>
       </c>
       <c r="B345">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A345)</f>
         <v>1</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>818</v>
       </c>
       <c r="D345" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(345)</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>592</v>
+        <v>866</v>
       </c>
       <c r="B346">
-        <f t="shared" si="9"/>
+        <f>COUNTIF(A:A,A346)</f>
         <v>1</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>595</v>
+        <v>868</v>
       </c>
       <c r="D346" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>593</v>
+        <v>867</v>
       </c>
       <c r="B347">
-        <f t="shared" ref="B347:B361" si="10">COUNTIF(A:A,A347)</f>
+        <f>COUNTIF(A:A,A347)</f>
         <v>1</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D347" t="s">
-        <v>599</v>
+        <v>869</v>
+      </c>
+      <c r="D347" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(347)</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B348">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C348" t="s">
-        <v>586</v>
+        <f>COUNTIF(A:A,A348)</f>
+        <v>1</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="D348" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B349">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A349)</f>
         <v>1</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D349" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(349)</v>
+        <v>596</v>
+      </c>
+      <c r="D349" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B350">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>597</v>
+        <f>COUNTIF(A:A,A350)</f>
+        <v>1</v>
+      </c>
+      <c r="C350" t="s">
+        <v>586</v>
       </c>
       <c r="D350" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="B351">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A351)</f>
         <v>1</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="D351" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(351)</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B352">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A352)</f>
         <v>1</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D352" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(352)</v>
+        <v>597</v>
+      </c>
+      <c r="D352" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="B353">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C353" t="s">
-        <v>588</v>
+        <f>COUNTIF(A:A,A353)</f>
+        <v>1</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="D353" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(353)</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B354">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A354)</f>
         <v>1</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>589</v>
+        <v>606</v>
       </c>
       <c r="D354" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(354)</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B355">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>607</v>
+        <f>COUNTIF(A:A,A355)</f>
+        <v>1</v>
+      </c>
+      <c r="C355" t="s">
+        <v>588</v>
       </c>
       <c r="D355" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(355)</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>370</v>
+        <v>591</v>
       </c>
       <c r="B356">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C356" t="s">
-        <v>530</v>
+        <f>COUNTIF(A:A,A356)</f>
+        <v>1</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="D356" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(356)</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>371</v>
+        <v>604</v>
       </c>
       <c r="B357">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C357" t="s">
-        <v>531</v>
+        <f>COUNTIF(A:A,A357)</f>
+        <v>1</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="D357" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(357)</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B358">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A358)</f>
         <v>1</v>
       </c>
       <c r="C358" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D358" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(358)</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B359">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A359)</f>
         <v>1</v>
       </c>
       <c r="C359" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D359" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(359)</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B360">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A360)</f>
         <v>1</v>
       </c>
       <c r="C360" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D360" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(360)</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
+        <v>373</v>
+      </c>
+      <c r="B361">
+        <f>COUNTIF(A:A,A361)</f>
+        <v>1</v>
+      </c>
+      <c r="C361" t="s">
+        <v>533</v>
+      </c>
+      <c r="D361" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(361)</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>374</v>
+      </c>
+      <c r="B362">
+        <f>COUNTIF(A:A,A362)</f>
+        <v>1</v>
+      </c>
+      <c r="C362" t="s">
+        <v>535</v>
+      </c>
+      <c r="D362" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(362)</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
         <v>372</v>
       </c>
-      <c r="B361">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="C361" t="s">
+      <c r="B363">
+        <f>COUNTIF(A:A,A363)</f>
+        <v>1</v>
+      </c>
+      <c r="C363" t="s">
         <v>534</v>
       </c>
-      <c r="D361" t="str">
-        <f t="shared" si="6"/>
-        <v>In progress of translating…(361)</v>
+      <c r="D363" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(363)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309FF54-BE56-4F53-BA39-0D926219B810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37109F63-1C65-42E3-B284-2DD91BCAEB25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InApkStringTable" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$363</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$353</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="846">
   <si>
     <t>확인</t>
   </si>
@@ -2942,12 +2942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CharName_QueryChan</t>
-  </si>
-  <si>
-    <t>CharDesc_QueryChan</t>
-  </si>
-  <si>
     <t>CharName_EarthMage</t>
   </si>
   <si>
@@ -2960,20 +2954,11 @@
     <t>CharDesc_DynaMob</t>
   </si>
   <si>
-    <t>쿼리짱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어스메이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>다이나몹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿼리짱의 설명 우다다다
-리코셰가 기본 장착 라이트닝 볼트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2982,10 +2967,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QueryChan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EarthMage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3196,9 +3177,6 @@
     <t>CharDesc_DualWarrior</t>
   </si>
   <si>
-    <t>CharDesc_BigBatAngel</t>
-  </si>
-  <si>
     <t>CharDesc_GloryArmor</t>
   </si>
   <si>
@@ -3208,9 +3186,6 @@
     <t>CharDesc_DemonHuntress</t>
   </si>
   <si>
-    <t>CharDesc_LadyPirate</t>
-  </si>
-  <si>
     <t>CharDesc_MobileFemale</t>
   </si>
   <si>
@@ -3223,13 +3198,7 @@
     <t>CharDesc_BladeFanDancer</t>
   </si>
   <si>
-    <t>CharDesc_MobileLancer</t>
-  </si>
-  <si>
     <t>CharDesc_Syria</t>
-  </si>
-  <si>
-    <t>CharDesc_RobotFive</t>
   </si>
   <si>
     <t>CharDesc_Linhi</t>
@@ -3294,13 +3263,6 @@
 멀티타겟 프리셋으로 공격한다</t>
   </si>
   <si>
-    <t>빅뱃앤젤</t>
-  </si>
-  <si>
-    <t>빅뱃앤젤의 설명 우다다다
-멀티타겟 프리셋으로 공격한다</t>
-  </si>
-  <si>
     <t>글로리아머</t>
   </si>
   <si>
@@ -3322,13 +3284,6 @@
 멀티타겟 프리셋으로 공격한다</t>
   </si>
   <si>
-    <t>레이디해적</t>
-  </si>
-  <si>
-    <t>레이디해적의 설명 우다다다
-멀티타겟 프리셋으로 공격한다</t>
-  </si>
-  <si>
     <t>모바일피메일</t>
   </si>
   <si>
@@ -3357,13 +3312,6 @@
 멀티타겟 프리셋으로 공격한다</t>
   </si>
   <si>
-    <t>모바일랜서</t>
-  </si>
-  <si>
-    <t>모바일랜서의 설명 우다다다
-멀티타겟 프리셋으로 공격한다</t>
-  </si>
-  <si>
     <t>시리아</t>
   </si>
   <si>
@@ -3371,13 +3319,6 @@
 멀티타겟 프리셋으로 공격한다</t>
   </si>
   <si>
-    <t>로봇파이브</t>
-  </si>
-  <si>
-    <t>로봇파이브의 설명 우다다다
-멀티타겟 프리셋으로 공격한다</t>
-  </si>
-  <si>
     <t>린하이</t>
   </si>
   <si>
@@ -3458,13 +3399,6 @@
     <t>DualWarrior</t>
   </si>
   <si>
-    <t>CharName_BigBatAngel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BigBatAngel</t>
-  </si>
-  <si>
     <t>CharName_GloryArmor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3486,13 +3420,6 @@
     <t>DemonHuntress</t>
   </si>
   <si>
-    <t>CharName_LadyPirate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LadyPirate</t>
-  </si>
-  <si>
     <t>CharName_MobileFemale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3521,25 +3448,11 @@
     <t>BladeFanDancer</t>
   </si>
   <si>
-    <t>CharName_MobileLancer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MobileLancer</t>
-  </si>
-  <si>
     <t>CharName_Syria</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Syria</t>
-  </si>
-  <si>
-    <t>CharName_RobotFive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RobotFive</t>
   </si>
   <si>
     <t>CharName_Linhi</t>
@@ -4004,7 +3917,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D363"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -5274,7 +5187,7 @@
         <v>667</v>
       </c>
       <c r="D84" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -6832,7 +6745,7 @@
         <v>208</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D363" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D183:D353" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
@@ -8172,7 +8085,7 @@
         <v>1</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="1"/>
@@ -8203,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="1"/>
@@ -8222,7 +8135,7 @@
         <v>520</v>
       </c>
       <c r="D270" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8312,10 +8225,10 @@
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D276" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
@@ -8327,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D277" t="str">
         <f t="shared" si="1"/>
@@ -8343,13 +8256,13 @@
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D278" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>690</v>
       </c>
@@ -8358,7 +8271,7 @@
         <v>1</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="1"/>
@@ -8367,29 +8280,29 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B280">
         <f>COUNTIF(A:A,A280)</f>
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="D280" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="B281">
         <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="1"/>
@@ -8398,29 +8311,29 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B282">
         <f>COUNTIF(A:A,A282)</f>
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D282" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B283">
         <f>COUNTIF(A:A,A283)</f>
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="1"/>
@@ -8429,7 +8342,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B284">
         <f>COUNTIF(A:A,A284)</f>
@@ -8439,19 +8352,19 @@
         <v>713</v>
       </c>
       <c r="D284" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B285">
         <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="1"/>
@@ -8460,29 +8373,29 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B286">
         <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D286" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B287">
         <f>COUNTIF(A:A,A287)</f>
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" si="1"/>
@@ -8491,29 +8404,29 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B288">
         <f>COUNTIF(A:A,A288)</f>
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D288" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B289">
         <f>COUNTIF(A:A,A289)</f>
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D289" t="str">
         <f t="shared" si="1"/>
@@ -8522,29 +8435,29 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="B290">
         <f>COUNTIF(A:A,A290)</f>
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="D290" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="B291">
         <f>COUNTIF(A:A,A291)</f>
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="1"/>
@@ -8553,29 +8466,29 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B292">
         <f>COUNTIF(A:A,A292)</f>
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D292" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B293">
         <f>COUNTIF(A:A,A293)</f>
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D293" t="str">
         <f t="shared" si="1"/>
@@ -8584,29 +8497,29 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B294">
         <f>COUNTIF(A:A,A294)</f>
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D294" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B295">
         <f>COUNTIF(A:A,A295)</f>
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="1"/>
@@ -8615,29 +8528,29 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B296">
         <f>COUNTIF(A:A,A296)</f>
         <v>1</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="D296" t="s">
-        <v>745</v>
+        <v>802</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="B297">
         <f>COUNTIF(A:A,A297)</f>
         <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
       <c r="D297" t="str">
         <f t="shared" si="1"/>
@@ -8646,29 +8559,29 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>746</v>
+        <v>803</v>
       </c>
       <c r="B298">
         <f>COUNTIF(A:A,A298)</f>
         <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="D298" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B299">
         <f>COUNTIF(A:A,A299)</f>
         <v>1</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="D299" t="str">
         <f t="shared" si="1"/>
@@ -8677,29 +8590,29 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="B300">
         <f>COUNTIF(A:A,A300)</f>
         <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="D300" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B301">
         <f>COUNTIF(A:A,A301)</f>
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D301" t="str">
         <f t="shared" si="1"/>
@@ -8708,29 +8621,29 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="B302">
         <f>COUNTIF(A:A,A302)</f>
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D302" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B303">
         <f>COUNTIF(A:A,A303)</f>
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D303" t="str">
         <f t="shared" si="1"/>
@@ -8739,29 +8652,29 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="B304">
         <f>COUNTIF(A:A,A304)</f>
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D304" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B305">
         <f>COUNTIF(A:A,A305)</f>
         <v>1</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D305" t="str">
         <f t="shared" si="1"/>
@@ -8770,29 +8683,29 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
       <c r="B306">
         <f>COUNTIF(A:A,A306)</f>
         <v>1</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="D306" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B307">
         <f>COUNTIF(A:A,A307)</f>
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D307" t="str">
         <f t="shared" si="1"/>
@@ -8801,29 +8714,29 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="B308">
         <f>COUNTIF(A:A,A308)</f>
         <v>1</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D308" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B309">
         <f>COUNTIF(A:A,A309)</f>
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="D309" t="str">
         <f t="shared" si="1"/>
@@ -8832,29 +8745,29 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="B310">
         <f>COUNTIF(A:A,A310)</f>
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="D310" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B311">
         <f>COUNTIF(A:A,A311)</f>
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="D311" t="str">
         <f t="shared" si="1"/>
@@ -8863,29 +8776,29 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="B312">
         <f>COUNTIF(A:A,A312)</f>
         <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="D312" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B313">
         <f>COUNTIF(A:A,A313)</f>
         <v>1</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D313" t="str">
         <f t="shared" si="1"/>
@@ -8894,29 +8807,29 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="B314">
         <f>COUNTIF(A:A,A314)</f>
         <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D314" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="B315">
         <f>COUNTIF(A:A,A315)</f>
         <v>1</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="D315" t="str">
         <f t="shared" si="1"/>
@@ -8925,29 +8838,29 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="B316">
         <f>COUNTIF(A:A,A316)</f>
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="D316" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B317">
         <f>COUNTIF(A:A,A317)</f>
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D317" t="str">
         <f t="shared" si="1"/>
@@ -8956,29 +8869,29 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
       <c r="B318">
         <f>COUNTIF(A:A,A318)</f>
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="D318" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B319">
         <f>COUNTIF(A:A,A319)</f>
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="D319" t="str">
         <f t="shared" si="1"/>
@@ -8987,29 +8900,29 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="B320">
         <f>COUNTIF(A:A,A320)</f>
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="D320" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B321">
         <f>COUNTIF(A:A,A321)</f>
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="D321" t="str">
         <f t="shared" si="1"/>
@@ -9018,29 +8931,29 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
       <c r="B322">
         <f>COUNTIF(A:A,A322)</f>
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D322" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B323">
         <f>COUNTIF(A:A,A323)</f>
         <v>1</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D323" t="str">
         <f t="shared" si="1"/>
@@ -9049,29 +8962,29 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="B324">
         <f>COUNTIF(A:A,A324)</f>
         <v>1</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="D324" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="B325">
         <f>COUNTIF(A:A,A325)</f>
         <v>1</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D325" t="str">
         <f t="shared" si="1"/>
@@ -9080,29 +8993,29 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="B326">
         <f>COUNTIF(A:A,A326)</f>
         <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="D326" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B327">
         <f>COUNTIF(A:A,A327)</f>
         <v>1</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D327" t="str">
         <f t="shared" si="1"/>
@@ -9111,29 +9024,29 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="B328">
         <f>COUNTIF(A:A,A328)</f>
         <v>1</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D328" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B329">
         <f>COUNTIF(A:A,A329)</f>
         <v>1</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D329" t="str">
         <f t="shared" si="1"/>
@@ -9142,29 +9055,29 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="B330">
         <f>COUNTIF(A:A,A330)</f>
         <v>1</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D330" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B331">
         <f>COUNTIF(A:A,A331)</f>
         <v>1</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D331" t="str">
         <f t="shared" si="1"/>
@@ -9173,29 +9086,29 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="B332">
         <f>COUNTIF(A:A,A332)</f>
         <v>1</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D332" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B333">
         <f>COUNTIF(A:A,A333)</f>
         <v>1</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="D333" t="str">
         <f t="shared" si="1"/>
@@ -9204,29 +9117,29 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
       <c r="B334">
         <f>COUNTIF(A:A,A334)</f>
         <v>1</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D334" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="B335">
         <f>COUNTIF(A:A,A335)</f>
         <v>1</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D335" t="str">
         <f t="shared" si="1"/>
@@ -9235,29 +9148,29 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
       <c r="B336">
         <f>COUNTIF(A:A,A336)</f>
         <v>1</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="D336" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>766</v>
+        <v>842</v>
       </c>
       <c r="B337">
         <f>COUNTIF(A:A,A337)</f>
         <v>1</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>810</v>
+        <v>844</v>
       </c>
       <c r="D337" t="str">
         <f t="shared" si="1"/>
@@ -9266,60 +9179,59 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>858</v>
+        <v>592</v>
       </c>
       <c r="B338">
         <f>COUNTIF(A:A,A338)</f>
         <v>1</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>811</v>
+        <v>595</v>
       </c>
       <c r="D338" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>767</v>
+        <v>593</v>
       </c>
       <c r="B339">
         <f>COUNTIF(A:A,A339)</f>
         <v>1</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D339" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(339)</v>
+        <v>596</v>
+      </c>
+      <c r="D339" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>860</v>
+        <v>584</v>
       </c>
       <c r="B340">
         <f>COUNTIF(A:A,A340)</f>
         <v>1</v>
       </c>
-      <c r="C340" s="1" t="s">
-        <v>813</v>
+      <c r="C340" t="s">
+        <v>586</v>
       </c>
       <c r="D340" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>768</v>
+        <v>585</v>
       </c>
       <c r="B341">
         <f>COUNTIF(A:A,A341)</f>
         <v>1</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>814</v>
+        <v>587</v>
       </c>
       <c r="D341" t="str">
         <f t="shared" si="1"/>
@@ -9328,29 +9240,29 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>862</v>
+        <v>594</v>
       </c>
       <c r="B342">
         <f>COUNTIF(A:A,A342)</f>
         <v>1</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>815</v>
+        <v>597</v>
       </c>
       <c r="D342" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>769</v>
+        <v>602</v>
       </c>
       <c r="B343">
         <f>COUNTIF(A:A,A343)</f>
         <v>1</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>816</v>
+        <v>605</v>
       </c>
       <c r="D343" t="str">
         <f t="shared" si="1"/>
@@ -9359,29 +9271,30 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>864</v>
+        <v>603</v>
       </c>
       <c r="B344">
         <f>COUNTIF(A:A,A344)</f>
         <v>1</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="D344" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="D344" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(344)</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>770</v>
+        <v>590</v>
       </c>
       <c r="B345">
         <f>COUNTIF(A:A,A345)</f>
         <v>1</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>818</v>
+      <c r="C345" t="s">
+        <v>588</v>
       </c>
       <c r="D345" t="str">
         <f t="shared" si="1"/>
@@ -9390,29 +9303,30 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>866</v>
+        <v>591</v>
       </c>
       <c r="B346">
         <f>COUNTIF(A:A,A346)</f>
         <v>1</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="D346" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>589</v>
+      </c>
+      <c r="D346" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(346)</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>867</v>
+        <v>604</v>
       </c>
       <c r="B347">
         <f>COUNTIF(A:A,A347)</f>
         <v>1</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>869</v>
+        <v>607</v>
       </c>
       <c r="D347" t="str">
         <f t="shared" si="1"/>
@@ -9421,59 +9335,62 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>592</v>
+        <v>370</v>
       </c>
       <c r="B348">
         <f>COUNTIF(A:A,A348)</f>
         <v>1</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D348" t="s">
-        <v>598</v>
+      <c r="C348" t="s">
+        <v>530</v>
+      </c>
+      <c r="D348" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(348)</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>593</v>
+        <v>371</v>
       </c>
       <c r="B349">
         <f>COUNTIF(A:A,A349)</f>
         <v>1</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D349" t="s">
-        <v>599</v>
+      <c r="C349" t="s">
+        <v>531</v>
+      </c>
+      <c r="D349" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(349)</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>584</v>
+        <v>369</v>
       </c>
       <c r="B350">
         <f>COUNTIF(A:A,A350)</f>
         <v>1</v>
       </c>
       <c r="C350" t="s">
-        <v>586</v>
-      </c>
-      <c r="D350" t="s">
-        <v>600</v>
+        <v>532</v>
+      </c>
+      <c r="D350" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(350)</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>585</v>
+        <v>373</v>
       </c>
       <c r="B351">
         <f>COUNTIF(A:A,A351)</f>
         <v>1</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>587</v>
+      <c r="C351" t="s">
+        <v>533</v>
       </c>
       <c r="D351" t="str">
         <f t="shared" si="1"/>
@@ -9482,193 +9399,34 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>594</v>
+        <v>374</v>
       </c>
       <c r="B352">
         <f>COUNTIF(A:A,A352)</f>
         <v>1</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D352" t="s">
-        <v>601</v>
+      <c r="C352" t="s">
+        <v>535</v>
+      </c>
+      <c r="D352" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(352)</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>602</v>
+        <v>372</v>
       </c>
       <c r="B353">
         <f>COUNTIF(A:A,A353)</f>
         <v>1</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>605</v>
+      <c r="C353" t="s">
+        <v>534</v>
       </c>
       <c r="D353" t="str">
         <f t="shared" si="1"/>
         <v>In progress of translating…(353)</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>603</v>
-      </c>
-      <c r="B354">
-        <f>COUNTIF(A:A,A354)</f>
-        <v>1</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D354" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(354)</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>590</v>
-      </c>
-      <c r="B355">
-        <f>COUNTIF(A:A,A355)</f>
-        <v>1</v>
-      </c>
-      <c r="C355" t="s">
-        <v>588</v>
-      </c>
-      <c r="D355" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(355)</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>591</v>
-      </c>
-      <c r="B356">
-        <f>COUNTIF(A:A,A356)</f>
-        <v>1</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D356" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(356)</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>604</v>
-      </c>
-      <c r="B357">
-        <f>COUNTIF(A:A,A357)</f>
-        <v>1</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D357" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(357)</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
-        <v>370</v>
-      </c>
-      <c r="B358">
-        <f>COUNTIF(A:A,A358)</f>
-        <v>1</v>
-      </c>
-      <c r="C358" t="s">
-        <v>530</v>
-      </c>
-      <c r="D358" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(358)</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>371</v>
-      </c>
-      <c r="B359">
-        <f>COUNTIF(A:A,A359)</f>
-        <v>1</v>
-      </c>
-      <c r="C359" t="s">
-        <v>531</v>
-      </c>
-      <c r="D359" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(359)</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
-        <v>369</v>
-      </c>
-      <c r="B360">
-        <f>COUNTIF(A:A,A360)</f>
-        <v>1</v>
-      </c>
-      <c r="C360" t="s">
-        <v>532</v>
-      </c>
-      <c r="D360" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(360)</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>373</v>
-      </c>
-      <c r="B361">
-        <f>COUNTIF(A:A,A361)</f>
-        <v>1</v>
-      </c>
-      <c r="C361" t="s">
-        <v>533</v>
-      </c>
-      <c r="D361" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(361)</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
-        <v>374</v>
-      </c>
-      <c r="B362">
-        <f>COUNTIF(A:A,A362)</f>
-        <v>1</v>
-      </c>
-      <c r="C362" t="s">
-        <v>535</v>
-      </c>
-      <c r="D362" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(362)</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>372</v>
-      </c>
-      <c r="B363">
-        <f>COUNTIF(A:A,A363)</f>
-        <v>1</v>
-      </c>
-      <c r="C363" t="s">
-        <v>534</v>
-      </c>
-      <c r="D363" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(363)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37109F63-1C65-42E3-B284-2DD91BCAEB25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F77FD1-A7B5-4100-B872-9A10355EC2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InApkStringTable" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$353</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$358</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="858">
   <si>
     <t>확인</t>
   </si>
@@ -3513,6 +3513,54 @@
   </si>
   <si>
     <t>AngelicWarrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_FrameRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_Exclusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exclusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBetterForBei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkSpeedBetterForBigBatSuccubus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;구원자의 힘&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;야수의 민첩함&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_AtkBetterForGanfaul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;불꽃의 노래&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3917,7 +3965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3928,7 +3976,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="33.625" customWidth="1"/>
     <col min="2" max="2" width="7.125" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="97.25" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="78.375" customWidth="1"/>
@@ -5018,6 +5066,10 @@
       <c r="A73" t="s">
         <v>679</v>
       </c>
+      <c r="B73">
+        <f>COUNTIF(A:A,A73)</f>
+        <v>1</v>
+      </c>
       <c r="C73" t="s">
         <v>680</v>
       </c>
@@ -5027,634 +5079,630 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>846</v>
       </c>
       <c r="B74">
         <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>848</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>349</v>
+        <v>39</v>
       </c>
       <c r="B75">
         <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>353</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B76">
         <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>350</v>
       </c>
       <c r="B77">
         <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>352</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>345</v>
+        <v>29</v>
       </c>
       <c r="B78">
         <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B79">
         <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>574</v>
+        <v>346</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>649</v>
+        <v>347</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>609</v>
+        <v>348</v>
       </c>
       <c r="B80">
         <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>355</v>
+        <v>609</v>
       </c>
       <c r="B81">
         <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D81" t="s">
-        <v>651</v>
+        <v>608</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="B82">
         <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>580</v>
+        <v>356</v>
+      </c>
+      <c r="D82" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="B83">
         <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D83" t="s">
-        <v>491</v>
+        <v>580</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B84">
         <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>667</v>
+        <v>490</v>
       </c>
       <c r="D84" t="s">
-        <v>709</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>668</v>
+        <v>488</v>
       </c>
       <c r="B85">
         <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D85" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>492</v>
+        <v>668</v>
       </c>
       <c r="B86">
         <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>579</v>
+        <v>669</v>
+      </c>
+      <c r="D86" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B87">
         <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B88">
         <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>671</v>
+        <v>575</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>672</v>
+        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
       <c r="B89">
         <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>576</v>
+        <v>671</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>577</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>73</v>
+        <v>578</v>
       </c>
       <c r="B90">
         <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
-      <c r="C90" t="s">
-        <v>69</v>
-      </c>
-      <c r="D90" t="s">
-        <v>71</v>
+      <c r="C90" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B91">
         <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B92">
         <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D92" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B93">
         <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D94" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95">
         <f>COUNTIF(A:A,A95)</f>
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96">
         <f>COUNTIF(A:A,A96)</f>
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97">
         <f>COUNTIF(A:A,A97)</f>
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98">
         <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>582</v>
+        <v>91</v>
       </c>
       <c r="B99">
         <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>583</v>
+        <v>81</v>
       </c>
       <c r="D99" t="s">
-        <v>674</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>300</v>
+        <v>582</v>
       </c>
       <c r="B100">
         <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>673</v>
+        <v>583</v>
       </c>
       <c r="D100" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>300</v>
       </c>
       <c r="B101">
         <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>611</v>
+        <v>673</v>
       </c>
       <c r="D101" t="s">
-        <v>610</v>
+        <v>675</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>618</v>
+        <v>849</v>
       </c>
       <c r="B102">
         <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>616</v>
+        <v>850</v>
       </c>
       <c r="D102" t="s">
-        <v>654</v>
+        <v>851</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>619</v>
+        <v>92</v>
       </c>
       <c r="B103">
         <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="D103" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B104">
         <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D104" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B105">
         <f>COUNTIF(A:A,A105)</f>
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D105" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>620</v>
       </c>
       <c r="B106">
         <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>132</v>
+      <c r="C106" t="s">
+        <v>614</v>
       </c>
       <c r="D106" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>621</v>
       </c>
       <c r="B107">
         <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>133</v>
+        <v>615</v>
       </c>
       <c r="D107" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B108">
         <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D108" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B109">
         <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>137</v>
+      <c r="C109" t="s">
+        <v>133</v>
       </c>
       <c r="D109" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>856</v>
       </c>
       <c r="B110">
         <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
-      </c>
-      <c r="D110" t="str">
-        <f t="shared" ref="D110:D182" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(110)</v>
+        <v>854</v>
+      </c>
+      <c r="D110" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>852</v>
       </c>
       <c r="B111">
         <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D111" t="str">
-        <f t="shared" si="0"/>
-        <v>In progress of translating…(111)</v>
+      <c r="C111" t="s">
+        <v>857</v>
+      </c>
+      <c r="D111" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B112">
         <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D112" t="str">
-        <f t="shared" si="0"/>
-        <v>In progress of translating…(112)</v>
+        <v>134</v>
+      </c>
+      <c r="D112" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B113">
         <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
-      <c r="C113" t="s">
-        <v>249</v>
-      </c>
-      <c r="D113" t="str">
-        <f t="shared" si="0"/>
-        <v>In progress of translating…(113)</v>
+      <c r="C113" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B114">
         <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>250</v>
+      <c r="C114" t="s">
+        <v>135</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D114:D187" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(114)</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>129</v>
+        <v>853</v>
       </c>
       <c r="B115">
         <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>138</v>
+      <c r="C115" t="s">
+        <v>855</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="0"/>
@@ -5663,14 +5711,14 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B116">
         <f>COUNTIF(A:A,A116)</f>
         <v>1</v>
       </c>
-      <c r="C116" t="s">
-        <v>139</v>
+      <c r="C116" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="0"/>
@@ -5679,14 +5727,14 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B117">
         <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="0"/>
@@ -5695,14 +5743,14 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="B118">
         <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>157</v>
+      <c r="C118" t="s">
+        <v>249</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="0"/>
@@ -5711,14 +5759,14 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="B119">
         <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>158</v>
+        <v>250</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="0"/>
@@ -5727,14 +5775,14 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B120">
         <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="0"/>
@@ -5743,14 +5791,14 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B121">
         <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>257</v>
+      <c r="C121" t="s">
+        <v>139</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="0"/>
@@ -5759,14 +5807,14 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B122">
         <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="0"/>
@@ -5775,14 +5823,14 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="B123">
         <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="0"/>
@@ -5791,14 +5839,14 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B124">
         <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="0"/>
@@ -5807,14 +5855,14 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B125">
         <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="0"/>
@@ -5823,14 +5871,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B126">
         <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="0"/>
@@ -5839,14 +5887,14 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B127">
         <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="0"/>
@@ -5855,14 +5903,14 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B128">
         <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="0"/>
@@ -5871,14 +5919,14 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B129">
         <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>161</v>
+        <v>259</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="0"/>
@@ -5887,14 +5935,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B130">
         <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>162</v>
+        <v>261</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="0"/>
@@ -5903,14 +5951,14 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="B131">
         <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>264</v>
+        <v>159</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="0"/>
@@ -5919,46 +5967,46 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="B132">
         <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="B133">
         <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="B134">
         <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="0"/>
@@ -5967,14 +6015,14 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="B135">
         <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="0"/>
@@ -5983,14 +6031,14 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B136">
         <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="0"/>
@@ -5999,14 +6047,14 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B137">
         <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="0"/>
@@ -6015,30 +6063,30 @@
     </row>
     <row r="138" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="B138">
         <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="B139">
         <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="0"/>
@@ -6047,46 +6095,46 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B140">
         <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(140)</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B141">
         <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B142">
         <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="0"/>
@@ -6095,30 +6143,30 @@
     </row>
     <row r="143" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B143">
         <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B144">
         <f>COUNTIF(A:A,A144)</f>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="0"/>
@@ -6127,94 +6175,94 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B145">
         <f>COUNTIF(A:A,A145)</f>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B146">
         <f>COUNTIF(A:A,A146)</f>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B147">
         <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B148">
         <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B149">
         <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B150">
         <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="0"/>
@@ -6223,14 +6271,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>301</v>
+        <v>179</v>
       </c>
       <c r="B151">
         <f>COUNTIF(A:A,A151)</f>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="0"/>
@@ -6239,14 +6287,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B152">
         <f>COUNTIF(A:A,A152)</f>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="0"/>
@@ -6255,14 +6303,14 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B153">
         <f>COUNTIF(A:A,A153)</f>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="0"/>
@@ -6271,30 +6319,30 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B154">
         <f>COUNTIF(A:A,A154)</f>
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B155">
         <f>COUNTIF(A:A,A155)</f>
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="0"/>
@@ -6303,14 +6351,14 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>301</v>
       </c>
       <c r="B156">
         <f>COUNTIF(A:A,A156)</f>
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="0"/>
@@ -6319,14 +6367,14 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="B157">
         <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
-      <c r="C157" t="s">
-        <v>270</v>
+      <c r="C157" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="0"/>
@@ -6335,14 +6383,14 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
       <c r="B158">
         <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
-      <c r="C158" t="s">
-        <v>271</v>
+      <c r="C158" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="0"/>
@@ -6351,14 +6399,14 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="B159">
         <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
-      <c r="C159" t="s">
-        <v>272</v>
+      <c r="C159" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="0"/>
@@ -6367,14 +6415,14 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="B160">
         <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
-      <c r="C160" t="s">
-        <v>273</v>
+      <c r="C160" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="0"/>
@@ -6383,14 +6431,14 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="B161">
         <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
-      <c r="C161" t="s">
-        <v>274</v>
+      <c r="C161" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="0"/>
@@ -6399,14 +6447,14 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B162">
         <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="0"/>
@@ -6415,14 +6463,14 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B163">
         <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="0"/>
@@ -6431,14 +6479,14 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B164">
         <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="0"/>
@@ -6447,14 +6495,14 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B165">
         <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="0"/>
@@ -6463,14 +6511,14 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B166">
         <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="0"/>
@@ -6479,14 +6527,14 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B167">
         <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="0"/>
@@ -6495,14 +6543,14 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B168">
         <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="0"/>
@@ -6511,14 +6559,14 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B169">
         <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="0"/>
@@ -6527,14 +6575,14 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B170">
         <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="0"/>
@@ -6543,14 +6591,14 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="B171">
         <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="0"/>
@@ -6559,14 +6607,14 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="B172">
         <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="0"/>
@@ -6575,14 +6623,14 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="B173">
         <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="0"/>
@@ -6591,14 +6639,14 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="B174">
         <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="0"/>
@@ -6607,14 +6655,14 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="B175">
         <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="0"/>
@@ -6623,14 +6671,14 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B176">
         <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="0"/>
@@ -6639,14 +6687,14 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B177">
         <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="0"/>
@@ -6655,14 +6703,14 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B178">
         <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="0"/>
@@ -6671,14 +6719,14 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B179">
         <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="0"/>
@@ -6687,14 +6735,14 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B180">
         <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="0"/>
@@ -6703,14 +6751,14 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B181">
         <f>COUNTIF(A:A,A181)</f>
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="0"/>
@@ -6719,14 +6767,14 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>110</v>
       </c>
       <c r="B182">
         <f>COUNTIF(A:A,A182)</f>
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="0"/>
@@ -6735,110 +6783,110 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="B183">
         <f>COUNTIF(A:A,A183)</f>
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" ref="D183:D353" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="B184">
         <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="B185">
         <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>211</v>
+        <v>114</v>
       </c>
       <c r="B186">
         <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B187">
         <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>290</v>
+        <v>206</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B188">
         <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D188:D358" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="B189">
         <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="1"/>
@@ -6847,14 +6895,14 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="B190">
         <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="1"/>
@@ -6863,14 +6911,14 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B191">
         <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="1"/>
@@ -6879,14 +6927,14 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B192">
         <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="1"/>
@@ -6895,14 +6943,14 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B193">
         <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="1"/>
@@ -6911,14 +6959,14 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B194">
         <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="1"/>
@@ -6927,14 +6975,14 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B195">
         <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>298</v>
+        <v>216</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="1"/>
@@ -6943,14 +6991,14 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B196">
         <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="1"/>
@@ -6959,14 +7007,14 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="1"/>
@@ -6975,14 +7023,14 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B198">
         <f>COUNTIF(A:A,A198)</f>
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="1"/>
@@ -6991,14 +7039,14 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B199">
         <f>COUNTIF(A:A,A199)</f>
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="1"/>
@@ -7007,14 +7055,14 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="B200">
         <f>COUNTIF(A:A,A200)</f>
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="1"/>
@@ -7023,14 +7071,14 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B201">
         <f>COUNTIF(A:A,A201)</f>
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="1"/>
@@ -7039,14 +7087,14 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="B202">
         <f>COUNTIF(A:A,A202)</f>
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="1"/>
@@ -7055,14 +7103,14 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B203">
         <f>COUNTIF(A:A,A203)</f>
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="1"/>
@@ -7071,14 +7119,14 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B204">
         <f>COUNTIF(A:A,A204)</f>
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="1"/>
@@ -7087,14 +7135,14 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B205">
         <f>COUNTIF(A:A,A205)</f>
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="D205" t="str">
         <f t="shared" si="1"/>
@@ -7103,14 +7151,14 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B206">
         <f>COUNTIF(A:A,A206)</f>
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="1"/>
@@ -7119,14 +7167,14 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="B207">
         <f>COUNTIF(A:A,A207)</f>
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="1"/>
@@ -7135,14 +7183,14 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>375</v>
+        <v>239</v>
       </c>
       <c r="B208">
         <f>COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>396</v>
+        <v>240</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="1"/>
@@ -7151,14 +7199,14 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>376</v>
+        <v>232</v>
       </c>
       <c r="B209">
         <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>397</v>
+        <v>233</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="1"/>
@@ -7167,14 +7215,14 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="B210">
         <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="1"/>
@@ -7183,14 +7231,14 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>378</v>
+        <v>236</v>
       </c>
       <c r="B211">
         <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>399</v>
+        <v>292</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="1"/>
@@ -7199,14 +7247,14 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>379</v>
+        <v>237</v>
       </c>
       <c r="B212">
         <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>400</v>
+        <v>238</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="1"/>
@@ -7215,14 +7263,14 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B213">
         <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="1"/>
@@ -7231,14 +7279,14 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B214">
         <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="1"/>
@@ -7247,14 +7295,14 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B215">
         <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="1"/>
@@ -7263,14 +7311,14 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B216">
         <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="1"/>
@@ -7279,14 +7327,14 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B217">
         <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="1"/>
@@ -7295,14 +7343,14 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B218">
         <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="1"/>
@@ -7311,14 +7359,14 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B219">
         <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="1"/>
@@ -7327,14 +7375,14 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B220">
         <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="1"/>
@@ -7343,14 +7391,14 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B221">
         <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="1"/>
@@ -7359,14 +7407,14 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B222">
         <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="1"/>
@@ -7375,14 +7423,14 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B223">
         <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="1"/>
@@ -7391,14 +7439,14 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B224">
         <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="1"/>
@@ -7407,14 +7455,14 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B225">
         <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="1"/>
@@ -7423,14 +7471,14 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B226">
         <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="1"/>
@@ -7439,14 +7487,14 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B227">
         <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="1"/>
@@ -7455,14 +7503,14 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B228">
         <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="1"/>
@@ -7471,14 +7519,14 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>536</v>
+        <v>391</v>
       </c>
       <c r="B229">
         <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>544</v>
+        <v>412</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="1"/>
@@ -7487,14 +7535,14 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>537</v>
+        <v>392</v>
       </c>
       <c r="B230">
         <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>545</v>
+        <v>413</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="1"/>
@@ -7503,14 +7551,14 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>538</v>
+        <v>393</v>
       </c>
       <c r="B231">
         <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>546</v>
+        <v>414</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="1"/>
@@ -7519,14 +7567,14 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>539</v>
+        <v>394</v>
       </c>
       <c r="B232">
         <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>547</v>
+        <v>415</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="1"/>
@@ -7535,14 +7583,14 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>540</v>
+        <v>395</v>
       </c>
       <c r="B233">
         <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>548</v>
+        <v>416</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="1"/>
@@ -7551,14 +7599,14 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B234">
         <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="1"/>
@@ -7567,14 +7615,14 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B235">
         <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="1"/>
@@ -7583,14 +7631,14 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B236">
         <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="1"/>
@@ -7599,14 +7647,14 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>306</v>
+        <v>539</v>
       </c>
       <c r="B237">
         <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>581</v>
+        <v>547</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="1"/>
@@ -7615,14 +7663,14 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>307</v>
+        <v>540</v>
       </c>
       <c r="B238">
         <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>327</v>
+        <v>548</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="1"/>
@@ -7631,14 +7679,14 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>308</v>
+        <v>541</v>
       </c>
       <c r="B239">
         <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>328</v>
+        <v>549</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="1"/>
@@ -7647,14 +7695,14 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>309</v>
+        <v>542</v>
       </c>
       <c r="B240">
         <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>329</v>
+        <v>550</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="1"/>
@@ -7663,14 +7711,14 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>310</v>
+        <v>543</v>
       </c>
       <c r="B241">
         <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>330</v>
+        <v>551</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="1"/>
@@ -7679,14 +7727,14 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B242">
         <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>331</v>
+        <v>581</v>
       </c>
       <c r="D242" t="str">
         <f t="shared" si="1"/>
@@ -7695,14 +7743,14 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B243">
         <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>573</v>
+        <v>327</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="1"/>
@@ -7711,14 +7759,14 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B244">
         <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D244" t="str">
         <f t="shared" si="1"/>
@@ -7727,14 +7775,14 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B245">
         <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="1"/>
@@ -7743,14 +7791,14 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B246">
         <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D246" t="str">
         <f t="shared" si="1"/>
@@ -7759,14 +7807,14 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B247">
         <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" si="1"/>
@@ -7775,14 +7823,14 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B248">
         <f>COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>336</v>
+        <v>573</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="1"/>
@@ -7791,14 +7839,14 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B249">
         <f>COUNTIF(A:A,A249)</f>
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="1"/>
@@ -7807,14 +7855,14 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B250">
         <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D250" t="str">
         <f t="shared" si="1"/>
@@ -7823,14 +7871,14 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B251">
         <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D251" t="str">
         <f t="shared" si="1"/>
@@ -7839,14 +7887,14 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B252">
         <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D252" t="str">
         <f t="shared" si="1"/>
@@ -7855,14 +7903,14 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B253">
         <f>COUNTIF(A:A,A253)</f>
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D253" t="str">
         <f t="shared" si="1"/>
@@ -7871,14 +7919,14 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B254">
         <f>COUNTIF(A:A,A254)</f>
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D254" t="str">
         <f t="shared" si="1"/>
@@ -7887,14 +7935,14 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B255">
         <f>COUNTIF(A:A,A255)</f>
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D255" t="str">
         <f t="shared" si="1"/>
@@ -7903,14 +7951,14 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B256">
         <f>COUNTIF(A:A,A256)</f>
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D256" t="str">
         <f t="shared" si="1"/>
@@ -7919,14 +7967,14 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B257">
         <f>COUNTIF(A:A,A257)</f>
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>559</v>
+        <v>340</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="1"/>
@@ -7935,14 +7983,14 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>552</v>
+        <v>322</v>
       </c>
       <c r="B258">
         <f>COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>560</v>
+        <v>341</v>
       </c>
       <c r="D258" t="str">
         <f t="shared" si="1"/>
@@ -7951,14 +7999,14 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>553</v>
+        <v>323</v>
       </c>
       <c r="B259">
         <f>COUNTIF(A:A,A259)</f>
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>561</v>
+        <v>342</v>
       </c>
       <c r="D259" t="str">
         <f t="shared" si="1"/>
@@ -7967,14 +8015,14 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>554</v>
+        <v>324</v>
       </c>
       <c r="B260">
         <f>COUNTIF(A:A,A260)</f>
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>562</v>
+        <v>343</v>
       </c>
       <c r="D260" t="str">
         <f t="shared" si="1"/>
@@ -7983,14 +8031,14 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>555</v>
+        <v>325</v>
       </c>
       <c r="B261">
         <f>COUNTIF(A:A,A261)</f>
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>563</v>
+        <v>344</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="1"/>
@@ -7999,14 +8047,14 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>556</v>
+        <v>326</v>
       </c>
       <c r="B262">
         <f>COUNTIF(A:A,A262)</f>
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="1"/>
@@ -8015,14 +8063,14 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B263">
         <f>COUNTIF(A:A,A263)</f>
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" si="1"/>
@@ -8031,14 +8079,14 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B264">
         <f>COUNTIF(A:A,A264)</f>
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="1"/>
@@ -8047,14 +8095,14 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="B265">
         <f>COUNTIF(A:A,A265)</f>
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="1"/>
@@ -8063,29 +8111,30 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="B266">
         <f>COUNTIF(A:A,A266)</f>
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>517</v>
-      </c>
-      <c r="D266" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>563</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(266)</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="B267">
         <f>COUNTIF(A:A,A267)</f>
         <v>1</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>711</v>
+      <c r="C267" t="s">
+        <v>564</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="1"/>
@@ -8094,29 +8143,30 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="B268">
         <f>COUNTIF(A:A,A268)</f>
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>519</v>
-      </c>
-      <c r="D268" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>565</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(268)</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="B269">
         <f>COUNTIF(A:A,A269)</f>
         <v>1</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>712</v>
+      <c r="C269" t="s">
+        <v>566</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="1"/>
@@ -8125,1192 +8175,1191 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>526</v>
+        <v>571</v>
       </c>
       <c r="B270">
         <f>COUNTIF(A:A,A270)</f>
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>520</v>
-      </c>
-      <c r="D270" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(270)</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B271">
         <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D271" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(271)</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
+        <v>517</v>
+      </c>
+      <c r="D271" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B272">
         <f>COUNTIF(A:A,A272)</f>
         <v>1</v>
       </c>
-      <c r="C272" t="s">
-        <v>521</v>
-      </c>
-      <c r="D272" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C272" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D272" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(272)</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B273">
         <f>COUNTIF(A:A,A273)</f>
         <v>1</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D273" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(273)</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C273" t="s">
+        <v>519</v>
+      </c>
+      <c r="D273" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>682</v>
+        <v>525</v>
       </c>
       <c r="B274">
         <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
-      <c r="C274" t="s">
-        <v>684</v>
-      </c>
-      <c r="D274" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C274" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D274" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(274)</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>683</v>
+        <v>526</v>
       </c>
       <c r="B275">
         <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D275" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(275)</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>520</v>
+      </c>
+      <c r="D275" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>687</v>
+        <v>527</v>
       </c>
       <c r="B276">
         <f>COUNTIF(A:A,A276)</f>
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D276" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(276)</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>688</v>
+        <v>528</v>
       </c>
       <c r="B277">
         <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D277" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(277)</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C277" t="s">
+        <v>521</v>
+      </c>
+      <c r="D277" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>689</v>
+        <v>529</v>
       </c>
       <c r="B278">
         <f>COUNTIF(A:A,A278)</f>
         <v>1</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D278" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(278)</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B279">
         <f>COUNTIF(A:A,A279)</f>
         <v>1</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D279" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(279)</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C279" t="s">
+        <v>684</v>
+      </c>
+      <c r="D279" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="B280">
         <f>COUNTIF(A:A,A280)</f>
         <v>1</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D280" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D280" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(280)</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="B281">
         <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D281" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(281)</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+      <c r="D281" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="B282">
         <f>COUNTIF(A:A,A282)</f>
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="D282" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+      <c r="D282" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(282)</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B283">
         <f>COUNTIF(A:A,A283)</f>
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D283" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(283)</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+      <c r="D283" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="B284">
         <f>COUNTIF(A:A,A284)</f>
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D284" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(284)</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B285">
         <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D285" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(285)</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+      <c r="D285" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B286">
         <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D286" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(286)</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B287">
         <f>COUNTIF(A:A,A287)</f>
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D287" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(287)</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+      <c r="D287" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B288">
         <f>COUNTIF(A:A,A288)</f>
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D288" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(288)</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B289">
         <f>COUNTIF(A:A,A289)</f>
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D289" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(289)</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="D289" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
       <c r="B290">
         <f>COUNTIF(A:A,A290)</f>
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="D290" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+      <c r="D290" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(290)</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="B291">
         <f>COUNTIF(A:A,A291)</f>
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D291" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(291)</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+      <c r="D291" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="B292">
         <f>COUNTIF(A:A,A292)</f>
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D292" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+      <c r="D292" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(292)</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="B293">
         <f>COUNTIF(A:A,A293)</f>
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D293" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(293)</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+      <c r="D293" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="B294">
         <f>COUNTIF(A:A,A294)</f>
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D294" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(294)</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B295">
         <f>COUNTIF(A:A,A295)</f>
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D295" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(295)</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+      <c r="D295" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="B296">
         <f>COUNTIF(A:A,A296)</f>
         <v>1</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D296" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+      <c r="D296" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(296)</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="B297">
         <f>COUNTIF(A:A,A297)</f>
         <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="D297" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(297)</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+      <c r="D297" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>803</v>
+        <v>729</v>
       </c>
       <c r="B298">
         <f>COUNTIF(A:A,A298)</f>
         <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D298" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>735</v>
+      </c>
+      <c r="D298" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(298)</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="B299">
         <f>COUNTIF(A:A,A299)</f>
         <v>1</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D299" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(299)</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+      <c r="D299" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>805</v>
+        <v>731</v>
       </c>
       <c r="B300">
         <f>COUNTIF(A:A,A300)</f>
         <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D300" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="D300" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(300)</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B301">
         <f>COUNTIF(A:A,A301)</f>
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D301" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(301)</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+      <c r="D301" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>807</v>
+        <v>742</v>
       </c>
       <c r="B302">
         <f>COUNTIF(A:A,A302)</f>
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D302" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+      <c r="D302" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(302)</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>745</v>
+        <v>803</v>
       </c>
       <c r="B303">
         <f>COUNTIF(A:A,A303)</f>
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D303" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(303)</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>764</v>
+      </c>
+      <c r="D303" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>809</v>
+        <v>743</v>
       </c>
       <c r="B304">
         <f>COUNTIF(A:A,A304)</f>
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D304" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+      <c r="D304" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(304)</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>746</v>
+        <v>805</v>
       </c>
       <c r="B305">
         <f>COUNTIF(A:A,A305)</f>
         <v>1</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D305" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(305)</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+      <c r="D305" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>811</v>
+        <v>744</v>
       </c>
       <c r="B306">
         <f>COUNTIF(A:A,A306)</f>
         <v>1</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D306" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+      <c r="D306" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(306)</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>747</v>
+        <v>807</v>
       </c>
       <c r="B307">
         <f>COUNTIF(A:A,A307)</f>
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D307" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(307)</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+      <c r="D307" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>813</v>
+        <v>745</v>
       </c>
       <c r="B308">
         <f>COUNTIF(A:A,A308)</f>
         <v>1</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D308" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+      <c r="D308" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(308)</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>748</v>
+        <v>809</v>
       </c>
       <c r="B309">
         <f>COUNTIF(A:A,A309)</f>
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D309" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(309)</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+      <c r="D309" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>815</v>
+        <v>746</v>
       </c>
       <c r="B310">
         <f>COUNTIF(A:A,A310)</f>
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D310" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+      <c r="D310" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(310)</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="B311">
         <f>COUNTIF(A:A,A311)</f>
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D311" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(311)</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+      <c r="D311" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>817</v>
+        <v>747</v>
       </c>
       <c r="B312">
         <f>COUNTIF(A:A,A312)</f>
         <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D312" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+      <c r="D312" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(312)</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>750</v>
+        <v>813</v>
       </c>
       <c r="B313">
         <f>COUNTIF(A:A,A313)</f>
         <v>1</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D313" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(313)</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+      <c r="D313" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>819</v>
+        <v>748</v>
       </c>
       <c r="B314">
         <f>COUNTIF(A:A,A314)</f>
         <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D314" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+      <c r="D314" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(314)</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>751</v>
+        <v>815</v>
       </c>
       <c r="B315">
         <f>COUNTIF(A:A,A315)</f>
         <v>1</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D315" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(315)</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+      <c r="D315" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="B316">
         <f>COUNTIF(A:A,A316)</f>
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D316" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+      <c r="D316" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(316)</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>752</v>
+        <v>817</v>
       </c>
       <c r="B317">
         <f>COUNTIF(A:A,A317)</f>
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D317" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(317)</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+      <c r="D317" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>823</v>
+        <v>750</v>
       </c>
       <c r="B318">
         <f>COUNTIF(A:A,A318)</f>
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D318" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+      <c r="D318" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(318)</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>753</v>
+        <v>819</v>
       </c>
       <c r="B319">
         <f>COUNTIF(A:A,A319)</f>
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D319" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(319)</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+      <c r="D319" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>825</v>
+        <v>751</v>
       </c>
       <c r="B320">
         <f>COUNTIF(A:A,A320)</f>
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D320" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+      <c r="D320" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(320)</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>754</v>
+        <v>821</v>
       </c>
       <c r="B321">
         <f>COUNTIF(A:A,A321)</f>
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D321" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(321)</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+      <c r="D321" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>827</v>
+        <v>752</v>
       </c>
       <c r="B322">
         <f>COUNTIF(A:A,A322)</f>
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D322" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+      <c r="D322" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(322)</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>755</v>
+        <v>823</v>
       </c>
       <c r="B323">
         <f>COUNTIF(A:A,A323)</f>
         <v>1</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D323" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(323)</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+      <c r="D323" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>829</v>
+        <v>753</v>
       </c>
       <c r="B324">
         <f>COUNTIF(A:A,A324)</f>
         <v>1</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D324" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+      <c r="D324" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(324)</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>756</v>
+        <v>825</v>
       </c>
       <c r="B325">
         <f>COUNTIF(A:A,A325)</f>
         <v>1</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D325" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(325)</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+        <v>786</v>
+      </c>
+      <c r="D325" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>831</v>
+        <v>754</v>
       </c>
       <c r="B326">
         <f>COUNTIF(A:A,A326)</f>
         <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D326" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+      <c r="D326" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(326)</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>757</v>
+        <v>827</v>
       </c>
       <c r="B327">
         <f>COUNTIF(A:A,A327)</f>
         <v>1</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="D327" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(327)</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+      <c r="D327" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>833</v>
+        <v>755</v>
       </c>
       <c r="B328">
         <f>COUNTIF(A:A,A328)</f>
         <v>1</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D328" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+      <c r="D328" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(328)</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>758</v>
+        <v>829</v>
       </c>
       <c r="B329">
         <f>COUNTIF(A:A,A329)</f>
         <v>1</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D329" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(329)</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+      <c r="D329" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>835</v>
+        <v>756</v>
       </c>
       <c r="B330">
         <f>COUNTIF(A:A,A330)</f>
         <v>1</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D330" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+      <c r="D330" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(330)</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>759</v>
+        <v>831</v>
       </c>
       <c r="B331">
         <f>COUNTIF(A:A,A331)</f>
         <v>1</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D331" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(331)</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+        <v>792</v>
+      </c>
+      <c r="D331" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>837</v>
+        <v>757</v>
       </c>
       <c r="B332">
         <f>COUNTIF(A:A,A332)</f>
         <v>1</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D332" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+      <c r="D332" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(332)</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>760</v>
+        <v>833</v>
       </c>
       <c r="B333">
         <f>COUNTIF(A:A,A333)</f>
         <v>1</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D333" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(333)</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+      <c r="D333" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>839</v>
+        <v>758</v>
       </c>
       <c r="B334">
         <f>COUNTIF(A:A,A334)</f>
         <v>1</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="D334" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+      <c r="D334" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(334)</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>761</v>
+        <v>835</v>
       </c>
       <c r="B335">
         <f>COUNTIF(A:A,A335)</f>
         <v>1</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D335" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(335)</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+      <c r="D335" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>841</v>
+        <v>759</v>
       </c>
       <c r="B336">
         <f>COUNTIF(A:A,A336)</f>
         <v>1</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="D336" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+      <c r="D336" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(336)</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B337">
         <f>COUNTIF(A:A,A337)</f>
         <v>1</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D337" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(337)</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+      <c r="D337" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>592</v>
+        <v>760</v>
       </c>
       <c r="B338">
         <f>COUNTIF(A:A,A338)</f>
         <v>1</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D338" t="s">
-        <v>598</v>
+        <v>799</v>
+      </c>
+      <c r="D338" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(338)</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>593</v>
+        <v>839</v>
       </c>
       <c r="B339">
         <f>COUNTIF(A:A,A339)</f>
         <v>1</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>596</v>
+        <v>800</v>
       </c>
       <c r="D339" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>584</v>
+        <v>761</v>
       </c>
       <c r="B340">
         <f>COUNTIF(A:A,A340)</f>
         <v>1</v>
       </c>
-      <c r="C340" t="s">
-        <v>586</v>
-      </c>
-      <c r="D340" t="s">
-        <v>600</v>
+      <c r="C340" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D340" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(340)</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>585</v>
+        <v>841</v>
       </c>
       <c r="B341">
         <f>COUNTIF(A:A,A341)</f>
         <v>1</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D341" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(341)</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+      <c r="D341" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>594</v>
+        <v>842</v>
       </c>
       <c r="B342">
         <f>COUNTIF(A:A,A342)</f>
         <v>1</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D342" t="s">
-        <v>601</v>
+        <v>844</v>
+      </c>
+      <c r="D342" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(342)</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B343">
         <f>COUNTIF(A:A,A343)</f>
         <v>1</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D343" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(343)</v>
+        <v>595</v>
+      </c>
+      <c r="D343" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B344">
         <f>COUNTIF(A:A,A344)</f>
         <v>1</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D344" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(344)</v>
+        <v>596</v>
+      </c>
+      <c r="D344" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B345">
         <f>COUNTIF(A:A,A345)</f>
         <v>1</v>
       </c>
       <c r="C345" t="s">
-        <v>588</v>
-      </c>
-      <c r="D345" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(345)</v>
+        <v>586</v>
+      </c>
+      <c r="D345" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B346">
         <f>COUNTIF(A:A,A346)</f>
         <v>1</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D346" t="str">
         <f t="shared" si="1"/>
@@ -9319,30 +9368,29 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B347">
         <f>COUNTIF(A:A,A347)</f>
         <v>1</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D347" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(347)</v>
+        <v>597</v>
+      </c>
+      <c r="D347" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>370</v>
+        <v>602</v>
       </c>
       <c r="B348">
         <f>COUNTIF(A:A,A348)</f>
         <v>1</v>
       </c>
-      <c r="C348" t="s">
-        <v>530</v>
+      <c r="C348" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="D348" t="str">
         <f t="shared" si="1"/>
@@ -9351,14 +9399,14 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>371</v>
+        <v>603</v>
       </c>
       <c r="B349">
         <f>COUNTIF(A:A,A349)</f>
         <v>1</v>
       </c>
-      <c r="C349" t="s">
-        <v>531</v>
+      <c r="C349" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D349" t="str">
         <f t="shared" si="1"/>
@@ -9367,14 +9415,14 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>369</v>
+        <v>590</v>
       </c>
       <c r="B350">
         <f>COUNTIF(A:A,A350)</f>
         <v>1</v>
       </c>
       <c r="C350" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="D350" t="str">
         <f t="shared" si="1"/>
@@ -9383,14 +9431,14 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>373</v>
+        <v>591</v>
       </c>
       <c r="B351">
         <f>COUNTIF(A:A,A351)</f>
         <v>1</v>
       </c>
-      <c r="C351" t="s">
-        <v>533</v>
+      <c r="C351" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="D351" t="str">
         <f t="shared" si="1"/>
@@ -9399,14 +9447,14 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>374</v>
+        <v>604</v>
       </c>
       <c r="B352">
         <f>COUNTIF(A:A,A352)</f>
         <v>1</v>
       </c>
-      <c r="C352" t="s">
-        <v>535</v>
+      <c r="C352" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="D352" t="str">
         <f t="shared" si="1"/>
@@ -9415,18 +9463,98 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B353">
         <f>COUNTIF(A:A,A353)</f>
         <v>1</v>
       </c>
       <c r="C353" t="s">
+        <v>530</v>
+      </c>
+      <c r="D353" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(353)</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>371</v>
+      </c>
+      <c r="B354">
+        <f>COUNTIF(A:A,A354)</f>
+        <v>1</v>
+      </c>
+      <c r="C354" t="s">
+        <v>531</v>
+      </c>
+      <c r="D354" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(354)</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>369</v>
+      </c>
+      <c r="B355">
+        <f>COUNTIF(A:A,A355)</f>
+        <v>1</v>
+      </c>
+      <c r="C355" t="s">
+        <v>532</v>
+      </c>
+      <c r="D355" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(355)</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>373</v>
+      </c>
+      <c r="B356">
+        <f>COUNTIF(A:A,A356)</f>
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>533</v>
+      </c>
+      <c r="D356" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(356)</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>374</v>
+      </c>
+      <c r="B357">
+        <f>COUNTIF(A:A,A357)</f>
+        <v>1</v>
+      </c>
+      <c r="C357" t="s">
+        <v>535</v>
+      </c>
+      <c r="D357" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(357)</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>372</v>
+      </c>
+      <c r="B358">
+        <f>COUNTIF(A:A,A358)</f>
+        <v>1</v>
+      </c>
+      <c r="C358" t="s">
         <v>534</v>
       </c>
-      <c r="D353" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(353)</v>
+      <c r="D358" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(358)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F77FD1-A7B5-4100-B872-9A10355EC2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B5511-539B-46A8-8AD7-03787E4E7FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InApkStringTable" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$358</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$359</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="861">
   <si>
     <t>확인</t>
   </si>
@@ -3561,6 +3561,18 @@
   </si>
   <si>
     <t>&lt;color=#FFC080&gt;불꽃의 노래&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}레벨 달성! 전용 전투팩 지급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_GetExclusiveLevelPack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reached level {0}! Got an exclusive Battle Pack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3965,7 +3977,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D358"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -5559,74 +5571,74 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>620</v>
+        <v>859</v>
       </c>
       <c r="B106">
         <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>614</v>
+        <v>858</v>
       </c>
       <c r="D106" t="s">
-        <v>652</v>
+        <v>860</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B107">
         <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D107" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>621</v>
       </c>
       <c r="B108">
         <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>132</v>
+      <c r="C108" t="s">
+        <v>615</v>
       </c>
       <c r="D108" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109">
         <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
-      <c r="C109" t="s">
-        <v>133</v>
+      <c r="C109" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="D109" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>856</v>
+        <v>121</v>
       </c>
       <c r="B110">
         <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>854</v>
+        <v>133</v>
       </c>
       <c r="D110" t="s">
         <v>657</v>
@@ -5634,14 +5646,14 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B111">
         <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D111" t="s">
         <v>657</v>
@@ -5649,76 +5661,75 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>852</v>
       </c>
       <c r="B112">
         <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>134</v>
+      <c r="C112" t="s">
+        <v>857</v>
       </c>
       <c r="D112" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B113">
         <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D113" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114">
         <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
-      <c r="C114" t="s">
-        <v>135</v>
-      </c>
-      <c r="D114" t="str">
-        <f t="shared" ref="D114:D187" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(114)</v>
+      <c r="C114" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D114" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>853</v>
+        <v>124</v>
       </c>
       <c r="B115">
         <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>855</v>
+        <v>135</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D115:D188" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(115)</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>853</v>
       </c>
       <c r="B116">
         <f>COUNTIF(A:A,A116)</f>
         <v>1</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>136</v>
+      <c r="C116" t="s">
+        <v>855</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="0"/>
@@ -5727,14 +5738,14 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B117">
         <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>248</v>
+        <v>136</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="0"/>
@@ -5743,14 +5754,14 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B118">
         <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
-      <c r="C118" t="s">
-        <v>249</v>
+      <c r="C118" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="0"/>
@@ -5759,14 +5770,14 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B119">
         <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>250</v>
+      <c r="C119" t="s">
+        <v>249</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="0"/>
@@ -5775,14 +5786,14 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B120">
         <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="0"/>
@@ -5791,14 +5802,14 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B121">
         <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
-      <c r="C121" t="s">
-        <v>139</v>
+      <c r="C121" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="0"/>
@@ -5807,14 +5818,14 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B122">
         <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>140</v>
+      <c r="C122" t="s">
+        <v>139</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="0"/>
@@ -5823,14 +5834,14 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B123">
         <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="0"/>
@@ -5839,14 +5850,14 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B124">
         <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="0"/>
@@ -5855,14 +5866,14 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="B125">
         <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="0"/>
@@ -5871,14 +5882,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B126">
         <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="0"/>
@@ -5887,14 +5898,14 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B127">
         <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="0"/>
@@ -5903,14 +5914,14 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B128">
         <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="0"/>
@@ -5919,14 +5930,14 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B129">
         <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="0"/>
@@ -5935,14 +5946,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B130">
         <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="0"/>
@@ -5951,14 +5962,14 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B131">
         <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="0"/>
@@ -5967,14 +5978,14 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B132">
         <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>262</v>
+        <v>159</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="0"/>
@@ -5983,14 +5994,14 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B133">
         <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="0"/>
@@ -5999,14 +6010,14 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B134">
         <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="0"/>
@@ -6015,14 +6026,14 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B135">
         <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="0"/>
@@ -6031,14 +6042,14 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="B136">
         <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>264</v>
+        <v>162</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="0"/>
@@ -6047,30 +6058,30 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B137">
         <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(137)</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="B138">
         <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="0"/>
@@ -6079,30 +6090,30 @@
     </row>
     <row r="139" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B139">
         <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="B140">
         <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="0"/>
@@ -6111,14 +6122,14 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B141">
         <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="0"/>
@@ -6127,46 +6138,46 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B142">
         <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B143">
         <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B144">
         <f>COUNTIF(A:A,A144)</f>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>171</v>
+        <v>268</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="0"/>
@@ -6175,30 +6186,30 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B145">
         <f>COUNTIF(A:A,A145)</f>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B146">
         <f>COUNTIF(A:A,A146)</f>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="0"/>
@@ -6207,14 +6218,14 @@
     </row>
     <row r="147" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B147">
         <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="0"/>
@@ -6223,14 +6234,14 @@
     </row>
     <row r="148" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B148">
         <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="0"/>
@@ -6239,30 +6250,30 @@
     </row>
     <row r="149" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B149">
         <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B150">
         <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="0"/>
@@ -6271,14 +6282,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B151">
         <f>COUNTIF(A:A,A151)</f>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="0"/>
@@ -6287,14 +6298,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B152">
         <f>COUNTIF(A:A,A152)</f>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="0"/>
@@ -6303,14 +6314,14 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B153">
         <f>COUNTIF(A:A,A153)</f>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="0"/>
@@ -6319,46 +6330,46 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B154">
         <f>COUNTIF(A:A,A154)</f>
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B155">
         <f>COUNTIF(A:A,A155)</f>
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(155)</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="B156">
         <f>COUNTIF(A:A,A156)</f>
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="0"/>
@@ -6367,14 +6378,14 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="B157">
         <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="0"/>
@@ -6383,14 +6394,14 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B158">
         <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="0"/>
@@ -6399,14 +6410,14 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B159">
         <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="0"/>
@@ -6415,14 +6426,14 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B160">
         <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>269</v>
+        <v>188</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="0"/>
@@ -6431,14 +6442,14 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B161">
         <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="0"/>
@@ -6447,14 +6458,14 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="B162">
         <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
-      <c r="C162" t="s">
-        <v>270</v>
+      <c r="C162" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="0"/>
@@ -6463,14 +6474,14 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B163">
         <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="0"/>
@@ -6479,14 +6490,14 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164">
         <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="0"/>
@@ -6495,14 +6506,14 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B165">
         <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="0"/>
@@ -6511,14 +6522,14 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B166">
         <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="0"/>
@@ -6527,14 +6538,14 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B167">
         <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="0"/>
@@ -6543,14 +6554,14 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B168">
         <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="0"/>
@@ -6559,14 +6570,14 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B169">
         <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="0"/>
@@ -6575,14 +6586,14 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B170">
         <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="0"/>
@@ -6591,14 +6602,14 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B171">
         <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="0"/>
@@ -6607,14 +6618,14 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B172">
         <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="0"/>
@@ -6623,14 +6634,14 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B173">
         <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="0"/>
@@ -6639,14 +6650,14 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B174">
         <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="0"/>
@@ -6655,14 +6666,14 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B175">
         <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="0"/>
@@ -6671,14 +6682,14 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="B176">
         <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="0"/>
@@ -6687,14 +6698,14 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B177">
         <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="0"/>
@@ -6703,14 +6714,14 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B178">
         <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="0"/>
@@ -6719,14 +6730,14 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B179">
         <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="0"/>
@@ -6735,14 +6746,14 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B180">
         <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="0"/>
@@ -6751,14 +6762,14 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B181">
         <f>COUNTIF(A:A,A181)</f>
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="0"/>
@@ -6767,14 +6778,14 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B182">
         <f>COUNTIF(A:A,A182)</f>
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="0"/>
@@ -6783,14 +6794,14 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B183">
         <f>COUNTIF(A:A,A183)</f>
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="0"/>
@@ -6799,14 +6810,14 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B184">
         <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="0"/>
@@ -6815,14 +6826,14 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B185">
         <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="0"/>
@@ -6831,14 +6842,14 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B186">
         <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="0"/>
@@ -6847,14 +6858,14 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="B187">
         <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="0"/>
@@ -6863,46 +6874,46 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B188">
         <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" ref="D188:D358" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="B189">
         <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D189:D359" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B190">
         <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="1"/>
@@ -6911,14 +6922,14 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="B191">
         <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="1"/>
@@ -6927,14 +6938,14 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B192">
         <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="1"/>
@@ -6943,14 +6954,14 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B193">
         <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="1"/>
@@ -6959,14 +6970,14 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B194">
         <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="1"/>
@@ -6975,14 +6986,14 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B195">
         <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="1"/>
@@ -6991,14 +7002,14 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B196">
         <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="1"/>
@@ -7007,14 +7018,14 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B197">
         <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="1"/>
@@ -7023,14 +7034,14 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B198">
         <f>COUNTIF(A:A,A198)</f>
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="1"/>
@@ -7039,14 +7050,14 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <f>COUNTIF(A:A,A199)</f>
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="1"/>
@@ -7055,14 +7066,14 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B200">
         <f>COUNTIF(A:A,A200)</f>
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="1"/>
@@ -7071,14 +7082,14 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B201">
         <f>COUNTIF(A:A,A201)</f>
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="1"/>
@@ -7087,14 +7098,14 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B202">
         <f>COUNTIF(A:A,A202)</f>
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="1"/>
@@ -7103,14 +7114,14 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B203">
         <f>COUNTIF(A:A,A203)</f>
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="1"/>
@@ -7119,14 +7130,14 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B204">
         <f>COUNTIF(A:A,A204)</f>
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="1"/>
@@ -7135,14 +7146,14 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="B205">
         <f>COUNTIF(A:A,A205)</f>
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="D205" t="str">
         <f t="shared" si="1"/>
@@ -7151,14 +7162,14 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="B206">
         <f>COUNTIF(A:A,A206)</f>
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="1"/>
@@ -7167,14 +7178,14 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="B207">
         <f>COUNTIF(A:A,A207)</f>
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="1"/>
@@ -7183,14 +7194,14 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
       <c r="B208">
         <f>COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="1"/>
@@ -7199,14 +7210,14 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B209">
         <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="1"/>
@@ -7215,14 +7226,14 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="1"/>
@@ -7231,14 +7242,14 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B211">
         <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="1"/>
@@ -7247,14 +7258,14 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B212">
         <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="1"/>
@@ -7263,14 +7274,14 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>375</v>
+        <v>237</v>
       </c>
       <c r="B213">
         <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>396</v>
+        <v>238</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="1"/>
@@ -7279,14 +7290,14 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B214">
         <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="1"/>
@@ -7295,14 +7306,14 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B215">
         <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="1"/>
@@ -7311,14 +7322,14 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B216">
         <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="1"/>
@@ -7327,14 +7338,14 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B217">
         <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="1"/>
@@ -7343,14 +7354,14 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B218">
         <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="1"/>
@@ -7359,14 +7370,14 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B219">
         <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="1"/>
@@ -7375,14 +7386,14 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B220">
         <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="1"/>
@@ -7391,14 +7402,14 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B221">
         <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="1"/>
@@ -7407,14 +7418,14 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B222">
         <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="1"/>
@@ -7423,14 +7434,14 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B223">
         <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="1"/>
@@ -7439,14 +7450,14 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B224">
         <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="1"/>
@@ -7455,14 +7466,14 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B225">
         <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="1"/>
@@ -7471,14 +7482,14 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B226">
         <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="1"/>
@@ -7487,14 +7498,14 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B227">
         <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="1"/>
@@ -7503,14 +7514,14 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B228">
         <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="1"/>
@@ -7519,14 +7530,14 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B229">
         <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="1"/>
@@ -7535,14 +7546,14 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B230">
         <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="1"/>
@@ -7551,14 +7562,14 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B231">
         <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="1"/>
@@ -7567,14 +7578,14 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B232">
         <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="1"/>
@@ -7583,14 +7594,14 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B233">
         <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="1"/>
@@ -7599,14 +7610,14 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>536</v>
+        <v>395</v>
       </c>
       <c r="B234">
         <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>544</v>
+        <v>416</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="1"/>
@@ -7615,14 +7626,14 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B235">
         <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="1"/>
@@ -7631,14 +7642,14 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B236">
         <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="1"/>
@@ -7647,14 +7658,14 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B237">
         <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="1"/>
@@ -7663,14 +7674,14 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B238">
         <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="1"/>
@@ -7679,14 +7690,14 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B239">
         <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="1"/>
@@ -7695,14 +7706,14 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B240">
         <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="1"/>
@@ -7711,14 +7722,14 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B241">
         <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="1"/>
@@ -7727,14 +7738,14 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>306</v>
+        <v>543</v>
       </c>
       <c r="B242">
         <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="D242" t="str">
         <f t="shared" si="1"/>
@@ -7743,14 +7754,14 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B243">
         <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>327</v>
+        <v>581</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="1"/>
@@ -7759,14 +7770,14 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B244">
         <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D244" t="str">
         <f t="shared" si="1"/>
@@ -7775,14 +7786,14 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B245">
         <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="1"/>
@@ -7791,14 +7802,14 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B246">
         <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D246" t="str">
         <f t="shared" si="1"/>
@@ -7807,14 +7818,14 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B247">
         <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" si="1"/>
@@ -7823,14 +7834,14 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B248">
         <f>COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>573</v>
+        <v>331</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="1"/>
@@ -7839,14 +7850,14 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B249">
         <f>COUNTIF(A:A,A249)</f>
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>332</v>
+        <v>573</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="1"/>
@@ -7855,14 +7866,14 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B250">
         <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D250" t="str">
         <f t="shared" si="1"/>
@@ -7871,14 +7882,14 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B251">
         <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D251" t="str">
         <f t="shared" si="1"/>
@@ -7887,14 +7898,14 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B252">
         <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D252" t="str">
         <f t="shared" si="1"/>
@@ -7903,14 +7914,14 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B253">
         <f>COUNTIF(A:A,A253)</f>
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D253" t="str">
         <f t="shared" si="1"/>
@@ -7919,14 +7930,14 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B254">
         <f>COUNTIF(A:A,A254)</f>
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D254" t="str">
         <f t="shared" si="1"/>
@@ -7935,14 +7946,14 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B255">
         <f>COUNTIF(A:A,A255)</f>
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D255" t="str">
         <f t="shared" si="1"/>
@@ -7951,14 +7962,14 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B256">
         <f>COUNTIF(A:A,A256)</f>
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D256" t="str">
         <f t="shared" si="1"/>
@@ -7967,14 +7978,14 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B257">
         <f>COUNTIF(A:A,A257)</f>
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="1"/>
@@ -7983,14 +7994,14 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B258">
         <f>COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D258" t="str">
         <f t="shared" si="1"/>
@@ -7999,14 +8010,14 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B259">
         <f>COUNTIF(A:A,A259)</f>
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D259" t="str">
         <f t="shared" si="1"/>
@@ -8015,14 +8026,14 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B260">
         <f>COUNTIF(A:A,A260)</f>
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D260" t="str">
         <f t="shared" si="1"/>
@@ -8031,14 +8042,14 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B261">
         <f>COUNTIF(A:A,A261)</f>
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="1"/>
@@ -8047,14 +8058,14 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B262">
         <f>COUNTIF(A:A,A262)</f>
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>559</v>
+        <v>344</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="1"/>
@@ -8063,14 +8074,14 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>552</v>
+        <v>326</v>
       </c>
       <c r="B263">
         <f>COUNTIF(A:A,A263)</f>
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" si="1"/>
@@ -8079,14 +8090,14 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B264">
         <f>COUNTIF(A:A,A264)</f>
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="1"/>
@@ -8095,14 +8106,14 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B265">
         <f>COUNTIF(A:A,A265)</f>
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="1"/>
@@ -8111,14 +8122,14 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B266">
         <f>COUNTIF(A:A,A266)</f>
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D266" t="str">
         <f t="shared" si="1"/>
@@ -8127,14 +8138,14 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B267">
         <f>COUNTIF(A:A,A267)</f>
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="1"/>
@@ -8143,14 +8154,14 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B268">
         <f>COUNTIF(A:A,A268)</f>
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D268" t="str">
         <f t="shared" si="1"/>
@@ -8159,14 +8170,14 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B269">
         <f>COUNTIF(A:A,A269)</f>
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="1"/>
@@ -8175,14 +8186,14 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B270">
         <f>COUNTIF(A:A,A270)</f>
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D270" t="str">
         <f t="shared" si="1"/>
@@ -8191,1222 +8202,1222 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="B271">
         <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>517</v>
-      </c>
-      <c r="D271" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+      <c r="D271" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(271)</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B272">
         <f>COUNTIF(A:A,A272)</f>
         <v>1</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D272" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(272)</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
+        <v>517</v>
+      </c>
+      <c r="D272" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B273">
         <f>COUNTIF(A:A,A273)</f>
         <v>1</v>
       </c>
-      <c r="C273" t="s">
-        <v>519</v>
-      </c>
-      <c r="D273" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="C273" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D273" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(273)</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B274">
         <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D274" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(274)</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
+        <v>519</v>
+      </c>
+      <c r="D274" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B275">
         <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
-      <c r="C275" t="s">
-        <v>520</v>
-      </c>
-      <c r="D275" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C275" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D275" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(275)</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B276">
         <f>COUNTIF(A:A,A276)</f>
         <v>1</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D276" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(276)</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C276" t="s">
+        <v>520</v>
+      </c>
+      <c r="D276" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B277">
         <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
-      <c r="C277" t="s">
-        <v>521</v>
-      </c>
-      <c r="D277" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C277" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D277" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(277)</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B278">
         <f>COUNTIF(A:A,A278)</f>
         <v>1</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D278" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(278)</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C278" t="s">
+        <v>521</v>
+      </c>
+      <c r="D278" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>682</v>
+        <v>529</v>
       </c>
       <c r="B279">
         <f>COUNTIF(A:A,A279)</f>
         <v>1</v>
       </c>
-      <c r="C279" t="s">
-        <v>684</v>
-      </c>
-      <c r="D279" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C279" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D279" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(279)</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B280">
         <f>COUNTIF(A:A,A280)</f>
         <v>1</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D280" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(280)</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
+        <v>684</v>
+      </c>
+      <c r="D280" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B281">
         <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D281" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>685</v>
+      </c>
+      <c r="D281" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(281)</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B282">
         <f>COUNTIF(A:A,A282)</f>
         <v>1</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D282" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(282)</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+      <c r="D282" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B283">
         <f>COUNTIF(A:A,A283)</f>
         <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D283" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>693</v>
+      </c>
+      <c r="D283" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(283)</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B284">
         <f>COUNTIF(A:A,A284)</f>
         <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D284" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(284)</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+      <c r="D284" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B285">
         <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D285" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="D285" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(285)</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B286">
         <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D286" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(286)</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+        <v>706</v>
+      </c>
+      <c r="D286" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B287">
         <f>COUNTIF(A:A,A287)</f>
         <v>1</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="D287" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+      <c r="D287" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(287)</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B288">
         <f>COUNTIF(A:A,A288)</f>
         <v>1</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D288" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(288)</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+      <c r="D288" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B289">
         <f>COUNTIF(A:A,A289)</f>
         <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D289" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(289)</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B290">
         <f>COUNTIF(A:A,A290)</f>
         <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D290" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(290)</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+      <c r="D290" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B291">
         <f>COUNTIF(A:A,A291)</f>
         <v>1</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D291" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+      <c r="D291" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(291)</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B292">
         <f>COUNTIF(A:A,A292)</f>
         <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D292" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(292)</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+      <c r="D292" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B293">
         <f>COUNTIF(A:A,A293)</f>
         <v>1</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D293" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(293)</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B294">
         <f>COUNTIF(A:A,A294)</f>
         <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D294" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(294)</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+      <c r="D294" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="B295">
         <f>COUNTIF(A:A,A295)</f>
         <v>1</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="D295" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>718</v>
+      </c>
+      <c r="D295" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(295)</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B296">
         <f>COUNTIF(A:A,A296)</f>
         <v>1</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D296" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(296)</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+      <c r="D296" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B297">
         <f>COUNTIF(A:A,A297)</f>
         <v>1</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D297" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>733</v>
+      </c>
+      <c r="D297" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(297)</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B298">
         <f>COUNTIF(A:A,A298)</f>
         <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D298" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(298)</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>734</v>
+      </c>
+      <c r="D298" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B299">
         <f>COUNTIF(A:A,A299)</f>
         <v>1</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D299" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>735</v>
+      </c>
+      <c r="D299" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(299)</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B300">
         <f>COUNTIF(A:A,A300)</f>
         <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D300" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(300)</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+        <v>736</v>
+      </c>
+      <c r="D300" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B301">
         <f>COUNTIF(A:A,A301)</f>
         <v>1</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D301" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+      <c r="D301" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(301)</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B302">
         <f>COUNTIF(A:A,A302)</f>
         <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="D302" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(302)</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+      <c r="D302" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>803</v>
+        <v>742</v>
       </c>
       <c r="B303">
         <f>COUNTIF(A:A,A303)</f>
         <v>1</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D303" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+      <c r="D303" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(303)</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>743</v>
+        <v>803</v>
       </c>
       <c r="B304">
         <f>COUNTIF(A:A,A304)</f>
         <v>1</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D304" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(304)</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+        <v>764</v>
+      </c>
+      <c r="D304" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>805</v>
+        <v>743</v>
       </c>
       <c r="B305">
         <f>COUNTIF(A:A,A305)</f>
         <v>1</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D305" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+      <c r="D305" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(305)</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>744</v>
+        <v>805</v>
       </c>
       <c r="B306">
         <f>COUNTIF(A:A,A306)</f>
         <v>1</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D306" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(306)</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+      <c r="D306" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>807</v>
+        <v>744</v>
       </c>
       <c r="B307">
         <f>COUNTIF(A:A,A307)</f>
         <v>1</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D307" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+      <c r="D307" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(307)</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>745</v>
+        <v>807</v>
       </c>
       <c r="B308">
         <f>COUNTIF(A:A,A308)</f>
         <v>1</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D308" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(308)</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+      <c r="D308" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>809</v>
+        <v>745</v>
       </c>
       <c r="B309">
         <f>COUNTIF(A:A,A309)</f>
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D309" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+      <c r="D309" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(309)</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>746</v>
+        <v>809</v>
       </c>
       <c r="B310">
         <f>COUNTIF(A:A,A310)</f>
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D310" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(310)</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+      <c r="D310" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>811</v>
+        <v>746</v>
       </c>
       <c r="B311">
         <f>COUNTIF(A:A,A311)</f>
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D311" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+      <c r="D311" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(311)</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>747</v>
+        <v>811</v>
       </c>
       <c r="B312">
         <f>COUNTIF(A:A,A312)</f>
         <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D312" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(312)</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+      <c r="D312" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>813</v>
+        <v>747</v>
       </c>
       <c r="B313">
         <f>COUNTIF(A:A,A313)</f>
         <v>1</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D313" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+      <c r="D313" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(313)</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>748</v>
+        <v>813</v>
       </c>
       <c r="B314">
         <f>COUNTIF(A:A,A314)</f>
         <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D314" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(314)</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+      <c r="D314" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>815</v>
+        <v>748</v>
       </c>
       <c r="B315">
         <f>COUNTIF(A:A,A315)</f>
         <v>1</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D315" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+      <c r="D315" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(315)</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>749</v>
+        <v>815</v>
       </c>
       <c r="B316">
         <f>COUNTIF(A:A,A316)</f>
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D316" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(316)</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+      <c r="D316" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>817</v>
+        <v>749</v>
       </c>
       <c r="B317">
         <f>COUNTIF(A:A,A317)</f>
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D317" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+      <c r="D317" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(317)</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>750</v>
+        <v>817</v>
       </c>
       <c r="B318">
         <f>COUNTIF(A:A,A318)</f>
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D318" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(318)</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+      <c r="D318" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>819</v>
+        <v>750</v>
       </c>
       <c r="B319">
         <f>COUNTIF(A:A,A319)</f>
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D319" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+      <c r="D319" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(319)</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>751</v>
+        <v>819</v>
       </c>
       <c r="B320">
         <f>COUNTIF(A:A,A320)</f>
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D320" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(320)</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+      <c r="D320" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>821</v>
+        <v>751</v>
       </c>
       <c r="B321">
         <f>COUNTIF(A:A,A321)</f>
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D321" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+      <c r="D321" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(321)</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>752</v>
+        <v>821</v>
       </c>
       <c r="B322">
         <f>COUNTIF(A:A,A322)</f>
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D322" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(322)</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+      <c r="D322" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>823</v>
+        <v>752</v>
       </c>
       <c r="B323">
         <f>COUNTIF(A:A,A323)</f>
         <v>1</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D323" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+      <c r="D323" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(323)</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>753</v>
+        <v>823</v>
       </c>
       <c r="B324">
         <f>COUNTIF(A:A,A324)</f>
         <v>1</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D324" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(324)</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+      <c r="D324" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>825</v>
+        <v>753</v>
       </c>
       <c r="B325">
         <f>COUNTIF(A:A,A325)</f>
         <v>1</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D325" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+      <c r="D325" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(325)</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>754</v>
+        <v>825</v>
       </c>
       <c r="B326">
         <f>COUNTIF(A:A,A326)</f>
         <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D326" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(326)</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+        <v>786</v>
+      </c>
+      <c r="D326" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>827</v>
+        <v>754</v>
       </c>
       <c r="B327">
         <f>COUNTIF(A:A,A327)</f>
         <v>1</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D327" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+      <c r="D327" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(327)</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>755</v>
+        <v>827</v>
       </c>
       <c r="B328">
         <f>COUNTIF(A:A,A328)</f>
         <v>1</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D328" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(328)</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+      <c r="D328" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>829</v>
+        <v>755</v>
       </c>
       <c r="B329">
         <f>COUNTIF(A:A,A329)</f>
         <v>1</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D329" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+      <c r="D329" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(329)</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>756</v>
+        <v>829</v>
       </c>
       <c r="B330">
         <f>COUNTIF(A:A,A330)</f>
         <v>1</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D330" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(330)</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+      <c r="D330" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>831</v>
+        <v>756</v>
       </c>
       <c r="B331">
         <f>COUNTIF(A:A,A331)</f>
         <v>1</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D331" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+      <c r="D331" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(331)</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>757</v>
+        <v>831</v>
       </c>
       <c r="B332">
         <f>COUNTIF(A:A,A332)</f>
         <v>1</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="D332" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(332)</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+        <v>792</v>
+      </c>
+      <c r="D332" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>833</v>
+        <v>757</v>
       </c>
       <c r="B333">
         <f>COUNTIF(A:A,A333)</f>
         <v>1</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D333" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+      <c r="D333" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(333)</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>758</v>
+        <v>833</v>
       </c>
       <c r="B334">
         <f>COUNTIF(A:A,A334)</f>
         <v>1</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D334" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(334)</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+      <c r="D334" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>835</v>
+        <v>758</v>
       </c>
       <c r="B335">
         <f>COUNTIF(A:A,A335)</f>
         <v>1</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D335" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+      <c r="D335" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(335)</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>759</v>
+        <v>835</v>
       </c>
       <c r="B336">
         <f>COUNTIF(A:A,A336)</f>
         <v>1</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D336" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(336)</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+      <c r="D336" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>837</v>
+        <v>759</v>
       </c>
       <c r="B337">
         <f>COUNTIF(A:A,A337)</f>
         <v>1</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D337" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+      <c r="D337" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(337)</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>760</v>
+        <v>837</v>
       </c>
       <c r="B338">
         <f>COUNTIF(A:A,A338)</f>
         <v>1</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D338" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(338)</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+      <c r="D338" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>839</v>
+        <v>760</v>
       </c>
       <c r="B339">
         <f>COUNTIF(A:A,A339)</f>
         <v>1</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="D339" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="D339" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(339)</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>761</v>
+        <v>839</v>
       </c>
       <c r="B340">
         <f>COUNTIF(A:A,A340)</f>
         <v>1</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D340" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(340)</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+      <c r="D340" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>841</v>
+        <v>761</v>
       </c>
       <c r="B341">
         <f>COUNTIF(A:A,A341)</f>
         <v>1</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="D341" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+      <c r="D341" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(341)</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B342">
         <f>COUNTIF(A:A,A342)</f>
         <v>1</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D342" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(342)</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+      <c r="D342" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>592</v>
+        <v>842</v>
       </c>
       <c r="B343">
         <f>COUNTIF(A:A,A343)</f>
         <v>1</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D343" t="s">
-        <v>598</v>
+        <v>844</v>
+      </c>
+      <c r="D343" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(343)</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B344">
         <f>COUNTIF(A:A,A344)</f>
         <v>1</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D344" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B345">
         <f>COUNTIF(A:A,A345)</f>
         <v>1</v>
       </c>
-      <c r="C345" t="s">
-        <v>586</v>
+      <c r="C345" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="D345" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B346">
         <f>COUNTIF(A:A,A346)</f>
         <v>1</v>
       </c>
-      <c r="C346" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D346" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(346)</v>
+      <c r="C346" t="s">
+        <v>586</v>
+      </c>
+      <c r="D346" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B347">
         <f>COUNTIF(A:A,A347)</f>
         <v>1</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D347" t="s">
-        <v>601</v>
+        <v>587</v>
+      </c>
+      <c r="D347" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(347)</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B348">
         <f>COUNTIF(A:A,A348)</f>
         <v>1</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D348" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(348)</v>
+        <v>597</v>
+      </c>
+      <c r="D348" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B349">
         <f>COUNTIF(A:A,A349)</f>
         <v>1</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D349" t="str">
         <f t="shared" si="1"/>
@@ -9415,14 +9426,14 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="B350">
         <f>COUNTIF(A:A,A350)</f>
         <v>1</v>
       </c>
-      <c r="C350" t="s">
-        <v>588</v>
+      <c r="C350" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D350" t="str">
         <f t="shared" si="1"/>
@@ -9431,14 +9442,14 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B351">
         <f>COUNTIF(A:A,A351)</f>
         <v>1</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>589</v>
+      <c r="C351" t="s">
+        <v>588</v>
       </c>
       <c r="D351" t="str">
         <f t="shared" si="1"/>
@@ -9447,14 +9458,14 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B352">
         <f>COUNTIF(A:A,A352)</f>
         <v>1</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="D352" t="str">
         <f t="shared" si="1"/>
@@ -9463,14 +9474,14 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>370</v>
+        <v>604</v>
       </c>
       <c r="B353">
         <f>COUNTIF(A:A,A353)</f>
         <v>1</v>
       </c>
-      <c r="C353" t="s">
-        <v>530</v>
+      <c r="C353" s="1" t="s">
+        <v>607</v>
       </c>
       <c r="D353" t="str">
         <f t="shared" si="1"/>
@@ -9479,14 +9490,14 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B354">
         <f>COUNTIF(A:A,A354)</f>
         <v>1</v>
       </c>
       <c r="C354" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D354" t="str">
         <f t="shared" si="1"/>
@@ -9495,14 +9506,14 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B355">
         <f>COUNTIF(A:A,A355)</f>
         <v>1</v>
       </c>
       <c r="C355" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D355" t="str">
         <f t="shared" si="1"/>
@@ -9511,14 +9522,14 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B356">
         <f>COUNTIF(A:A,A356)</f>
         <v>1</v>
       </c>
       <c r="C356" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D356" t="str">
         <f t="shared" si="1"/>
@@ -9527,14 +9538,14 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B357">
         <f>COUNTIF(A:A,A357)</f>
         <v>1</v>
       </c>
       <c r="C357" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D357" t="str">
         <f t="shared" si="1"/>
@@ -9543,18 +9554,34 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B358">
         <f>COUNTIF(A:A,A358)</f>
         <v>1</v>
       </c>
       <c r="C358" t="s">
+        <v>535</v>
+      </c>
+      <c r="D358" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(358)</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>372</v>
+      </c>
+      <c r="B359">
+        <f>COUNTIF(A:A,A359)</f>
+        <v>1</v>
+      </c>
+      <c r="C359" t="s">
         <v>534</v>
       </c>
-      <c r="D358" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(358)</v>
+      <c r="D359" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(359)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B5511-539B-46A8-8AD7-03787E4E7FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63501CC0-D413-49E0-B921-44999B283BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$359</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$395</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="935">
   <si>
     <t>확인</t>
   </si>
@@ -821,10 +821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HEADSHOT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GameUI_Invincible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1145,9 +1141,6 @@
     <t>LevelPackUIName_RecoverOnAttacked</t>
   </si>
   <si>
-    <t>LevelPackUIName_RecoverOnAttackedBetter</t>
-  </si>
-  <si>
     <t>LevelPackUIName_ReflectOnAttacked</t>
   </si>
   <si>
@@ -1196,33 +1189,21 @@
     <t>LevelPackUIName_Paralyze</t>
   </si>
   <si>
-    <t>마비 효과</t>
-  </si>
-  <si>
     <t>LevelPackUIName_Hold</t>
   </si>
   <si>
-    <t>이동 불가 효과</t>
-  </si>
-  <si>
     <t>LevelPackUIName_Transport</t>
   </si>
   <si>
     <t>LevelPackUIName_SummonShield</t>
   </si>
   <si>
-    <t>쉴드 소환</t>
-  </si>
-  <si>
     <t>LevelPackUIName_SlowHitObject</t>
   </si>
   <si>
     <t>발사체 속도 감소</t>
   </si>
   <si>
-    <t>이동 중 오브 설치</t>
-  </si>
-  <si>
     <t>골드 획득량이 증가합니다</t>
   </si>
   <si>
@@ -1280,9 +1261,6 @@
     <t>LevelPackUIDesc_RecoverOnAttacked</t>
   </si>
   <si>
-    <t>LevelPackUIDesc_RecoverOnAttackedBetter</t>
-  </si>
-  <si>
     <t>LevelPackUIDesc_ReflectOnAttacked</t>
   </si>
   <si>
@@ -1374,11 +1352,6 @@
   </si>
   <si>
     <t>LevelPackUIDesc_AtkSpeedUpOnEncounterBetter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 시
-이동 속도 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1404,18 +1377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>흡혈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 흡혈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피격 시 HP 리젠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일정확률로 즉사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1449,10 +1410,6 @@
   </si>
   <si>
     <t>&lt;color=#FFC080&gt;대각샷&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 조우 시 회복지대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1474,15 +1431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 피격 시
-HP 리젠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 전이 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력이 증가합니다</t>
   </si>
   <si>
@@ -1561,10 +1509,6 @@
   </si>
   <si>
     <t>HP를 잃을 때 대미지의 일부를 서서히 회복합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP를 잃을 때 대미지의 일부를 서서히 더 많이 회복합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3573,6 +3517,338 @@
   </si>
   <si>
     <t>Reached level {0}! Got an exclusive Battle Pack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDamage</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDamageBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_CritDamageBest</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDamage</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDamageBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_CritDamageBest</t>
+  </si>
+  <si>
+    <t>치명타 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 치명타 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;최상급&lt;/color&gt; 치명타 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgProjectileBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 발사체 대미지 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgMelee</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgMeleeBetter</t>
+  </si>
+  <si>
+    <t>근접공격 대미지 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 근접공격 대미지 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgCloseBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 충돌 대미지 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgTrap</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceDmgTrapBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_ReduceContinuousDmg</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_DefenseStrongDmg</t>
+  </si>
+  <si>
+    <t>트랩 대미지 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 트랩 대미지 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;연타 저항&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;강공격 방어&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 골드 획득량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 아이템 확률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 회복구슬 확률 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_ExtraGoldBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_ItemChanceBoostBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealChanceBoostBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;피격 시 HP 리젠&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;적 조우 시 회복지대&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;피격 시
+이동 속도 증가&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_MoveSpeedUpOnKill</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;킬 시
+이동 속도 증가&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_SlowHitObjectBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;이동 중 오브 설치&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;마비 효과&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;이동 불가 효과&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;몬스터 전이 효과&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;쉴드 소환&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 발사체 속도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_UltimateGaugeOnAttack</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_UltimateGaugeOnAttackBetter</t>
+  </si>
+  <si>
+    <t>공격 시 궁게이지 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 시 궁게이지 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시 흡혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;상급&lt;/color&gt; 공격 시 흡혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 대미지가 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 대미지가 많이 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 대미지가 매우 많이 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgProjectileBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgMelee</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgMeleeBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgCloseBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgTrap</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceDmgTrapBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ReduceContinuousDmg</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_DefenseStrongDmg</t>
+  </si>
+  <si>
+    <t>발사체의 대미지가 더 많이 감소합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접공격의 대미지가 감소합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접공격의 대미지가 더 많이 감소합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터와 충돌 시 대미지가 더 많이 감소합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랩의 대미지가 감소합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랩의 대미지가 더 많이 감소합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_ReduceContinuousDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연타 저항!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_DefenseStrongDmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강공격 방어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESIST REPEAT!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESIST STRONG!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ExtraGoldBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_ItemChanceBoostBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealChanceBoostBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 획득량이 더 많이 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 획득 확률이 더 많이 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복구슬 획득 확률이 더 많이 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지가 최대 체력의 일정량을 넘지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터에게 피격 시 짧은 시간 동안 대미지가 감소합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_MoveSpeedUpOnKill</t>
+  </si>
+  <si>
+    <t>몬스터를 죽일 때 이동 속도가 증가합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_SlowHitObjectBetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 발사체 속도가 더 많이 줄어듭니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_UltimateGaugeOnAttack</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_UltimateGaugeOnAttackBetter</t>
+  </si>
+  <si>
+    <t>몬스터 공격 시 확률로 궁극기 게이지를 획득합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 공격 시 더 높은 확률로 궁극기 게이지를 획득합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3977,7 +4253,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:D395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -3996,17 +4272,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="B1" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="C1" t="str">
         <f t="array" ref="C1">IF(SUM(IF(B:B&gt;=2,1,0))&gt;1,"중복아이디있음","kor|String")</f>
         <v>kor|String</v>
       </c>
       <c r="D1" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4086,7 +4362,7 @@
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B7">
         <f>COUNTIF(A:A,A7)</f>
@@ -4146,662 +4422,662 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B11">
         <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B12">
         <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="D12" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B13">
         <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D13" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B14">
         <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D14" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B15">
         <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D15" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B16">
         <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="D16" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B17">
         <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D17" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B18">
         <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D18" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B19">
         <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="D19" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B20">
         <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D20" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B21">
         <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D21" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B22">
         <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D22" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B23">
         <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D23" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B24">
         <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D24" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B25">
         <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D25" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B26">
         <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="D26" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B27">
         <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="D27" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B28">
         <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D28" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B29">
         <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="D29" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B30">
         <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="D30" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B31">
         <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="D31" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B32">
         <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="D32" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B33">
         <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D33" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B34">
         <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D34" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B35">
         <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="D35" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B36">
         <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B37">
         <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D37" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B38">
         <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D38" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B39">
         <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D39" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B40">
         <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D40" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B41">
         <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B42">
         <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B43">
         <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B44">
         <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B45">
         <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B46">
         <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B47">
         <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B48">
         <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B49">
         <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B50">
         <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B51">
         <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B52">
         <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="B54">
         <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -4881,17 +5157,17 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B60">
         <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D60" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -4911,197 +5187,197 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B62">
         <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
+        <v>612</v>
+      </c>
+      <c r="D62" t="s">
         <v>627</v>
-      </c>
-      <c r="D62" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B63">
         <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="D63" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="B64">
         <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="D64" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="B65">
         <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="D65" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B66">
         <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="D66" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B67">
         <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="D67" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="B68">
         <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="D68" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="B69">
         <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="D69" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="B70">
         <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="D70" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="B71">
         <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="D71" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
       <c r="B72">
         <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="D72" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="B73">
         <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="D73" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="B74">
         <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="D74" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -5121,32 +5397,32 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B76">
         <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D76" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B77">
         <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="D77" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -5166,187 +5442,187 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B79">
         <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B80">
         <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="B81">
         <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B82">
         <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="D82" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B83">
         <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B84">
         <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D84" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B85">
         <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="D85" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="B86">
         <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="D86" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B87">
         <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B88">
         <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B89">
         <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="B90">
         <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B91">
         <f>COUNTIF(A:A,A91)</f>
@@ -5361,17 +5637,17 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B92">
         <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" t="s">
         <v>75</v>
-      </c>
-      <c r="D92" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -5386,382 +5662,372 @@
         <v>70</v>
       </c>
       <c r="D93" t="s">
-        <v>72</v>
+        <v>916</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="C94" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94" t="s">
         <v>118</v>
-      </c>
-      <c r="D94" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95">
-        <f>COUNTIF(A:A,A95)</f>
-        <v>1</v>
+        <v>912</v>
       </c>
       <c r="C95" t="s">
-        <v>77</v>
+        <v>913</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
+        <v>917</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96">
-        <f>COUNTIF(A:A,A96)</f>
-        <v>1</v>
+        <v>914</v>
       </c>
       <c r="C96" t="s">
-        <v>78</v>
+        <v>915</v>
       </c>
       <c r="D96" t="s">
-        <v>83</v>
+        <v>918</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B97">
         <f>COUNTIF(A:A,A97)</f>
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B98">
         <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D98" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B99">
         <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>582</v>
+        <v>89</v>
       </c>
       <c r="B100">
         <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="D100" t="s">
-        <v>674</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>300</v>
+        <v>90</v>
       </c>
       <c r="B101">
         <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>673</v>
+        <v>80</v>
       </c>
       <c r="D101" t="s">
-        <v>675</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>849</v>
+        <v>567</v>
       </c>
       <c r="B102">
         <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>850</v>
+        <v>568</v>
       </c>
       <c r="D102" t="s">
-        <v>851</v>
+        <v>659</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>92</v>
+        <v>285</v>
       </c>
       <c r="B103">
         <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>611</v>
+        <v>658</v>
       </c>
       <c r="D103" t="s">
-        <v>610</v>
+        <v>660</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>618</v>
+        <v>834</v>
       </c>
       <c r="B104">
         <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>616</v>
+        <v>835</v>
       </c>
       <c r="D104" t="s">
-        <v>654</v>
+        <v>836</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>619</v>
+        <v>91</v>
       </c>
       <c r="B105">
         <f>COUNTIF(A:A,A105)</f>
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="D105" t="s">
-        <v>655</v>
+        <v>595</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>859</v>
+        <v>603</v>
       </c>
       <c r="B106">
         <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>858</v>
+        <v>601</v>
       </c>
       <c r="D106" t="s">
-        <v>860</v>
+        <v>639</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B107">
         <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="D107" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>621</v>
+        <v>844</v>
       </c>
       <c r="B108">
         <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>615</v>
+        <v>843</v>
       </c>
       <c r="D108" t="s">
-        <v>653</v>
+        <v>845</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>605</v>
       </c>
       <c r="B109">
         <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>132</v>
+      <c r="C109" t="s">
+        <v>599</v>
       </c>
       <c r="D109" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>606</v>
       </c>
       <c r="B110">
         <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>133</v>
+        <v>600</v>
       </c>
       <c r="D110" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>856</v>
+        <v>119</v>
       </c>
       <c r="B111">
         <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
-      <c r="C111" t="s">
-        <v>854</v>
+      <c r="C111" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>852</v>
+        <v>120</v>
       </c>
       <c r="B112">
         <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>857</v>
+        <v>132</v>
       </c>
       <c r="D112" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>841</v>
       </c>
       <c r="B113">
         <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>134</v>
+      <c r="C113" t="s">
+        <v>839</v>
       </c>
       <c r="D113" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>837</v>
       </c>
       <c r="B114">
         <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>137</v>
+      <c r="C114" t="s">
+        <v>842</v>
       </c>
       <c r="D114" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B115">
         <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
-      <c r="C115" t="s">
-        <v>135</v>
-      </c>
-      <c r="D115" t="str">
-        <f t="shared" ref="D115:D188" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(115)</v>
+      <c r="C115" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>853</v>
+        <v>122</v>
       </c>
       <c r="B116">
         <f>COUNTIF(A:A,A116)</f>
         <v>1</v>
       </c>
-      <c r="C116" t="s">
-        <v>855</v>
-      </c>
-      <c r="D116" t="str">
-        <f t="shared" si="0"/>
-        <v>In progress of translating…(116)</v>
+      <c r="C116" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B117">
         <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>136</v>
+      <c r="C117" t="s">
+        <v>134</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D117:D221" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(117)</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>838</v>
       </c>
       <c r="B118">
         <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>248</v>
+      <c r="C118" t="s">
+        <v>840</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="0"/>
@@ -5770,14 +6036,14 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B119">
         <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
-      <c r="C119" t="s">
-        <v>249</v>
+      <c r="C119" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="0"/>
@@ -5786,14 +6052,14 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B120">
         <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="0"/>
@@ -5802,14 +6068,14 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B121">
         <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>138</v>
+      <c r="C121" t="s">
+        <v>241</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="0"/>
@@ -5818,14 +6084,14 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B122">
         <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
-      <c r="C122" t="s">
-        <v>139</v>
+      <c r="C122" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="0"/>
@@ -5834,14 +6100,14 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>849</v>
       </c>
       <c r="B123">
         <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>140</v>
+        <v>852</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="0"/>
@@ -5850,14 +6116,14 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>850</v>
       </c>
       <c r="B124">
         <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>157</v>
+      <c r="C124" t="s">
+        <v>853</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="0"/>
@@ -5866,14 +6132,14 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>154</v>
+        <v>851</v>
       </c>
       <c r="B125">
         <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>158</v>
+        <v>854</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="0"/>
@@ -5882,14 +6148,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="B126">
         <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="0"/>
@@ -5898,14 +6164,14 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B127">
         <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>257</v>
+      <c r="C127" t="s">
+        <v>138</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="0"/>
@@ -5914,14 +6180,14 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B128">
         <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="0"/>
@@ -5930,14 +6196,14 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="B129">
         <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="0"/>
@@ -5946,14 +6212,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>97</v>
+        <v>855</v>
       </c>
       <c r="B130">
         <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>259</v>
+        <v>856</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="0"/>
@@ -5962,14 +6228,14 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>98</v>
+        <v>857</v>
       </c>
       <c r="B131">
         <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>261</v>
+        <v>859</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="0"/>
@@ -5978,14 +6244,14 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>99</v>
+        <v>858</v>
       </c>
       <c r="B132">
         <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>159</v>
+        <v>860</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="0"/>
@@ -5994,14 +6260,14 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="B133">
         <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="0"/>
@@ -6010,14 +6276,14 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>101</v>
+        <v>861</v>
       </c>
       <c r="B134">
         <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>160</v>
+        <v>862</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="0"/>
@@ -6026,14 +6292,14 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>102</v>
+        <v>863</v>
       </c>
       <c r="B135">
         <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>161</v>
+        <v>867</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="0"/>
@@ -6042,14 +6308,14 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>103</v>
+        <v>864</v>
       </c>
       <c r="B136">
         <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>162</v>
+        <v>868</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="0"/>
@@ -6058,14 +6324,14 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>163</v>
+        <v>865</v>
       </c>
       <c r="B137">
         <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>264</v>
+        <v>869</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="0"/>
@@ -6074,46 +6340,46 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>164</v>
+        <v>866</v>
       </c>
       <c r="B138">
         <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>265</v>
+        <v>870</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="B139">
         <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>242</v>
+        <v>874</v>
       </c>
       <c r="B140">
         <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>267</v>
+        <v>871</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="0"/>
@@ -6122,14 +6388,14 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="B141">
         <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="0"/>
@@ -6138,14 +6404,14 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>875</v>
       </c>
       <c r="B142">
         <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>252</v>
+        <v>872</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="0"/>
@@ -6154,30 +6420,30 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="B143">
         <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>169</v>
+        <v>876</v>
       </c>
       <c r="B144">
         <f>COUNTIF(A:A,A144)</f>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>268</v>
+        <v>873</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="0"/>
@@ -6186,14 +6452,14 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="B145">
         <f>COUNTIF(A:A,A145)</f>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="0"/>
@@ -6202,78 +6468,78 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="B146">
         <f>COUNTIF(A:A,A146)</f>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="B147">
         <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="B148">
         <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="B149">
         <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="B150">
         <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="0"/>
@@ -6282,14 +6548,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="B151">
         <f>COUNTIF(A:A,A151)</f>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="0"/>
@@ -6298,14 +6564,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="B152">
         <f>COUNTIF(A:A,A152)</f>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>255</v>
+        <v>161</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="0"/>
@@ -6314,14 +6580,14 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B153">
         <f>COUNTIF(A:A,A153)</f>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="0"/>
@@ -6330,30 +6596,30 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B154">
         <f>COUNTIF(A:A,A154)</f>
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="B155">
         <f>COUNTIF(A:A,A155)</f>
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="0"/>
@@ -6362,14 +6628,14 @@
     </row>
     <row r="156" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
       <c r="B156">
         <f>COUNTIF(A:A,A156)</f>
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="0"/>
@@ -6378,14 +6644,14 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="B157">
         <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>194</v>
+        <v>893</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="0"/>
@@ -6394,14 +6660,14 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B158">
         <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>193</v>
+        <v>894</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="0"/>
@@ -6410,14 +6676,14 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="B159">
         <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>186</v>
+        <v>877</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="0"/>
@@ -6426,14 +6692,14 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B160">
         <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="0"/>
@@ -6442,78 +6708,78 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B161">
         <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>269</v>
+        <v>171</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="B162">
         <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(162)</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B163">
         <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
-      <c r="C163" t="s">
-        <v>270</v>
+      <c r="C163" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(163)</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B164">
         <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
-      <c r="C164" t="s">
-        <v>271</v>
+      <c r="C164" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(164)</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B165">
         <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
-      <c r="C165" t="s">
-        <v>272</v>
+      <c r="C165" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="0"/>
@@ -6522,14 +6788,14 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B166">
         <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
-      <c r="C166" t="s">
-        <v>273</v>
+      <c r="C166" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="0"/>
@@ -6538,14 +6804,14 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="B167">
         <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
-      <c r="C167" t="s">
-        <v>274</v>
+      <c r="C167" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="0"/>
@@ -6554,14 +6820,14 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B168">
         <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
-      <c r="C168" t="s">
-        <v>275</v>
+      <c r="C168" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="0"/>
@@ -6570,14 +6836,14 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="B169">
         <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
-      <c r="C169" t="s">
-        <v>276</v>
+      <c r="C169" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="0"/>
@@ -6586,46 +6852,46 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B170">
         <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
-      <c r="C170" t="s">
-        <v>277</v>
+      <c r="C170" s="1" t="s">
+        <v>878</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="B171">
         <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
-      <c r="C171" t="s">
-        <v>278</v>
+      <c r="C171" s="1" t="s">
+        <v>879</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>150</v>
+        <v>880</v>
       </c>
       <c r="B172">
         <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
-      <c r="C172" t="s">
-        <v>279</v>
+      <c r="C172" s="1" t="s">
+        <v>881</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="0"/>
@@ -6634,14 +6900,14 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="B173">
         <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
-      <c r="C173" t="s">
-        <v>280</v>
+      <c r="C173" s="1" t="s">
+        <v>883</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="0"/>
@@ -6650,14 +6916,14 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B174">
         <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
-      <c r="C174" t="s">
-        <v>281</v>
+      <c r="C174" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="0"/>
@@ -6666,14 +6932,14 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>155</v>
+        <v>882</v>
       </c>
       <c r="B175">
         <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
-      <c r="C175" t="s">
-        <v>282</v>
+      <c r="C175" s="1" t="s">
+        <v>888</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="0"/>
@@ -6682,14 +6948,14 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="B176">
         <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
-      <c r="C176" t="s">
-        <v>283</v>
+      <c r="C176" s="1" t="s">
+        <v>884</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="0"/>
@@ -6698,14 +6964,14 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="B177">
         <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
-      <c r="C177" t="s">
-        <v>195</v>
+      <c r="C177" s="1" t="s">
+        <v>885</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="0"/>
@@ -6714,14 +6980,14 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="B178">
         <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
-      <c r="C178" t="s">
-        <v>196</v>
+      <c r="C178" s="1" t="s">
+        <v>886</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="0"/>
@@ -6730,14 +6996,14 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="B179">
         <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
-      <c r="C179" t="s">
-        <v>284</v>
+      <c r="C179" s="1" t="s">
+        <v>887</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="0"/>
@@ -6746,14 +7012,14 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>107</v>
+        <v>889</v>
       </c>
       <c r="B180">
         <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
-      <c r="C180" t="s">
-        <v>197</v>
+      <c r="C180" s="1" t="s">
+        <v>891</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="0"/>
@@ -6762,14 +7028,14 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>108</v>
+        <v>890</v>
       </c>
       <c r="B181">
         <f>COUNTIF(A:A,A181)</f>
         <v>1</v>
       </c>
-      <c r="C181" t="s">
-        <v>198</v>
+      <c r="C181" s="1" t="s">
+        <v>892</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="0"/>
@@ -6778,14 +7044,14 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B182">
         <f>COUNTIF(A:A,A182)</f>
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="0"/>
@@ -6794,14 +7060,14 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B183">
         <f>COUNTIF(A:A,A183)</f>
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="0"/>
@@ -6810,14 +7076,14 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B184">
         <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="0"/>
@@ -6826,14 +7092,14 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="B185">
         <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="0"/>
@@ -6842,14 +7108,14 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B186">
         <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="0"/>
@@ -6858,14 +7124,14 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B187">
         <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="0"/>
@@ -6874,14 +7140,14 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="B188">
         <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="0"/>
@@ -6890,558 +7156,526 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="B189">
         <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" ref="D189:D359" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="B190">
         <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>244</v>
+        <v>846</v>
       </c>
       <c r="B191">
         <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>288</v>
+        <v>895</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>211</v>
+        <v>847</v>
       </c>
       <c r="B192">
         <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>289</v>
+        <v>896</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>212</v>
+        <v>848</v>
       </c>
       <c r="B193">
         <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>290</v>
+        <v>897</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="B194">
         <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="B195">
         <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="B196">
         <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="B197">
         <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>219</v>
-      </c>
-      <c r="B198">
-        <f>COUNTIF(A:A,A198)</f>
-        <v>1</v>
+        <v>898</v>
       </c>
       <c r="C198" t="s">
-        <v>220</v>
+        <v>906</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>221</v>
-      </c>
-      <c r="B199">
-        <f>COUNTIF(A:A,A199)</f>
-        <v>1</v>
+        <v>899</v>
       </c>
       <c r="C199" t="s">
-        <v>222</v>
+        <v>907</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>223</v>
-      </c>
-      <c r="B200">
-        <f>COUNTIF(A:A,A200)</f>
-        <v>1</v>
+        <v>900</v>
       </c>
       <c r="C200" t="s">
-        <v>297</v>
+        <v>908</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c r="B201">
         <f>COUNTIF(A:A,A201)</f>
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>225</v>
-      </c>
-      <c r="B202">
-        <f>COUNTIF(A:A,A202)</f>
-        <v>1</v>
+        <v>901</v>
       </c>
       <c r="C202" t="s">
-        <v>285</v>
+        <v>909</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>226</v>
-      </c>
-      <c r="B203">
-        <f>COUNTIF(A:A,A203)</f>
-        <v>1</v>
+        <v>902</v>
       </c>
       <c r="C203" t="s">
-        <v>286</v>
+        <v>910</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>227</v>
-      </c>
-      <c r="B204">
-        <f>COUNTIF(A:A,A204)</f>
-        <v>1</v>
+        <v>903</v>
       </c>
       <c r="C204" t="s">
-        <v>228</v>
+        <v>911</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>229</v>
-      </c>
-      <c r="B205">
-        <f>COUNTIF(A:A,A205)</f>
-        <v>1</v>
+        <v>904</v>
       </c>
       <c r="C205" t="s">
-        <v>230</v>
+        <v>926</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>209</v>
-      </c>
-      <c r="B206">
-        <f>COUNTIF(A:A,A206)</f>
-        <v>1</v>
+        <v>905</v>
       </c>
       <c r="C206" t="s">
-        <v>210</v>
+        <v>925</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="B207">
         <f>COUNTIF(A:A,A207)</f>
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>302</v>
+        <v>919</v>
       </c>
       <c r="B208">
         <f>COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>291</v>
+        <v>922</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c r="B209">
         <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>232</v>
+        <v>920</v>
       </c>
       <c r="B210">
         <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>233</v>
+        <v>923</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>234</v>
+        <v>105</v>
       </c>
       <c r="B211">
         <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>236</v>
+        <v>921</v>
       </c>
       <c r="B212">
         <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>292</v>
+        <v>924</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="B213">
         <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>375</v>
+        <v>107</v>
       </c>
       <c r="B214">
         <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>396</v>
+        <v>192</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>376</v>
+        <v>108</v>
       </c>
       <c r="B215">
         <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>397</v>
+        <v>193</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>377</v>
+        <v>109</v>
       </c>
       <c r="B216">
         <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>398</v>
+        <v>194</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>378</v>
+        <v>110</v>
       </c>
       <c r="B217">
         <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>399</v>
+        <v>195</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>379</v>
+        <v>111</v>
       </c>
       <c r="B218">
         <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>400</v>
+        <v>196</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>380</v>
+        <v>112</v>
       </c>
       <c r="B219">
         <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>401</v>
+        <v>197</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>381</v>
+        <v>113</v>
       </c>
       <c r="B220">
         <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>402</v>
+        <v>198</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>382</v>
+        <v>199</v>
       </c>
       <c r="B221">
         <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>403</v>
+        <v>200</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="B222">
         <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>404</v>
+        <v>202</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D222:D395" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>384</v>
+        <v>236</v>
       </c>
       <c r="B223">
         <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>405</v>
+        <v>273</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="1"/>
@@ -7450,14 +7684,14 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>385</v>
+        <v>237</v>
       </c>
       <c r="B224">
         <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>406</v>
+        <v>274</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="1"/>
@@ -7466,14 +7700,14 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>386</v>
+        <v>205</v>
       </c>
       <c r="B225">
         <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>407</v>
+        <v>275</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="1"/>
@@ -7482,14 +7716,14 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>387</v>
+        <v>206</v>
       </c>
       <c r="B226">
         <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>408</v>
+        <v>276</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="1"/>
@@ -7498,14 +7732,14 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>388</v>
+        <v>207</v>
       </c>
       <c r="B227">
         <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>409</v>
+        <v>279</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="1"/>
@@ -7514,14 +7748,14 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>389</v>
+        <v>208</v>
       </c>
       <c r="B228">
         <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>410</v>
+        <v>209</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="1"/>
@@ -7530,14 +7764,14 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="B229">
         <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>411</v>
+        <v>211</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="1"/>
@@ -7546,14 +7780,14 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>391</v>
+        <v>212</v>
       </c>
       <c r="B230">
         <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>412</v>
+        <v>213</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="1"/>
@@ -7562,14 +7796,14 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>392</v>
+        <v>214</v>
       </c>
       <c r="B231">
         <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>413</v>
+        <v>215</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="1"/>
@@ -7578,14 +7812,14 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>393</v>
+        <v>216</v>
       </c>
       <c r="B232">
         <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>414</v>
+        <v>282</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="1"/>
@@ -7594,14 +7828,14 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>394</v>
+        <v>217</v>
       </c>
       <c r="B233">
         <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>415</v>
+        <v>283</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="1"/>
@@ -7610,14 +7844,14 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>395</v>
+        <v>218</v>
       </c>
       <c r="B234">
         <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>416</v>
+        <v>271</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="1"/>
@@ -7626,14 +7860,14 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>536</v>
+        <v>219</v>
       </c>
       <c r="B235">
         <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>544</v>
+        <v>272</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="1"/>
@@ -7642,14 +7876,14 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>537</v>
+        <v>220</v>
       </c>
       <c r="B236">
         <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>545</v>
+        <v>221</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="1"/>
@@ -7658,14 +7892,14 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>538</v>
+        <v>222</v>
       </c>
       <c r="B237">
         <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>546</v>
+        <v>223</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="1"/>
@@ -7674,14 +7908,14 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>539</v>
+        <v>203</v>
       </c>
       <c r="B238">
         <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>547</v>
+        <v>204</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="1"/>
@@ -7690,14 +7924,14 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>540</v>
+        <v>224</v>
       </c>
       <c r="B239">
         <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>548</v>
+        <v>284</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="1"/>
@@ -7706,14 +7940,14 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>541</v>
+        <v>927</v>
       </c>
       <c r="B240">
         <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>549</v>
+        <v>928</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="1"/>
@@ -7722,14 +7956,14 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>542</v>
+        <v>287</v>
       </c>
       <c r="B241">
         <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>550</v>
+        <v>277</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="1"/>
@@ -7738,14 +7972,14 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>543</v>
+        <v>232</v>
       </c>
       <c r="B242">
         <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>551</v>
+        <v>233</v>
       </c>
       <c r="D242" t="str">
         <f t="shared" si="1"/>
@@ -7754,14 +7988,14 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>306</v>
+        <v>929</v>
       </c>
       <c r="B243">
         <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>581</v>
+        <v>930</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="1"/>
@@ -7770,14 +8004,14 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>307</v>
+        <v>225</v>
       </c>
       <c r="B244">
         <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="D244" t="str">
         <f t="shared" si="1"/>
@@ -7786,14 +8020,14 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="B245">
         <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="1"/>
@@ -7802,14 +8036,14 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="B246">
         <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="D246" t="str">
         <f t="shared" si="1"/>
@@ -7818,14 +8052,14 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="B247">
         <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" si="1"/>
@@ -7834,14 +8068,14 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>311</v>
+        <v>931</v>
       </c>
       <c r="B248">
-        <f>COUNTIF(A:A,A248)</f>
+        <f t="shared" ref="B248:B249" si="2">COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>331</v>
+        <v>933</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="1"/>
@@ -7850,14 +8084,14 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>312</v>
+        <v>932</v>
       </c>
       <c r="B249">
-        <f>COUNTIF(A:A,A249)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>573</v>
+        <v>934</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="1"/>
@@ -7866,14 +8100,14 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="B250">
         <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="D250" t="str">
         <f t="shared" si="1"/>
@@ -7882,14 +8116,14 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="B251">
         <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="D251" t="str">
         <f t="shared" si="1"/>
@@ -7898,14 +8132,14 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="B252">
         <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="D252" t="str">
         <f t="shared" si="1"/>
@@ -7914,14 +8148,14 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="B253">
         <f>COUNTIF(A:A,A253)</f>
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="D253" t="str">
         <f t="shared" si="1"/>
@@ -7930,14 +8164,14 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="B254">
         <f>COUNTIF(A:A,A254)</f>
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="D254" t="str">
         <f t="shared" si="1"/>
@@ -7946,14 +8180,14 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="B255">
         <f>COUNTIF(A:A,A255)</f>
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="D255" t="str">
         <f t="shared" si="1"/>
@@ -7962,14 +8196,14 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="B256">
         <f>COUNTIF(A:A,A256)</f>
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="D256" t="str">
         <f t="shared" si="1"/>
@@ -7978,14 +8212,14 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="B257">
         <f>COUNTIF(A:A,A257)</f>
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>339</v>
+        <v>388</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="1"/>
@@ -7994,14 +8228,14 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="B258">
         <f>COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="D258" t="str">
         <f t="shared" si="1"/>
@@ -8010,14 +8244,14 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="B259">
         <f>COUNTIF(A:A,A259)</f>
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="D259" t="str">
         <f t="shared" si="1"/>
@@ -8026,14 +8260,14 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="B260">
         <f>COUNTIF(A:A,A260)</f>
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="D260" t="str">
         <f t="shared" si="1"/>
@@ -8042,14 +8276,14 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="B261">
         <f>COUNTIF(A:A,A261)</f>
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="1"/>
@@ -8058,14 +8292,14 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="B262">
         <f>COUNTIF(A:A,A262)</f>
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>344</v>
+        <v>393</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="1"/>
@@ -8074,14 +8308,14 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="B263">
         <f>COUNTIF(A:A,A263)</f>
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>559</v>
+        <v>394</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" si="1"/>
@@ -8090,14 +8324,14 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>552</v>
+        <v>374</v>
       </c>
       <c r="B264">
         <f>COUNTIF(A:A,A264)</f>
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>560</v>
+        <v>395</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="1"/>
@@ -8106,14 +8340,14 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>553</v>
+        <v>375</v>
       </c>
       <c r="B265">
         <f>COUNTIF(A:A,A265)</f>
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>561</v>
+        <v>396</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="1"/>
@@ -8122,14 +8356,14 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>554</v>
+        <v>376</v>
       </c>
       <c r="B266">
         <f>COUNTIF(A:A,A266)</f>
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>562</v>
+        <v>397</v>
       </c>
       <c r="D266" t="str">
         <f t="shared" si="1"/>
@@ -8138,14 +8372,14 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>555</v>
+        <v>377</v>
       </c>
       <c r="B267">
         <f>COUNTIF(A:A,A267)</f>
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>563</v>
+        <v>398</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="1"/>
@@ -8154,14 +8388,14 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>556</v>
+        <v>378</v>
       </c>
       <c r="B268">
         <f>COUNTIF(A:A,A268)</f>
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>564</v>
+        <v>399</v>
       </c>
       <c r="D268" t="str">
         <f t="shared" si="1"/>
@@ -8170,14 +8404,14 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>557</v>
+        <v>379</v>
       </c>
       <c r="B269">
         <f>COUNTIF(A:A,A269)</f>
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>565</v>
+        <v>400</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="1"/>
@@ -8186,14 +8420,14 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>558</v>
+        <v>380</v>
       </c>
       <c r="B270">
         <f>COUNTIF(A:A,A270)</f>
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>566</v>
+        <v>401</v>
       </c>
       <c r="D270" t="str">
         <f t="shared" si="1"/>
@@ -8202,14 +8436,14 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="B271">
         <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>572</v>
+        <v>529</v>
       </c>
       <c r="D271" t="str">
         <f t="shared" si="1"/>
@@ -8225,13 +8459,14 @@
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>517</v>
-      </c>
-      <c r="D272" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="D272" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(272)</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>523</v>
       </c>
@@ -8239,8 +8474,8 @@
         <f>COUNTIF(A:A,A273)</f>
         <v>1</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>711</v>
+      <c r="C273" t="s">
+        <v>531</v>
       </c>
       <c r="D273" t="str">
         <f t="shared" si="1"/>
@@ -8256,13 +8491,14 @@
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>519</v>
-      </c>
-      <c r="D274" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+      <c r="D274" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(274)</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>525</v>
       </c>
@@ -8270,8 +8506,8 @@
         <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>712</v>
+      <c r="C275" t="s">
+        <v>533</v>
       </c>
       <c r="D275" t="str">
         <f t="shared" si="1"/>
@@ -8287,13 +8523,14 @@
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>520</v>
-      </c>
-      <c r="D276" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(276)</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>527</v>
       </c>
@@ -8301,8 +8538,8 @@
         <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>569</v>
+      <c r="C277" t="s">
+        <v>535</v>
       </c>
       <c r="D277" t="str">
         <f t="shared" si="1"/>
@@ -8318,22 +8555,23 @@
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>521</v>
-      </c>
-      <c r="D278" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(278)</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>529</v>
+        <v>291</v>
       </c>
       <c r="B279">
         <f>COUNTIF(A:A,A279)</f>
         <v>1</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>570</v>
+      <c r="C279" t="s">
+        <v>566</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="1"/>
@@ -8342,29 +8580,30 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>682</v>
+        <v>292</v>
       </c>
       <c r="B280">
         <f>COUNTIF(A:A,A280)</f>
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>684</v>
-      </c>
-      <c r="D280" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+      <c r="D280" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(280)</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>683</v>
+        <v>293</v>
       </c>
       <c r="B281">
         <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>685</v>
+      <c r="C281" t="s">
+        <v>313</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="1"/>
@@ -8373,29 +8612,30 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>687</v>
+        <v>294</v>
       </c>
       <c r="B282">
         <f>COUNTIF(A:A,A282)</f>
         <v>1</v>
       </c>
-      <c r="C282" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D282" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
+        <v>314</v>
+      </c>
+      <c r="D282" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(282)</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>688</v>
+        <v>295</v>
       </c>
       <c r="B283">
         <f>COUNTIF(A:A,A283)</f>
         <v>1</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>693</v>
+      <c r="C283" t="s">
+        <v>315</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="1"/>
@@ -8404,29 +8644,30 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>689</v>
+        <v>296</v>
       </c>
       <c r="B284">
         <f>COUNTIF(A:A,A284)</f>
         <v>1</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D284" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
+        <v>316</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(284)</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>690</v>
+        <v>297</v>
       </c>
       <c r="B285">
         <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>719</v>
+      <c r="C285" t="s">
+        <v>558</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="1"/>
@@ -8435,29 +8676,30 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>696</v>
+        <v>298</v>
       </c>
       <c r="B286">
         <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D286" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C286" t="s">
+        <v>317</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(286)</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>697</v>
+        <v>299</v>
       </c>
       <c r="B287">
         <f>COUNTIF(A:A,A287)</f>
         <v>1</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>707</v>
+      <c r="C287" t="s">
+        <v>318</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" si="1"/>
@@ -8466,29 +8708,30 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>698</v>
+        <v>300</v>
       </c>
       <c r="B288">
         <f>COUNTIF(A:A,A288)</f>
         <v>1</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="D288" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
+        <v>319</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(288)</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>699</v>
+        <v>301</v>
       </c>
       <c r="B289">
         <f>COUNTIF(A:A,A289)</f>
         <v>1</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>710</v>
+      <c r="C289" t="s">
+        <v>320</v>
       </c>
       <c r="D289" t="str">
         <f t="shared" si="1"/>
@@ -8497,29 +8740,30 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>700</v>
+        <v>302</v>
       </c>
       <c r="B290">
         <f>COUNTIF(A:A,A290)</f>
         <v>1</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D290" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C290" t="s">
+        <v>321</v>
+      </c>
+      <c r="D290" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(290)</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>701</v>
+        <v>303</v>
       </c>
       <c r="B291">
         <f>COUNTIF(A:A,A291)</f>
         <v>1</v>
       </c>
-      <c r="C291" s="1" t="s">
-        <v>714</v>
+      <c r="C291" t="s">
+        <v>322</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="1"/>
@@ -8528,29 +8772,30 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>702</v>
+        <v>304</v>
       </c>
       <c r="B292">
         <f>COUNTIF(A:A,A292)</f>
         <v>1</v>
       </c>
-      <c r="C292" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D292" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C292" t="s">
+        <v>323</v>
+      </c>
+      <c r="D292" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(292)</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>703</v>
+        <v>305</v>
       </c>
       <c r="B293">
         <f>COUNTIF(A:A,A293)</f>
         <v>1</v>
       </c>
-      <c r="C293" s="1" t="s">
-        <v>716</v>
+      <c r="C293" t="s">
+        <v>324</v>
       </c>
       <c r="D293" t="str">
         <f t="shared" si="1"/>
@@ -8559,29 +8804,30 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>704</v>
+        <v>306</v>
       </c>
       <c r="B294">
         <f>COUNTIF(A:A,A294)</f>
         <v>1</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D294" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C294" t="s">
+        <v>325</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(294)</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>705</v>
+        <v>307</v>
       </c>
       <c r="B295">
         <f>COUNTIF(A:A,A295)</f>
         <v>1</v>
       </c>
-      <c r="C295" s="1" t="s">
-        <v>718</v>
+      <c r="C295" t="s">
+        <v>326</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="1"/>
@@ -8590,29 +8836,30 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>726</v>
+        <v>308</v>
       </c>
       <c r="B296">
         <f>COUNTIF(A:A,A296)</f>
         <v>1</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="D296" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
+        <v>327</v>
+      </c>
+      <c r="D296" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(296)</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>727</v>
+        <v>309</v>
       </c>
       <c r="B297">
         <f>COUNTIF(A:A,A297)</f>
         <v>1</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>733</v>
+      <c r="C297" t="s">
+        <v>328</v>
       </c>
       <c r="D297" t="str">
         <f t="shared" si="1"/>
@@ -8621,29 +8868,30 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>728</v>
+        <v>310</v>
       </c>
       <c r="B298">
         <f>COUNTIF(A:A,A298)</f>
         <v>1</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="D298" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
+        <v>329</v>
+      </c>
+      <c r="D298" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(298)</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>729</v>
+        <v>311</v>
       </c>
       <c r="B299">
         <f>COUNTIF(A:A,A299)</f>
         <v>1</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>735</v>
+      <c r="C299" t="s">
+        <v>544</v>
       </c>
       <c r="D299" t="str">
         <f t="shared" si="1"/>
@@ -8652,29 +8900,30 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>730</v>
+        <v>537</v>
       </c>
       <c r="B300">
         <f>COUNTIF(A:A,A300)</f>
         <v>1</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D300" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
+        <v>545</v>
+      </c>
+      <c r="D300" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(300)</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>731</v>
+        <v>538</v>
       </c>
       <c r="B301">
         <f>COUNTIF(A:A,A301)</f>
         <v>1</v>
       </c>
-      <c r="C301" s="1" t="s">
-        <v>737</v>
+      <c r="C301" t="s">
+        <v>546</v>
       </c>
       <c r="D301" t="str">
         <f t="shared" si="1"/>
@@ -8683,29 +8932,30 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>741</v>
+        <v>539</v>
       </c>
       <c r="B302">
         <f>COUNTIF(A:A,A302)</f>
         <v>1</v>
       </c>
-      <c r="C302" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D302" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>547</v>
+      </c>
+      <c r="D302" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(302)</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>742</v>
+        <v>540</v>
       </c>
       <c r="B303">
         <f>COUNTIF(A:A,A303)</f>
         <v>1</v>
       </c>
-      <c r="C303" s="1" t="s">
-        <v>763</v>
+      <c r="C303" t="s">
+        <v>548</v>
       </c>
       <c r="D303" t="str">
         <f t="shared" si="1"/>
@@ -8714,29 +8964,30 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>803</v>
+        <v>541</v>
       </c>
       <c r="B304">
         <f>COUNTIF(A:A,A304)</f>
         <v>1</v>
       </c>
-      <c r="C304" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D304" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C304" t="s">
+        <v>549</v>
+      </c>
+      <c r="D304" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(304)</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>743</v>
+        <v>542</v>
       </c>
       <c r="B305">
         <f>COUNTIF(A:A,A305)</f>
         <v>1</v>
       </c>
-      <c r="C305" s="1" t="s">
-        <v>765</v>
+      <c r="C305" t="s">
+        <v>550</v>
       </c>
       <c r="D305" t="str">
         <f t="shared" si="1"/>
@@ -8745,29 +8996,30 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>805</v>
+        <v>543</v>
       </c>
       <c r="B306">
         <f>COUNTIF(A:A,A306)</f>
         <v>1</v>
       </c>
-      <c r="C306" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D306" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C306" t="s">
+        <v>551</v>
+      </c>
+      <c r="D306" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(306)</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>744</v>
+        <v>556</v>
       </c>
       <c r="B307">
         <f>COUNTIF(A:A,A307)</f>
         <v>1</v>
       </c>
-      <c r="C307" s="1" t="s">
-        <v>767</v>
+      <c r="C307" t="s">
+        <v>557</v>
       </c>
       <c r="D307" t="str">
         <f t="shared" si="1"/>
@@ -8776,29 +9028,29 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>807</v>
+        <v>507</v>
       </c>
       <c r="B308">
         <f>COUNTIF(A:A,A308)</f>
         <v>1</v>
       </c>
-      <c r="C308" s="1" t="s">
-        <v>768</v>
+      <c r="C308" t="s">
+        <v>502</v>
       </c>
       <c r="D308" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>745</v>
+        <v>508</v>
       </c>
       <c r="B309">
         <f>COUNTIF(A:A,A309)</f>
         <v>1</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>769</v>
+        <v>696</v>
       </c>
       <c r="D309" t="str">
         <f t="shared" si="1"/>
@@ -8807,29 +9059,29 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>809</v>
+        <v>509</v>
       </c>
       <c r="B310">
         <f>COUNTIF(A:A,A310)</f>
         <v>1</v>
       </c>
-      <c r="C310" s="1" t="s">
-        <v>770</v>
+      <c r="C310" t="s">
+        <v>504</v>
       </c>
       <c r="D310" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>746</v>
+        <v>510</v>
       </c>
       <c r="B311">
         <f>COUNTIF(A:A,A311)</f>
         <v>1</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>771</v>
+        <v>697</v>
       </c>
       <c r="D311" t="str">
         <f t="shared" si="1"/>
@@ -8838,29 +9090,29 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>811</v>
+        <v>511</v>
       </c>
       <c r="B312">
         <f>COUNTIF(A:A,A312)</f>
         <v>1</v>
       </c>
-      <c r="C312" s="1" t="s">
-        <v>772</v>
+      <c r="C312" t="s">
+        <v>505</v>
       </c>
       <c r="D312" t="s">
-        <v>812</v>
+        <v>705</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>747</v>
+        <v>512</v>
       </c>
       <c r="B313">
         <f>COUNTIF(A:A,A313)</f>
         <v>1</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>773</v>
+        <v>554</v>
       </c>
       <c r="D313" t="str">
         <f t="shared" si="1"/>
@@ -8869,29 +9121,29 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>813</v>
+        <v>513</v>
       </c>
       <c r="B314">
         <f>COUNTIF(A:A,A314)</f>
         <v>1</v>
       </c>
-      <c r="C314" s="1" t="s">
-        <v>774</v>
+      <c r="C314" t="s">
+        <v>506</v>
       </c>
       <c r="D314" t="s">
-        <v>814</v>
+        <v>553</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>748</v>
+        <v>514</v>
       </c>
       <c r="B315">
         <f>COUNTIF(A:A,A315)</f>
         <v>1</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>775</v>
+        <v>555</v>
       </c>
       <c r="D315" t="str">
         <f t="shared" si="1"/>
@@ -8900,29 +9152,29 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>815</v>
+        <v>667</v>
       </c>
       <c r="B316">
         <f>COUNTIF(A:A,A316)</f>
         <v>1</v>
       </c>
-      <c r="C316" s="1" t="s">
-        <v>776</v>
+      <c r="C316" t="s">
+        <v>669</v>
       </c>
       <c r="D316" t="s">
-        <v>816</v>
+        <v>671</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>749</v>
+        <v>668</v>
       </c>
       <c r="B317">
         <f>COUNTIF(A:A,A317)</f>
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>777</v>
+        <v>670</v>
       </c>
       <c r="D317" t="str">
         <f t="shared" si="1"/>
@@ -8931,29 +9183,29 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>817</v>
+        <v>672</v>
       </c>
       <c r="B318">
         <f>COUNTIF(A:A,A318)</f>
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>778</v>
+        <v>676</v>
       </c>
       <c r="D318" t="s">
-        <v>818</v>
+        <v>679</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>750</v>
+        <v>673</v>
       </c>
       <c r="B319">
         <f>COUNTIF(A:A,A319)</f>
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>779</v>
+        <v>678</v>
       </c>
       <c r="D319" t="str">
         <f t="shared" si="1"/>
@@ -8962,29 +9214,29 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>819</v>
+        <v>674</v>
       </c>
       <c r="B320">
         <f>COUNTIF(A:A,A320)</f>
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>780</v>
+        <v>677</v>
       </c>
       <c r="D320" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>751</v>
+        <v>675</v>
       </c>
       <c r="B321">
         <f>COUNTIF(A:A,A321)</f>
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>781</v>
+        <v>704</v>
       </c>
       <c r="D321" t="str">
         <f t="shared" si="1"/>
@@ -8993,29 +9245,29 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>821</v>
+        <v>681</v>
       </c>
       <c r="B322">
         <f>COUNTIF(A:A,A322)</f>
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>782</v>
+        <v>691</v>
       </c>
       <c r="D322" t="s">
-        <v>822</v>
+        <v>706</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>752</v>
+        <v>682</v>
       </c>
       <c r="B323">
         <f>COUNTIF(A:A,A323)</f>
         <v>1</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>783</v>
+        <v>692</v>
       </c>
       <c r="D323" t="str">
         <f t="shared" si="1"/>
@@ -9024,29 +9276,29 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>823</v>
+        <v>683</v>
       </c>
       <c r="B324">
         <f>COUNTIF(A:A,A324)</f>
         <v>1</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>784</v>
+        <v>693</v>
       </c>
       <c r="D324" t="s">
-        <v>824</v>
+        <v>707</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>753</v>
+        <v>684</v>
       </c>
       <c r="B325">
         <f>COUNTIF(A:A,A325)</f>
         <v>1</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>785</v>
+        <v>695</v>
       </c>
       <c r="D325" t="str">
         <f t="shared" si="1"/>
@@ -9055,29 +9307,29 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>825</v>
+        <v>685</v>
       </c>
       <c r="B326">
         <f>COUNTIF(A:A,A326)</f>
         <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>786</v>
+        <v>698</v>
       </c>
       <c r="D326" t="s">
-        <v>826</v>
+        <v>708</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>754</v>
+        <v>686</v>
       </c>
       <c r="B327">
         <f>COUNTIF(A:A,A327)</f>
         <v>1</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>787</v>
+        <v>699</v>
       </c>
       <c r="D327" t="str">
         <f t="shared" si="1"/>
@@ -9086,29 +9338,29 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>827</v>
+        <v>687</v>
       </c>
       <c r="B328">
         <f>COUNTIF(A:A,A328)</f>
         <v>1</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>788</v>
+        <v>700</v>
       </c>
       <c r="D328" t="s">
-        <v>828</v>
+        <v>709</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>755</v>
+        <v>688</v>
       </c>
       <c r="B329">
         <f>COUNTIF(A:A,A329)</f>
         <v>1</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>789</v>
+        <v>701</v>
       </c>
       <c r="D329" t="str">
         <f t="shared" si="1"/>
@@ -9117,29 +9369,29 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>829</v>
+        <v>689</v>
       </c>
       <c r="B330">
         <f>COUNTIF(A:A,A330)</f>
         <v>1</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>790</v>
+        <v>702</v>
       </c>
       <c r="D330" t="s">
-        <v>830</v>
+        <v>710</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>756</v>
+        <v>690</v>
       </c>
       <c r="B331">
         <f>COUNTIF(A:A,A331)</f>
         <v>1</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>791</v>
+        <v>703</v>
       </c>
       <c r="D331" t="str">
         <f t="shared" si="1"/>
@@ -9148,29 +9400,29 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>831</v>
+        <v>711</v>
       </c>
       <c r="B332">
         <f>COUNTIF(A:A,A332)</f>
         <v>1</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>792</v>
+        <v>717</v>
       </c>
       <c r="D332" t="s">
-        <v>832</v>
+        <v>723</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>757</v>
+        <v>712</v>
       </c>
       <c r="B333">
         <f>COUNTIF(A:A,A333)</f>
         <v>1</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>793</v>
+        <v>718</v>
       </c>
       <c r="D333" t="str">
         <f t="shared" si="1"/>
@@ -9179,29 +9431,29 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>833</v>
+        <v>713</v>
       </c>
       <c r="B334">
         <f>COUNTIF(A:A,A334)</f>
         <v>1</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>794</v>
+        <v>719</v>
       </c>
       <c r="D334" t="s">
-        <v>834</v>
+        <v>724</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>758</v>
+        <v>714</v>
       </c>
       <c r="B335">
         <f>COUNTIF(A:A,A335)</f>
         <v>1</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>795</v>
+        <v>720</v>
       </c>
       <c r="D335" t="str">
         <f t="shared" si="1"/>
@@ -9210,29 +9462,29 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>835</v>
+        <v>715</v>
       </c>
       <c r="B336">
         <f>COUNTIF(A:A,A336)</f>
         <v>1</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>796</v>
+        <v>721</v>
       </c>
       <c r="D336" t="s">
-        <v>836</v>
+        <v>725</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>759</v>
+        <v>716</v>
       </c>
       <c r="B337">
         <f>COUNTIF(A:A,A337)</f>
         <v>1</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>797</v>
+        <v>722</v>
       </c>
       <c r="D337" t="str">
         <f t="shared" si="1"/>
@@ -9241,29 +9493,29 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>837</v>
+        <v>726</v>
       </c>
       <c r="B338">
         <f>COUNTIF(A:A,A338)</f>
         <v>1</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>798</v>
+        <v>747</v>
       </c>
       <c r="D338" t="s">
-        <v>838</v>
+        <v>787</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="B339">
         <f>COUNTIF(A:A,A339)</f>
         <v>1</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>799</v>
+        <v>748</v>
       </c>
       <c r="D339" t="str">
         <f t="shared" si="1"/>
@@ -9272,29 +9524,29 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>839</v>
+        <v>788</v>
       </c>
       <c r="B340">
         <f>COUNTIF(A:A,A340)</f>
         <v>1</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>800</v>
+        <v>749</v>
       </c>
       <c r="D340" t="s">
-        <v>840</v>
+        <v>789</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="B341">
         <f>COUNTIF(A:A,A341)</f>
         <v>1</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>801</v>
+        <v>750</v>
       </c>
       <c r="D341" t="str">
         <f t="shared" si="1"/>
@@ -9303,29 +9555,29 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>841</v>
+        <v>790</v>
       </c>
       <c r="B342">
         <f>COUNTIF(A:A,A342)</f>
         <v>1</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>843</v>
+        <v>751</v>
       </c>
       <c r="D342" t="s">
-        <v>845</v>
+        <v>791</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>842</v>
+        <v>729</v>
       </c>
       <c r="B343">
         <f>COUNTIF(A:A,A343)</f>
         <v>1</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>844</v>
+        <v>752</v>
       </c>
       <c r="D343" t="str">
         <f t="shared" si="1"/>
@@ -9334,59 +9586,60 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>592</v>
+        <v>792</v>
       </c>
       <c r="B344">
         <f>COUNTIF(A:A,A344)</f>
         <v>1</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>595</v>
+        <v>753</v>
       </c>
       <c r="D344" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>593</v>
+        <v>730</v>
       </c>
       <c r="B345">
         <f>COUNTIF(A:A,A345)</f>
         <v>1</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D345" t="s">
-        <v>599</v>
+        <v>754</v>
+      </c>
+      <c r="D345" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(345)</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>584</v>
+        <v>794</v>
       </c>
       <c r="B346">
         <f>COUNTIF(A:A,A346)</f>
         <v>1</v>
       </c>
-      <c r="C346" t="s">
-        <v>586</v>
+      <c r="C346" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="D346" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>585</v>
+        <v>731</v>
       </c>
       <c r="B347">
         <f>COUNTIF(A:A,A347)</f>
         <v>1</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>587</v>
+        <v>756</v>
       </c>
       <c r="D347" t="str">
         <f t="shared" si="1"/>
@@ -9395,29 +9648,29 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>594</v>
+        <v>796</v>
       </c>
       <c r="B348">
         <f>COUNTIF(A:A,A348)</f>
         <v>1</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>597</v>
+        <v>757</v>
       </c>
       <c r="D348" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>602</v>
+        <v>732</v>
       </c>
       <c r="B349">
         <f>COUNTIF(A:A,A349)</f>
         <v>1</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>605</v>
+        <v>758</v>
       </c>
       <c r="D349" t="str">
         <f t="shared" si="1"/>
@@ -9426,30 +9679,29 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>603</v>
+        <v>798</v>
       </c>
       <c r="B350">
         <f>COUNTIF(A:A,A350)</f>
         <v>1</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D350" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(350)</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+      <c r="D350" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>590</v>
+        <v>733</v>
       </c>
       <c r="B351">
         <f>COUNTIF(A:A,A351)</f>
         <v>1</v>
       </c>
-      <c r="C351" t="s">
-        <v>588</v>
+      <c r="C351" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="D351" t="str">
         <f t="shared" si="1"/>
@@ -9458,30 +9710,29 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>591</v>
+        <v>800</v>
       </c>
       <c r="B352">
         <f>COUNTIF(A:A,A352)</f>
         <v>1</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D352" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(352)</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+      <c r="D352" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>604</v>
+        <v>734</v>
       </c>
       <c r="B353">
         <f>COUNTIF(A:A,A353)</f>
         <v>1</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>607</v>
+        <v>762</v>
       </c>
       <c r="D353" t="str">
         <f t="shared" si="1"/>
@@ -9490,30 +9741,29 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>370</v>
+        <v>802</v>
       </c>
       <c r="B354">
         <f>COUNTIF(A:A,A354)</f>
         <v>1</v>
       </c>
-      <c r="C354" t="s">
-        <v>530</v>
-      </c>
-      <c r="D354" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(354)</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C354" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D354" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>371</v>
+        <v>735</v>
       </c>
       <c r="B355">
         <f>COUNTIF(A:A,A355)</f>
         <v>1</v>
       </c>
-      <c r="C355" t="s">
-        <v>531</v>
+      <c r="C355" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="D355" t="str">
         <f t="shared" si="1"/>
@@ -9522,30 +9772,29 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>369</v>
+        <v>804</v>
       </c>
       <c r="B356">
         <f>COUNTIF(A:A,A356)</f>
         <v>1</v>
       </c>
-      <c r="C356" t="s">
-        <v>532</v>
-      </c>
-      <c r="D356" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(356)</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C356" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D356" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>373</v>
+        <v>736</v>
       </c>
       <c r="B357">
         <f>COUNTIF(A:A,A357)</f>
         <v>1</v>
       </c>
-      <c r="C357" t="s">
-        <v>533</v>
+      <c r="C357" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="D357" t="str">
         <f t="shared" si="1"/>
@@ -9554,34 +9803,595 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>374</v>
+        <v>806</v>
       </c>
       <c r="B358">
         <f>COUNTIF(A:A,A358)</f>
         <v>1</v>
       </c>
-      <c r="C358" t="s">
-        <v>535</v>
-      </c>
-      <c r="D358" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(358)</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C358" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D358" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>372</v>
+        <v>737</v>
       </c>
       <c r="B359">
         <f>COUNTIF(A:A,A359)</f>
         <v>1</v>
       </c>
-      <c r="C359" t="s">
-        <v>534</v>
+      <c r="C359" s="1" t="s">
+        <v>768</v>
       </c>
       <c r="D359" t="str">
         <f t="shared" si="1"/>
         <v>In progress of translating…(359)</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>808</v>
+      </c>
+      <c r="B360">
+        <f>COUNTIF(A:A,A360)</f>
+        <v>1</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D360" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>738</v>
+      </c>
+      <c r="B361">
+        <f>COUNTIF(A:A,A361)</f>
+        <v>1</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D361" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(361)</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>810</v>
+      </c>
+      <c r="B362">
+        <f>COUNTIF(A:A,A362)</f>
+        <v>1</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D362" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>739</v>
+      </c>
+      <c r="B363">
+        <f>COUNTIF(A:A,A363)</f>
+        <v>1</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D363" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(363)</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>812</v>
+      </c>
+      <c r="B364">
+        <f>COUNTIF(A:A,A364)</f>
+        <v>1</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D364" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>740</v>
+      </c>
+      <c r="B365">
+        <f>COUNTIF(A:A,A365)</f>
+        <v>1</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D365" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(365)</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>814</v>
+      </c>
+      <c r="B366">
+        <f>COUNTIF(A:A,A366)</f>
+        <v>1</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D366" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>741</v>
+      </c>
+      <c r="B367">
+        <f>COUNTIF(A:A,A367)</f>
+        <v>1</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="D367" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(367)</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>816</v>
+      </c>
+      <c r="B368">
+        <f>COUNTIF(A:A,A368)</f>
+        <v>1</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D368" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>742</v>
+      </c>
+      <c r="B369">
+        <f>COUNTIF(A:A,A369)</f>
+        <v>1</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D369" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(369)</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>818</v>
+      </c>
+      <c r="B370">
+        <f>COUNTIF(A:A,A370)</f>
+        <v>1</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D370" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>743</v>
+      </c>
+      <c r="B371">
+        <f>COUNTIF(A:A,A371)</f>
+        <v>1</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D371" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(371)</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>820</v>
+      </c>
+      <c r="B372">
+        <f>COUNTIF(A:A,A372)</f>
+        <v>1</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D372" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>744</v>
+      </c>
+      <c r="B373">
+        <f>COUNTIF(A:A,A373)</f>
+        <v>1</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D373" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(373)</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>822</v>
+      </c>
+      <c r="B374">
+        <f>COUNTIF(A:A,A374)</f>
+        <v>1</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D374" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>745</v>
+      </c>
+      <c r="B375">
+        <f>COUNTIF(A:A,A375)</f>
+        <v>1</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D375" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(375)</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>824</v>
+      </c>
+      <c r="B376">
+        <f>COUNTIF(A:A,A376)</f>
+        <v>1</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D376" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>746</v>
+      </c>
+      <c r="B377">
+        <f>COUNTIF(A:A,A377)</f>
+        <v>1</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D377" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(377)</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>826</v>
+      </c>
+      <c r="B378">
+        <f>COUNTIF(A:A,A378)</f>
+        <v>1</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D378" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>827</v>
+      </c>
+      <c r="B379">
+        <f>COUNTIF(A:A,A379)</f>
+        <v>1</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D379" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(379)</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>577</v>
+      </c>
+      <c r="B380">
+        <f>COUNTIF(A:A,A380)</f>
+        <v>1</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D380" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>578</v>
+      </c>
+      <c r="B381">
+        <f>COUNTIF(A:A,A381)</f>
+        <v>1</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D381" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>569</v>
+      </c>
+      <c r="B382">
+        <f>COUNTIF(A:A,A382)</f>
+        <v>1</v>
+      </c>
+      <c r="C382" t="s">
+        <v>571</v>
+      </c>
+      <c r="D382" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>570</v>
+      </c>
+      <c r="B383">
+        <f>COUNTIF(A:A,A383)</f>
+        <v>1</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D383" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(383)</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>579</v>
+      </c>
+      <c r="B384">
+        <f>COUNTIF(A:A,A384)</f>
+        <v>1</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D384" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>587</v>
+      </c>
+      <c r="B385">
+        <f>COUNTIF(A:A,A385)</f>
+        <v>1</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D385" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(385)</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>588</v>
+      </c>
+      <c r="B386">
+        <f>COUNTIF(A:A,A386)</f>
+        <v>1</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D386" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(386)</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>575</v>
+      </c>
+      <c r="B387">
+        <f>COUNTIF(A:A,A387)</f>
+        <v>1</v>
+      </c>
+      <c r="C387" t="s">
+        <v>573</v>
+      </c>
+      <c r="D387" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(387)</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>576</v>
+      </c>
+      <c r="B388">
+        <f>COUNTIF(A:A,A388)</f>
+        <v>1</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D388" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(388)</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>589</v>
+      </c>
+      <c r="B389">
+        <f>COUNTIF(A:A,A389)</f>
+        <v>1</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D389" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(389)</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>355</v>
+      </c>
+      <c r="B390">
+        <f>COUNTIF(A:A,A390)</f>
+        <v>1</v>
+      </c>
+      <c r="C390" t="s">
+        <v>515</v>
+      </c>
+      <c r="D390" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(390)</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>356</v>
+      </c>
+      <c r="B391">
+        <f>COUNTIF(A:A,A391)</f>
+        <v>1</v>
+      </c>
+      <c r="C391" t="s">
+        <v>516</v>
+      </c>
+      <c r="D391" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(391)</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>354</v>
+      </c>
+      <c r="B392">
+        <f>COUNTIF(A:A,A392)</f>
+        <v>1</v>
+      </c>
+      <c r="C392" t="s">
+        <v>517</v>
+      </c>
+      <c r="D392" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(392)</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>358</v>
+      </c>
+      <c r="B393">
+        <f>COUNTIF(A:A,A393)</f>
+        <v>1</v>
+      </c>
+      <c r="C393" t="s">
+        <v>518</v>
+      </c>
+      <c r="D393" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(393)</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>359</v>
+      </c>
+      <c r="B394">
+        <f>COUNTIF(A:A,A394)</f>
+        <v>1</v>
+      </c>
+      <c r="C394" t="s">
+        <v>520</v>
+      </c>
+      <c r="D394" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(394)</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>357</v>
+      </c>
+      <c r="B395">
+        <f>COUNTIF(A:A,A395)</f>
+        <v>1</v>
+      </c>
+      <c r="C395" t="s">
+        <v>519</v>
+      </c>
+      <c r="D395" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(395)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63501CC0-D413-49E0-B921-44999B283BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234F2D3-1403-471A-B61E-974971931F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$395</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$396</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="938">
   <si>
     <t>확인</t>
   </si>
@@ -809,18 +809,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즉사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INVINCIBLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GameUI_Invincible</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3779,10 +3767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEATH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RESIST REPEAT!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3849,6 +3833,34 @@
   </si>
   <si>
     <t>몬스터 공격 시 더 높은 확률로 궁극기 게이지를 획득합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUI_PaybackSp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁 페이백!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULTIMATE PAYBACK!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉사!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEATH!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무적!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVINCIBLE!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4253,7 +4265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:D396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -4272,17 +4284,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C1" t="str">
         <f t="array" ref="C1">IF(SUM(IF(B:B&gt;=2,1,0))&gt;1,"중복아이디있음","kor|String")</f>
         <v>kor|String</v>
       </c>
       <c r="D1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4362,7 +4374,7 @@
     </row>
     <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B7">
         <f>COUNTIF(A:A,A7)</f>
@@ -4422,662 +4434,662 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B11">
         <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B12">
         <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B13">
         <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B14">
         <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B15">
         <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D15" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B16">
         <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B17">
         <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B18">
         <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D18" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B19">
         <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D19" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B20">
         <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B21">
         <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D21" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B22">
         <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B23">
         <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D23" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B24">
         <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D24" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B25">
         <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B26">
         <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D26" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B27">
         <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B28">
         <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D28" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B29">
         <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B30">
         <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D30" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B31">
         <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D31" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B32">
         <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B33">
         <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D33" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B34">
         <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D34" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B35">
         <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D35" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B36">
         <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D36" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B37">
         <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D37" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B38">
         <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D38" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B39">
         <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D39" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B40">
         <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D40" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B41">
         <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B42">
         <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B43">
         <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B44">
         <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B45">
         <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B46">
         <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B47">
         <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B48">
         <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B49">
         <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B50">
         <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B51">
         <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B52">
         <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B53">
         <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B54">
         <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5157,17 +5169,17 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B60">
         <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -5187,197 +5199,197 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B62">
         <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D62" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B63">
         <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D63" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B64">
         <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D64" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B65">
         <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D65" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B66">
         <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D66" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B67">
         <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D67" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B68">
         <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D68" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B69">
         <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D69" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B70">
         <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D70" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B71">
         <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D71" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B72">
         <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D72" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B73">
         <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D73" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B74">
         <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D74" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -5397,32 +5409,32 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B76">
         <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D76" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B77">
         <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D77" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -5442,212 +5454,212 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B79">
         <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B80">
         <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B81">
         <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B82">
         <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D82" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B83">
         <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B84">
         <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D84" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B85">
         <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D85" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B86">
         <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D86" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B87">
         <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B88">
         <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B89">
         <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B90">
         <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B91">
         <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>69</v>
+        <v>936</v>
       </c>
       <c r="D91" t="s">
-        <v>71</v>
+        <v>937</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B92">
         <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D92" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -5659,391 +5671,386 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>70</v>
+        <v>934</v>
       </c>
       <c r="D93" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B94">
         <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="C95" t="s">
+        <v>910</v>
+      </c>
+      <c r="D95" t="s">
         <v>913</v>
-      </c>
-      <c r="D95" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>911</v>
+      </c>
+      <c r="C96" t="s">
+        <v>912</v>
+      </c>
+      <c r="D96" t="s">
         <v>914</v>
-      </c>
-      <c r="C96" t="s">
-        <v>915</v>
-      </c>
-      <c r="D96" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>86</v>
-      </c>
-      <c r="B97">
-        <f>COUNTIF(A:A,A97)</f>
-        <v>1</v>
+        <v>931</v>
       </c>
       <c r="C97" t="s">
-        <v>76</v>
+        <v>932</v>
       </c>
       <c r="D97" t="s">
-        <v>81</v>
+        <v>933</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B98">
         <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D98" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B99">
         <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D99" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B100">
         <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D100" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B101">
         <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D101" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>567</v>
+        <v>87</v>
       </c>
       <c r="B102">
         <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>568</v>
+        <v>77</v>
       </c>
       <c r="D102" t="s">
-        <v>659</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>285</v>
+        <v>564</v>
       </c>
       <c r="B103">
         <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>658</v>
+        <v>565</v>
       </c>
       <c r="D103" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>834</v>
+        <v>282</v>
       </c>
       <c r="B104">
         <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>835</v>
+        <v>655</v>
       </c>
       <c r="D104" t="s">
-        <v>836</v>
+        <v>657</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>831</v>
       </c>
       <c r="B105">
         <f>COUNTIF(A:A,A105)</f>
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>596</v>
+        <v>832</v>
       </c>
       <c r="D105" t="s">
-        <v>595</v>
+        <v>833</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>603</v>
+        <v>88</v>
       </c>
       <c r="B106">
         <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="D106" t="s">
-        <v>639</v>
+        <v>592</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B107">
         <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D107" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>844</v>
+        <v>601</v>
       </c>
       <c r="B108">
         <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>843</v>
+        <v>599</v>
       </c>
       <c r="D108" t="s">
-        <v>845</v>
+        <v>637</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>605</v>
+        <v>841</v>
       </c>
       <c r="B109">
         <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>599</v>
+        <v>840</v>
       </c>
       <c r="D109" t="s">
-        <v>637</v>
+        <v>842</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B110">
         <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D110" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>119</v>
+        <v>603</v>
       </c>
       <c r="B111">
         <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>131</v>
+      <c r="C111" t="s">
+        <v>597</v>
       </c>
       <c r="D111" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
-      <c r="C112" t="s">
-        <v>132</v>
+      <c r="C112" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="D112" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>841</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>839</v>
+        <v>129</v>
       </c>
       <c r="D113" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B114">
         <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="D114" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>834</v>
       </c>
       <c r="B115">
         <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>133</v>
+      <c r="C115" t="s">
+        <v>839</v>
       </c>
       <c r="D115" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B116">
         <f>COUNTIF(A:A,A116)</f>
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D116" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B117">
         <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
-      <c r="C117" t="s">
-        <v>134</v>
-      </c>
-      <c r="D117" t="str">
-        <f t="shared" ref="D117:D221" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
-        <v>In progress of translating…(117)</v>
+      <c r="C117" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D117" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>838</v>
+        <v>120</v>
       </c>
       <c r="B118">
         <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>840</v>
+        <v>131</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D118:D222" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(118)</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>124</v>
+        <v>835</v>
       </c>
       <c r="B119">
         <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>135</v>
+      <c r="C119" t="s">
+        <v>837</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="0"/>
@@ -6052,14 +6059,14 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="0"/>
@@ -6068,14 +6075,14 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B121">
         <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
-      <c r="C121" t="s">
-        <v>241</v>
+      <c r="C121" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="0"/>
@@ -6084,14 +6091,14 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>242</v>
+      <c r="C122" t="s">
+        <v>238</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="0"/>
@@ -6100,14 +6107,14 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>849</v>
+        <v>124</v>
       </c>
       <c r="B123">
         <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>852</v>
+        <v>239</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="0"/>
@@ -6116,14 +6123,14 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B124">
         <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
-      <c r="C124" t="s">
-        <v>853</v>
+      <c r="C124" s="1" t="s">
+        <v>849</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="0"/>
@@ -6132,14 +6139,14 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B125">
         <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>854</v>
+      <c r="C125" t="s">
+        <v>850</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="0"/>
@@ -6148,14 +6155,14 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>848</v>
       </c>
       <c r="B126">
         <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>137</v>
+        <v>851</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="0"/>
@@ -6164,14 +6171,14 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
-      <c r="C127" t="s">
-        <v>138</v>
+      <c r="C127" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="0"/>
@@ -6180,14 +6187,14 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>139</v>
+      <c r="C128" t="s">
+        <v>135</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="0"/>
@@ -6196,14 +6203,14 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D129" t="str">
         <f t="shared" si="0"/>
@@ -6212,14 +6219,14 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>855</v>
+        <v>149</v>
       </c>
       <c r="B130">
         <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>856</v>
+        <v>153</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" si="0"/>
@@ -6228,14 +6235,14 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B131">
         <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="D131" t="str">
         <f t="shared" si="0"/>
@@ -6244,14 +6251,14 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="B132">
         <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D132" t="str">
         <f t="shared" si="0"/>
@@ -6260,14 +6267,14 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>855</v>
       </c>
       <c r="B133">
         <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>157</v>
+        <v>857</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="0"/>
@@ -6276,14 +6283,14 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>861</v>
+        <v>150</v>
       </c>
       <c r="B134">
         <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>862</v>
+        <v>154</v>
       </c>
       <c r="D134" t="str">
         <f t="shared" si="0"/>
@@ -6292,14 +6299,14 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B135">
         <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="D135" t="str">
         <f t="shared" si="0"/>
@@ -6308,14 +6315,14 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="B136">
         <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="0"/>
@@ -6324,14 +6331,14 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="B137">
         <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="0"/>
@@ -6340,14 +6347,14 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B138">
         <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D138" t="str">
         <f t="shared" si="0"/>
@@ -6356,14 +6363,14 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>92</v>
+        <v>863</v>
       </c>
       <c r="B139">
         <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>245</v>
+        <v>867</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="0"/>
@@ -6372,14 +6379,14 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>874</v>
+        <v>89</v>
       </c>
       <c r="B140">
         <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>871</v>
+        <v>242</v>
       </c>
       <c r="D140" t="str">
         <f t="shared" si="0"/>
@@ -6388,14 +6395,14 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>871</v>
       </c>
       <c r="B141">
         <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>246</v>
+        <v>868</v>
       </c>
       <c r="D141" t="str">
         <f t="shared" si="0"/>
@@ -6404,14 +6411,14 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>875</v>
+        <v>90</v>
       </c>
       <c r="B142">
         <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>872</v>
+        <v>243</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="0"/>
@@ -6420,14 +6427,14 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>94</v>
+        <v>872</v>
       </c>
       <c r="B143">
         <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>247</v>
+        <v>869</v>
       </c>
       <c r="D143" t="str">
         <f t="shared" si="0"/>
@@ -6436,14 +6443,14 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>876</v>
+        <v>91</v>
       </c>
       <c r="B144">
         <f>COUNTIF(A:A,A144)</f>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>873</v>
+        <v>244</v>
       </c>
       <c r="D144" t="str">
         <f t="shared" si="0"/>
@@ -6452,14 +6459,14 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>95</v>
+        <v>873</v>
       </c>
       <c r="B145">
         <f>COUNTIF(A:A,A145)</f>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>249</v>
+        <v>870</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="0"/>
@@ -6468,14 +6475,14 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B146">
         <f>COUNTIF(A:A,A146)</f>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D146" t="str">
         <f t="shared" si="0"/>
@@ -6484,14 +6491,14 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B147">
         <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D147" t="str">
         <f t="shared" si="0"/>
@@ -6500,14 +6507,14 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B148">
         <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="0"/>
@@ -6516,14 +6523,14 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B149">
         <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="D149" t="str">
         <f t="shared" si="0"/>
@@ -6532,14 +6539,14 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B150">
         <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="D150" t="str">
         <f t="shared" si="0"/>
@@ -6548,14 +6555,14 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B151">
         <f>COUNTIF(A:A,A151)</f>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D151" t="str">
         <f t="shared" si="0"/>
@@ -6564,14 +6571,14 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B152">
         <f>COUNTIF(A:A,A152)</f>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D152" t="str">
         <f t="shared" si="0"/>
@@ -6580,14 +6587,14 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="B153">
         <f>COUNTIF(A:A,A153)</f>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="D153" t="str">
         <f t="shared" si="0"/>
@@ -6596,30 +6603,30 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B154">
         <f>COUNTIF(A:A,A154)</f>
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D154" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="B155">
         <f>COUNTIF(A:A,A155)</f>
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D155" t="str">
         <f t="shared" si="0"/>
@@ -6628,30 +6635,30 @@
     </row>
     <row r="156" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B156">
         <f>COUNTIF(A:A,A156)</f>
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D156" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(156)</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="B157">
         <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>893</v>
+        <v>252</v>
       </c>
       <c r="D157" t="str">
         <f t="shared" si="0"/>
@@ -6660,14 +6667,14 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B158">
         <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D158" t="str">
         <f t="shared" si="0"/>
@@ -6676,14 +6683,14 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="D159" t="str">
         <f t="shared" si="0"/>
@@ -6692,14 +6699,14 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B160">
         <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>169</v>
+        <v>874</v>
       </c>
       <c r="D160" t="str">
         <f t="shared" si="0"/>
@@ -6708,30 +6715,30 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B161">
         <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D161" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B162">
         <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="D162" t="str">
         <f t="shared" si="0"/>
@@ -6740,14 +6747,14 @@
     </row>
     <row r="163" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B163">
         <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D163" t="str">
         <f t="shared" si="0"/>
@@ -6756,14 +6763,14 @@
     </row>
     <row r="164" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B164">
         <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="D164" t="str">
         <f t="shared" si="0"/>
@@ -6772,30 +6779,30 @@
     </row>
     <row r="165" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B165">
         <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D165" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(165)</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B166">
         <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="D166" t="str">
         <f t="shared" si="0"/>
@@ -6804,14 +6811,14 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B167">
         <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D167" t="str">
         <f t="shared" si="0"/>
@@ -6820,14 +6827,14 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B168">
         <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="D168" t="str">
         <f t="shared" si="0"/>
@@ -6836,14 +6843,14 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B169">
         <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D169" t="str">
         <f t="shared" si="0"/>
@@ -6852,30 +6859,30 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B170">
         <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>878</v>
+        <v>178</v>
       </c>
       <c r="D170" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B171">
         <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D171" t="str">
         <f t="shared" si="0"/>
@@ -6884,30 +6891,30 @@
     </row>
     <row r="172" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>880</v>
+        <v>179</v>
       </c>
       <c r="B172">
         <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D172" t="str">
         <f t="shared" si="0"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>286</v>
+        <v>877</v>
       </c>
       <c r="B173">
         <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="D173" t="str">
         <f t="shared" si="0"/>
@@ -6916,14 +6923,14 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="B174">
         <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>188</v>
+        <v>880</v>
       </c>
       <c r="D174" t="str">
         <f t="shared" si="0"/>
@@ -6932,14 +6939,14 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>882</v>
+        <v>184</v>
       </c>
       <c r="B175">
         <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>888</v>
+        <v>185</v>
       </c>
       <c r="D175" t="str">
         <f t="shared" si="0"/>
@@ -6948,14 +6955,14 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>183</v>
+        <v>879</v>
       </c>
       <c r="B176">
         <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D176" t="str">
         <f t="shared" si="0"/>
@@ -6964,14 +6971,14 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B177">
         <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D177" t="str">
         <f t="shared" si="0"/>
@@ -6980,14 +6987,14 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B178">
         <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="D178" t="str">
         <f t="shared" si="0"/>
@@ -6996,14 +7003,14 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B179">
         <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D179" t="str">
         <f t="shared" si="0"/>
@@ -7012,14 +7019,14 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>889</v>
+        <v>183</v>
       </c>
       <c r="B180">
         <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="D180" t="str">
         <f t="shared" si="0"/>
@@ -7028,14 +7035,14 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B181">
         <f>COUNTIF(A:A,A181)</f>
         <v>1</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D181" t="str">
         <f t="shared" si="0"/>
@@ -7044,14 +7051,14 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>140</v>
+        <v>887</v>
       </c>
       <c r="B182">
         <f>COUNTIF(A:A,A182)</f>
         <v>1</v>
       </c>
-      <c r="C182" t="s">
-        <v>256</v>
+      <c r="C182" s="1" t="s">
+        <v>889</v>
       </c>
       <c r="D182" t="str">
         <f t="shared" si="0"/>
@@ -7060,14 +7067,14 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B183">
         <f>COUNTIF(A:A,A183)</f>
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D183" t="str">
         <f t="shared" si="0"/>
@@ -7076,14 +7083,14 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B184">
         <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D184" t="str">
         <f t="shared" si="0"/>
@@ -7092,14 +7099,14 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B185">
         <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="0"/>
@@ -7108,14 +7115,14 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B186">
         <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="0"/>
@@ -7124,14 +7131,14 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B187">
         <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D187" t="str">
         <f t="shared" si="0"/>
@@ -7140,14 +7147,14 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B188">
         <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="0"/>
@@ -7156,14 +7163,14 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B189">
         <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="0"/>
@@ -7172,14 +7179,14 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B190">
         <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="0"/>
@@ -7188,14 +7195,14 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>846</v>
+        <v>145</v>
       </c>
       <c r="B191">
         <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>895</v>
+        <v>261</v>
       </c>
       <c r="D191" t="str">
         <f t="shared" si="0"/>
@@ -7204,14 +7211,14 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="B192">
         <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D192" t="str">
         <f t="shared" si="0"/>
@@ -7220,14 +7227,14 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B193">
         <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D193" t="str">
         <f t="shared" si="0"/>
@@ -7236,14 +7243,14 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>149</v>
+        <v>845</v>
       </c>
       <c r="B194">
         <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>265</v>
+        <v>894</v>
       </c>
       <c r="D194" t="str">
         <f t="shared" si="0"/>
@@ -7252,14 +7259,14 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B195">
         <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D195" t="str">
         <f t="shared" si="0"/>
@@ -7268,14 +7275,14 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B196">
         <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D196" t="str">
         <f t="shared" si="0"/>
@@ -7284,14 +7291,14 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B197">
         <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D197" t="str">
         <f t="shared" si="0"/>
@@ -7300,10 +7307,14 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>898</v>
+        <v>151</v>
+      </c>
+      <c r="B198">
+        <f>COUNTIF(A:A,A198)</f>
+        <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>906</v>
+        <v>265</v>
       </c>
       <c r="D198" t="str">
         <f t="shared" si="0"/>
@@ -7312,10 +7323,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C199" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="D199" t="str">
         <f t="shared" si="0"/>
@@ -7324,10 +7335,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C200" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="0"/>
@@ -7336,14 +7347,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>155</v>
-      </c>
-      <c r="B201">
-        <f>COUNTIF(A:A,A201)</f>
-        <v>1</v>
+        <v>897</v>
       </c>
       <c r="C201" t="s">
-        <v>269</v>
+        <v>905</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="0"/>
@@ -7352,10 +7359,14 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>901</v>
+        <v>152</v>
+      </c>
+      <c r="B202">
+        <f>COUNTIF(A:A,A202)</f>
+        <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>909</v>
+        <v>266</v>
       </c>
       <c r="D202" t="str">
         <f t="shared" si="0"/>
@@ -7364,10 +7375,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C203" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D203" t="str">
         <f t="shared" si="0"/>
@@ -7376,10 +7387,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C204" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D204" t="str">
         <f t="shared" si="0"/>
@@ -7388,10 +7399,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C205" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
       <c r="D205" t="str">
         <f t="shared" si="0"/>
@@ -7400,10 +7411,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C206" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="0"/>
@@ -7412,14 +7423,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>103</v>
-      </c>
-      <c r="B207">
-        <f>COUNTIF(A:A,A207)</f>
-        <v>1</v>
+        <v>902</v>
       </c>
       <c r="C207" t="s">
-        <v>189</v>
+        <v>921</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="0"/>
@@ -7428,14 +7435,14 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>919</v>
+        <v>100</v>
       </c>
       <c r="B208">
         <f>COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>922</v>
+        <v>186</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="0"/>
@@ -7444,14 +7451,14 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>104</v>
+        <v>915</v>
       </c>
       <c r="B209">
         <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>190</v>
+        <v>918</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="0"/>
@@ -7460,14 +7467,14 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>920</v>
+        <v>101</v>
       </c>
       <c r="B210">
         <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>923</v>
+        <v>187</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="0"/>
@@ -7476,14 +7483,14 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>105</v>
+        <v>916</v>
       </c>
       <c r="B211">
         <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>270</v>
+        <v>919</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="0"/>
@@ -7492,14 +7499,14 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>921</v>
+        <v>102</v>
       </c>
       <c r="B212">
         <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>924</v>
+        <v>267</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="0"/>
@@ -7508,14 +7515,14 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>106</v>
+        <v>917</v>
       </c>
       <c r="B213">
         <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>191</v>
+        <v>920</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="0"/>
@@ -7524,14 +7531,14 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B214">
         <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="0"/>
@@ -7540,14 +7547,14 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B215">
         <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="0"/>
@@ -7556,14 +7563,14 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B216">
         <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="0"/>
@@ -7572,14 +7579,14 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B217">
         <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="0"/>
@@ -7588,14 +7595,14 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B218">
         <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="0"/>
@@ -7604,14 +7611,14 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B219">
         <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="0"/>
@@ -7620,14 +7627,14 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B220">
         <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="0"/>
@@ -7636,14 +7643,14 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="B221">
         <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="0"/>
@@ -7652,46 +7659,46 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B222">
         <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" ref="D222:D395" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="B223">
         <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>273</v>
+        <v>199</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D223:D396" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B224">
         <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="1"/>
@@ -7700,14 +7707,14 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="B225">
         <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="1"/>
@@ -7716,14 +7723,14 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B226">
         <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="1"/>
@@ -7732,14 +7739,14 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B227">
         <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="1"/>
@@ -7748,14 +7755,14 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B228">
         <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="1"/>
@@ -7764,14 +7771,14 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B229">
         <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="1"/>
@@ -7780,14 +7787,14 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B230">
         <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="1"/>
@@ -7796,14 +7803,14 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B231">
         <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="1"/>
@@ -7812,14 +7819,14 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B232">
         <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>282</v>
+        <v>212</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="1"/>
@@ -7828,14 +7835,14 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B233">
         <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="1"/>
@@ -7844,14 +7851,14 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B234">
         <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="1"/>
@@ -7860,14 +7867,14 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B235">
         <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="1"/>
@@ -7876,14 +7883,14 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B236">
         <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="1"/>
@@ -7892,14 +7899,14 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B237">
         <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="1"/>
@@ -7908,14 +7915,14 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B238">
         <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="1"/>
@@ -7924,14 +7931,14 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B239">
         <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="1"/>
@@ -7940,14 +7947,14 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>927</v>
+        <v>221</v>
       </c>
       <c r="B240">
         <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>928</v>
+        <v>281</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="1"/>
@@ -7956,14 +7963,14 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>287</v>
+        <v>923</v>
       </c>
       <c r="B241">
         <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>277</v>
+        <v>924</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="1"/>
@@ -7972,14 +7979,14 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="B242">
         <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="D242" t="str">
         <f t="shared" si="1"/>
@@ -7988,14 +7995,14 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>929</v>
+        <v>229</v>
       </c>
       <c r="B243">
         <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>930</v>
+        <v>230</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="1"/>
@@ -8004,14 +8011,14 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>225</v>
+        <v>925</v>
       </c>
       <c r="B244">
         <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>226</v>
+        <v>926</v>
       </c>
       <c r="D244" t="str">
         <f t="shared" si="1"/>
@@ -8020,14 +8027,14 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B245">
         <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="1"/>
@@ -8036,14 +8043,14 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B246">
         <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="D246" t="str">
         <f t="shared" si="1"/>
@@ -8052,14 +8059,14 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B247">
         <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" si="1"/>
@@ -8068,14 +8075,14 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>931</v>
+        <v>227</v>
       </c>
       <c r="B248">
-        <f t="shared" ref="B248:B249" si="2">COUNTIF(A:A,A248)</f>
+        <f>COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>933</v>
+        <v>228</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="1"/>
@@ -8084,14 +8091,14 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="B249">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A249)</f>
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="1"/>
@@ -8100,14 +8107,14 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>360</v>
+        <v>928</v>
       </c>
       <c r="B250">
         <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>381</v>
+        <v>930</v>
       </c>
       <c r="D250" t="str">
         <f t="shared" si="1"/>
@@ -8116,14 +8123,14 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B251">
         <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D251" t="str">
         <f t="shared" si="1"/>
@@ -8132,14 +8139,14 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B252">
         <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D252" t="str">
         <f t="shared" si="1"/>
@@ -8148,14 +8155,14 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B253">
         <f>COUNTIF(A:A,A253)</f>
         <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D253" t="str">
         <f t="shared" si="1"/>
@@ -8164,14 +8171,14 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B254">
         <f>COUNTIF(A:A,A254)</f>
         <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D254" t="str">
         <f t="shared" si="1"/>
@@ -8180,14 +8187,14 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B255">
         <f>COUNTIF(A:A,A255)</f>
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D255" t="str">
         <f t="shared" si="1"/>
@@ -8196,14 +8203,14 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B256">
         <f>COUNTIF(A:A,A256)</f>
         <v>1</v>
       </c>
       <c r="C256" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D256" t="str">
         <f t="shared" si="1"/>
@@ -8212,14 +8219,14 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B257">
         <f>COUNTIF(A:A,A257)</f>
         <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="1"/>
@@ -8228,14 +8235,14 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B258">
         <f>COUNTIF(A:A,A258)</f>
         <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D258" t="str">
         <f t="shared" si="1"/>
@@ -8244,14 +8251,14 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B259">
         <f>COUNTIF(A:A,A259)</f>
         <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D259" t="str">
         <f t="shared" si="1"/>
@@ -8260,14 +8267,14 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B260">
         <f>COUNTIF(A:A,A260)</f>
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D260" t="str">
         <f t="shared" si="1"/>
@@ -8276,14 +8283,14 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B261">
         <f>COUNTIF(A:A,A261)</f>
         <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D261" t="str">
         <f t="shared" si="1"/>
@@ -8292,14 +8299,14 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B262">
         <f>COUNTIF(A:A,A262)</f>
         <v>1</v>
       </c>
       <c r="C262" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D262" t="str">
         <f t="shared" si="1"/>
@@ -8308,14 +8315,14 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B263">
         <f>COUNTIF(A:A,A263)</f>
         <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D263" t="str">
         <f t="shared" si="1"/>
@@ -8324,14 +8331,14 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B264">
         <f>COUNTIF(A:A,A264)</f>
         <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="1"/>
@@ -8340,14 +8347,14 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B265">
         <f>COUNTIF(A:A,A265)</f>
         <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="1"/>
@@ -8356,14 +8363,14 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B266">
         <f>COUNTIF(A:A,A266)</f>
         <v>1</v>
       </c>
       <c r="C266" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D266" t="str">
         <f t="shared" si="1"/>
@@ -8372,14 +8379,14 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B267">
         <f>COUNTIF(A:A,A267)</f>
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="1"/>
@@ -8388,14 +8395,14 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B268">
         <f>COUNTIF(A:A,A268)</f>
         <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D268" t="str">
         <f t="shared" si="1"/>
@@ -8404,14 +8411,14 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B269">
         <f>COUNTIF(A:A,A269)</f>
         <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D269" t="str">
         <f t="shared" si="1"/>
@@ -8420,14 +8427,14 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B270">
         <f>COUNTIF(A:A,A270)</f>
         <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D270" t="str">
         <f t="shared" si="1"/>
@@ -8436,14 +8443,14 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>521</v>
+        <v>377</v>
       </c>
       <c r="B271">
         <f>COUNTIF(A:A,A271)</f>
         <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>529</v>
+        <v>398</v>
       </c>
       <c r="D271" t="str">
         <f t="shared" si="1"/>
@@ -8452,14 +8459,14 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B272">
         <f>COUNTIF(A:A,A272)</f>
         <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D272" t="str">
         <f t="shared" si="1"/>
@@ -8468,14 +8475,14 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B273">
         <f>COUNTIF(A:A,A273)</f>
         <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D273" t="str">
         <f t="shared" si="1"/>
@@ -8484,14 +8491,14 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B274">
         <f>COUNTIF(A:A,A274)</f>
         <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D274" t="str">
         <f t="shared" si="1"/>
@@ -8500,14 +8507,14 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B275">
         <f>COUNTIF(A:A,A275)</f>
         <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D275" t="str">
         <f t="shared" si="1"/>
@@ -8516,14 +8523,14 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B276">
         <f>COUNTIF(A:A,A276)</f>
         <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D276" t="str">
         <f t="shared" si="1"/>
@@ -8532,14 +8539,14 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B277">
         <f>COUNTIF(A:A,A277)</f>
         <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D277" t="str">
         <f t="shared" si="1"/>
@@ -8548,14 +8555,14 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B278">
         <f>COUNTIF(A:A,A278)</f>
         <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D278" t="str">
         <f t="shared" si="1"/>
@@ -8564,14 +8571,14 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>291</v>
+        <v>525</v>
       </c>
       <c r="B279">
         <f>COUNTIF(A:A,A279)</f>
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="1"/>
@@ -8580,14 +8587,14 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B280">
         <f>COUNTIF(A:A,A280)</f>
         <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>312</v>
+        <v>563</v>
       </c>
       <c r="D280" t="str">
         <f t="shared" si="1"/>
@@ -8596,14 +8603,14 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B281">
         <f>COUNTIF(A:A,A281)</f>
         <v>1</v>
       </c>
       <c r="C281" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D281" t="str">
         <f t="shared" si="1"/>
@@ -8612,14 +8619,14 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B282">
         <f>COUNTIF(A:A,A282)</f>
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D282" t="str">
         <f t="shared" si="1"/>
@@ -8628,14 +8635,14 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B283">
         <f>COUNTIF(A:A,A283)</f>
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="1"/>
@@ -8644,14 +8651,14 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B284">
         <f>COUNTIF(A:A,A284)</f>
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D284" t="str">
         <f t="shared" si="1"/>
@@ -8660,14 +8667,14 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B285">
         <f>COUNTIF(A:A,A285)</f>
         <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>558</v>
+        <v>313</v>
       </c>
       <c r="D285" t="str">
         <f t="shared" si="1"/>
@@ -8676,14 +8683,14 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B286">
         <f>COUNTIF(A:A,A286)</f>
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>317</v>
+        <v>555</v>
       </c>
       <c r="D286" t="str">
         <f t="shared" si="1"/>
@@ -8692,14 +8699,14 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B287">
         <f>COUNTIF(A:A,A287)</f>
         <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D287" t="str">
         <f t="shared" si="1"/>
@@ -8708,14 +8715,14 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B288">
         <f>COUNTIF(A:A,A288)</f>
         <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D288" t="str">
         <f t="shared" si="1"/>
@@ -8724,14 +8731,14 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B289">
         <f>COUNTIF(A:A,A289)</f>
         <v>1</v>
       </c>
       <c r="C289" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D289" t="str">
         <f t="shared" si="1"/>
@@ -8740,14 +8747,14 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B290">
         <f>COUNTIF(A:A,A290)</f>
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D290" t="str">
         <f t="shared" si="1"/>
@@ -8756,14 +8763,14 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B291">
         <f>COUNTIF(A:A,A291)</f>
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D291" t="str">
         <f t="shared" si="1"/>
@@ -8772,14 +8779,14 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B292">
         <f>COUNTIF(A:A,A292)</f>
         <v>1</v>
       </c>
       <c r="C292" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D292" t="str">
         <f t="shared" si="1"/>
@@ -8788,14 +8795,14 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B293">
         <f>COUNTIF(A:A,A293)</f>
         <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D293" t="str">
         <f t="shared" si="1"/>
@@ -8804,14 +8811,14 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B294">
         <f>COUNTIF(A:A,A294)</f>
         <v>1</v>
       </c>
       <c r="C294" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D294" t="str">
         <f t="shared" si="1"/>
@@ -8820,14 +8827,14 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B295">
         <f>COUNTIF(A:A,A295)</f>
         <v>1</v>
       </c>
       <c r="C295" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D295" t="str">
         <f t="shared" si="1"/>
@@ -8836,14 +8843,14 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B296">
         <f>COUNTIF(A:A,A296)</f>
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D296" t="str">
         <f t="shared" si="1"/>
@@ -8852,14 +8859,14 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B297">
         <f>COUNTIF(A:A,A297)</f>
         <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D297" t="str">
         <f t="shared" si="1"/>
@@ -8868,14 +8875,14 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B298">
         <f>COUNTIF(A:A,A298)</f>
         <v>1</v>
       </c>
       <c r="C298" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D298" t="str">
         <f t="shared" si="1"/>
@@ -8884,14 +8891,14 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B299">
         <f>COUNTIF(A:A,A299)</f>
         <v>1</v>
       </c>
       <c r="C299" t="s">
-        <v>544</v>
+        <v>326</v>
       </c>
       <c r="D299" t="str">
         <f t="shared" si="1"/>
@@ -8900,14 +8907,14 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>537</v>
+        <v>308</v>
       </c>
       <c r="B300">
         <f>COUNTIF(A:A,A300)</f>
         <v>1</v>
       </c>
       <c r="C300" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D300" t="str">
         <f t="shared" si="1"/>
@@ -8916,14 +8923,14 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B301">
         <f>COUNTIF(A:A,A301)</f>
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D301" t="str">
         <f t="shared" si="1"/>
@@ -8932,14 +8939,14 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B302">
         <f>COUNTIF(A:A,A302)</f>
         <v>1</v>
       </c>
       <c r="C302" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D302" t="str">
         <f t="shared" si="1"/>
@@ -8948,14 +8955,14 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B303">
         <f>COUNTIF(A:A,A303)</f>
         <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D303" t="str">
         <f t="shared" si="1"/>
@@ -8964,14 +8971,14 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B304">
         <f>COUNTIF(A:A,A304)</f>
         <v>1</v>
       </c>
       <c r="C304" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D304" t="str">
         <f t="shared" si="1"/>
@@ -8980,14 +8987,14 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B305">
         <f>COUNTIF(A:A,A305)</f>
         <v>1</v>
       </c>
       <c r="C305" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D305" t="str">
         <f t="shared" si="1"/>
@@ -8996,14 +9003,14 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B306">
         <f>COUNTIF(A:A,A306)</f>
         <v>1</v>
       </c>
       <c r="C306" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D306" t="str">
         <f t="shared" si="1"/>
@@ -9012,14 +9019,14 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B307">
         <f>COUNTIF(A:A,A307)</f>
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D307" t="str">
         <f t="shared" si="1"/>
@@ -9028,1222 +9035,1222 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="B308">
         <f>COUNTIF(A:A,A308)</f>
         <v>1</v>
       </c>
       <c r="C308" t="s">
-        <v>502</v>
-      </c>
-      <c r="D308" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="D308" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(308)</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B309">
         <f>COUNTIF(A:A,A309)</f>
         <v>1</v>
       </c>
-      <c r="C309" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D309" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(309)</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
+        <v>499</v>
+      </c>
+      <c r="D309" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B310">
         <f>COUNTIF(A:A,A310)</f>
         <v>1</v>
       </c>
-      <c r="C310" t="s">
-        <v>504</v>
-      </c>
-      <c r="D310" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="C310" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D310" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(310)</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B311">
         <f>COUNTIF(A:A,A311)</f>
         <v>1</v>
       </c>
-      <c r="C311" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D311" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(311)</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C311" t="s">
+        <v>501</v>
+      </c>
+      <c r="D311" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B312">
         <f>COUNTIF(A:A,A312)</f>
         <v>1</v>
       </c>
-      <c r="C312" t="s">
-        <v>505</v>
-      </c>
-      <c r="D312" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C312" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D312" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(312)</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B313">
         <f>COUNTIF(A:A,A313)</f>
         <v>1</v>
       </c>
-      <c r="C313" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D313" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(313)</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C313" t="s">
+        <v>502</v>
+      </c>
+      <c r="D313" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B314">
         <f>COUNTIF(A:A,A314)</f>
         <v>1</v>
       </c>
-      <c r="C314" t="s">
-        <v>506</v>
-      </c>
-      <c r="D314" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C314" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D314" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(314)</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B315">
         <f>COUNTIF(A:A,A315)</f>
         <v>1</v>
       </c>
-      <c r="C315" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D315" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(315)</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C315" t="s">
+        <v>503</v>
+      </c>
+      <c r="D315" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>667</v>
+        <v>511</v>
       </c>
       <c r="B316">
         <f>COUNTIF(A:A,A316)</f>
         <v>1</v>
       </c>
-      <c r="C316" t="s">
-        <v>669</v>
-      </c>
-      <c r="D316" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="C316" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D316" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(316)</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B317">
         <f>COUNTIF(A:A,A317)</f>
         <v>1</v>
       </c>
-      <c r="C317" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D317" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(317)</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C317" t="s">
+        <v>666</v>
+      </c>
+      <c r="D317" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B318">
         <f>COUNTIF(A:A,A318)</f>
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D318" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>667</v>
+      </c>
+      <c r="D318" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(318)</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B319">
         <f>COUNTIF(A:A,A319)</f>
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="D319" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(319)</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+        <v>673</v>
+      </c>
+      <c r="D319" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B320">
         <f>COUNTIF(A:A,A320)</f>
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="D320" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+      <c r="D320" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(320)</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B321">
         <f>COUNTIF(A:A,A321)</f>
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="D321" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(321)</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+      <c r="D321" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B322">
         <f>COUNTIF(A:A,A322)</f>
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D322" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+      <c r="D322" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(322)</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B323">
         <f>COUNTIF(A:A,A323)</f>
         <v>1</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D323" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(323)</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+      <c r="D323" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B324">
         <f>COUNTIF(A:A,A324)</f>
         <v>1</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D324" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>689</v>
+      </c>
+      <c r="D324" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(324)</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B325">
         <f>COUNTIF(A:A,A325)</f>
         <v>1</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D325" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(325)</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+      <c r="D325" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B326">
         <f>COUNTIF(A:A,A326)</f>
         <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D326" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>692</v>
+      </c>
+      <c r="D326" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(326)</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B327">
         <f>COUNTIF(A:A,A327)</f>
         <v>1</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D327" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(327)</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+      <c r="D327" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B328">
         <f>COUNTIF(A:A,A328)</f>
         <v>1</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="D328" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+      <c r="D328" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(328)</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B329">
         <f>COUNTIF(A:A,A329)</f>
         <v>1</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D329" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(329)</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+        <v>697</v>
+      </c>
+      <c r="D329" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B330">
         <f>COUNTIF(A:A,A330)</f>
         <v>1</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D330" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+      <c r="D330" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(330)</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B331">
         <f>COUNTIF(A:A,A331)</f>
         <v>1</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D331" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(331)</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+        <v>699</v>
+      </c>
+      <c r="D331" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="B332">
         <f>COUNTIF(A:A,A332)</f>
         <v>1</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D332" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>700</v>
+      </c>
+      <c r="D332" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(332)</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B333">
         <f>COUNTIF(A:A,A333)</f>
         <v>1</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D333" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(333)</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+      <c r="D333" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B334">
         <f>COUNTIF(A:A,A334)</f>
         <v>1</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D334" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>715</v>
+      </c>
+      <c r="D334" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(334)</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B335">
         <f>COUNTIF(A:A,A335)</f>
         <v>1</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D335" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(335)</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+        <v>716</v>
+      </c>
+      <c r="D335" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B336">
         <f>COUNTIF(A:A,A336)</f>
         <v>1</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D336" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>717</v>
+      </c>
+      <c r="D336" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(336)</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B337">
         <f>COUNTIF(A:A,A337)</f>
         <v>1</v>
       </c>
       <c r="C337" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D337" t="s">
         <v>722</v>
       </c>
-      <c r="D337" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(337)</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="B338">
         <f>COUNTIF(A:A,A338)</f>
         <v>1</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D338" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>719</v>
+      </c>
+      <c r="D338" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(338)</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B339">
         <f>COUNTIF(A:A,A339)</f>
         <v>1</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="D339" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(339)</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+      <c r="D339" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>788</v>
+        <v>724</v>
       </c>
       <c r="B340">
         <f>COUNTIF(A:A,A340)</f>
         <v>1</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D340" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+      <c r="D340" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(340)</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>728</v>
+        <v>785</v>
       </c>
       <c r="B341">
         <f>COUNTIF(A:A,A341)</f>
         <v>1</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D341" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(341)</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+      <c r="D341" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>790</v>
+        <v>725</v>
       </c>
       <c r="B342">
         <f>COUNTIF(A:A,A342)</f>
         <v>1</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="D342" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+      <c r="D342" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(342)</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>729</v>
+        <v>787</v>
       </c>
       <c r="B343">
         <f>COUNTIF(A:A,A343)</f>
         <v>1</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D343" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(343)</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+      <c r="D343" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>792</v>
+        <v>726</v>
       </c>
       <c r="B344">
         <f>COUNTIF(A:A,A344)</f>
         <v>1</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D344" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+      <c r="D344" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(344)</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>730</v>
+        <v>789</v>
       </c>
       <c r="B345">
         <f>COUNTIF(A:A,A345)</f>
         <v>1</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D345" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(345)</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+      <c r="D345" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>794</v>
+        <v>727</v>
       </c>
       <c r="B346">
         <f>COUNTIF(A:A,A346)</f>
         <v>1</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D346" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+      <c r="D346" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(346)</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>731</v>
+        <v>791</v>
       </c>
       <c r="B347">
         <f>COUNTIF(A:A,A347)</f>
         <v>1</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D347" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(347)</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+        <v>752</v>
+      </c>
+      <c r="D347" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>796</v>
+        <v>728</v>
       </c>
       <c r="B348">
         <f>COUNTIF(A:A,A348)</f>
         <v>1</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="D348" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+      <c r="D348" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(348)</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>732</v>
+        <v>793</v>
       </c>
       <c r="B349">
         <f>COUNTIF(A:A,A349)</f>
         <v>1</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D349" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(349)</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+      <c r="D349" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>798</v>
+        <v>729</v>
       </c>
       <c r="B350">
         <f>COUNTIF(A:A,A350)</f>
         <v>1</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D350" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>755</v>
+      </c>
+      <c r="D350" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(350)</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>733</v>
+        <v>795</v>
       </c>
       <c r="B351">
         <f>COUNTIF(A:A,A351)</f>
         <v>1</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D351" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(351)</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+      <c r="D351" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>800</v>
+        <v>730</v>
       </c>
       <c r="B352">
         <f>COUNTIF(A:A,A352)</f>
         <v>1</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D352" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>757</v>
+      </c>
+      <c r="D352" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(352)</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>734</v>
+        <v>797</v>
       </c>
       <c r="B353">
         <f>COUNTIF(A:A,A353)</f>
         <v>1</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D353" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(353)</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+      <c r="D353" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>802</v>
+        <v>731</v>
       </c>
       <c r="B354">
         <f>COUNTIF(A:A,A354)</f>
         <v>1</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="D354" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>759</v>
+      </c>
+      <c r="D354" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(354)</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>735</v>
+        <v>799</v>
       </c>
       <c r="B355">
         <f>COUNTIF(A:A,A355)</f>
         <v>1</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D355" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(355)</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+        <v>760</v>
+      </c>
+      <c r="D355" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>804</v>
+        <v>732</v>
       </c>
       <c r="B356">
         <f>COUNTIF(A:A,A356)</f>
         <v>1</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D356" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>761</v>
+      </c>
+      <c r="D356" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(356)</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>736</v>
+        <v>801</v>
       </c>
       <c r="B357">
         <f>COUNTIF(A:A,A357)</f>
         <v>1</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D357" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(357)</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+        <v>762</v>
+      </c>
+      <c r="D357" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>806</v>
+        <v>733</v>
       </c>
       <c r="B358">
         <f>COUNTIF(A:A,A358)</f>
         <v>1</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D358" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>763</v>
+      </c>
+      <c r="D358" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(358)</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>737</v>
+        <v>803</v>
       </c>
       <c r="B359">
         <f>COUNTIF(A:A,A359)</f>
         <v>1</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D359" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(359)</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+        <v>764</v>
+      </c>
+      <c r="D359" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>808</v>
+        <v>734</v>
       </c>
       <c r="B360">
         <f>COUNTIF(A:A,A360)</f>
         <v>1</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D360" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>765</v>
+      </c>
+      <c r="D360" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(360)</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>738</v>
+        <v>805</v>
       </c>
       <c r="B361">
         <f>COUNTIF(A:A,A361)</f>
         <v>1</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D361" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(361)</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+      <c r="D361" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>810</v>
+        <v>735</v>
       </c>
       <c r="B362">
         <f>COUNTIF(A:A,A362)</f>
         <v>1</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D362" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+      <c r="D362" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(362)</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>739</v>
+        <v>807</v>
       </c>
       <c r="B363">
         <f>COUNTIF(A:A,A363)</f>
         <v>1</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D363" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(363)</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+        <v>768</v>
+      </c>
+      <c r="D363" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>812</v>
+        <v>736</v>
       </c>
       <c r="B364">
         <f>COUNTIF(A:A,A364)</f>
         <v>1</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D364" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+      <c r="D364" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(364)</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>740</v>
+        <v>809</v>
       </c>
       <c r="B365">
         <f>COUNTIF(A:A,A365)</f>
         <v>1</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D365" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(365)</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+      <c r="D365" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>814</v>
+        <v>737</v>
       </c>
       <c r="B366">
         <f>COUNTIF(A:A,A366)</f>
         <v>1</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D366" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+      <c r="D366" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(366)</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>741</v>
+        <v>811</v>
       </c>
       <c r="B367">
         <f>COUNTIF(A:A,A367)</f>
         <v>1</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D367" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(367)</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+      <c r="D367" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>816</v>
+        <v>738</v>
       </c>
       <c r="B368">
         <f>COUNTIF(A:A,A368)</f>
         <v>1</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D368" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+      <c r="D368" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(368)</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>742</v>
+        <v>813</v>
       </c>
       <c r="B369">
         <f>COUNTIF(A:A,A369)</f>
         <v>1</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D369" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(369)</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+      <c r="D369" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>818</v>
+        <v>739</v>
       </c>
       <c r="B370">
         <f>COUNTIF(A:A,A370)</f>
         <v>1</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D370" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+      <c r="D370" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(370)</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>743</v>
+        <v>815</v>
       </c>
       <c r="B371">
         <f>COUNTIF(A:A,A371)</f>
         <v>1</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D371" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(371)</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+      <c r="D371" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>820</v>
+        <v>740</v>
       </c>
       <c r="B372">
         <f>COUNTIF(A:A,A372)</f>
         <v>1</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D372" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+      <c r="D372" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(372)</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>744</v>
+        <v>817</v>
       </c>
       <c r="B373">
         <f>COUNTIF(A:A,A373)</f>
         <v>1</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D373" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(373)</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+      <c r="D373" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>822</v>
+        <v>741</v>
       </c>
       <c r="B374">
         <f>COUNTIF(A:A,A374)</f>
         <v>1</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D374" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+      <c r="D374" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(374)</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>745</v>
+        <v>819</v>
       </c>
       <c r="B375">
         <f>COUNTIF(A:A,A375)</f>
         <v>1</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D375" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(375)</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+      <c r="D375" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>824</v>
+        <v>742</v>
       </c>
       <c r="B376">
         <f>COUNTIF(A:A,A376)</f>
         <v>1</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D376" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+      <c r="D376" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(376)</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>746</v>
+        <v>821</v>
       </c>
       <c r="B377">
         <f>COUNTIF(A:A,A377)</f>
         <v>1</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D377" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(377)</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+      <c r="D377" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>826</v>
+        <v>743</v>
       </c>
       <c r="B378">
         <f>COUNTIF(A:A,A378)</f>
         <v>1</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="D378" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+      <c r="D378" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(378)</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B379">
         <f>COUNTIF(A:A,A379)</f>
         <v>1</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D379" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(379)</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+      <c r="D379" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>577</v>
+        <v>824</v>
       </c>
       <c r="B380">
         <f>COUNTIF(A:A,A380)</f>
         <v>1</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D380" t="s">
-        <v>583</v>
+        <v>826</v>
+      </c>
+      <c r="D380" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(380)</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B381">
         <f>COUNTIF(A:A,A381)</f>
         <v>1</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D381" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B382">
         <f>COUNTIF(A:A,A382)</f>
         <v>1</v>
       </c>
-      <c r="C382" t="s">
-        <v>571</v>
+      <c r="C382" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="D382" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B383">
         <f>COUNTIF(A:A,A383)</f>
         <v>1</v>
       </c>
-      <c r="C383" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D383" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(383)</v>
+      <c r="C383" t="s">
+        <v>568</v>
+      </c>
+      <c r="D383" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B384">
         <f>COUNTIF(A:A,A384)</f>
         <v>1</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D384" t="s">
-        <v>586</v>
+        <v>569</v>
+      </c>
+      <c r="D384" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(384)</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="B385">
         <f>COUNTIF(A:A,A385)</f>
         <v>1</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D385" t="str">
-        <f t="shared" si="1"/>
-        <v>In progress of translating…(385)</v>
+        <v>579</v>
+      </c>
+      <c r="D385" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B386">
         <f>COUNTIF(A:A,A386)</f>
         <v>1</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D386" t="str">
         <f t="shared" si="1"/>
@@ -10252,14 +10259,14 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="B387">
         <f>COUNTIF(A:A,A387)</f>
         <v>1</v>
       </c>
-      <c r="C387" t="s">
-        <v>573</v>
+      <c r="C387" s="1" t="s">
+        <v>588</v>
       </c>
       <c r="D387" t="str">
         <f t="shared" si="1"/>
@@ -10268,14 +10275,14 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B388">
         <f>COUNTIF(A:A,A388)</f>
         <v>1</v>
       </c>
-      <c r="C388" s="1" t="s">
-        <v>574</v>
+      <c r="C388" t="s">
+        <v>570</v>
       </c>
       <c r="D388" t="str">
         <f t="shared" si="1"/>
@@ -10284,14 +10291,14 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="B389">
         <f>COUNTIF(A:A,A389)</f>
         <v>1</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="D389" t="str">
         <f t="shared" si="1"/>
@@ -10300,14 +10307,14 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>355</v>
+        <v>586</v>
       </c>
       <c r="B390">
         <f>COUNTIF(A:A,A390)</f>
         <v>1</v>
       </c>
-      <c r="C390" t="s">
-        <v>515</v>
+      <c r="C390" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="D390" t="str">
         <f t="shared" si="1"/>
@@ -10316,14 +10323,14 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B391">
         <f>COUNTIF(A:A,A391)</f>
         <v>1</v>
       </c>
       <c r="C391" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D391" t="str">
         <f t="shared" si="1"/>
@@ -10332,14 +10339,14 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B392">
         <f>COUNTIF(A:A,A392)</f>
         <v>1</v>
       </c>
       <c r="C392" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D392" t="str">
         <f t="shared" si="1"/>
@@ -10348,14 +10355,14 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B393">
         <f>COUNTIF(A:A,A393)</f>
         <v>1</v>
       </c>
       <c r="C393" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D393" t="str">
         <f t="shared" si="1"/>
@@ -10364,14 +10371,14 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B394">
         <f>COUNTIF(A:A,A394)</f>
         <v>1</v>
       </c>
       <c r="C394" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D394" t="str">
         <f t="shared" si="1"/>
@@ -10380,18 +10387,34 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B395">
         <f>COUNTIF(A:A,A395)</f>
         <v>1</v>
       </c>
       <c r="C395" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D395" t="str">
         <f t="shared" si="1"/>
         <v>In progress of translating…(395)</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>354</v>
+      </c>
+      <c r="B396">
+        <f>COUNTIF(A:A,A396)</f>
+        <v>1</v>
+      </c>
+      <c r="C396" t="s">
+        <v>516</v>
+      </c>
+      <c r="D396" t="str">
+        <f t="shared" si="1"/>
+        <v>In progress of translating…(396)</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234F2D3-1403-471A-B61E-974971931F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510CE4F0-5D6F-4633-BDA0-E3A86E399B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InApkStringTable" sheetId="2" r:id="rId1"/>
@@ -3840,14 +3840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>궁 페이백!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ULTIMATE PAYBACK!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>즉사!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3861,6 +3853,14 @@
   </si>
   <si>
     <t>INVINCIBLE!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이백!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAYBACK!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4302,7 +4302,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="B2:B33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -4317,7 +4317,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -4332,7 +4332,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -4347,7 +4347,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -4362,7 +4362,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4377,7 +4377,7 @@
         <v>605</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4392,7 +4392,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4407,7 +4407,7 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4422,7 +4422,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -4437,7 +4437,7 @@
         <v>400</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4452,7 +4452,7 @@
         <v>401</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4467,7 +4467,7 @@
         <v>402</v>
       </c>
       <c r="B13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4482,7 +4482,7 @@
         <v>403</v>
       </c>
       <c r="B14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4497,7 +4497,7 @@
         <v>404</v>
       </c>
       <c r="B15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4512,7 +4512,7 @@
         <v>405</v>
       </c>
       <c r="B16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4527,7 +4527,7 @@
         <v>406</v>
       </c>
       <c r="B17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4542,7 +4542,7 @@
         <v>407</v>
       </c>
       <c r="B18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4557,7 +4557,7 @@
         <v>408</v>
       </c>
       <c r="B19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4572,7 +4572,7 @@
         <v>409</v>
       </c>
       <c r="B20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4587,7 +4587,7 @@
         <v>410</v>
       </c>
       <c r="B21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -4602,7 +4602,7 @@
         <v>411</v>
       </c>
       <c r="B22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -4617,7 +4617,7 @@
         <v>412</v>
       </c>
       <c r="B23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -4632,7 +4632,7 @@
         <v>413</v>
       </c>
       <c r="B24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -4647,7 +4647,7 @@
         <v>414</v>
       </c>
       <c r="B25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -4662,7 +4662,7 @@
         <v>415</v>
       </c>
       <c r="B26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -4677,7 +4677,7 @@
         <v>416</v>
       </c>
       <c r="B27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -4692,7 +4692,7 @@
         <v>417</v>
       </c>
       <c r="B28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -4707,7 +4707,7 @@
         <v>418</v>
       </c>
       <c r="B29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -4722,7 +4722,7 @@
         <v>419</v>
       </c>
       <c r="B30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -4737,7 +4737,7 @@
         <v>420</v>
       </c>
       <c r="B31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -4752,7 +4752,7 @@
         <v>421</v>
       </c>
       <c r="B32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -4767,7 +4767,7 @@
         <v>422</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -4782,7 +4782,7 @@
         <v>423</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="B34:B65" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -4797,7 +4797,7 @@
         <v>424</v>
       </c>
       <c r="B35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -4812,7 +4812,7 @@
         <v>425</v>
       </c>
       <c r="B36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -4827,7 +4827,7 @@
         <v>426</v>
       </c>
       <c r="B37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -4842,7 +4842,7 @@
         <v>427</v>
       </c>
       <c r="B38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -4857,7 +4857,7 @@
         <v>428</v>
       </c>
       <c r="B39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -4872,7 +4872,7 @@
         <v>429</v>
       </c>
       <c r="B40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -4887,7 +4887,7 @@
         <v>339</v>
       </c>
       <c r="B41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4902,7 +4902,7 @@
         <v>340</v>
       </c>
       <c r="B42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4917,7 +4917,7 @@
         <v>341</v>
       </c>
       <c r="B43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4932,7 +4932,7 @@
         <v>342</v>
       </c>
       <c r="B44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4947,7 +4947,7 @@
         <v>480</v>
       </c>
       <c r="B45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4962,7 +4962,7 @@
         <v>481</v>
       </c>
       <c r="B46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4977,7 +4977,7 @@
         <v>482</v>
       </c>
       <c r="B47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4992,7 +4992,7 @@
         <v>483</v>
       </c>
       <c r="B48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -5007,7 +5007,7 @@
         <v>484</v>
       </c>
       <c r="B49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -5022,7 +5022,7 @@
         <v>485</v>
       </c>
       <c r="B50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -5037,7 +5037,7 @@
         <v>486</v>
       </c>
       <c r="B51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -5052,7 +5052,7 @@
         <v>487</v>
       </c>
       <c r="B52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -5067,7 +5067,7 @@
         <v>111</v>
       </c>
       <c r="B53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -5082,7 +5082,7 @@
         <v>595</v>
       </c>
       <c r="B54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -5097,7 +5097,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -5112,7 +5112,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -5127,7 +5127,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -5142,7 +5142,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -5157,7 +5157,7 @@
         <v>30</v>
       </c>
       <c r="B59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -5172,7 +5172,7 @@
         <v>285</v>
       </c>
       <c r="B60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -5187,7 +5187,7 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -5202,7 +5202,7 @@
         <v>608</v>
       </c>
       <c r="B62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C62" t="s">
@@ -5217,7 +5217,7 @@
         <v>610</v>
       </c>
       <c r="B63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C63" t="s">
@@ -5232,7 +5232,7 @@
         <v>612</v>
       </c>
       <c r="B64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C64" t="s">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C65" t="s">
@@ -5262,7 +5262,7 @@
         <v>614</v>
       </c>
       <c r="B66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="B66:B97" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
@@ -5277,7 +5277,7 @@
         <v>615</v>
       </c>
       <c r="B67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C67" t="s">
@@ -5292,7 +5292,7 @@
         <v>644</v>
       </c>
       <c r="B68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C68" t="s">
@@ -5307,7 +5307,7 @@
         <v>620</v>
       </c>
       <c r="B69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C69" t="s">
@@ -5322,7 +5322,7 @@
         <v>642</v>
       </c>
       <c r="B70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C70" t="s">
@@ -5337,7 +5337,7 @@
         <v>643</v>
       </c>
       <c r="B71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C71" t="s">
@@ -5352,7 +5352,7 @@
         <v>658</v>
       </c>
       <c r="B72">
-        <f>COUNTIF(A:A,A72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C72" t="s">
@@ -5367,7 +5367,7 @@
         <v>661</v>
       </c>
       <c r="B73">
-        <f>COUNTIF(A:A,A73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C73" t="s">
@@ -5382,7 +5382,7 @@
         <v>828</v>
       </c>
       <c r="B74">
-        <f>COUNTIF(A:A,A74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C74" t="s">
@@ -5397,7 +5397,7 @@
         <v>39</v>
       </c>
       <c r="B75">
-        <f>COUNTIF(A:A,A75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C75" t="s">
@@ -5412,7 +5412,7 @@
         <v>331</v>
       </c>
       <c r="B76">
-        <f>COUNTIF(A:A,A76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C76" t="s">
@@ -5427,7 +5427,7 @@
         <v>332</v>
       </c>
       <c r="B77">
-        <f>COUNTIF(A:A,A77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C77" t="s">
@@ -5442,7 +5442,7 @@
         <v>29</v>
       </c>
       <c r="B78">
-        <f>COUNTIF(A:A,A78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C78" t="s">
@@ -5457,7 +5457,7 @@
         <v>327</v>
       </c>
       <c r="B79">
-        <f>COUNTIF(A:A,A79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -5472,7 +5472,7 @@
         <v>330</v>
       </c>
       <c r="B80">
-        <f>COUNTIF(A:A,A80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -5487,7 +5487,7 @@
         <v>591</v>
       </c>
       <c r="B81">
-        <f>COUNTIF(A:A,A81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -5502,7 +5502,7 @@
         <v>337</v>
       </c>
       <c r="B82">
-        <f>COUNTIF(A:A,A82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -5517,7 +5517,7 @@
         <v>399</v>
       </c>
       <c r="B83">
-        <f>COUNTIF(A:A,A83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5532,7 +5532,7 @@
         <v>471</v>
       </c>
       <c r="B84">
-        <f>COUNTIF(A:A,A84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5547,7 +5547,7 @@
         <v>470</v>
       </c>
       <c r="B85">
-        <f>COUNTIF(A:A,A85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -5562,7 +5562,7 @@
         <v>650</v>
       </c>
       <c r="B86">
-        <f>COUNTIF(A:A,A86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5577,7 +5577,7 @@
         <v>474</v>
       </c>
       <c r="B87">
-        <f>COUNTIF(A:A,A87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5592,7 +5592,7 @@
         <v>475</v>
       </c>
       <c r="B88">
-        <f>COUNTIF(A:A,A88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -5607,7 +5607,7 @@
         <v>477</v>
       </c>
       <c r="B89">
-        <f>COUNTIF(A:A,A89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5622,7 +5622,7 @@
         <v>560</v>
       </c>
       <c r="B90">
-        <f>COUNTIF(A:A,A90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -5637,14 +5637,14 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <f>COUNTIF(A:A,A91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D91" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -5652,7 +5652,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <f>COUNTIF(A:A,A92)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C92" t="s">
@@ -5667,14 +5667,14 @@
         <v>68</v>
       </c>
       <c r="B93">
-        <f>COUNTIF(A:A,A93)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="D93" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -5682,7 +5682,7 @@
         <v>113</v>
       </c>
       <c r="B94">
-        <f>COUNTIF(A:A,A94)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C94" t="s">
@@ -5719,10 +5719,10 @@
         <v>931</v>
       </c>
       <c r="C97" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D97" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -5730,7 +5730,7 @@
         <v>83</v>
       </c>
       <c r="B98">
-        <f>COUNTIF(A:A,A98)</f>
+        <f t="shared" ref="B98:B129" si="3">COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="C98" t="s">
@@ -5745,7 +5745,7 @@
         <v>84</v>
       </c>
       <c r="B99">
-        <f>COUNTIF(A:A,A99)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C99" t="s">
@@ -5760,7 +5760,7 @@
         <v>85</v>
       </c>
       <c r="B100">
-        <f>COUNTIF(A:A,A100)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C100" t="s">
@@ -5775,7 +5775,7 @@
         <v>86</v>
       </c>
       <c r="B101">
-        <f>COUNTIF(A:A,A101)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C101" t="s">
@@ -5790,7 +5790,7 @@
         <v>87</v>
       </c>
       <c r="B102">
-        <f>COUNTIF(A:A,A102)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C102" t="s">
@@ -5805,7 +5805,7 @@
         <v>564</v>
       </c>
       <c r="B103">
-        <f>COUNTIF(A:A,A103)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C103" t="s">
@@ -5820,7 +5820,7 @@
         <v>282</v>
       </c>
       <c r="B104">
-        <f>COUNTIF(A:A,A104)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C104" t="s">
@@ -5835,7 +5835,7 @@
         <v>831</v>
       </c>
       <c r="B105">
-        <f>COUNTIF(A:A,A105)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C105" t="s">
@@ -5850,7 +5850,7 @@
         <v>88</v>
       </c>
       <c r="B106">
-        <f>COUNTIF(A:A,A106)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C106" t="s">
@@ -5865,7 +5865,7 @@
         <v>600</v>
       </c>
       <c r="B107">
-        <f>COUNTIF(A:A,A107)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C107" t="s">
@@ -5880,7 +5880,7 @@
         <v>601</v>
       </c>
       <c r="B108">
-        <f>COUNTIF(A:A,A108)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C108" t="s">
@@ -5895,7 +5895,7 @@
         <v>841</v>
       </c>
       <c r="B109">
-        <f>COUNTIF(A:A,A109)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C109" t="s">
@@ -5910,7 +5910,7 @@
         <v>602</v>
       </c>
       <c r="B110">
-        <f>COUNTIF(A:A,A110)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C110" t="s">
@@ -5925,7 +5925,7 @@
         <v>603</v>
       </c>
       <c r="B111">
-        <f>COUNTIF(A:A,A111)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C111" t="s">
@@ -5940,7 +5940,7 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <f>COUNTIF(A:A,A112)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -5955,7 +5955,7 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <f>COUNTIF(A:A,A113)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C113" t="s">
@@ -5970,7 +5970,7 @@
         <v>838</v>
       </c>
       <c r="B114">
-        <f>COUNTIF(A:A,A114)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C114" t="s">
@@ -5985,7 +5985,7 @@
         <v>834</v>
       </c>
       <c r="B115">
-        <f>COUNTIF(A:A,A115)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C115" t="s">
@@ -6000,7 +6000,7 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <f>COUNTIF(A:A,A116)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -6015,7 +6015,7 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <f>COUNTIF(A:A,A117)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -6030,14 +6030,14 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <f>COUNTIF(A:A,A118)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" ref="D118:D222" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D118:D222" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(118)</v>
       </c>
     </row>
@@ -6046,14 +6046,14 @@
         <v>835</v>
       </c>
       <c r="B119">
-        <f>COUNTIF(A:A,A119)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C119" t="s">
         <v>837</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(119)</v>
       </c>
     </row>
@@ -6062,14 +6062,14 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <f>COUNTIF(A:A,A120)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(120)</v>
       </c>
     </row>
@@ -6078,14 +6078,14 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <f>COUNTIF(A:A,A121)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(121)</v>
       </c>
     </row>
@@ -6094,14 +6094,14 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <f>COUNTIF(A:A,A122)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C122" t="s">
         <v>238</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(122)</v>
       </c>
     </row>
@@ -6110,14 +6110,14 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <f>COUNTIF(A:A,A123)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(123)</v>
       </c>
     </row>
@@ -6126,14 +6126,14 @@
         <v>846</v>
       </c>
       <c r="B124">
-        <f>COUNTIF(A:A,A124)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>849</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(124)</v>
       </c>
     </row>
@@ -6142,14 +6142,14 @@
         <v>847</v>
       </c>
       <c r="B125">
-        <f>COUNTIF(A:A,A125)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C125" t="s">
         <v>850</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(125)</v>
       </c>
     </row>
@@ -6158,14 +6158,14 @@
         <v>848</v>
       </c>
       <c r="B126">
-        <f>COUNTIF(A:A,A126)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>851</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(126)</v>
       </c>
     </row>
@@ -6174,14 +6174,14 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <f>COUNTIF(A:A,A127)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(127)</v>
       </c>
     </row>
@@ -6190,14 +6190,14 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <f>COUNTIF(A:A,A128)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(128)</v>
       </c>
     </row>
@@ -6206,14 +6206,14 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <f>COUNTIF(A:A,A129)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
@@ -6222,14 +6222,14 @@
         <v>149</v>
       </c>
       <c r="B130">
-        <f>COUNTIF(A:A,A130)</f>
+        <f t="shared" ref="B130:B161" si="5">COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(130)</v>
       </c>
     </row>
@@ -6238,14 +6238,14 @@
         <v>852</v>
       </c>
       <c r="B131">
-        <f>COUNTIF(A:A,A131)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>853</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(131)</v>
       </c>
     </row>
@@ -6254,14 +6254,14 @@
         <v>854</v>
       </c>
       <c r="B132">
-        <f>COUNTIF(A:A,A132)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>856</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
@@ -6270,14 +6270,14 @@
         <v>855</v>
       </c>
       <c r="B133">
-        <f>COUNTIF(A:A,A133)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>857</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
@@ -6286,14 +6286,14 @@
         <v>150</v>
       </c>
       <c r="B134">
-        <f>COUNTIF(A:A,A134)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(134)</v>
       </c>
     </row>
@@ -6302,14 +6302,14 @@
         <v>858</v>
       </c>
       <c r="B135">
-        <f>COUNTIF(A:A,A135)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>859</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(135)</v>
       </c>
     </row>
@@ -6318,14 +6318,14 @@
         <v>860</v>
       </c>
       <c r="B136">
-        <f>COUNTIF(A:A,A136)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>864</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(136)</v>
       </c>
     </row>
@@ -6334,14 +6334,14 @@
         <v>861</v>
       </c>
       <c r="B137">
-        <f>COUNTIF(A:A,A137)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>865</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(137)</v>
       </c>
     </row>
@@ -6350,14 +6350,14 @@
         <v>862</v>
       </c>
       <c r="B138">
-        <f>COUNTIF(A:A,A138)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>866</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
@@ -6366,14 +6366,14 @@
         <v>863</v>
       </c>
       <c r="B139">
-        <f>COUNTIF(A:A,A139)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>867</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
@@ -6382,14 +6382,14 @@
         <v>89</v>
       </c>
       <c r="B140">
-        <f>COUNTIF(A:A,A140)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(140)</v>
       </c>
     </row>
@@ -6398,14 +6398,14 @@
         <v>871</v>
       </c>
       <c r="B141">
-        <f>COUNTIF(A:A,A141)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>868</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
@@ -6414,14 +6414,14 @@
         <v>90</v>
       </c>
       <c r="B142">
-        <f>COUNTIF(A:A,A142)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
@@ -6430,14 +6430,14 @@
         <v>872</v>
       </c>
       <c r="B143">
-        <f>COUNTIF(A:A,A143)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>869</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
@@ -6446,14 +6446,14 @@
         <v>91</v>
       </c>
       <c r="B144">
-        <f>COUNTIF(A:A,A144)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(144)</v>
       </c>
     </row>
@@ -6462,14 +6462,14 @@
         <v>873</v>
       </c>
       <c r="B145">
-        <f>COUNTIF(A:A,A145)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>870</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
@@ -6478,14 +6478,14 @@
         <v>92</v>
       </c>
       <c r="B146">
-        <f>COUNTIF(A:A,A146)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
@@ -6494,14 +6494,14 @@
         <v>93</v>
       </c>
       <c r="B147">
-        <f>COUNTIF(A:A,A147)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
@@ -6510,14 +6510,14 @@
         <v>94</v>
       </c>
       <c r="B148">
-        <f>COUNTIF(A:A,A148)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
@@ -6526,14 +6526,14 @@
         <v>95</v>
       </c>
       <c r="B149">
-        <f>COUNTIF(A:A,A149)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
@@ -6542,14 +6542,14 @@
         <v>96</v>
       </c>
       <c r="B150">
-        <f>COUNTIF(A:A,A150)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(150)</v>
       </c>
     </row>
@@ -6558,14 +6558,14 @@
         <v>97</v>
       </c>
       <c r="B151">
-        <f>COUNTIF(A:A,A151)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(151)</v>
       </c>
     </row>
@@ -6574,14 +6574,14 @@
         <v>98</v>
       </c>
       <c r="B152">
-        <f>COUNTIF(A:A,A152)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(152)</v>
       </c>
     </row>
@@ -6590,14 +6590,14 @@
         <v>99</v>
       </c>
       <c r="B153">
-        <f>COUNTIF(A:A,A153)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(153)</v>
       </c>
     </row>
@@ -6606,14 +6606,14 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <f>COUNTIF(A:A,A154)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>249</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
@@ -6622,14 +6622,14 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <f>COUNTIF(A:A,A155)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(155)</v>
       </c>
     </row>
@@ -6638,14 +6638,14 @@
         <v>231</v>
       </c>
       <c r="B156">
-        <f>COUNTIF(A:A,A156)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(156)</v>
       </c>
     </row>
@@ -6654,14 +6654,14 @@
         <v>232</v>
       </c>
       <c r="B157">
-        <f>COUNTIF(A:A,A157)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(157)</v>
       </c>
     </row>
@@ -6670,14 +6670,14 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <f>COUNTIF(A:A,A158)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>890</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(158)</v>
       </c>
     </row>
@@ -6686,14 +6686,14 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <f>COUNTIF(A:A,A159)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>891</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(159)</v>
       </c>
     </row>
@@ -6702,14 +6702,14 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <f>COUNTIF(A:A,A160)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>874</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(160)</v>
       </c>
     </row>
@@ -6718,14 +6718,14 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <f>COUNTIF(A:A,A161)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
@@ -6734,14 +6734,14 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <f>COUNTIF(A:A,A162)</f>
+        <f t="shared" ref="B162:B193" si="6">COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(162)</v>
       </c>
     </row>
@@ -6750,14 +6750,14 @@
         <v>169</v>
       </c>
       <c r="B163">
-        <f>COUNTIF(A:A,A163)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(163)</v>
       </c>
     </row>
@@ -6766,14 +6766,14 @@
         <v>170</v>
       </c>
       <c r="B164">
-        <f>COUNTIF(A:A,A164)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(164)</v>
       </c>
     </row>
@@ -6782,14 +6782,14 @@
         <v>171</v>
       </c>
       <c r="B165">
-        <f>COUNTIF(A:A,A165)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(165)</v>
       </c>
     </row>
@@ -6798,14 +6798,14 @@
         <v>172</v>
       </c>
       <c r="B166">
-        <f>COUNTIF(A:A,A166)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(166)</v>
       </c>
     </row>
@@ -6814,14 +6814,14 @@
         <v>173</v>
       </c>
       <c r="B167">
-        <f>COUNTIF(A:A,A167)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(167)</v>
       </c>
     </row>
@@ -6830,14 +6830,14 @@
         <v>174</v>
       </c>
       <c r="B168">
-        <f>COUNTIF(A:A,A168)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(168)</v>
       </c>
     </row>
@@ -6846,14 +6846,14 @@
         <v>175</v>
       </c>
       <c r="B169">
-        <f>COUNTIF(A:A,A169)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(169)</v>
       </c>
     </row>
@@ -6862,14 +6862,14 @@
         <v>177</v>
       </c>
       <c r="B170">
-        <f>COUNTIF(A:A,A170)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
@@ -6878,14 +6878,14 @@
         <v>161</v>
       </c>
       <c r="B171">
-        <f>COUNTIF(A:A,A171)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>875</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
@@ -6894,14 +6894,14 @@
         <v>179</v>
       </c>
       <c r="B172">
-        <f>COUNTIF(A:A,A172)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>876</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
@@ -6910,14 +6910,14 @@
         <v>877</v>
       </c>
       <c r="B173">
-        <f>COUNTIF(A:A,A173)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>878</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(173)</v>
       </c>
     </row>
@@ -6926,14 +6926,14 @@
         <v>283</v>
       </c>
       <c r="B174">
-        <f>COUNTIF(A:A,A174)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>880</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(174)</v>
       </c>
     </row>
@@ -6942,14 +6942,14 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <f>COUNTIF(A:A,A175)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(175)</v>
       </c>
     </row>
@@ -6958,14 +6958,14 @@
         <v>879</v>
       </c>
       <c r="B176">
-        <f>COUNTIF(A:A,A176)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>885</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(176)</v>
       </c>
     </row>
@@ -6974,14 +6974,14 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <f>COUNTIF(A:A,A177)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>881</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(177)</v>
       </c>
     </row>
@@ -6990,14 +6990,14 @@
         <v>181</v>
       </c>
       <c r="B178">
-        <f>COUNTIF(A:A,A178)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>882</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(178)</v>
       </c>
     </row>
@@ -7006,14 +7006,14 @@
         <v>182</v>
       </c>
       <c r="B179">
-        <f>COUNTIF(A:A,A179)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>883</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(179)</v>
       </c>
     </row>
@@ -7022,14 +7022,14 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <f>COUNTIF(A:A,A180)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>884</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
@@ -7038,14 +7038,14 @@
         <v>886</v>
       </c>
       <c r="B181">
-        <f>COUNTIF(A:A,A181)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>888</v>
       </c>
       <c r="D181" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
@@ -7054,14 +7054,14 @@
         <v>887</v>
       </c>
       <c r="B182">
-        <f>COUNTIF(A:A,A182)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>889</v>
       </c>
       <c r="D182" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
@@ -7070,14 +7070,14 @@
         <v>137</v>
       </c>
       <c r="B183">
-        <f>COUNTIF(A:A,A183)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C183" t="s">
         <v>253</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
@@ -7086,14 +7086,14 @@
         <v>138</v>
       </c>
       <c r="B184">
-        <f>COUNTIF(A:A,A184)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C184" t="s">
         <v>254</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
@@ -7102,14 +7102,14 @@
         <v>139</v>
       </c>
       <c r="B185">
-        <f>COUNTIF(A:A,A185)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C185" t="s">
         <v>255</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
@@ -7118,14 +7118,14 @@
         <v>140</v>
       </c>
       <c r="B186">
-        <f>COUNTIF(A:A,A186)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C186" t="s">
         <v>256</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
@@ -7134,14 +7134,14 @@
         <v>141</v>
       </c>
       <c r="B187">
-        <f>COUNTIF(A:A,A187)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C187" t="s">
         <v>257</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
@@ -7150,14 +7150,14 @@
         <v>142</v>
       </c>
       <c r="B188">
-        <f>COUNTIF(A:A,A188)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C188" t="s">
         <v>258</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
@@ -7166,14 +7166,14 @@
         <v>143</v>
       </c>
       <c r="B189">
-        <f>COUNTIF(A:A,A189)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C189" t="s">
         <v>259</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
@@ -7182,14 +7182,14 @@
         <v>144</v>
       </c>
       <c r="B190">
-        <f>COUNTIF(A:A,A190)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C190" t="s">
         <v>260</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
@@ -7198,14 +7198,14 @@
         <v>145</v>
       </c>
       <c r="B191">
-        <f>COUNTIF(A:A,A191)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C191" t="s">
         <v>261</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
@@ -7214,14 +7214,14 @@
         <v>843</v>
       </c>
       <c r="B192">
-        <f>COUNTIF(A:A,A192)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C192" t="s">
         <v>892</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
@@ -7230,14 +7230,14 @@
         <v>844</v>
       </c>
       <c r="B193">
-        <f>COUNTIF(A:A,A193)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C193" t="s">
         <v>893</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
@@ -7246,14 +7246,14 @@
         <v>845</v>
       </c>
       <c r="B194">
-        <f>COUNTIF(A:A,A194)</f>
+        <f t="shared" ref="B194:B225" si="7">COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
         <v>894</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
@@ -7262,14 +7262,14 @@
         <v>146</v>
       </c>
       <c r="B195">
-        <f>COUNTIF(A:A,A195)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C195" t="s">
         <v>262</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
@@ -7278,14 +7278,14 @@
         <v>147</v>
       </c>
       <c r="B196">
-        <f>COUNTIF(A:A,A196)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C196" t="s">
         <v>263</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
@@ -7294,14 +7294,14 @@
         <v>148</v>
       </c>
       <c r="B197">
-        <f>COUNTIF(A:A,A197)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C197" t="s">
         <v>264</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
@@ -7310,14 +7310,14 @@
         <v>151</v>
       </c>
       <c r="B198">
-        <f>COUNTIF(A:A,A198)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C198" t="s">
         <v>265</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
         <v>903</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
         <v>904</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
         <v>905</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
@@ -7369,7 +7369,7 @@
         <v>266</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
         <v>906</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
@@ -7393,7 +7393,7 @@
         <v>907</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
         <v>908</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
@@ -7417,7 +7417,7 @@
         <v>922</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
@@ -7429,7 +7429,7 @@
         <v>921</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
@@ -7438,14 +7438,14 @@
         <v>100</v>
       </c>
       <c r="B208">
-        <f>COUNTIF(A:A,A208)</f>
+        <f t="shared" ref="B208:B239" si="8">COUNTIF(A:A,A208)</f>
         <v>1</v>
       </c>
       <c r="C208" t="s">
         <v>186</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
@@ -7454,14 +7454,14 @@
         <v>915</v>
       </c>
       <c r="B209">
-        <f>COUNTIF(A:A,A209)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C209" t="s">
         <v>918</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
@@ -7470,14 +7470,14 @@
         <v>101</v>
       </c>
       <c r="B210">
-        <f>COUNTIF(A:A,A210)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C210" t="s">
         <v>187</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
@@ -7486,14 +7486,14 @@
         <v>916</v>
       </c>
       <c r="B211">
-        <f>COUNTIF(A:A,A211)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C211" t="s">
         <v>919</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
@@ -7502,14 +7502,14 @@
         <v>102</v>
       </c>
       <c r="B212">
-        <f>COUNTIF(A:A,A212)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C212" t="s">
         <v>267</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
@@ -7518,14 +7518,14 @@
         <v>917</v>
       </c>
       <c r="B213">
-        <f>COUNTIF(A:A,A213)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C213" t="s">
         <v>920</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
@@ -7534,14 +7534,14 @@
         <v>103</v>
       </c>
       <c r="B214">
-        <f>COUNTIF(A:A,A214)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C214" t="s">
         <v>188</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
@@ -7550,14 +7550,14 @@
         <v>104</v>
       </c>
       <c r="B215">
-        <f>COUNTIF(A:A,A215)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C215" t="s">
         <v>189</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
@@ -7566,14 +7566,14 @@
         <v>105</v>
       </c>
       <c r="B216">
-        <f>COUNTIF(A:A,A216)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C216" t="s">
         <v>190</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
@@ -7582,14 +7582,14 @@
         <v>106</v>
       </c>
       <c r="B217">
-        <f>COUNTIF(A:A,A217)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C217" t="s">
         <v>191</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
@@ -7598,14 +7598,14 @@
         <v>107</v>
       </c>
       <c r="B218">
-        <f>COUNTIF(A:A,A218)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C218" t="s">
         <v>192</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
@@ -7614,14 +7614,14 @@
         <v>108</v>
       </c>
       <c r="B219">
-        <f>COUNTIF(A:A,A219)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C219" t="s">
         <v>193</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
@@ -7630,14 +7630,14 @@
         <v>109</v>
       </c>
       <c r="B220">
-        <f>COUNTIF(A:A,A220)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C220" t="s">
         <v>194</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
@@ -7646,14 +7646,14 @@
         <v>110</v>
       </c>
       <c r="B221">
-        <f>COUNTIF(A:A,A221)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>195</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
@@ -7662,14 +7662,14 @@
         <v>196</v>
       </c>
       <c r="B222">
-        <f>COUNTIF(A:A,A222)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C222" t="s">
         <v>197</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
@@ -7678,14 +7678,14 @@
         <v>198</v>
       </c>
       <c r="B223">
-        <f>COUNTIF(A:A,A223)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C223" t="s">
         <v>199</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" ref="D223:D396" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D223:D396" si="9">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
@@ -7694,14 +7694,14 @@
         <v>233</v>
       </c>
       <c r="B224">
-        <f>COUNTIF(A:A,A224)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C224" t="s">
         <v>270</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(224)</v>
       </c>
     </row>
@@ -7710,14 +7710,14 @@
         <v>234</v>
       </c>
       <c r="B225">
-        <f>COUNTIF(A:A,A225)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C225" t="s">
         <v>271</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(225)</v>
       </c>
     </row>
@@ -7726,14 +7726,14 @@
         <v>202</v>
       </c>
       <c r="B226">
-        <f>COUNTIF(A:A,A226)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C226" t="s">
         <v>272</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(226)</v>
       </c>
     </row>
@@ -7742,14 +7742,14 @@
         <v>203</v>
       </c>
       <c r="B227">
-        <f>COUNTIF(A:A,A227)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C227" t="s">
         <v>273</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(227)</v>
       </c>
     </row>
@@ -7758,14 +7758,14 @@
         <v>204</v>
       </c>
       <c r="B228">
-        <f>COUNTIF(A:A,A228)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C228" t="s">
         <v>276</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(228)</v>
       </c>
     </row>
@@ -7774,14 +7774,14 @@
         <v>205</v>
       </c>
       <c r="B229">
-        <f>COUNTIF(A:A,A229)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C229" t="s">
         <v>206</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(229)</v>
       </c>
     </row>
@@ -7790,14 +7790,14 @@
         <v>207</v>
       </c>
       <c r="B230">
-        <f>COUNTIF(A:A,A230)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C230" t="s">
         <v>208</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(230)</v>
       </c>
     </row>
@@ -7806,14 +7806,14 @@
         <v>209</v>
       </c>
       <c r="B231">
-        <f>COUNTIF(A:A,A231)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C231" t="s">
         <v>210</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(231)</v>
       </c>
     </row>
@@ -7822,14 +7822,14 @@
         <v>211</v>
       </c>
       <c r="B232">
-        <f>COUNTIF(A:A,A232)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C232" t="s">
         <v>212</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(232)</v>
       </c>
     </row>
@@ -7838,14 +7838,14 @@
         <v>213</v>
       </c>
       <c r="B233">
-        <f>COUNTIF(A:A,A233)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C233" t="s">
         <v>279</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(233)</v>
       </c>
     </row>
@@ -7854,14 +7854,14 @@
         <v>214</v>
       </c>
       <c r="B234">
-        <f>COUNTIF(A:A,A234)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C234" t="s">
         <v>280</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(234)</v>
       </c>
     </row>
@@ -7870,14 +7870,14 @@
         <v>215</v>
       </c>
       <c r="B235">
-        <f>COUNTIF(A:A,A235)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C235" t="s">
         <v>268</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(235)</v>
       </c>
     </row>
@@ -7886,14 +7886,14 @@
         <v>216</v>
       </c>
       <c r="B236">
-        <f>COUNTIF(A:A,A236)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C236" t="s">
         <v>269</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(236)</v>
       </c>
     </row>
@@ -7902,14 +7902,14 @@
         <v>217</v>
       </c>
       <c r="B237">
-        <f>COUNTIF(A:A,A237)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C237" t="s">
         <v>218</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(237)</v>
       </c>
     </row>
@@ -7918,14 +7918,14 @@
         <v>219</v>
       </c>
       <c r="B238">
-        <f>COUNTIF(A:A,A238)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C238" t="s">
         <v>220</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(238)</v>
       </c>
     </row>
@@ -7934,14 +7934,14 @@
         <v>200</v>
       </c>
       <c r="B239">
-        <f>COUNTIF(A:A,A239)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="C239" t="s">
         <v>201</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(239)</v>
       </c>
     </row>
@@ -7950,14 +7950,14 @@
         <v>221</v>
       </c>
       <c r="B240">
-        <f>COUNTIF(A:A,A240)</f>
+        <f t="shared" ref="B240:B271" si="10">COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
         <v>281</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(240)</v>
       </c>
     </row>
@@ -7966,14 +7966,14 @@
         <v>923</v>
       </c>
       <c r="B241">
-        <f>COUNTIF(A:A,A241)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C241" t="s">
         <v>924</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(241)</v>
       </c>
     </row>
@@ -7982,14 +7982,14 @@
         <v>284</v>
       </c>
       <c r="B242">
-        <f>COUNTIF(A:A,A242)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C242" t="s">
         <v>274</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(242)</v>
       </c>
     </row>
@@ -7998,14 +7998,14 @@
         <v>229</v>
       </c>
       <c r="B243">
-        <f>COUNTIF(A:A,A243)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C243" t="s">
         <v>230</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(243)</v>
       </c>
     </row>
@@ -8014,14 +8014,14 @@
         <v>925</v>
       </c>
       <c r="B244">
-        <f>COUNTIF(A:A,A244)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C244" t="s">
         <v>926</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(244)</v>
       </c>
     </row>
@@ -8030,14 +8030,14 @@
         <v>222</v>
       </c>
       <c r="B245">
-        <f>COUNTIF(A:A,A245)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C245" t="s">
         <v>223</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(245)</v>
       </c>
     </row>
@@ -8046,14 +8046,14 @@
         <v>224</v>
       </c>
       <c r="B246">
-        <f>COUNTIF(A:A,A246)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C246" t="s">
         <v>225</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(246)</v>
       </c>
     </row>
@@ -8062,14 +8062,14 @@
         <v>226</v>
       </c>
       <c r="B247">
-        <f>COUNTIF(A:A,A247)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C247" t="s">
         <v>275</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(247)</v>
       </c>
     </row>
@@ -8078,14 +8078,14 @@
         <v>227</v>
       </c>
       <c r="B248">
-        <f>COUNTIF(A:A,A248)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C248" t="s">
         <v>228</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(248)</v>
       </c>
     </row>
@@ -8094,14 +8094,14 @@
         <v>927</v>
       </c>
       <c r="B249">
-        <f>COUNTIF(A:A,A249)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C249" t="s">
         <v>929</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(249)</v>
       </c>
     </row>
@@ -8110,14 +8110,14 @@
         <v>928</v>
       </c>
       <c r="B250">
-        <f>COUNTIF(A:A,A250)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C250" t="s">
         <v>930</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(250)</v>
       </c>
     </row>
@@ -8126,14 +8126,14 @@
         <v>357</v>
       </c>
       <c r="B251">
-        <f>COUNTIF(A:A,A251)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C251" t="s">
         <v>378</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(251)</v>
       </c>
     </row>
@@ -8142,14 +8142,14 @@
         <v>358</v>
       </c>
       <c r="B252">
-        <f>COUNTIF(A:A,A252)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C252" t="s">
         <v>379</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(252)</v>
       </c>
     </row>
@@ -8158,14 +8158,14 @@
         <v>359</v>
       </c>
       <c r="B253">
-        <f>COUNTIF(A:A,A253)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C253" t="s">
         <v>380</v>
       </c>
       <c r="D253" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(253)</v>
       </c>
     </row>
@@ -8174,14 +8174,14 @@
         <v>360</v>
       </c>
       <c r="B254">
-        <f>COUNTIF(A:A,A254)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C254" t="s">
         <v>381</v>
       </c>
       <c r="D254" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(254)</v>
       </c>
     </row>
@@ -8190,14 +8190,14 @@
         <v>361</v>
       </c>
       <c r="B255">
-        <f>COUNTIF(A:A,A255)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C255" t="s">
         <v>382</v>
       </c>
       <c r="D255" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(255)</v>
       </c>
     </row>
@@ -8206,14 +8206,14 @@
         <v>362</v>
       </c>
       <c r="B256">
-        <f>COUNTIF(A:A,A256)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C256" t="s">
         <v>383</v>
       </c>
       <c r="D256" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(256)</v>
       </c>
     </row>
@@ -8222,14 +8222,14 @@
         <v>363</v>
       </c>
       <c r="B257">
-        <f>COUNTIF(A:A,A257)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C257" t="s">
         <v>384</v>
       </c>
       <c r="D257" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(257)</v>
       </c>
     </row>
@@ -8238,14 +8238,14 @@
         <v>364</v>
       </c>
       <c r="B258">
-        <f>COUNTIF(A:A,A258)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C258" t="s">
         <v>385</v>
       </c>
       <c r="D258" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(258)</v>
       </c>
     </row>
@@ -8254,14 +8254,14 @@
         <v>365</v>
       </c>
       <c r="B259">
-        <f>COUNTIF(A:A,A259)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C259" t="s">
         <v>386</v>
       </c>
       <c r="D259" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(259)</v>
       </c>
     </row>
@@ -8270,14 +8270,14 @@
         <v>366</v>
       </c>
       <c r="B260">
-        <f>COUNTIF(A:A,A260)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C260" t="s">
         <v>387</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(260)</v>
       </c>
     </row>
@@ -8286,14 +8286,14 @@
         <v>367</v>
       </c>
       <c r="B261">
-        <f>COUNTIF(A:A,A261)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C261" t="s">
         <v>388</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(261)</v>
       </c>
     </row>
@@ -8302,14 +8302,14 @@
         <v>368</v>
       </c>
       <c r="B262">
-        <f>COUNTIF(A:A,A262)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C262" t="s">
         <v>389</v>
       </c>
       <c r="D262" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(262)</v>
       </c>
     </row>
@@ -8318,14 +8318,14 @@
         <v>369</v>
       </c>
       <c r="B263">
-        <f>COUNTIF(A:A,A263)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C263" t="s">
         <v>390</v>
       </c>
       <c r="D263" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(263)</v>
       </c>
     </row>
@@ -8334,14 +8334,14 @@
         <v>370</v>
       </c>
       <c r="B264">
-        <f>COUNTIF(A:A,A264)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C264" t="s">
         <v>391</v>
       </c>
       <c r="D264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(264)</v>
       </c>
     </row>
@@ -8350,14 +8350,14 @@
         <v>371</v>
       </c>
       <c r="B265">
-        <f>COUNTIF(A:A,A265)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C265" t="s">
         <v>392</v>
       </c>
       <c r="D265" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(265)</v>
       </c>
     </row>
@@ -8366,14 +8366,14 @@
         <v>372</v>
       </c>
       <c r="B266">
-        <f>COUNTIF(A:A,A266)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C266" t="s">
         <v>393</v>
       </c>
       <c r="D266" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(266)</v>
       </c>
     </row>
@@ -8382,14 +8382,14 @@
         <v>373</v>
       </c>
       <c r="B267">
-        <f>COUNTIF(A:A,A267)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C267" t="s">
         <v>394</v>
       </c>
       <c r="D267" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(267)</v>
       </c>
     </row>
@@ -8398,14 +8398,14 @@
         <v>374</v>
       </c>
       <c r="B268">
-        <f>COUNTIF(A:A,A268)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C268" t="s">
         <v>395</v>
       </c>
       <c r="D268" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(268)</v>
       </c>
     </row>
@@ -8414,14 +8414,14 @@
         <v>375</v>
       </c>
       <c r="B269">
-        <f>COUNTIF(A:A,A269)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C269" t="s">
         <v>396</v>
       </c>
       <c r="D269" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(269)</v>
       </c>
     </row>
@@ -8430,14 +8430,14 @@
         <v>376</v>
       </c>
       <c r="B270">
-        <f>COUNTIF(A:A,A270)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C270" t="s">
         <v>397</v>
       </c>
       <c r="D270" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(270)</v>
       </c>
     </row>
@@ -8446,14 +8446,14 @@
         <v>377</v>
       </c>
       <c r="B271">
-        <f>COUNTIF(A:A,A271)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C271" t="s">
         <v>398</v>
       </c>
       <c r="D271" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(271)</v>
       </c>
     </row>
@@ -8462,14 +8462,14 @@
         <v>518</v>
       </c>
       <c r="B272">
-        <f>COUNTIF(A:A,A272)</f>
+        <f t="shared" ref="B272:B303" si="11">COUNTIF(A:A,A272)</f>
         <v>1</v>
       </c>
       <c r="C272" t="s">
         <v>526</v>
       </c>
       <c r="D272" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(272)</v>
       </c>
     </row>
@@ -8478,14 +8478,14 @@
         <v>519</v>
       </c>
       <c r="B273">
-        <f>COUNTIF(A:A,A273)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C273" t="s">
         <v>527</v>
       </c>
       <c r="D273" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(273)</v>
       </c>
     </row>
@@ -8494,14 +8494,14 @@
         <v>520</v>
       </c>
       <c r="B274">
-        <f>COUNTIF(A:A,A274)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C274" t="s">
         <v>528</v>
       </c>
       <c r="D274" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(274)</v>
       </c>
     </row>
@@ -8510,14 +8510,14 @@
         <v>521</v>
       </c>
       <c r="B275">
-        <f>COUNTIF(A:A,A275)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C275" t="s">
         <v>529</v>
       </c>
       <c r="D275" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(275)</v>
       </c>
     </row>
@@ -8526,14 +8526,14 @@
         <v>522</v>
       </c>
       <c r="B276">
-        <f>COUNTIF(A:A,A276)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C276" t="s">
         <v>530</v>
       </c>
       <c r="D276" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(276)</v>
       </c>
     </row>
@@ -8542,14 +8542,14 @@
         <v>523</v>
       </c>
       <c r="B277">
-        <f>COUNTIF(A:A,A277)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C277" t="s">
         <v>531</v>
       </c>
       <c r="D277" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(277)</v>
       </c>
     </row>
@@ -8558,14 +8558,14 @@
         <v>524</v>
       </c>
       <c r="B278">
-        <f>COUNTIF(A:A,A278)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C278" t="s">
         <v>532</v>
       </c>
       <c r="D278" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(278)</v>
       </c>
     </row>
@@ -8574,14 +8574,14 @@
         <v>525</v>
       </c>
       <c r="B279">
-        <f>COUNTIF(A:A,A279)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C279" t="s">
         <v>533</v>
       </c>
       <c r="D279" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(279)</v>
       </c>
     </row>
@@ -8590,14 +8590,14 @@
         <v>288</v>
       </c>
       <c r="B280">
-        <f>COUNTIF(A:A,A280)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C280" t="s">
         <v>563</v>
       </c>
       <c r="D280" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(280)</v>
       </c>
     </row>
@@ -8606,14 +8606,14 @@
         <v>289</v>
       </c>
       <c r="B281">
-        <f>COUNTIF(A:A,A281)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C281" t="s">
         <v>309</v>
       </c>
       <c r="D281" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(281)</v>
       </c>
     </row>
@@ -8622,14 +8622,14 @@
         <v>290</v>
       </c>
       <c r="B282">
-        <f>COUNTIF(A:A,A282)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C282" t="s">
         <v>310</v>
       </c>
       <c r="D282" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(282)</v>
       </c>
     </row>
@@ -8638,14 +8638,14 @@
         <v>291</v>
       </c>
       <c r="B283">
-        <f>COUNTIF(A:A,A283)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C283" t="s">
         <v>311</v>
       </c>
       <c r="D283" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(283)</v>
       </c>
     </row>
@@ -8654,14 +8654,14 @@
         <v>292</v>
       </c>
       <c r="B284">
-        <f>COUNTIF(A:A,A284)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C284" t="s">
         <v>312</v>
       </c>
       <c r="D284" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(284)</v>
       </c>
     </row>
@@ -8670,14 +8670,14 @@
         <v>293</v>
       </c>
       <c r="B285">
-        <f>COUNTIF(A:A,A285)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C285" t="s">
         <v>313</v>
       </c>
       <c r="D285" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(285)</v>
       </c>
     </row>
@@ -8686,14 +8686,14 @@
         <v>294</v>
       </c>
       <c r="B286">
-        <f>COUNTIF(A:A,A286)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C286" t="s">
         <v>555</v>
       </c>
       <c r="D286" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(286)</v>
       </c>
     </row>
@@ -8702,14 +8702,14 @@
         <v>295</v>
       </c>
       <c r="B287">
-        <f>COUNTIF(A:A,A287)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C287" t="s">
         <v>314</v>
       </c>
       <c r="D287" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(287)</v>
       </c>
     </row>
@@ -8718,14 +8718,14 @@
         <v>296</v>
       </c>
       <c r="B288">
-        <f>COUNTIF(A:A,A288)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C288" t="s">
         <v>315</v>
       </c>
       <c r="D288" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(288)</v>
       </c>
     </row>
@@ -8734,14 +8734,14 @@
         <v>297</v>
       </c>
       <c r="B289">
-        <f>COUNTIF(A:A,A289)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C289" t="s">
         <v>316</v>
       </c>
       <c r="D289" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(289)</v>
       </c>
     </row>
@@ -8750,14 +8750,14 @@
         <v>298</v>
       </c>
       <c r="B290">
-        <f>COUNTIF(A:A,A290)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C290" t="s">
         <v>317</v>
       </c>
       <c r="D290" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(290)</v>
       </c>
     </row>
@@ -8766,14 +8766,14 @@
         <v>299</v>
       </c>
       <c r="B291">
-        <f>COUNTIF(A:A,A291)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C291" t="s">
         <v>318</v>
       </c>
       <c r="D291" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(291)</v>
       </c>
     </row>
@@ -8782,14 +8782,14 @@
         <v>300</v>
       </c>
       <c r="B292">
-        <f>COUNTIF(A:A,A292)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C292" t="s">
         <v>319</v>
       </c>
       <c r="D292" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(292)</v>
       </c>
     </row>
@@ -8798,14 +8798,14 @@
         <v>301</v>
       </c>
       <c r="B293">
-        <f>COUNTIF(A:A,A293)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C293" t="s">
         <v>320</v>
       </c>
       <c r="D293" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(293)</v>
       </c>
     </row>
@@ -8814,14 +8814,14 @@
         <v>302</v>
       </c>
       <c r="B294">
-        <f>COUNTIF(A:A,A294)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C294" t="s">
         <v>321</v>
       </c>
       <c r="D294" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(294)</v>
       </c>
     </row>
@@ -8830,14 +8830,14 @@
         <v>303</v>
       </c>
       <c r="B295">
-        <f>COUNTIF(A:A,A295)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C295" t="s">
         <v>322</v>
       </c>
       <c r="D295" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(295)</v>
       </c>
     </row>
@@ -8846,14 +8846,14 @@
         <v>304</v>
       </c>
       <c r="B296">
-        <f>COUNTIF(A:A,A296)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C296" t="s">
         <v>323</v>
       </c>
       <c r="D296" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(296)</v>
       </c>
     </row>
@@ -8862,14 +8862,14 @@
         <v>305</v>
       </c>
       <c r="B297">
-        <f>COUNTIF(A:A,A297)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C297" t="s">
         <v>324</v>
       </c>
       <c r="D297" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(297)</v>
       </c>
     </row>
@@ -8878,14 +8878,14 @@
         <v>306</v>
       </c>
       <c r="B298">
-        <f>COUNTIF(A:A,A298)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C298" t="s">
         <v>325</v>
       </c>
       <c r="D298" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(298)</v>
       </c>
     </row>
@@ -8894,14 +8894,14 @@
         <v>307</v>
       </c>
       <c r="B299">
-        <f>COUNTIF(A:A,A299)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C299" t="s">
         <v>326</v>
       </c>
       <c r="D299" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(299)</v>
       </c>
     </row>
@@ -8910,14 +8910,14 @@
         <v>308</v>
       </c>
       <c r="B300">
-        <f>COUNTIF(A:A,A300)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C300" t="s">
         <v>541</v>
       </c>
       <c r="D300" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(300)</v>
       </c>
     </row>
@@ -8926,14 +8926,14 @@
         <v>534</v>
       </c>
       <c r="B301">
-        <f>COUNTIF(A:A,A301)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C301" t="s">
         <v>542</v>
       </c>
       <c r="D301" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(301)</v>
       </c>
     </row>
@@ -8942,14 +8942,14 @@
         <v>535</v>
       </c>
       <c r="B302">
-        <f>COUNTIF(A:A,A302)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C302" t="s">
         <v>543</v>
       </c>
       <c r="D302" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(302)</v>
       </c>
     </row>
@@ -8958,14 +8958,14 @@
         <v>536</v>
       </c>
       <c r="B303">
-        <f>COUNTIF(A:A,A303)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C303" t="s">
         <v>544</v>
       </c>
       <c r="D303" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(303)</v>
       </c>
     </row>
@@ -8974,14 +8974,14 @@
         <v>537</v>
       </c>
       <c r="B304">
-        <f>COUNTIF(A:A,A304)</f>
+        <f t="shared" ref="B304:B335" si="12">COUNTIF(A:A,A304)</f>
         <v>1</v>
       </c>
       <c r="C304" t="s">
         <v>545</v>
       </c>
       <c r="D304" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(304)</v>
       </c>
     </row>
@@ -8990,14 +8990,14 @@
         <v>538</v>
       </c>
       <c r="B305">
-        <f>COUNTIF(A:A,A305)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C305" t="s">
         <v>546</v>
       </c>
       <c r="D305" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(305)</v>
       </c>
     </row>
@@ -9006,14 +9006,14 @@
         <v>539</v>
       </c>
       <c r="B306">
-        <f>COUNTIF(A:A,A306)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C306" t="s">
         <v>547</v>
       </c>
       <c r="D306" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(306)</v>
       </c>
     </row>
@@ -9022,14 +9022,14 @@
         <v>540</v>
       </c>
       <c r="B307">
-        <f>COUNTIF(A:A,A307)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C307" t="s">
         <v>548</v>
       </c>
       <c r="D307" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(307)</v>
       </c>
     </row>
@@ -9038,14 +9038,14 @@
         <v>553</v>
       </c>
       <c r="B308">
-        <f>COUNTIF(A:A,A308)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C308" t="s">
         <v>554</v>
       </c>
       <c r="D308" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(308)</v>
       </c>
     </row>
@@ -9054,7 +9054,7 @@
         <v>504</v>
       </c>
       <c r="B309">
-        <f>COUNTIF(A:A,A309)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C309" t="s">
@@ -9069,14 +9069,14 @@
         <v>505</v>
       </c>
       <c r="B310">
-        <f>COUNTIF(A:A,A310)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>693</v>
       </c>
       <c r="D310" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(310)</v>
       </c>
     </row>
@@ -9085,7 +9085,7 @@
         <v>506</v>
       </c>
       <c r="B311">
-        <f>COUNTIF(A:A,A311)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C311" t="s">
@@ -9100,14 +9100,14 @@
         <v>507</v>
       </c>
       <c r="B312">
-        <f>COUNTIF(A:A,A312)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>694</v>
       </c>
       <c r="D312" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(312)</v>
       </c>
     </row>
@@ -9116,7 +9116,7 @@
         <v>508</v>
       </c>
       <c r="B313">
-        <f>COUNTIF(A:A,A313)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C313" t="s">
@@ -9131,14 +9131,14 @@
         <v>509</v>
       </c>
       <c r="B314">
-        <f>COUNTIF(A:A,A314)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>551</v>
       </c>
       <c r="D314" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(314)</v>
       </c>
     </row>
@@ -9147,7 +9147,7 @@
         <v>510</v>
       </c>
       <c r="B315">
-        <f>COUNTIF(A:A,A315)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C315" t="s">
@@ -9162,14 +9162,14 @@
         <v>511</v>
       </c>
       <c r="B316">
-        <f>COUNTIF(A:A,A316)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>552</v>
       </c>
       <c r="D316" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(316)</v>
       </c>
     </row>
@@ -9178,7 +9178,7 @@
         <v>664</v>
       </c>
       <c r="B317">
-        <f>COUNTIF(A:A,A317)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C317" t="s">
@@ -9193,14 +9193,14 @@
         <v>665</v>
       </c>
       <c r="B318">
-        <f>COUNTIF(A:A,A318)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>667</v>
       </c>
       <c r="D318" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(318)</v>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
         <v>669</v>
       </c>
       <c r="B319">
-        <f>COUNTIF(A:A,A319)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -9224,14 +9224,14 @@
         <v>670</v>
       </c>
       <c r="B320">
-        <f>COUNTIF(A:A,A320)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>675</v>
       </c>
       <c r="D320" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(320)</v>
       </c>
     </row>
@@ -9240,7 +9240,7 @@
         <v>671</v>
       </c>
       <c r="B321">
-        <f>COUNTIF(A:A,A321)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -9255,14 +9255,14 @@
         <v>672</v>
       </c>
       <c r="B322">
-        <f>COUNTIF(A:A,A322)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>701</v>
       </c>
       <c r="D322" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(322)</v>
       </c>
     </row>
@@ -9271,7 +9271,7 @@
         <v>678</v>
       </c>
       <c r="B323">
-        <f>COUNTIF(A:A,A323)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -9286,14 +9286,14 @@
         <v>679</v>
       </c>
       <c r="B324">
-        <f>COUNTIF(A:A,A324)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>689</v>
       </c>
       <c r="D324" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(324)</v>
       </c>
     </row>
@@ -9302,7 +9302,7 @@
         <v>680</v>
       </c>
       <c r="B325">
-        <f>COUNTIF(A:A,A325)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -9317,14 +9317,14 @@
         <v>681</v>
       </c>
       <c r="B326">
-        <f>COUNTIF(A:A,A326)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>692</v>
       </c>
       <c r="D326" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(326)</v>
       </c>
     </row>
@@ -9333,7 +9333,7 @@
         <v>682</v>
       </c>
       <c r="B327">
-        <f>COUNTIF(A:A,A327)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -9348,14 +9348,14 @@
         <v>683</v>
       </c>
       <c r="B328">
-        <f>COUNTIF(A:A,A328)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>696</v>
       </c>
       <c r="D328" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(328)</v>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
         <v>684</v>
       </c>
       <c r="B329">
-        <f>COUNTIF(A:A,A329)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -9379,14 +9379,14 @@
         <v>685</v>
       </c>
       <c r="B330">
-        <f>COUNTIF(A:A,A330)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>698</v>
       </c>
       <c r="D330" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(330)</v>
       </c>
     </row>
@@ -9395,7 +9395,7 @@
         <v>686</v>
       </c>
       <c r="B331">
-        <f>COUNTIF(A:A,A331)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -9410,14 +9410,14 @@
         <v>687</v>
       </c>
       <c r="B332">
-        <f>COUNTIF(A:A,A332)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>700</v>
       </c>
       <c r="D332" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(332)</v>
       </c>
     </row>
@@ -9426,7 +9426,7 @@
         <v>708</v>
       </c>
       <c r="B333">
-        <f>COUNTIF(A:A,A333)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C333" s="1" t="s">
@@ -9441,14 +9441,14 @@
         <v>709</v>
       </c>
       <c r="B334">
-        <f>COUNTIF(A:A,A334)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>715</v>
       </c>
       <c r="D334" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(334)</v>
       </c>
     </row>
@@ -9457,7 +9457,7 @@
         <v>710</v>
       </c>
       <c r="B335">
-        <f>COUNTIF(A:A,A335)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="C335" s="1" t="s">
@@ -9472,14 +9472,14 @@
         <v>711</v>
       </c>
       <c r="B336">
-        <f>COUNTIF(A:A,A336)</f>
+        <f t="shared" ref="B336:B367" si="13">COUNTIF(A:A,A336)</f>
         <v>1</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>717</v>
       </c>
       <c r="D336" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(336)</v>
       </c>
     </row>
@@ -9488,7 +9488,7 @@
         <v>712</v>
       </c>
       <c r="B337">
-        <f>COUNTIF(A:A,A337)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C337" s="1" t="s">
@@ -9503,14 +9503,14 @@
         <v>713</v>
       </c>
       <c r="B338">
-        <f>COUNTIF(A:A,A338)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>719</v>
       </c>
       <c r="D338" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(338)</v>
       </c>
     </row>
@@ -9519,7 +9519,7 @@
         <v>723</v>
       </c>
       <c r="B339">
-        <f>COUNTIF(A:A,A339)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C339" s="1" t="s">
@@ -9534,14 +9534,14 @@
         <v>724</v>
       </c>
       <c r="B340">
-        <f>COUNTIF(A:A,A340)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>745</v>
       </c>
       <c r="D340" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(340)</v>
       </c>
     </row>
@@ -9550,7 +9550,7 @@
         <v>785</v>
       </c>
       <c r="B341">
-        <f>COUNTIF(A:A,A341)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -9565,14 +9565,14 @@
         <v>725</v>
       </c>
       <c r="B342">
-        <f>COUNTIF(A:A,A342)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>747</v>
       </c>
       <c r="D342" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(342)</v>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
         <v>787</v>
       </c>
       <c r="B343">
-        <f>COUNTIF(A:A,A343)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -9596,14 +9596,14 @@
         <v>726</v>
       </c>
       <c r="B344">
-        <f>COUNTIF(A:A,A344)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>749</v>
       </c>
       <c r="D344" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(344)</v>
       </c>
     </row>
@@ -9612,7 +9612,7 @@
         <v>789</v>
       </c>
       <c r="B345">
-        <f>COUNTIF(A:A,A345)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -9627,14 +9627,14 @@
         <v>727</v>
       </c>
       <c r="B346">
-        <f>COUNTIF(A:A,A346)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>751</v>
       </c>
       <c r="D346" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(346)</v>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
         <v>791</v>
       </c>
       <c r="B347">
-        <f>COUNTIF(A:A,A347)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -9658,14 +9658,14 @@
         <v>728</v>
       </c>
       <c r="B348">
-        <f>COUNTIF(A:A,A348)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>753</v>
       </c>
       <c r="D348" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(348)</v>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
         <v>793</v>
       </c>
       <c r="B349">
-        <f>COUNTIF(A:A,A349)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -9689,14 +9689,14 @@
         <v>729</v>
       </c>
       <c r="B350">
-        <f>COUNTIF(A:A,A350)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>755</v>
       </c>
       <c r="D350" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(350)</v>
       </c>
     </row>
@@ -9705,7 +9705,7 @@
         <v>795</v>
       </c>
       <c r="B351">
-        <f>COUNTIF(A:A,A351)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -9720,14 +9720,14 @@
         <v>730</v>
       </c>
       <c r="B352">
-        <f>COUNTIF(A:A,A352)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>757</v>
       </c>
       <c r="D352" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(352)</v>
       </c>
     </row>
@@ -9736,7 +9736,7 @@
         <v>797</v>
       </c>
       <c r="B353">
-        <f>COUNTIF(A:A,A353)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -9751,14 +9751,14 @@
         <v>731</v>
       </c>
       <c r="B354">
-        <f>COUNTIF(A:A,A354)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>759</v>
       </c>
       <c r="D354" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(354)</v>
       </c>
     </row>
@@ -9767,7 +9767,7 @@
         <v>799</v>
       </c>
       <c r="B355">
-        <f>COUNTIF(A:A,A355)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -9782,14 +9782,14 @@
         <v>732</v>
       </c>
       <c r="B356">
-        <f>COUNTIF(A:A,A356)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>761</v>
       </c>
       <c r="D356" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(356)</v>
       </c>
     </row>
@@ -9798,7 +9798,7 @@
         <v>801</v>
       </c>
       <c r="B357">
-        <f>COUNTIF(A:A,A357)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -9813,14 +9813,14 @@
         <v>733</v>
       </c>
       <c r="B358">
-        <f>COUNTIF(A:A,A358)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>763</v>
       </c>
       <c r="D358" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(358)</v>
       </c>
     </row>
@@ -9829,7 +9829,7 @@
         <v>803</v>
       </c>
       <c r="B359">
-        <f>COUNTIF(A:A,A359)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -9844,14 +9844,14 @@
         <v>734</v>
       </c>
       <c r="B360">
-        <f>COUNTIF(A:A,A360)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>765</v>
       </c>
       <c r="D360" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(360)</v>
       </c>
     </row>
@@ -9860,7 +9860,7 @@
         <v>805</v>
       </c>
       <c r="B361">
-        <f>COUNTIF(A:A,A361)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -9875,14 +9875,14 @@
         <v>735</v>
       </c>
       <c r="B362">
-        <f>COUNTIF(A:A,A362)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>767</v>
       </c>
       <c r="D362" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(362)</v>
       </c>
     </row>
@@ -9891,7 +9891,7 @@
         <v>807</v>
       </c>
       <c r="B363">
-        <f>COUNTIF(A:A,A363)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C363" s="1" t="s">
@@ -9906,14 +9906,14 @@
         <v>736</v>
       </c>
       <c r="B364">
-        <f>COUNTIF(A:A,A364)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>769</v>
       </c>
       <c r="D364" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(364)</v>
       </c>
     </row>
@@ -9922,7 +9922,7 @@
         <v>809</v>
       </c>
       <c r="B365">
-        <f>COUNTIF(A:A,A365)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -9937,14 +9937,14 @@
         <v>737</v>
       </c>
       <c r="B366">
-        <f>COUNTIF(A:A,A366)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>771</v>
       </c>
       <c r="D366" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(366)</v>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
         <v>811</v>
       </c>
       <c r="B367">
-        <f>COUNTIF(A:A,A367)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -9968,14 +9968,14 @@
         <v>738</v>
       </c>
       <c r="B368">
-        <f>COUNTIF(A:A,A368)</f>
+        <f t="shared" ref="B368:B399" si="14">COUNTIF(A:A,A368)</f>
         <v>1</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>773</v>
       </c>
       <c r="D368" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(368)</v>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
         <v>813</v>
       </c>
       <c r="B369">
-        <f>COUNTIF(A:A,A369)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -9999,14 +9999,14 @@
         <v>739</v>
       </c>
       <c r="B370">
-        <f>COUNTIF(A:A,A370)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>775</v>
       </c>
       <c r="D370" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(370)</v>
       </c>
     </row>
@@ -10015,7 +10015,7 @@
         <v>815</v>
       </c>
       <c r="B371">
-        <f>COUNTIF(A:A,A371)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -10030,14 +10030,14 @@
         <v>740</v>
       </c>
       <c r="B372">
-        <f>COUNTIF(A:A,A372)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>777</v>
       </c>
       <c r="D372" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(372)</v>
       </c>
     </row>
@@ -10046,7 +10046,7 @@
         <v>817</v>
       </c>
       <c r="B373">
-        <f>COUNTIF(A:A,A373)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -10061,14 +10061,14 @@
         <v>741</v>
       </c>
       <c r="B374">
-        <f>COUNTIF(A:A,A374)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>779</v>
       </c>
       <c r="D374" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(374)</v>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
         <v>819</v>
       </c>
       <c r="B375">
-        <f>COUNTIF(A:A,A375)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -10092,14 +10092,14 @@
         <v>742</v>
       </c>
       <c r="B376">
-        <f>COUNTIF(A:A,A376)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>781</v>
       </c>
       <c r="D376" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(376)</v>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
         <v>821</v>
       </c>
       <c r="B377">
-        <f>COUNTIF(A:A,A377)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -10123,14 +10123,14 @@
         <v>743</v>
       </c>
       <c r="B378">
-        <f>COUNTIF(A:A,A378)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>783</v>
       </c>
       <c r="D378" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(378)</v>
       </c>
     </row>
@@ -10139,7 +10139,7 @@
         <v>823</v>
       </c>
       <c r="B379">
-        <f>COUNTIF(A:A,A379)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C379" s="1" t="s">
@@ -10154,14 +10154,14 @@
         <v>824</v>
       </c>
       <c r="B380">
-        <f>COUNTIF(A:A,A380)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>826</v>
       </c>
       <c r="D380" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(380)</v>
       </c>
     </row>
@@ -10170,7 +10170,7 @@
         <v>574</v>
       </c>
       <c r="B381">
-        <f>COUNTIF(A:A,A381)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C381" s="1" t="s">
@@ -10185,7 +10185,7 @@
         <v>575</v>
       </c>
       <c r="B382">
-        <f>COUNTIF(A:A,A382)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C382" s="1" t="s">
@@ -10200,7 +10200,7 @@
         <v>566</v>
       </c>
       <c r="B383">
-        <f>COUNTIF(A:A,A383)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C383" t="s">
@@ -10215,14 +10215,14 @@
         <v>567</v>
       </c>
       <c r="B384">
-        <f>COUNTIF(A:A,A384)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>569</v>
       </c>
       <c r="D384" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(384)</v>
       </c>
     </row>
@@ -10231,7 +10231,7 @@
         <v>576</v>
       </c>
       <c r="B385">
-        <f>COUNTIF(A:A,A385)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -10246,14 +10246,14 @@
         <v>584</v>
       </c>
       <c r="B386">
-        <f>COUNTIF(A:A,A386)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>587</v>
       </c>
       <c r="D386" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(386)</v>
       </c>
     </row>
@@ -10262,14 +10262,14 @@
         <v>585</v>
       </c>
       <c r="B387">
-        <f>COUNTIF(A:A,A387)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>588</v>
       </c>
       <c r="D387" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(387)</v>
       </c>
     </row>
@@ -10278,14 +10278,14 @@
         <v>572</v>
       </c>
       <c r="B388">
-        <f>COUNTIF(A:A,A388)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C388" t="s">
         <v>570</v>
       </c>
       <c r="D388" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(388)</v>
       </c>
     </row>
@@ -10294,14 +10294,14 @@
         <v>573</v>
       </c>
       <c r="B389">
-        <f>COUNTIF(A:A,A389)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>571</v>
       </c>
       <c r="D389" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(389)</v>
       </c>
     </row>
@@ -10310,14 +10310,14 @@
         <v>586</v>
       </c>
       <c r="B390">
-        <f>COUNTIF(A:A,A390)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>589</v>
       </c>
       <c r="D390" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(390)</v>
       </c>
     </row>
@@ -10326,14 +10326,14 @@
         <v>352</v>
       </c>
       <c r="B391">
-        <f>COUNTIF(A:A,A391)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C391" t="s">
         <v>512</v>
       </c>
       <c r="D391" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(391)</v>
       </c>
     </row>
@@ -10342,14 +10342,14 @@
         <v>353</v>
       </c>
       <c r="B392">
-        <f>COUNTIF(A:A,A392)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C392" t="s">
         <v>513</v>
       </c>
       <c r="D392" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(392)</v>
       </c>
     </row>
@@ -10358,14 +10358,14 @@
         <v>351</v>
       </c>
       <c r="B393">
-        <f>COUNTIF(A:A,A393)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C393" t="s">
         <v>514</v>
       </c>
       <c r="D393" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(393)</v>
       </c>
     </row>
@@ -10374,14 +10374,14 @@
         <v>355</v>
       </c>
       <c r="B394">
-        <f>COUNTIF(A:A,A394)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C394" t="s">
         <v>515</v>
       </c>
       <c r="D394" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(394)</v>
       </c>
     </row>
@@ -10390,14 +10390,14 @@
         <v>356</v>
       </c>
       <c r="B395">
-        <f>COUNTIF(A:A,A395)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C395" t="s">
         <v>517</v>
       </c>
       <c r="D395" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(395)</v>
       </c>
     </row>
@@ -10406,14 +10406,14 @@
         <v>354</v>
       </c>
       <c r="B396">
-        <f>COUNTIF(A:A,A396)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C396" t="s">
         <v>516</v>
       </c>
       <c r="D396" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>In progress of translating…(396)</v>
       </c>
     </row>

--- a/Excel/작업String.xlsx
+++ b/Excel/작업String.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510CE4F0-5D6F-4633-BDA0-E3A86E399B39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962FA1F8-4EC2-4769-A932-26187A89FBF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="FontTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$396</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">InApkStringTable!$B$1:$B$398</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="942">
   <si>
     <t>확인</t>
   </si>
@@ -3669,12 +3669,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelPackUIName_UltimateGaugeOnAttack</t>
-  </si>
-  <si>
-    <t>LevelPackUIName_UltimateGaugeOnAttackBetter</t>
-  </si>
-  <si>
     <t>공격 시 궁게이지 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3822,12 +3816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelPackUIDesc_UltimateGaugeOnAttack</t>
-  </si>
-  <si>
-    <t>LevelPackUIDesc_UltimateGaugeOnAttackBetter</t>
-  </si>
-  <si>
     <t>몬스터 공격 시 확률로 궁극기 게이지를 획득합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3861,6 +3849,32 @@
   </si>
   <si>
     <t>PAYBACK!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealSpOnAttack</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_HealSpOnAttackBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIName_PaybackSp</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFC080&gt;궁게이지 페이백&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealSpOnAttack</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_HealSpOnAttackBetter</t>
+  </si>
+  <si>
+    <t>LevelPackUIDesc_PaybackSp</t>
+  </si>
+  <si>
+    <t>궁극기 사용 시 일부 궁극기 게이지를 돌려받습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4265,7 +4279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D396"/>
+  <dimension ref="A1:D398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -4302,7 +4316,7 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B33" si="0">COUNTIF(A:A,A2)</f>
+        <f>COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -4317,7 +4331,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A3)</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -4332,7 +4346,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A4)</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -4347,7 +4361,7 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A5)</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -4362,7 +4376,7 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A6)</f>
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4377,7 +4391,7 @@
         <v>605</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A7)</f>
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4392,7 +4406,7 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A8)</f>
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4407,7 +4421,7 @@
         <v>46</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A9)</f>
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4422,7 +4436,7 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A10)</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -4437,7 +4451,7 @@
         <v>400</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A11)</f>
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4452,7 +4466,7 @@
         <v>401</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A12)</f>
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4467,7 +4481,7 @@
         <v>402</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A13)</f>
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4482,7 +4496,7 @@
         <v>403</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A14)</f>
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4497,7 +4511,7 @@
         <v>404</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A15)</f>
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4512,7 +4526,7 @@
         <v>405</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A16)</f>
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4527,7 +4541,7 @@
         <v>406</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A17)</f>
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4542,7 +4556,7 @@
         <v>407</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A18)</f>
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4557,7 +4571,7 @@
         <v>408</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A19)</f>
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4572,7 +4586,7 @@
         <v>409</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A20)</f>
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4587,7 +4601,7 @@
         <v>410</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A21)</f>
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -4602,7 +4616,7 @@
         <v>411</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A22)</f>
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -4617,7 +4631,7 @@
         <v>412</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A23)</f>
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -4632,7 +4646,7 @@
         <v>413</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A24)</f>
         <v>1</v>
       </c>
       <c r="C24" t="s">
@@ -4647,7 +4661,7 @@
         <v>414</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A25)</f>
         <v>1</v>
       </c>
       <c r="C25" t="s">
@@ -4662,7 +4676,7 @@
         <v>415</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A26)</f>
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -4677,7 +4691,7 @@
         <v>416</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A27)</f>
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -4692,7 +4706,7 @@
         <v>417</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A28)</f>
         <v>1</v>
       </c>
       <c r="C28" t="s">
@@ -4707,7 +4721,7 @@
         <v>418</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A29)</f>
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -4722,7 +4736,7 @@
         <v>419</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A30)</f>
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -4737,7 +4751,7 @@
         <v>420</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A31)</f>
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -4752,7 +4766,7 @@
         <v>421</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A32)</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
@@ -4767,7 +4781,7 @@
         <v>422</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(A:A,A33)</f>
         <v>1</v>
       </c>
       <c r="C33" t="s">
@@ -4782,7 +4796,7 @@
         <v>423</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B65" si="1">COUNTIF(A:A,A34)</f>
+        <f>COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
       <c r="C34" t="s">
@@ -4797,7 +4811,7 @@
         <v>424</v>
       </c>
       <c r="B35">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A35)</f>
         <v>1</v>
       </c>
       <c r="C35" t="s">
@@ -4812,7 +4826,7 @@
         <v>425</v>
       </c>
       <c r="B36">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A36)</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
@@ -4827,7 +4841,7 @@
         <v>426</v>
       </c>
       <c r="B37">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A37)</f>
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -4842,7 +4856,7 @@
         <v>427</v>
       </c>
       <c r="B38">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A38)</f>
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -4857,7 +4871,7 @@
         <v>428</v>
       </c>
       <c r="B39">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A39)</f>
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -4872,7 +4886,7 @@
         <v>429</v>
       </c>
       <c r="B40">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A40)</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
@@ -4887,7 +4901,7 @@
         <v>339</v>
       </c>
       <c r="B41">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A41)</f>
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4902,7 +4916,7 @@
         <v>340</v>
       </c>
       <c r="B42">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A42)</f>
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4917,7 +4931,7 @@
         <v>341</v>
       </c>
       <c r="B43">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A43)</f>
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4932,7 +4946,7 @@
         <v>342</v>
       </c>
       <c r="B44">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A44)</f>
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4947,7 +4961,7 @@
         <v>480</v>
       </c>
       <c r="B45">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A45)</f>
         <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4962,7 +4976,7 @@
         <v>481</v>
       </c>
       <c r="B46">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A46)</f>
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4977,7 +4991,7 @@
         <v>482</v>
       </c>
       <c r="B47">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A47)</f>
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4992,7 +5006,7 @@
         <v>483</v>
       </c>
       <c r="B48">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A48)</f>
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -5007,7 +5021,7 @@
         <v>484</v>
       </c>
       <c r="B49">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A49)</f>
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -5022,7 +5036,7 @@
         <v>485</v>
       </c>
       <c r="B50">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A50)</f>
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -5037,7 +5051,7 @@
         <v>486</v>
       </c>
       <c r="B51">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A51)</f>
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -5052,7 +5066,7 @@
         <v>487</v>
       </c>
       <c r="B52">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A52)</f>
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -5067,7 +5081,7 @@
         <v>111</v>
       </c>
       <c r="B53">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A53)</f>
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -5082,7 +5096,7 @@
         <v>595</v>
       </c>
       <c r="B54">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A54)</f>
         <v>1</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -5097,7 +5111,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A55)</f>
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -5112,7 +5126,7 @@
         <v>57</v>
       </c>
       <c r="B56">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A56)</f>
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -5127,7 +5141,7 @@
         <v>58</v>
       </c>
       <c r="B57">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A57)</f>
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -5142,7 +5156,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A58)</f>
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -5157,7 +5171,7 @@
         <v>30</v>
       </c>
       <c r="B59">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A59)</f>
         <v>1</v>
       </c>
       <c r="C59" t="s">
@@ -5172,7 +5186,7 @@
         <v>285</v>
       </c>
       <c r="B60">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A60)</f>
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -5187,7 +5201,7 @@
         <v>36</v>
       </c>
       <c r="B61">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A61)</f>
         <v>1</v>
       </c>
       <c r="C61" t="s">
@@ -5202,7 +5216,7 @@
         <v>608</v>
       </c>
       <c r="B62">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A62)</f>
         <v>1</v>
       </c>
       <c r="C62" t="s">
@@ -5217,7 +5231,7 @@
         <v>610</v>
       </c>
       <c r="B63">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A63)</f>
         <v>1</v>
       </c>
       <c r="C63" t="s">
@@ -5232,7 +5246,7 @@
         <v>612</v>
       </c>
       <c r="B64">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A64)</f>
         <v>1</v>
       </c>
       <c r="C64" t="s">
@@ -5247,7 +5261,7 @@
         <v>613</v>
       </c>
       <c r="B65">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(A:A,A65)</f>
         <v>1</v>
       </c>
       <c r="C65" t="s">
@@ -5262,7 +5276,7 @@
         <v>614</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B97" si="2">COUNTIF(A:A,A66)</f>
+        <f>COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
       <c r="C66" t="s">
@@ -5277,7 +5291,7 @@
         <v>615</v>
       </c>
       <c r="B67">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A67)</f>
         <v>1</v>
       </c>
       <c r="C67" t="s">
@@ -5292,7 +5306,7 @@
         <v>644</v>
       </c>
       <c r="B68">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A68)</f>
         <v>1</v>
       </c>
       <c r="C68" t="s">
@@ -5307,7 +5321,7 @@
         <v>620</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A69)</f>
         <v>1</v>
       </c>
       <c r="C69" t="s">
@@ -5322,7 +5336,7 @@
         <v>642</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A70)</f>
         <v>1</v>
       </c>
       <c r="C70" t="s">
@@ -5337,7 +5351,7 @@
         <v>643</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A71)</f>
         <v>1</v>
       </c>
       <c r="C71" t="s">
@@ -5352,7 +5366,7 @@
         <v>658</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A72)</f>
         <v>1</v>
       </c>
       <c r="C72" t="s">
@@ -5367,7 +5381,7 @@
         <v>661</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A73)</f>
         <v>1</v>
       </c>
       <c r="C73" t="s">
@@ -5382,7 +5396,7 @@
         <v>828</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A74)</f>
         <v>1</v>
       </c>
       <c r="C74" t="s">
@@ -5397,7 +5411,7 @@
         <v>39</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A75)</f>
         <v>1</v>
       </c>
       <c r="C75" t="s">
@@ -5412,7 +5426,7 @@
         <v>331</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A76)</f>
         <v>1</v>
       </c>
       <c r="C76" t="s">
@@ -5427,7 +5441,7 @@
         <v>332</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A77)</f>
         <v>1</v>
       </c>
       <c r="C77" t="s">
@@ -5442,7 +5456,7 @@
         <v>29</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A78)</f>
         <v>1</v>
       </c>
       <c r="C78" t="s">
@@ -5457,7 +5471,7 @@
         <v>327</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A79)</f>
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -5472,7 +5486,7 @@
         <v>330</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A80)</f>
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -5487,7 +5501,7 @@
         <v>591</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A81)</f>
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -5502,7 +5516,7 @@
         <v>337</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A82)</f>
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -5517,7 +5531,7 @@
         <v>399</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A83)</f>
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5532,7 +5546,7 @@
         <v>471</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A84)</f>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -5547,7 +5561,7 @@
         <v>470</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A85)</f>
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -5562,7 +5576,7 @@
         <v>650</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A86)</f>
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5577,7 +5591,7 @@
         <v>474</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A87)</f>
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5592,7 +5606,7 @@
         <v>475</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A88)</f>
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -5607,7 +5621,7 @@
         <v>477</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A89)</f>
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5622,7 +5636,7 @@
         <v>560</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A90)</f>
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -5637,14 +5651,14 @@
         <v>69</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A91)</f>
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D91" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -5652,7 +5666,7 @@
         <v>70</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A92)</f>
         <v>1</v>
       </c>
       <c r="C92" t="s">
@@ -5667,14 +5681,14 @@
         <v>68</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A93)</f>
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D93" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -5682,7 +5696,7 @@
         <v>113</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(A:A,A94)</f>
         <v>1</v>
       </c>
       <c r="C94" t="s">
@@ -5694,35 +5708,35 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C95" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D95" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C96" t="s">
+        <v>910</v>
+      </c>
+      <c r="D96" t="s">
         <v>912</v>
-      </c>
-      <c r="D96" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C97" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D97" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -5730,7 +5744,7 @@
         <v>83</v>
       </c>
       <c r="B98">
-        <f t="shared" ref="B98:B129" si="3">COUNTIF(A:A,A98)</f>
+        <f>COUNTIF(A:A,A98)</f>
         <v>1</v>
       </c>
       <c r="C98" t="s">
@@ -5745,7 +5759,7 @@
         <v>84</v>
       </c>
       <c r="B99">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A99)</f>
         <v>1</v>
       </c>
       <c r="C99" t="s">
@@ -5760,7 +5774,7 @@
         <v>85</v>
       </c>
       <c r="B100">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A100)</f>
         <v>1</v>
       </c>
       <c r="C100" t="s">
@@ -5775,7 +5789,7 @@
         <v>86</v>
       </c>
       <c r="B101">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A101)</f>
         <v>1</v>
       </c>
       <c r="C101" t="s">
@@ -5790,7 +5804,7 @@
         <v>87</v>
       </c>
       <c r="B102">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A102)</f>
         <v>1</v>
       </c>
       <c r="C102" t="s">
@@ -5805,7 +5819,7 @@
         <v>564</v>
       </c>
       <c r="B103">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A103)</f>
         <v>1</v>
       </c>
       <c r="C103" t="s">
@@ -5820,7 +5834,7 @@
         <v>282</v>
       </c>
       <c r="B104">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A104)</f>
         <v>1</v>
       </c>
       <c r="C104" t="s">
@@ -5835,7 +5849,7 @@
         <v>831</v>
       </c>
       <c r="B105">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A105)</f>
         <v>1</v>
       </c>
       <c r="C105" t="s">
@@ -5850,7 +5864,7 @@
         <v>88</v>
       </c>
       <c r="B106">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A106)</f>
         <v>1</v>
       </c>
       <c r="C106" t="s">
@@ -5865,7 +5879,7 @@
         <v>600</v>
       </c>
       <c r="B107">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A107)</f>
         <v>1</v>
       </c>
       <c r="C107" t="s">
@@ -5880,7 +5894,7 @@
         <v>601</v>
       </c>
       <c r="B108">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A108)</f>
         <v>1</v>
       </c>
       <c r="C108" t="s">
@@ -5895,7 +5909,7 @@
         <v>841</v>
       </c>
       <c r="B109">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A109)</f>
         <v>1</v>
       </c>
       <c r="C109" t="s">
@@ -5910,7 +5924,7 @@
         <v>602</v>
       </c>
       <c r="B110">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A110)</f>
         <v>1</v>
       </c>
       <c r="C110" t="s">
@@ -5925,7 +5939,7 @@
         <v>603</v>
       </c>
       <c r="B111">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A111)</f>
         <v>1</v>
       </c>
       <c r="C111" t="s">
@@ -5940,7 +5954,7 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A112)</f>
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -5955,7 +5969,7 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A113)</f>
         <v>1</v>
       </c>
       <c r="C113" t="s">
@@ -5970,7 +5984,7 @@
         <v>838</v>
       </c>
       <c r="B114">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A114)</f>
         <v>1</v>
       </c>
       <c r="C114" t="s">
@@ -5985,7 +5999,7 @@
         <v>834</v>
       </c>
       <c r="B115">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A115)</f>
         <v>1</v>
       </c>
       <c r="C115" t="s">
@@ -6000,7 +6014,7 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A116)</f>
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -6015,7 +6029,7 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A117)</f>
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -6030,14 +6044,14 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A118)</f>
         <v>1</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" ref="D118:D222" si="4">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" ref="D118:D223" si="0">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(118)</v>
       </c>
     </row>
@@ -6046,14 +6060,14 @@
         <v>835</v>
       </c>
       <c r="B119">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A119)</f>
         <v>1</v>
       </c>
       <c r="C119" t="s">
         <v>837</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(119)</v>
       </c>
     </row>
@@ -6062,14 +6076,14 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A120)</f>
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(120)</v>
       </c>
     </row>
@@ -6078,14 +6092,14 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A121)</f>
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>237</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(121)</v>
       </c>
     </row>
@@ -6094,14 +6108,14 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A122)</f>
         <v>1</v>
       </c>
       <c r="C122" t="s">
         <v>238</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(122)</v>
       </c>
     </row>
@@ -6110,14 +6124,14 @@
         <v>124</v>
       </c>
       <c r="B123">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A123)</f>
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>239</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(123)</v>
       </c>
     </row>
@@ -6126,14 +6140,14 @@
         <v>846</v>
       </c>
       <c r="B124">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A124)</f>
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>849</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(124)</v>
       </c>
     </row>
@@ -6142,14 +6156,14 @@
         <v>847</v>
       </c>
       <c r="B125">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A125)</f>
         <v>1</v>
       </c>
       <c r="C125" t="s">
         <v>850</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(125)</v>
       </c>
     </row>
@@ -6158,14 +6172,14 @@
         <v>848</v>
       </c>
       <c r="B126">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A126)</f>
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>851</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(126)</v>
       </c>
     </row>
@@ -6174,14 +6188,14 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A127)</f>
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>134</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(127)</v>
       </c>
     </row>
@@ -6190,14 +6204,14 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A128)</f>
         <v>1</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(128)</v>
       </c>
     </row>
@@ -6206,14 +6220,14 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(A:A,A129)</f>
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(129)</v>
       </c>
     </row>
@@ -6222,14 +6236,14 @@
         <v>149</v>
       </c>
       <c r="B130">
-        <f t="shared" ref="B130:B161" si="5">COUNTIF(A:A,A130)</f>
+        <f>COUNTIF(A:A,A130)</f>
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(130)</v>
       </c>
     </row>
@@ -6238,14 +6252,14 @@
         <v>852</v>
       </c>
       <c r="B131">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A131)</f>
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>853</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(131)</v>
       </c>
     </row>
@@ -6254,14 +6268,14 @@
         <v>854</v>
       </c>
       <c r="B132">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A132)</f>
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>856</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(132)</v>
       </c>
     </row>
@@ -6270,14 +6284,14 @@
         <v>855</v>
       </c>
       <c r="B133">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A133)</f>
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>857</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(133)</v>
       </c>
     </row>
@@ -6286,14 +6300,14 @@
         <v>150</v>
       </c>
       <c r="B134">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A134)</f>
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(134)</v>
       </c>
     </row>
@@ -6302,14 +6316,14 @@
         <v>858</v>
       </c>
       <c r="B135">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A135)</f>
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>859</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(135)</v>
       </c>
     </row>
@@ -6318,14 +6332,14 @@
         <v>860</v>
       </c>
       <c r="B136">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A136)</f>
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>864</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(136)</v>
       </c>
     </row>
@@ -6334,14 +6348,14 @@
         <v>861</v>
       </c>
       <c r="B137">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A137)</f>
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>865</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(137)</v>
       </c>
     </row>
@@ -6350,14 +6364,14 @@
         <v>862</v>
       </c>
       <c r="B138">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A138)</f>
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>866</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(138)</v>
       </c>
     </row>
@@ -6366,14 +6380,14 @@
         <v>863</v>
       </c>
       <c r="B139">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A139)</f>
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>867</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(139)</v>
       </c>
     </row>
@@ -6382,14 +6396,14 @@
         <v>89</v>
       </c>
       <c r="B140">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A140)</f>
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(140)</v>
       </c>
     </row>
@@ -6398,14 +6412,14 @@
         <v>871</v>
       </c>
       <c r="B141">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A141)</f>
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>868</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(141)</v>
       </c>
     </row>
@@ -6414,14 +6428,14 @@
         <v>90</v>
       </c>
       <c r="B142">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A142)</f>
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>243</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(142)</v>
       </c>
     </row>
@@ -6430,14 +6444,14 @@
         <v>872</v>
       </c>
       <c r="B143">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A143)</f>
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>869</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(143)</v>
       </c>
     </row>
@@ -6446,14 +6460,14 @@
         <v>91</v>
       </c>
       <c r="B144">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A144)</f>
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>244</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(144)</v>
       </c>
     </row>
@@ -6462,14 +6476,14 @@
         <v>873</v>
       </c>
       <c r="B145">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A145)</f>
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>870</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(145)</v>
       </c>
     </row>
@@ -6478,14 +6492,14 @@
         <v>92</v>
       </c>
       <c r="B146">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A146)</f>
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>246</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(146)</v>
       </c>
     </row>
@@ -6494,14 +6508,14 @@
         <v>93</v>
       </c>
       <c r="B147">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A147)</f>
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>245</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(147)</v>
       </c>
     </row>
@@ -6510,14 +6524,14 @@
         <v>94</v>
       </c>
       <c r="B148">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A148)</f>
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>247</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(148)</v>
       </c>
     </row>
@@ -6526,14 +6540,14 @@
         <v>95</v>
       </c>
       <c r="B149">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A149)</f>
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(149)</v>
       </c>
     </row>
@@ -6542,14 +6556,14 @@
         <v>96</v>
       </c>
       <c r="B150">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A150)</f>
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>248</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(150)</v>
       </c>
     </row>
@@ -6558,14 +6572,14 @@
         <v>97</v>
       </c>
       <c r="B151">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A151)</f>
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(151)</v>
       </c>
     </row>
@@ -6574,14 +6588,14 @@
         <v>98</v>
       </c>
       <c r="B152">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A152)</f>
         <v>1</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(152)</v>
       </c>
     </row>
@@ -6590,14 +6604,14 @@
         <v>99</v>
       </c>
       <c r="B153">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A153)</f>
         <v>1</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(153)</v>
       </c>
     </row>
@@ -6606,14 +6620,14 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A154)</f>
         <v>1</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>249</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(154)</v>
       </c>
     </row>
@@ -6622,14 +6636,14 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A155)</f>
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>250</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(155)</v>
       </c>
     </row>
@@ -6638,14 +6652,14 @@
         <v>231</v>
       </c>
       <c r="B156">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A156)</f>
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(156)</v>
       </c>
     </row>
@@ -6654,14 +6668,14 @@
         <v>232</v>
       </c>
       <c r="B157">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A157)</f>
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>252</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(157)</v>
       </c>
     </row>
@@ -6670,14 +6684,14 @@
         <v>162</v>
       </c>
       <c r="B158">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A158)</f>
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(158)</v>
       </c>
     </row>
@@ -6686,14 +6700,14 @@
         <v>163</v>
       </c>
       <c r="B159">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A159)</f>
         <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(159)</v>
       </c>
     </row>
@@ -6702,14 +6716,14 @@
         <v>164</v>
       </c>
       <c r="B160">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A160)</f>
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>874</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(160)</v>
       </c>
     </row>
@@ -6718,14 +6732,14 @@
         <v>165</v>
       </c>
       <c r="B161">
-        <f t="shared" si="5"/>
+        <f>COUNTIF(A:A,A161)</f>
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>166</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(161)</v>
       </c>
     </row>
@@ -6734,14 +6748,14 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <f t="shared" ref="B162:B193" si="6">COUNTIF(A:A,A162)</f>
+        <f>COUNTIF(A:A,A162)</f>
         <v>1</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(162)</v>
       </c>
     </row>
@@ -6750,14 +6764,14 @@
         <v>169</v>
       </c>
       <c r="B163">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A163)</f>
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>235</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(163)</v>
       </c>
     </row>
@@ -6766,14 +6780,14 @@
         <v>170</v>
       </c>
       <c r="B164">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A164)</f>
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>236</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(164)</v>
       </c>
     </row>
@@ -6782,14 +6796,14 @@
         <v>171</v>
       </c>
       <c r="B165">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A165)</f>
         <v>1</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>277</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(165)</v>
       </c>
     </row>
@@ -6798,14 +6812,14 @@
         <v>172</v>
       </c>
       <c r="B166">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A166)</f>
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(166)</v>
       </c>
     </row>
@@ -6814,14 +6828,14 @@
         <v>173</v>
       </c>
       <c r="B167">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A167)</f>
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>240</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(167)</v>
       </c>
     </row>
@@ -6830,14 +6844,14 @@
         <v>174</v>
       </c>
       <c r="B168">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A168)</f>
         <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>241</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(168)</v>
       </c>
     </row>
@@ -6846,14 +6860,14 @@
         <v>175</v>
       </c>
       <c r="B169">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A169)</f>
         <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>176</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(169)</v>
       </c>
     </row>
@@ -6862,14 +6876,14 @@
         <v>177</v>
       </c>
       <c r="B170">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A170)</f>
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>178</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(170)</v>
       </c>
     </row>
@@ -6878,14 +6892,14 @@
         <v>161</v>
       </c>
       <c r="B171">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A171)</f>
         <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>875</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(171)</v>
       </c>
     </row>
@@ -6894,14 +6908,14 @@
         <v>179</v>
       </c>
       <c r="B172">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A172)</f>
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>876</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(172)</v>
       </c>
     </row>
@@ -6910,14 +6924,14 @@
         <v>877</v>
       </c>
       <c r="B173">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A173)</f>
         <v>1</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>878</v>
       </c>
       <c r="D173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(173)</v>
       </c>
     </row>
@@ -6926,14 +6940,14 @@
         <v>283</v>
       </c>
       <c r="B174">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A174)</f>
         <v>1</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>880</v>
       </c>
       <c r="D174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(174)</v>
       </c>
     </row>
@@ -6942,14 +6956,14 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A175)</f>
         <v>1</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>185</v>
       </c>
       <c r="D175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(175)</v>
       </c>
     </row>
@@ -6958,14 +6972,14 @@
         <v>879</v>
       </c>
       <c r="B176">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A176)</f>
         <v>1</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>885</v>
       </c>
       <c r="D176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(176)</v>
       </c>
     </row>
@@ -6974,14 +6988,14 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A177)</f>
         <v>1</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>881</v>
       </c>
       <c r="D177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(177)</v>
       </c>
     </row>
@@ -6990,14 +7004,14 @@
         <v>181</v>
       </c>
       <c r="B178">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A178)</f>
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>882</v>
       </c>
       <c r="D178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(178)</v>
       </c>
     </row>
@@ -7006,14 +7020,14 @@
         <v>182</v>
       </c>
       <c r="B179">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A179)</f>
         <v>1</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>883</v>
       </c>
       <c r="D179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(179)</v>
       </c>
     </row>
@@ -7022,3399 +7036,3427 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A180)</f>
         <v>1</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>884</v>
       </c>
       <c r="D180" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(180)</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
+        <v>934</v>
+      </c>
+      <c r="B181">
+        <f>COUNTIF(A:A,A181)</f>
+        <v>1</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B181">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>888</v>
-      </c>
       <c r="D181" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(181)</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>935</v>
+      </c>
+      <c r="B182">
+        <f>COUNTIF(A:A,A182)</f>
+        <v>1</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="B182">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>889</v>
-      </c>
       <c r="D182" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(182)</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>137</v>
-      </c>
-      <c r="B183">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>253</v>
+        <v>936</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>937</v>
       </c>
       <c r="D183" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(183)</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B184">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A184)</f>
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(184)</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B185">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A185)</f>
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D185" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(185)</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B186">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A186)</f>
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D186" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(186)</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B187">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A187)</f>
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D187" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(187)</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B188">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A188)</f>
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(188)</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B189">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A189)</f>
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D189" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(189)</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B190">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A190)</f>
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(190)</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B191">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A191)</f>
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D191" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(191)</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>843</v>
+        <v>145</v>
       </c>
       <c r="B192">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A192)</f>
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>892</v>
+        <v>261</v>
       </c>
       <c r="D192" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(192)</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B193">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(A:A,A193)</f>
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D193" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(193)</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B194">
-        <f t="shared" ref="B194:B225" si="7">COUNTIF(A:A,A194)</f>
+        <f>COUNTIF(A:A,A194)</f>
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D194" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(194)</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>146</v>
+        <v>845</v>
       </c>
       <c r="B195">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A195)</f>
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>262</v>
+        <v>892</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(195)</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B196">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A196)</f>
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(196)</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B197">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A197)</f>
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(197)</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B198">
-        <f t="shared" si="7"/>
+        <f>COUNTIF(A:A,A198)</f>
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D198" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(198)</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>895</v>
+        <v>151</v>
+      </c>
+      <c r="B199">
+        <f>COUNTIF(A:A,A199)</f>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>903</v>
+        <v>265</v>
       </c>
       <c r="D199" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(199)</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C200" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D200" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(200)</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C201" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D201" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(201)</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>152</v>
-      </c>
-      <c r="B202">
-        <f>COUNTIF(A:A,A202)</f>
-        <v>1</v>
+        <v>895</v>
       </c>
       <c r="C202" t="s">
-        <v>266</v>
+        <v>903</v>
       </c>
       <c r="D202" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(202)</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>898</v>
+        <v>152</v>
+      </c>
+      <c r="B203">
+        <f>COUNTIF(A:A,A203)</f>
+        <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>906</v>
+        <v>266</v>
       </c>
       <c r="D203" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(203)</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C204" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D204" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(204)</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C205" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D205" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(205)</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C206" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="D206" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(206)</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C207" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D207" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(207)</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>100</v>
-      </c>
-      <c r="B208">
-        <f t="shared" ref="B208:B239" si="8">COUNTIF(A:A,A208)</f>
-        <v>1</v>
+        <v>900</v>
       </c>
       <c r="C208" t="s">
-        <v>186</v>
+        <v>919</v>
       </c>
       <c r="D208" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(208)</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>915</v>
+        <v>100</v>
       </c>
       <c r="B209">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A209)</f>
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>918</v>
+        <v>186</v>
       </c>
       <c r="D209" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(209)</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>101</v>
+        <v>913</v>
       </c>
       <c r="B210">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A210)</f>
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>187</v>
+        <v>916</v>
       </c>
       <c r="D210" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(210)</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>916</v>
+        <v>101</v>
       </c>
       <c r="B211">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A211)</f>
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>919</v>
+        <v>187</v>
       </c>
       <c r="D211" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(211)</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>102</v>
+        <v>914</v>
       </c>
       <c r="B212">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A212)</f>
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>267</v>
+        <v>917</v>
       </c>
       <c r="D212" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(212)</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>917</v>
+        <v>102</v>
       </c>
       <c r="B213">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A213)</f>
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>920</v>
+        <v>267</v>
       </c>
       <c r="D213" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(213)</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>103</v>
+        <v>915</v>
       </c>
       <c r="B214">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A214)</f>
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>188</v>
+        <v>918</v>
       </c>
       <c r="D214" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(214)</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B215">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A215)</f>
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D215" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(215)</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B216">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A216)</f>
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D216" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(216)</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B217">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A217)</f>
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D217" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(217)</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B218">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A218)</f>
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D218" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(218)</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B219">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A219)</f>
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D219" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(219)</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B220">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A220)</f>
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D220" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(220)</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B221">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A221)</f>
         <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(221)</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="B222">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A222)</f>
         <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(222)</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B223">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A223)</f>
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D223" t="str">
-        <f t="shared" ref="D223:D396" si="9">"In progress of translating…("&amp;ROW()&amp;")"</f>
+        <f t="shared" si="0"/>
         <v>In progress of translating…(223)</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B224">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A224)</f>
         <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="D224" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D224:D398" si="1">"In progress of translating…("&amp;ROW()&amp;")"</f>
         <v>In progress of translating…(224)</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B225">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A225)</f>
         <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D225" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(225)</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="B226">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A226)</f>
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D226" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(226)</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B227">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A227)</f>
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D227" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(227)</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B228">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A228)</f>
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D228" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(228)</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B229">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A229)</f>
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="D229" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(229)</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B230">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A230)</f>
         <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D230" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(230)</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B231">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A231)</f>
         <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D231" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(231)</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B232">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A232)</f>
         <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D232" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(232)</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B233">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A233)</f>
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>279</v>
+        <v>212</v>
       </c>
       <c r="D233" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(233)</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B234">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A234)</f>
         <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D234" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(234)</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B235">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A235)</f>
         <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D235" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(235)</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B236">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A236)</f>
         <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D236" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(236)</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B237">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A237)</f>
         <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="D237" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(237)</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B238">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A238)</f>
         <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D238" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(238)</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="B239">
-        <f t="shared" si="8"/>
+        <f>COUNTIF(A:A,A239)</f>
         <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="D239" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(239)</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B240">
-        <f t="shared" ref="B240:B271" si="10">COUNTIF(A:A,A240)</f>
+        <f>COUNTIF(A:A,A240)</f>
         <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="D240" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(240)</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>923</v>
+        <v>221</v>
       </c>
       <c r="B241">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A241)</f>
         <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>924</v>
+        <v>281</v>
       </c>
       <c r="D241" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(241)</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>284</v>
+        <v>921</v>
       </c>
       <c r="B242">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A242)</f>
         <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>274</v>
+        <v>922</v>
       </c>
       <c r="D242" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(242)</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>229</v>
+        <v>284</v>
       </c>
       <c r="B243">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A243)</f>
         <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="D243" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(243)</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>925</v>
+        <v>229</v>
       </c>
       <c r="B244">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A244)</f>
         <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>926</v>
+        <v>230</v>
       </c>
       <c r="D244" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(244)</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>222</v>
+        <v>923</v>
       </c>
       <c r="B245">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A245)</f>
         <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>223</v>
+        <v>924</v>
       </c>
       <c r="D245" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(245)</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B246">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A246)</f>
         <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D246" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(246)</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B247">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A247)</f>
         <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="D247" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(247)</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B248">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A248)</f>
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="D248" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(248)</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>927</v>
+        <v>227</v>
       </c>
       <c r="B249">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A249)</f>
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>929</v>
+        <v>228</v>
       </c>
       <c r="D249" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(249)</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="B250">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A250)</f>
         <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="D250" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(250)</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>357</v>
+        <v>939</v>
       </c>
       <c r="B251">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A251)</f>
         <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>378</v>
+        <v>926</v>
       </c>
       <c r="D251" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(251)</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>358</v>
+        <v>940</v>
       </c>
       <c r="B252">
-        <f t="shared" si="10"/>
+        <f>COUNTIF(A:A,A252)</f>
         <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>379</v>
+        <v>941</v>
       </c>
       <c r="D252" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>In progress of translating…(252)</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent